--- a/uba_cd_estudiantes.xlsx
+++ b/uba_cd_estudiantes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\personal\sociologia\emergit\uba_electoral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985D0F11-9F62-4930-8298-8053759BAD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808C182A-C623-45A3-BB89-ECE40A9428AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,11 +18,11 @@
     <sheet name="division de tareas" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">base!$A$1:$I$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">base!$A$1:$I$127</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId4"/>
+    <pivotCache cacheId="5" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="189">
   <si>
     <t>Facultad</t>
   </si>
@@ -241,9 +241,6 @@
     <t>Antídoto</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Sinapsis</t>
   </si>
   <si>
@@ -449,6 +446,168 @@
   </si>
   <si>
     <t>Proyecto económicas</t>
+  </si>
+  <si>
+    <t>Política Obrera</t>
+  </si>
+  <si>
+    <t>La izquierda al Frente Unidad</t>
+  </si>
+  <si>
+    <t>El colectivo + Aquelarre</t>
+  </si>
+  <si>
+    <t>Ya Basta - La izquierda en Filo</t>
+  </si>
+  <si>
+    <t>FEI de Filosofía y letras</t>
+  </si>
+  <si>
+    <t>SUR - La vallese</t>
+  </si>
+  <si>
+    <t>Exactas</t>
+  </si>
+  <si>
+    <t>Estudiantes de izquierda</t>
+  </si>
+  <si>
+    <t>FEM! La fuerza independiente</t>
+  </si>
+  <si>
+    <t>La izquierda en Exactas</t>
+  </si>
+  <si>
+    <t>Identidad - Megafón</t>
+  </si>
+  <si>
+    <t>Espacio Exactas</t>
+  </si>
+  <si>
+    <t>Contragolpe</t>
+  </si>
+  <si>
+    <t>Juventud peronista universitaria</t>
+  </si>
+  <si>
+    <t>FEM</t>
+  </si>
+  <si>
+    <t>Exactas puede más</t>
+  </si>
+  <si>
+    <t>Rolando García</t>
+  </si>
+  <si>
+    <t>Ingeniería</t>
+  </si>
+  <si>
+    <t>Espacio Estudiantil</t>
+  </si>
+  <si>
+    <t>Proyecto Ingeniería</t>
+  </si>
+  <si>
+    <t>El Gradiente</t>
+  </si>
+  <si>
+    <t>MLI, Movimiento Linealmente Independiente</t>
+  </si>
+  <si>
+    <t>Ingeniería por el cambio</t>
+  </si>
+  <si>
+    <t>La mella</t>
+  </si>
+  <si>
+    <t>Proyecto ingeniería</t>
+  </si>
+  <si>
+    <t>La izquierda en ingeniería</t>
+  </si>
+  <si>
+    <t>UxL + Auge + Gradiente</t>
+  </si>
+  <si>
+    <t>FADU</t>
+  </si>
+  <si>
+    <t>Somos FADU</t>
+  </si>
+  <si>
+    <t>Unidad FADU</t>
+  </si>
+  <si>
+    <t>Yo Banco la Fadu</t>
+  </si>
+  <si>
+    <t>La izquierda en FADU</t>
+  </si>
+  <si>
+    <t>Movimiento FADU</t>
+  </si>
+  <si>
+    <t>Estudiantes de izquierda - Nuevo Mas</t>
+  </si>
+  <si>
+    <t>Sur FADU</t>
+  </si>
+  <si>
+    <t>Línea de agronomía independiente</t>
+  </si>
+  <si>
+    <t>Fana ATP Fauba</t>
+  </si>
+  <si>
+    <t>Abriendo caminos</t>
+  </si>
+  <si>
+    <t>Veterinaria</t>
+  </si>
+  <si>
+    <t>La Tropilla</t>
+  </si>
+  <si>
+    <t>eVet-UJS</t>
+  </si>
+  <si>
+    <t>AFV</t>
+  </si>
+  <si>
+    <t>Medicina</t>
+  </si>
+  <si>
+    <t>Miles -Torrente</t>
+  </si>
+  <si>
+    <t>El Mate</t>
+  </si>
+  <si>
+    <t>La izquierda en medicina</t>
+  </si>
+  <si>
+    <t>Frente de Izquierda</t>
+  </si>
+  <si>
+    <t>El Frente</t>
+  </si>
+  <si>
+    <t>Identidad</t>
+  </si>
+  <si>
+    <t>MLI</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>salmon</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>IxC / Somos Libres</t>
   </si>
 </sst>
 </file>
@@ -548,7 +707,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Usuario" refreshedDate="45548.900064930553" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="120" xr:uid="{371A6A91-51BA-430D-B9DD-2515EA9A3FAF}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Usuario" refreshedDate="45552.83010324074" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="181" xr:uid="{371A6A91-51BA-430D-B9DD-2515EA9A3FAF}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1048576" sheet="base"/>
   </cacheSource>
@@ -560,13 +719,13 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2019" maxValue="2024"/>
     </cacheField>
     <cacheField name="Nro Lista" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="69"/>
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="417"/>
     </cacheField>
     <cacheField name="Nombre Lista" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="nombre_clean" numFmtId="0">
-      <sharedItems containsBlank="1" count="36">
+      <sharedItems containsBlank="1" count="56">
         <s v="Prioridad RT - Profesionales RT"/>
         <s v="La salida es por izquierda"/>
         <s v="Sociales en Movimiento"/>
@@ -581,7 +740,13 @@
         <s v="Ya basta"/>
         <s v="FEI"/>
         <s v="Movimiento Sur"/>
-        <m/>
+        <s v="Política Obrera"/>
+        <s v="El colectivo + Aquelarre"/>
+        <s v="Estudiantes por FFyB"/>
+        <s v="Otros"/>
+        <s v="Antidoto"/>
+        <s v="Sinapsis"/>
+        <s v="Nuevo Espacio"/>
         <s v="UES"/>
         <s v="Frente de izquierda - Unidad"/>
         <s v="Frente reformista"/>
@@ -594,25 +759,39 @@
         <s v="Delirium"/>
         <s v="Nuevo Derecho"/>
         <s v="Oktubre"/>
-        <s v="Nuevo Espacio"/>
         <s v="Belgrano"/>
-        <s v="Otros"/>
         <s v="MxE"/>
         <s v="Proyecto económicas"/>
         <s v="Somos Libres"/>
         <s v="Haciendo la otra voz"/>
         <s v="Var.Independiente"/>
         <s v="Pro"/>
+        <s v="FEM"/>
+        <s v="Identidad"/>
+        <s v="Espacio Exactas"/>
+        <s v="La izquierda en Exactas"/>
+        <s v="Rolando García"/>
+        <m/>
+        <s v="MLI"/>
+        <s v="Somos FADU"/>
+        <s v="Unidad FADU"/>
+        <s v="Línea de agronomía independiente"/>
+        <s v="Fana ATP Fauba"/>
+        <s v="Abriendo caminos"/>
+        <s v="La Tropilla"/>
+        <s v="eVet-UJS"/>
+        <s v="AFV"/>
+        <s v="Miles -Torrente"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Votos" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="31" maxValue="19394"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="31" maxValue="27465"/>
     </cacheField>
     <cacheField name="%" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.14000000000000001" maxValue="74.209999999999994"/>
     </cacheField>
     <cacheField name="Bancas" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="3"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
     </cacheField>
     <cacheField name="color" numFmtId="0">
       <sharedItems containsBlank="1" count="11">
@@ -639,7 +818,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="120">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="181">
   <r>
     <s v="FSOC"/>
     <n v="2022"/>
@@ -784,6 +963,72 @@
     <x v="5"/>
   </r>
   <r>
+    <s v="FSOC"/>
+    <n v="2024"/>
+    <n v="5"/>
+    <s v="F"/>
+    <x v="6"/>
+    <n v="105"/>
+    <n v="1.1299999999999999"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="FSOC"/>
+    <n v="2024"/>
+    <n v="13"/>
+    <s v="La salida es por izquierda"/>
+    <x v="1"/>
+    <n v="266"/>
+    <n v="2.86"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="FSOC"/>
+    <n v="2024"/>
+    <n v="15"/>
+    <s v="Sociales en movimiento - La 15 + Acción x sociales"/>
+    <x v="2"/>
+    <n v="4228"/>
+    <n v="45.5"/>
+    <n v="3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="FSOC"/>
+    <n v="2024"/>
+    <n v="16"/>
+    <s v="La UES - Unidad estudianti de sociales - Alternativa"/>
+    <x v="3"/>
+    <n v="3538"/>
+    <n v="38.07"/>
+    <n v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="FSOC"/>
+    <n v="2024"/>
+    <n v="17"/>
+    <s v="La izquierda al frente"/>
+    <x v="4"/>
+    <n v="926"/>
+    <n v="9.9600000000000009"/>
+    <m/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="FSOC"/>
+    <n v="2024"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <x v="5"/>
+    <n v="230"/>
+    <n v="2.4700000000000002"/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
     <s v="FILO"/>
     <n v="2022"/>
     <n v="3"/>
@@ -949,68 +1194,79 @@
     <x v="5"/>
   </r>
   <r>
-    <s v="FSOC"/>
+    <s v="FILO"/>
     <n v="2024"/>
-    <n v="5"/>
-    <s v="F"/>
-    <x v="6"/>
-    <n v="105"/>
-    <n v="1.1299999999999999"/>
+    <n v="1"/>
+    <s v="Política Obrera"/>
+    <x v="14"/>
+    <n v="179"/>
+    <n v="2.34"/>
+    <m/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="FILO"/>
+    <n v="2024"/>
+    <n v="4"/>
+    <s v="La izquierda al frente unidad"/>
+    <x v="4"/>
+    <n v="2089"/>
+    <n v="27.36"/>
+    <n v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="FILO"/>
+    <n v="2024"/>
+    <n v="6"/>
+    <s v="El colectivo + Aquelarre"/>
+    <x v="15"/>
+    <n v="2809"/>
+    <n v="36.79"/>
+    <n v="3"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="FILO"/>
+    <n v="2024"/>
+    <n v="7"/>
+    <s v="Ya Basta - La izquierda en Filo"/>
+    <x v="11"/>
+    <n v="667"/>
+    <n v="8.73"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="FILO"/>
+    <n v="2024"/>
+    <n v="9"/>
+    <s v="FEI de Filosofía y letras"/>
+    <x v="12"/>
+    <n v="1470"/>
+    <n v="19.25"/>
     <m/>
     <x v="0"/>
   </r>
   <r>
-    <s v="FSOC"/>
+    <s v="FILO"/>
     <n v="2024"/>
-    <n v="13"/>
-    <s v="La salida es por izquierda"/>
-    <x v="1"/>
-    <n v="266"/>
-    <n v="2.86"/>
-    <m/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="FSOC"/>
-    <n v="2024"/>
-    <n v="15"/>
-    <s v="Sociales en movimiento - La 15 + Acción x sociales"/>
-    <x v="2"/>
-    <n v="4228"/>
-    <n v="45.5"/>
-    <n v="3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="FSOC"/>
-    <n v="2024"/>
-    <n v="16"/>
-    <s v="La UES - Unidad estudianti de sociales - Alternativa"/>
-    <x v="3"/>
-    <n v="3538"/>
-    <n v="38.07"/>
-    <n v="1"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="FSOC"/>
-    <n v="2024"/>
-    <n v="17"/>
-    <s v="La izquierda al frente"/>
-    <x v="4"/>
-    <n v="926"/>
-    <n v="9.9600000000000009"/>
-    <m/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="FSOC"/>
+    <n v="10"/>
+    <s v="SUR - La vallese"/>
+    <x v="13"/>
+    <n v="214"/>
+    <n v="2.8"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="FILO"/>
     <n v="2024"/>
     <s v="Blanco"/>
     <s v="Blanco"/>
     <x v="5"/>
-    <n v="230"/>
-    <n v="2.4700000000000002"/>
+    <n v="208"/>
+    <n v="2.72"/>
     <m/>
     <x v="5"/>
   </r>
@@ -1019,7 +1275,7 @@
     <n v="2024"/>
     <n v="1"/>
     <s v="Estudiantes por FFyB"/>
-    <x v="14"/>
+    <x v="16"/>
     <n v="3349"/>
     <n v="68"/>
     <n v="3"/>
@@ -1030,29 +1286,29 @@
     <n v="2024"/>
     <n v="10"/>
     <s v="ISEPCI La Izquierda Popular en FFyB"/>
-    <x v="14"/>
+    <x v="17"/>
     <n v="47"/>
     <n v="0.95"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="FFyB"/>
     <n v="2024"/>
     <n v="13"/>
     <s v="La Izquierda en FyB"/>
-    <x v="14"/>
+    <x v="17"/>
     <n v="84"/>
     <n v="1.7"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="FFyB"/>
     <n v="2024"/>
     <n v="14"/>
     <s v="Antídoto"/>
-    <x v="14"/>
+    <x v="18"/>
     <n v="1366"/>
     <n v="27.7"/>
     <n v="1"/>
@@ -1063,18 +1319,18 @@
     <n v="2024"/>
     <s v="Blanco"/>
     <s v="Blanco"/>
-    <x v="14"/>
+    <x v="5"/>
     <n v="79"/>
     <n v="1.6"/>
     <m/>
-    <x v="9"/>
+    <x v="5"/>
   </r>
   <r>
     <s v="FFyB"/>
     <n v="2022"/>
-    <s v="?"/>
+    <m/>
     <s v="Sinapsis"/>
-    <x v="14"/>
+    <x v="19"/>
     <n v="1506"/>
     <n v="28.03"/>
     <m/>
@@ -1083,31 +1339,31 @@
   <r>
     <s v="FFyB"/>
     <n v="2022"/>
-    <s v="?"/>
+    <m/>
     <s v="Movimiento FFyB"/>
-    <x v="14"/>
+    <x v="17"/>
     <n v="135"/>
     <n v="2.0499999999999998"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="FFyB"/>
     <n v="2022"/>
-    <s v="?"/>
+    <m/>
     <s v="Nuevo Espacio"/>
-    <x v="14"/>
+    <x v="20"/>
     <n v="1634"/>
     <n v="30.7"/>
     <n v="1"/>
-    <x v="9"/>
+    <x v="6"/>
   </r>
   <r>
     <s v="FFyB"/>
     <n v="2022"/>
-    <s v="?"/>
+    <m/>
     <s v="Antidoto"/>
-    <x v="14"/>
+    <x v="18"/>
     <n v="1961"/>
     <n v="36.799999999999997"/>
     <n v="3"/>
@@ -1116,21 +1372,21 @@
   <r>
     <s v="FFyB"/>
     <n v="2022"/>
-    <s v="?"/>
+    <m/>
     <s v="Blanco"/>
-    <x v="14"/>
+    <x v="5"/>
     <n v="88"/>
     <n v="1.7"/>
     <m/>
-    <x v="9"/>
+    <x v="5"/>
   </r>
   <r>
     <s v="FFyB"/>
     <n v="2019"/>
-    <s v="?"/>
+    <m/>
     <s v="Antídoto"/>
-    <x v="14"/>
-    <s v="?"/>
+    <x v="18"/>
+    <m/>
     <n v="37.450000000000003"/>
     <n v="3"/>
     <x v="9"/>
@@ -1138,10 +1394,10 @@
   <r>
     <s v="FFyB"/>
     <n v="2019"/>
-    <s v="?"/>
+    <m/>
     <s v="Nuevo Encuentro"/>
-    <x v="14"/>
-    <s v="?"/>
+    <x v="19"/>
+    <m/>
     <n v="35.5"/>
     <n v="1"/>
     <x v="9"/>
@@ -1149,42 +1405,42 @@
   <r>
     <s v="FFyB"/>
     <n v="2019"/>
-    <s v="?"/>
-    <s v="Nuevo Espacio"/>
-    <x v="14"/>
-    <s v="?"/>
+    <m/>
+    <s v="Nuevo espacio"/>
+    <x v="20"/>
+    <m/>
     <n v="21.4"/>
     <m/>
-    <x v="9"/>
+    <x v="6"/>
   </r>
   <r>
     <s v="FFyB"/>
     <n v="2019"/>
-    <s v="?"/>
+    <m/>
     <s v="UES"/>
-    <x v="14"/>
-    <s v="?"/>
+    <x v="17"/>
+    <m/>
     <n v="2.4"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="FFyB"/>
     <n v="2019"/>
-    <s v="?"/>
+    <m/>
     <s v="Izquierda Socialista"/>
-    <x v="14"/>
-    <s v="?"/>
+    <x v="17"/>
+    <m/>
     <n v="1.79"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Derecho"/>
     <n v="2024"/>
     <n v="1"/>
     <s v="La UES - MUNAP"/>
-    <x v="15"/>
+    <x v="21"/>
     <n v="443"/>
     <n v="2.08"/>
     <m/>
@@ -1195,55 +1451,55 @@
     <n v="2024"/>
     <n v="2"/>
     <s v="FRENTE DE IZQUIERDA - UNIDAD"/>
-    <x v="16"/>
+    <x v="22"/>
     <n v="638"/>
     <n v="3"/>
     <m/>
-    <x v="9"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="Derecho"/>
     <n v="2024"/>
     <n v="3"/>
     <s v="FRENTE REFORMISTA FRANJA MORADA Y NUEVO DERECHO"/>
-    <x v="17"/>
+    <x v="23"/>
     <n v="12598"/>
     <n v="59.28"/>
-    <m/>
-    <x v="9"/>
+    <n v="3"/>
+    <x v="6"/>
   </r>
   <r>
     <s v="Derecho"/>
     <n v="2024"/>
     <n v="5"/>
     <s v="LA CENTENO - ACCIÓN COLECTIVA"/>
-    <x v="18"/>
+    <x v="24"/>
     <n v="6766"/>
     <n v="31.84"/>
-    <m/>
-    <x v="9"/>
+    <n v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <s v="Derecho"/>
     <n v="2024"/>
     <n v="8"/>
     <s v="PATRIA Y TRABAJO"/>
-    <x v="19"/>
+    <x v="25"/>
     <n v="180"/>
     <n v="0.85"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Derecho"/>
     <n v="2024"/>
     <n v="11"/>
     <s v="FRENTE UNIVERSITARIO NACIONAL"/>
-    <x v="20"/>
+    <x v="26"/>
     <n v="87"/>
     <n v="0.41"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Derecho"/>
@@ -1272,7 +1528,7 @@
     <n v="2022"/>
     <n v="1"/>
     <s v="LA UES"/>
-    <x v="15"/>
+    <x v="21"/>
     <n v="232"/>
     <n v="1.03"/>
     <m/>
@@ -1283,55 +1539,55 @@
     <n v="2022"/>
     <n v="3"/>
     <s v="FRENTE DE IZQUIERDA - UNIDAD"/>
-    <x v="16"/>
+    <x v="22"/>
     <n v="928"/>
     <n v="4.13"/>
     <m/>
-    <x v="9"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="Derecho"/>
     <n v="2022"/>
     <n v="4"/>
     <s v="FRENTE REFORMISTA ND - FM"/>
-    <x v="17"/>
+    <x v="23"/>
     <n v="11809"/>
     <n v="52.54"/>
-    <m/>
-    <x v="9"/>
+    <n v="3"/>
+    <x v="6"/>
   </r>
   <r>
     <s v="Derecho"/>
     <n v="2022"/>
     <n v="5"/>
     <s v="LA CENTENO - ACCIÓN COLECTIVA"/>
-    <x v="18"/>
+    <x v="24"/>
     <n v="8105"/>
     <n v="36.06"/>
-    <m/>
-    <x v="9"/>
+    <n v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <s v="Derecho"/>
     <n v="2022"/>
     <n v="6"/>
     <s v="SUR DERECHO"/>
-    <x v="21"/>
+    <x v="27"/>
     <n v="266"/>
     <n v="1.18"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Derecho"/>
     <n v="2022"/>
     <n v="8"/>
     <s v="MEGAFÓN"/>
-    <x v="22"/>
+    <x v="28"/>
     <n v="221"/>
     <n v="0.98"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Derecho"/>
@@ -1349,11 +1605,11 @@
     <n v="2022"/>
     <n v="21"/>
     <s v="LEGAR"/>
-    <x v="23"/>
+    <x v="29"/>
     <n v="240"/>
     <n v="1.07"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Derecho"/>
@@ -1371,22 +1627,22 @@
     <n v="2019"/>
     <n v="1"/>
     <s v="DELIRIUM"/>
-    <x v="24"/>
+    <x v="30"/>
     <n v="200"/>
     <n v="0.94"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Derecho"/>
     <n v="2019"/>
     <n v="2"/>
     <s v="FRENTE DE IZQUIERDA - UNIDAD"/>
-    <x v="16"/>
+    <x v="22"/>
     <n v="1033"/>
     <n v="4.88"/>
     <m/>
-    <x v="9"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="Derecho"/>
@@ -1404,33 +1660,33 @@
     <n v="2019"/>
     <n v="4"/>
     <s v="NUEVO DERECHO"/>
-    <x v="25"/>
+    <x v="31"/>
     <n v="7441"/>
     <n v="35.15"/>
-    <m/>
-    <x v="9"/>
+    <n v="3"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="Derecho"/>
     <n v="2019"/>
     <n v="5"/>
     <s v="LA CENTENO - ACCIÓN COLECTIVA"/>
-    <x v="18"/>
+    <x v="24"/>
     <n v="3142"/>
     <n v="29.01"/>
-    <m/>
-    <x v="9"/>
+    <n v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <s v="Derecho"/>
     <n v="2019"/>
     <n v="6"/>
     <s v="SUR"/>
-    <x v="21"/>
+    <x v="27"/>
     <n v="280"/>
     <n v="1.32"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Derecho"/>
@@ -1448,11 +1704,11 @@
     <n v="2019"/>
     <n v="15"/>
     <s v="OKTUBRE"/>
-    <x v="26"/>
+    <x v="32"/>
     <n v="147"/>
     <n v="0.69"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Derecho"/>
@@ -1470,132 +1726,132 @@
     <n v="2024"/>
     <n v="1"/>
     <s v="Nuevo Espacio"/>
-    <x v="27"/>
+    <x v="20"/>
     <n v="16057"/>
     <n v="71.209999999999994"/>
-    <m/>
-    <x v="9"/>
+    <n v="4"/>
+    <x v="6"/>
   </r>
   <r>
     <s v="Económicas"/>
     <n v="2024"/>
     <n v="2"/>
     <s v="Belgrano"/>
-    <x v="28"/>
+    <x v="33"/>
     <n v="477"/>
     <n v="2.12"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Económicas"/>
     <n v="2024"/>
     <n v="3"/>
     <s v="Unidad est. + Juv. Peronista"/>
-    <x v="29"/>
+    <x v="17"/>
     <n v="285"/>
     <n v="1.26"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Económicas"/>
     <n v="2024"/>
     <n v="4"/>
     <s v="Unidad Latinam."/>
-    <x v="29"/>
+    <x v="17"/>
     <n v="76"/>
     <n v="0.34"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Económicas"/>
     <n v="2024"/>
     <n v="5"/>
     <s v="Frente Cívico"/>
-    <x v="29"/>
+    <x v="17"/>
     <n v="48"/>
     <n v="0.21"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Económicas"/>
     <n v="2024"/>
     <n v="6"/>
     <s v="MxE"/>
-    <x v="30"/>
+    <x v="34"/>
     <n v="396"/>
     <n v="1.76"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Económicas"/>
     <n v="2024"/>
     <n v="7"/>
     <s v="SOS Mella"/>
-    <x v="29"/>
+    <x v="17"/>
     <n v="206"/>
     <n v="0.91"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Económicas"/>
     <n v="2024"/>
     <n v="8"/>
     <s v="Var.Indep. +Germen"/>
-    <x v="29"/>
+    <x v="17"/>
     <n v="676"/>
     <n v="3"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Económicas"/>
     <n v="2024"/>
     <n v="9"/>
     <s v="Proyecto"/>
-    <x v="31"/>
+    <x v="35"/>
     <n v="2106"/>
     <n v="9.34"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Económicas"/>
     <n v="2024"/>
     <n v="10"/>
     <s v="Somos Libres"/>
-    <x v="32"/>
+    <x v="36"/>
     <n v="1417"/>
     <n v="6.28"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Económicas"/>
     <n v="2024"/>
     <n v="13"/>
     <s v="Libres del Sur"/>
-    <x v="29"/>
+    <x v="17"/>
     <n v="219"/>
     <n v="0.97"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Económicas"/>
     <n v="2024"/>
     <n v="14"/>
     <s v="FLI"/>
-    <x v="29"/>
+    <x v="17"/>
     <n v="47"/>
     <n v="0.21"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Económicas"/>
@@ -1613,22 +1869,22 @@
     <n v="2024"/>
     <n v="44"/>
     <s v="FAPe"/>
-    <x v="29"/>
+    <x v="17"/>
     <n v="31"/>
     <n v="0.14000000000000001"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Económicas"/>
     <n v="2024"/>
     <n v="69"/>
     <s v="Bip-Bop"/>
-    <x v="29"/>
+    <x v="17"/>
     <n v="59"/>
     <n v="0.26"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Económicas"/>
@@ -1646,132 +1902,132 @@
     <n v="2022"/>
     <n v="1"/>
     <s v="Nuevo Espacio"/>
-    <x v="27"/>
+    <x v="20"/>
     <n v="16895"/>
     <n v="72.11"/>
     <m/>
-    <x v="9"/>
+    <x v="6"/>
   </r>
   <r>
     <s v="Económicas"/>
     <n v="2022"/>
     <n v="2"/>
     <s v="Belgrano"/>
-    <x v="28"/>
+    <x v="33"/>
     <n v="695"/>
     <n v="2.97"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Económicas"/>
     <n v="2022"/>
     <n v="3"/>
     <s v="Alter. Estudiantil"/>
-    <x v="29"/>
+    <x v="17"/>
     <n v="196"/>
     <n v="0.84"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Económicas"/>
     <n v="2022"/>
     <n v="4"/>
     <s v="Unidad Latinam."/>
-    <x v="29"/>
+    <x v="17"/>
     <n v="77"/>
     <n v="0.33"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Económicas"/>
     <n v="2022"/>
     <n v="5"/>
     <s v="AUI"/>
-    <x v="29"/>
+    <x v="17"/>
     <n v="50"/>
     <n v="0.21"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Económicas"/>
     <n v="2022"/>
     <n v="6"/>
     <s v="MxE"/>
-    <x v="30"/>
+    <x v="34"/>
     <n v="645"/>
     <n v="2.75"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Económicas"/>
     <n v="2022"/>
     <n v="7"/>
     <s v="Haciendo la otra voz"/>
-    <x v="33"/>
+    <x v="37"/>
     <n v="482"/>
     <n v="2.06"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Económicas"/>
     <n v="2022"/>
     <n v="8"/>
     <s v="Var.Independiente"/>
-    <x v="34"/>
+    <x v="38"/>
     <n v="1473"/>
     <n v="6.29"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Económicas"/>
     <n v="2022"/>
     <n v="9"/>
     <s v="Proyecto económicas"/>
-    <x v="31"/>
+    <x v="35"/>
     <n v="1520"/>
     <n v="6.49"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Económicas"/>
     <n v="2022"/>
     <n v="10"/>
     <s v="Somos Libres"/>
-    <x v="32"/>
+    <x v="36"/>
     <n v="549"/>
     <n v="2.34"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Económicas"/>
     <n v="2022"/>
     <n v="11"/>
     <s v="JxE"/>
-    <x v="29"/>
+    <x v="17"/>
     <n v="131"/>
     <n v="0.56000000000000005"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Económicas"/>
     <n v="2022"/>
     <n v="14"/>
     <s v="FLI"/>
-    <x v="29"/>
+    <x v="17"/>
     <n v="78"/>
     <n v="0.33"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Económicas"/>
@@ -1789,22 +2045,22 @@
     <n v="2022"/>
     <n v="44"/>
     <s v="FAPe"/>
-    <x v="29"/>
+    <x v="17"/>
     <n v="35"/>
     <n v="0.15"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Económicas"/>
     <n v="2022"/>
     <n v="69"/>
     <s v="BIP-BIP"/>
-    <x v="29"/>
+    <x v="17"/>
     <n v="78"/>
     <n v="0.33"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Económicas"/>
@@ -1822,110 +2078,110 @@
     <n v="2019"/>
     <n v="1"/>
     <s v="Nuevo Espacio"/>
-    <x v="27"/>
+    <x v="20"/>
     <n v="19394"/>
     <n v="74.209999999999994"/>
-    <m/>
-    <x v="9"/>
+    <n v="4"/>
+    <x v="6"/>
   </r>
   <r>
     <s v="Económicas"/>
     <n v="2019"/>
     <n v="2"/>
     <s v="Unidad Latinam."/>
-    <x v="29"/>
+    <x v="17"/>
     <n v="149"/>
     <n v="0.56999999999999995"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Económicas"/>
     <n v="2019"/>
     <n v="3"/>
     <s v="Alter. Estudiantil"/>
-    <x v="29"/>
+    <x v="17"/>
     <n v="338"/>
     <n v="1.29"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Económicas"/>
     <n v="2019"/>
     <n v="4"/>
     <s v="Belgrano"/>
-    <x v="28"/>
+    <x v="33"/>
     <n v="1063"/>
     <n v="4.07"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Económicas"/>
     <n v="2019"/>
     <n v="5"/>
     <s v="Pro"/>
-    <x v="35"/>
+    <x v="39"/>
     <n v="822"/>
     <n v="3.15"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Económicas"/>
     <n v="2019"/>
     <n v="6"/>
     <s v="MxE 2019 + FIT"/>
-    <x v="30"/>
+    <x v="34"/>
     <n v="1952"/>
     <n v="7.47"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Económicas"/>
     <n v="2019"/>
     <n v="7"/>
     <s v="Haciendo la otra voz"/>
-    <x v="33"/>
+    <x v="37"/>
     <n v="1112"/>
     <n v="4.25"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Económicas"/>
     <n v="2019"/>
     <n v="8"/>
     <s v="Var. Independiente"/>
-    <x v="34"/>
+    <x v="38"/>
     <n v="415"/>
     <n v="1.59"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Económicas"/>
     <n v="2019"/>
     <n v="9"/>
     <s v="AUI-ARI"/>
-    <x v="29"/>
+    <x v="17"/>
     <n v="36"/>
     <n v="0.14000000000000001"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Económicas"/>
     <n v="2019"/>
     <n v="11"/>
     <s v="JxE"/>
-    <x v="29"/>
+    <x v="17"/>
     <n v="139"/>
     <n v="0.53"/>
     <m/>
-    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Económicas"/>
@@ -1950,11 +2206,605 @@
     <x v="5"/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="14"/>
+    <s v="Exactas"/>
+    <n v="2024"/>
+    <n v="4"/>
+    <s v="Estudiantes de izquierda"/>
+    <x v="17"/>
+    <n v="321"/>
+    <n v="4.0199999999999996"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Exactas"/>
+    <n v="2024"/>
+    <n v="7"/>
+    <s v="FEM! La fuerza independiente"/>
+    <x v="40"/>
+    <n v="1872"/>
+    <n v="23.45"/>
+    <n v="1"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Exactas"/>
+    <n v="2024"/>
+    <n v="8"/>
+    <s v="La izquierda en Exactas"/>
+    <x v="17"/>
+    <n v="258"/>
+    <n v="3.23"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Exactas"/>
+    <n v="2024"/>
+    <n v="9"/>
+    <s v="Identidad - Megafón"/>
+    <x v="41"/>
+    <n v="2964"/>
+    <n v="37.119999999999997"/>
+    <n v="3"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Exactas"/>
+    <n v="2024"/>
+    <n v="10"/>
+    <s v="Espacio Exactas"/>
+    <x v="42"/>
+    <n v="1610"/>
+    <n v="20.170000000000002"/>
+    <m/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Exactas"/>
+    <n v="2024"/>
+    <n v="13"/>
+    <s v="La salida es por izquierda"/>
+    <x v="17"/>
+    <n v="58"/>
+    <n v="0.73"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Exactas"/>
+    <n v="2024"/>
+    <n v="14"/>
+    <s v="Contragolpe"/>
+    <x v="17"/>
+    <n v="105"/>
+    <n v="1.32"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Exactas"/>
+    <n v="2024"/>
+    <n v="17"/>
+    <s v="Juventud peronista universitaria"/>
+    <x v="17"/>
+    <n v="165"/>
+    <n v="2.0699999999999998"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Exactas"/>
+    <n v="2024"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <x v="5"/>
+    <n v="631"/>
+    <n v="7.9"/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Exactas"/>
+    <n v="2022"/>
+    <n v="7"/>
+    <s v="FEM! La fuerza independiente"/>
+    <x v="40"/>
+    <n v="1891"/>
+    <n v="30.45"/>
+    <n v="1"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Exactas"/>
+    <n v="2022"/>
+    <n v="8"/>
+    <s v="La izquierda en Exactas"/>
+    <x v="43"/>
+    <n v="1097"/>
+    <n v="17.66"/>
+    <m/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Exactas"/>
+    <n v="2022"/>
+    <n v="9"/>
+    <s v="Identidad - Megafón"/>
+    <x v="41"/>
+    <n v="2588"/>
+    <n v="41.67"/>
+    <n v="3"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Exactas"/>
+    <n v="2022"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <x v="5"/>
+    <n v="635"/>
+    <n v="10.220000000000001"/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Exactas"/>
+    <n v="2019"/>
+    <n v="7"/>
+    <s v="FEM"/>
+    <x v="40"/>
+    <n v="1505"/>
+    <n v="26.54"/>
+    <n v="1"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Exactas"/>
+    <n v="2019"/>
+    <n v="8"/>
+    <s v="La izquierda al frente"/>
+    <x v="43"/>
+    <n v="1245"/>
+    <n v="21.95"/>
+    <m/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Exactas"/>
+    <n v="2019"/>
+    <n v="9"/>
+    <s v="Exactas puede más"/>
+    <x v="41"/>
+    <n v="1912"/>
+    <n v="33.72"/>
+    <n v="3"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Exactas"/>
+    <n v="2019"/>
+    <n v="26"/>
+    <s v="Rolando García"/>
+    <x v="44"/>
+    <n v="517"/>
+    <n v="9.1199999999999992"/>
+    <m/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Exactas"/>
+    <n v="2019"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <x v="5"/>
+    <n v="492"/>
+    <n v="8.68"/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Ingeniería"/>
+    <n v="2024"/>
+    <n v="1"/>
+    <s v="Espacio Estudiantil"/>
+    <x v="45"/>
+    <n v="1346"/>
+    <n v="16.920000000000002"/>
+    <m/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Ingeniería"/>
+    <n v="2024"/>
+    <n v="2"/>
+    <s v="Somos Libres"/>
+    <x v="45"/>
+    <n v="1467"/>
+    <n v="18.440000000000001"/>
+    <m/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Ingeniería"/>
+    <n v="2024"/>
+    <n v="7"/>
+    <s v="Proyecto Ingeniería"/>
+    <x v="45"/>
+    <n v="609"/>
+    <n v="7.66"/>
+    <m/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Ingeniería"/>
+    <n v="2024"/>
+    <n v="8"/>
+    <s v="El Gradiente"/>
+    <x v="45"/>
+    <n v="1312"/>
+    <n v="16.489999999999998"/>
+    <m/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Ingeniería"/>
+    <n v="2024"/>
+    <n v="417"/>
+    <s v="MLI, Movimiento Linealmente Independiente"/>
+    <x v="46"/>
+    <n v="2786"/>
+    <n v="35.03"/>
+    <n v="4"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Ingeniería"/>
+    <n v="2024"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <x v="5"/>
+    <n v="434"/>
+    <n v="5.46"/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Ingeniería"/>
+    <n v="2019"/>
+    <n v="2"/>
+    <s v="Ingeniería por el cambio"/>
+    <x v="45"/>
+    <n v="1597"/>
+    <n v="19.559999999999999"/>
+    <m/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Ingeniería"/>
+    <n v="2019"/>
+    <n v="9"/>
+    <s v="La mella"/>
+    <x v="45"/>
+    <n v="649"/>
+    <n v="7.95"/>
+    <m/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Ingeniería"/>
+    <n v="2019"/>
+    <n v="10"/>
+    <s v="Proyecto ingeniería"/>
+    <x v="45"/>
+    <n v="846"/>
+    <n v="10.36"/>
+    <m/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Ingeniería"/>
+    <n v="2019"/>
+    <n v="256"/>
+    <s v="La izquierda en ingeniería"/>
+    <x v="17"/>
+    <n v="178"/>
+    <n v="2.1800000000000002"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Ingeniería"/>
+    <n v="2019"/>
+    <n v="314"/>
+    <s v="UxL + Auge + Gradiente"/>
+    <x v="17"/>
+    <n v="394"/>
+    <n v="4.83"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Ingeniería"/>
+    <n v="2019"/>
+    <n v="417"/>
+    <s v="MLI, Movimiento Linealmente Independiente"/>
+    <x v="46"/>
+    <n v="4214"/>
+    <n v="51.62"/>
+    <n v="4"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Ingeniería"/>
+    <n v="2019"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <x v="5"/>
+    <n v="286"/>
+    <n v="3.5"/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="FADU"/>
+    <n v="2022"/>
+    <n v="10"/>
+    <s v="Somos FADU"/>
+    <x v="47"/>
+    <n v="14056"/>
+    <n v="59.97"/>
+    <n v="3"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="FADU"/>
+    <n v="2022"/>
+    <n v="22"/>
+    <s v="Unidad FADU"/>
+    <x v="48"/>
+    <n v="6225"/>
+    <n v="26.56"/>
+    <n v="1"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="FADU"/>
+    <n v="2022"/>
+    <n v="5"/>
+    <s v="Yo Banco la Fadu"/>
+    <x v="17"/>
+    <n v="1106"/>
+    <n v="4.72"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="FADU"/>
+    <n v="2022"/>
+    <n v="8"/>
+    <s v="La izquierda en FADU"/>
+    <x v="17"/>
+    <n v="765"/>
+    <n v="3.26"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="FADU"/>
+    <n v="2022"/>
+    <n v="7"/>
+    <s v="Movimiento FADU"/>
+    <x v="17"/>
+    <n v="505"/>
+    <n v="2.15"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="FADU"/>
+    <n v="2022"/>
+    <n v="13"/>
+    <s v="Estudiantes de izquierda - Nuevo Mas"/>
+    <x v="17"/>
+    <n v="232"/>
+    <n v="0.99"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="FADU"/>
+    <n v="2022"/>
+    <n v="6"/>
+    <s v="Sur FADU"/>
+    <x v="17"/>
+    <n v="141"/>
+    <n v="0.6"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="FADU"/>
+    <n v="2022"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <x v="5"/>
+    <n v="407"/>
+    <n v="1.74"/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Agronomía"/>
+    <n v="2024"/>
+    <n v="2"/>
+    <s v="Línea de agronomía independiente"/>
+    <x v="49"/>
+    <n v="1062"/>
+    <n v="45.58"/>
+    <n v="3"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Agronomía"/>
+    <n v="2024"/>
+    <n v="11"/>
+    <s v="Fana ATP Fauba"/>
+    <x v="50"/>
+    <n v="880"/>
+    <n v="37.770000000000003"/>
+    <n v="1"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Agronomía"/>
+    <n v="2024"/>
+    <n v="14"/>
+    <s v="Abriendo caminos"/>
+    <x v="51"/>
+    <n v="336"/>
+    <n v="14.42"/>
+    <m/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Agronomía"/>
+    <n v="2024"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <x v="5"/>
+    <n v="52"/>
+    <n v="2.23"/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Veterinaria"/>
+    <n v="2024"/>
+    <n v="1"/>
+    <s v="La Tropilla"/>
+    <x v="52"/>
+    <n v="1026"/>
+    <n v="25.2"/>
+    <m/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Veterinaria"/>
+    <n v="2024"/>
+    <n v="10"/>
+    <s v="eVet-UJS"/>
+    <x v="53"/>
+    <n v="1539"/>
+    <n v="37.799999999999997"/>
+    <n v="3"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Veterinaria"/>
+    <n v="2024"/>
+    <n v="14"/>
+    <s v="AFV"/>
+    <x v="54"/>
+    <n v="1469"/>
+    <n v="36.08"/>
+    <n v="1"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Veterinaria"/>
+    <n v="2024"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <x v="5"/>
+    <n v="37"/>
+    <n v="0.91"/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Medicina"/>
+    <n v="2019"/>
+    <n v="39"/>
+    <s v="Miles -Torrente"/>
+    <x v="55"/>
+    <n v="5099"/>
+    <n v="13.31"/>
+    <m/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Medicina"/>
+    <n v="2019"/>
+    <n v="18"/>
+    <s v="El Mate"/>
+    <x v="17"/>
+    <n v="719"/>
+    <n v="1.88"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Medicina"/>
+    <n v="2019"/>
+    <n v="13"/>
+    <s v="La izquierda en medicina"/>
+    <x v="17"/>
+    <n v="455"/>
+    <n v="1.19"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Medicina"/>
+    <n v="2019"/>
+    <n v="4"/>
+    <s v="Frente de Izquierda"/>
+    <x v="17"/>
+    <n v="1044"/>
+    <n v="2.72"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Medicina"/>
+    <n v="2019"/>
+    <n v="8"/>
+    <s v="El Frente"/>
+    <x v="17"/>
+    <n v="2910"/>
+    <n v="7.59"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Medicina"/>
+    <n v="2019"/>
+    <n v="10"/>
+    <s v="Nuevo espacio"/>
+    <x v="20"/>
+    <n v="27465"/>
+    <n v="71.680000000000007"/>
+    <n v="4"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Medicina"/>
+    <n v="2019"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <x v="5"/>
+    <n v="624"/>
+    <n v="1.63"/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="45"/>
     <m/>
     <m/>
     <m/>
@@ -1964,7 +2814,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1D4731B6-B787-41F6-8BDC-E2369477EBB1}" name="TablaDinámica1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1D4731B6-B787-41F6-8BDC-E2369477EBB1}" name="TablaDinámica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -1972,7 +2822,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="37">
+      <items count="57">
         <item x="5"/>
         <item x="6"/>
         <item x="4"/>
@@ -1981,19 +2831,13 @@
         <item x="7"/>
         <item x="2"/>
         <item x="3"/>
-        <item x="14"/>
+        <item x="45"/>
         <item x="8"/>
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
         <item x="12"/>
         <item x="13"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
         <item x="21"/>
         <item x="22"/>
         <item x="23"/>
@@ -2006,9 +2850,35 @@
         <item x="30"/>
         <item x="31"/>
         <item x="32"/>
+        <item x="20"/>
         <item x="33"/>
+        <item x="17"/>
         <item x="34"/>
         <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2040,64 +2910,64 @@
       <x v="8"/>
     </i>
     <i>
-      <x v="16"/>
+      <x v="36"/>
     </i>
     <i>
-      <x v="17"/>
+      <x v="37"/>
     </i>
     <i>
-      <x v="18"/>
+      <x v="38"/>
     </i>
     <i>
-      <x v="19"/>
+      <x v="39"/>
     </i>
     <i>
-      <x v="20"/>
+      <x v="40"/>
     </i>
     <i>
-      <x v="21"/>
+      <x v="41"/>
     </i>
     <i>
-      <x v="22"/>
+      <x v="42"/>
     </i>
     <i>
-      <x v="23"/>
+      <x v="43"/>
     </i>
     <i>
-      <x v="24"/>
+      <x v="44"/>
     </i>
     <i>
-      <x v="25"/>
+      <x v="45"/>
     </i>
     <i>
-      <x v="26"/>
+      <x v="46"/>
     </i>
     <i>
-      <x v="27"/>
+      <x v="47"/>
     </i>
     <i>
-      <x v="28"/>
+      <x v="48"/>
     </i>
     <i>
-      <x v="29"/>
+      <x v="49"/>
     </i>
     <i>
-      <x v="30"/>
+      <x v="50"/>
     </i>
     <i>
-      <x v="31"/>
+      <x v="51"/>
     </i>
     <i>
-      <x v="32"/>
+      <x v="52"/>
     </i>
     <i>
-      <x v="33"/>
+      <x v="53"/>
     </i>
     <i>
-      <x v="34"/>
+      <x v="54"/>
     </i>
     <i>
-      <x v="35"/>
+      <x v="55"/>
     </i>
     <i t="grand">
       <x/>
@@ -2319,10 +3189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24D8039-D0D6-4DE2-92CD-2A0539E40632}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2335,7 +3205,7 @@
         <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2362,7 +3232,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>13</v>
@@ -2373,7 +3243,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>16</v>
@@ -2384,7 +3254,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>8</v>
@@ -2395,7 +3265,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>7</v>
@@ -2406,7 +3276,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>48</v>
@@ -2417,7 +3287,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>46</v>
@@ -2428,7 +3298,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>47</v>
@@ -2439,10 +3309,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>58</v>
@@ -2450,40 +3320,40 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>69</v>
+        <v>163</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>22</v>
@@ -2494,18 +3364,18 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>54</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>25</v>
@@ -2516,10 +3386,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>56</v>
@@ -2527,21 +3397,21 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>102</v>
+        <v>174</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>57</v>
@@ -2549,10 +3419,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>111</v>
+        <v>175</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>54</v>
@@ -2560,10 +3430,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>54</v>
@@ -2571,10 +3441,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>54</v>
@@ -2585,7 +3455,7 @@
         <v>52</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>54</v>
@@ -2593,7 +3463,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D26" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>54</v>
@@ -2601,7 +3471,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D27" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>54</v>
@@ -2609,15 +3479,15 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D28" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D29" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>54</v>
@@ -2625,15 +3495,15 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D30" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D31" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>54</v>
@@ -2641,7 +3511,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>54</v>
@@ -2649,7 +3519,7 @@
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D33" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>54</v>
@@ -2657,7 +3527,7 @@
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D34" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>54</v>
@@ -2665,7 +3535,7 @@
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D35" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>54</v>
@@ -2673,7 +3543,7 @@
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D36" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>54</v>
@@ -2681,7 +3551,7 @@
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D37" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>54</v>
@@ -2689,10 +3559,194 @@
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D38" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D39" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D40" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D41" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D42" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D43" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D44" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D45" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D46" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D47" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D48" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D49" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D50" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D51" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D52" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D53" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D54" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D55" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D56" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D57" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D58" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>154</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>155</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D61" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2705,10 +3759,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I120"/>
+  <dimension ref="A1:I181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3111,170 +4165,170 @@
     </row>
     <row r="15" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B15">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F15">
-        <v>468</v>
+        <v>105</v>
       </c>
       <c r="G15">
-        <v>5.37</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="I15" t="str">
         <f>IFERROR(VLOOKUP(E15,colores!$D:$E,2,FALSE),"black")</f>
-        <v>orange</v>
+        <v>gray</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B16">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F16">
-        <v>2293</v>
+        <v>266</v>
       </c>
       <c r="G16">
-        <v>26.29</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
+        <v>2.86</v>
       </c>
       <c r="I16" t="str">
         <f>IFERROR(VLOOKUP(E16,colores!$D:$E,2,FALSE),"black")</f>
-        <v>red</v>
+        <v>coral</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B17">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="F17">
-        <v>634</v>
+        <v>4228</v>
       </c>
       <c r="G17">
-        <v>7.27</v>
+        <v>45.5</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
       </c>
       <c r="I17" t="str">
         <f>IFERROR(VLOOKUP(E17,colores!$D:$E,2,FALSE),"black")</f>
-        <v>purple</v>
+        <v>blue</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B18">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F18">
-        <v>2706</v>
+        <v>3538</v>
       </c>
       <c r="G18">
-        <v>31.02</v>
+        <v>38.07</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18" t="str">
         <f>IFERROR(VLOOKUP(E18,colores!$D:$E,2,FALSE),"black")</f>
-        <v>lime</v>
+        <v>green</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B19">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F19">
-        <v>798</v>
+        <v>926</v>
       </c>
       <c r="G19">
-        <v>9.15</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="I19" t="str">
         <f>IFERROR(VLOOKUP(E19,colores!$D:$E,2,FALSE),"black")</f>
-        <v>coral</v>
+        <v>red</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B20">
-        <v>2022</v>
-      </c>
-      <c r="C20">
-        <v>9</v>
+        <v>2024</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F20">
-        <v>1142</v>
+        <v>230</v>
       </c>
       <c r="G20">
-        <v>13.09</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="I20" t="str">
         <f>IFERROR(VLOOKUP(E20,colores!$D:$E,2,FALSE),"black")</f>
-        <v>gray</v>
+        <v>lightgray</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -3285,23 +4339,23 @@
         <v>2022</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F21">
-        <v>372</v>
+        <v>468</v>
       </c>
       <c r="G21">
-        <v>4.26</v>
+        <v>5.37</v>
       </c>
       <c r="I21" t="str">
         <f>IFERROR(VLOOKUP(E21,colores!$D:$E,2,FALSE),"black")</f>
-        <v>gray</v>
+        <v>orange</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -3311,24 +4365,27 @@
       <c r="B22">
         <v>2022</v>
       </c>
-      <c r="C22" t="s">
-        <v>12</v>
+      <c r="C22">
+        <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F22">
-        <v>310</v>
+        <v>2293</v>
       </c>
       <c r="G22">
-        <v>3.55</v>
+        <v>26.29</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
       </c>
       <c r="I22" t="str">
         <f>IFERROR(VLOOKUP(E22,colores!$D:$E,2,FALSE),"black")</f>
-        <v>lightgray</v>
+        <v>red</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -3336,26 +4393,26 @@
         <v>18</v>
       </c>
       <c r="B23">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F23">
-        <v>434</v>
+        <v>634</v>
       </c>
       <c r="G23">
-        <v>5.0599999999999996</v>
+        <v>7.27</v>
       </c>
       <c r="I23" t="str">
         <f>IFERROR(VLOOKUP(E23,colores!$D:$E,2,FALSE),"black")</f>
-        <v>orange</v>
+        <v>purple</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -3363,29 +4420,29 @@
         <v>18</v>
       </c>
       <c r="B24">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F24">
-        <v>2642</v>
+        <v>2706</v>
       </c>
       <c r="G24">
-        <v>30.8</v>
+        <v>31.02</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I24" t="str">
         <f>IFERROR(VLOOKUP(E24,colores!$D:$E,2,FALSE),"black")</f>
-        <v>red</v>
+        <v>lime</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -3393,26 +4450,26 @@
         <v>18</v>
       </c>
       <c r="B25">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F25">
-        <v>778</v>
+        <v>798</v>
       </c>
       <c r="G25">
-        <v>9.07</v>
+        <v>9.15</v>
       </c>
       <c r="I25" t="str">
         <f>IFERROR(VLOOKUP(E25,colores!$D:$E,2,FALSE),"black")</f>
-        <v>purple</v>
+        <v>coral</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -3420,29 +4477,26 @@
         <v>18</v>
       </c>
       <c r="B26">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F26">
-        <v>3173</v>
+        <v>1142</v>
       </c>
       <c r="G26">
-        <v>36.99</v>
-      </c>
-      <c r="H26">
-        <v>3</v>
+        <v>13.09</v>
       </c>
       <c r="I26" t="str">
         <f>IFERROR(VLOOKUP(E26,colores!$D:$E,2,FALSE),"black")</f>
-        <v>lime</v>
+        <v>pink</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -3450,22 +4504,22 @@
         <v>18</v>
       </c>
       <c r="B27">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F27">
-        <v>943</v>
+        <v>372</v>
       </c>
       <c r="G27">
-        <v>10.99</v>
+        <v>4.26</v>
       </c>
       <c r="I27" t="str">
         <f>IFERROR(VLOOKUP(E27,colores!$D:$E,2,FALSE),"black")</f>
@@ -3477,26 +4531,26 @@
         <v>18</v>
       </c>
       <c r="B28">
-        <v>2019</v>
-      </c>
-      <c r="C28">
-        <v>10</v>
+        <v>2022</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F28">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="G28">
-        <v>3.53</v>
+        <v>3.55</v>
       </c>
       <c r="I28" t="str">
         <f>IFERROR(VLOOKUP(E28,colores!$D:$E,2,FALSE),"black")</f>
-        <v>gray</v>
+        <v>lightgray</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -3506,173 +4560,173 @@
       <c r="B29">
         <v>2019</v>
       </c>
-      <c r="C29" t="s">
-        <v>12</v>
+      <c r="C29">
+        <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F29">
-        <v>305</v>
+        <v>434</v>
       </c>
       <c r="G29">
-        <v>3.56</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="I29" t="str">
         <f>IFERROR(VLOOKUP(E29,colores!$D:$E,2,FALSE),"black")</f>
-        <v>lightgray</v>
+        <v>orange</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B30">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F30">
-        <v>105</v>
+        <v>2642</v>
       </c>
       <c r="G30">
-        <v>1.1299999999999999</v>
+        <v>30.8</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
       </c>
       <c r="I30" t="str">
         <f>IFERROR(VLOOKUP(E30,colores!$D:$E,2,FALSE),"black")</f>
-        <v>gray</v>
+        <v>red</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B31">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="C31">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F31">
-        <v>266</v>
+        <v>778</v>
       </c>
       <c r="G31">
-        <v>2.86</v>
+        <v>9.07</v>
       </c>
       <c r="I31" t="str">
         <f>IFERROR(VLOOKUP(E31,colores!$D:$E,2,FALSE),"black")</f>
-        <v>coral</v>
+        <v>purple</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32">
+        <v>2019</v>
+      </c>
+      <c r="C32">
         <v>6</v>
       </c>
-      <c r="B32">
-        <v>2024</v>
-      </c>
-      <c r="C32">
-        <v>15</v>
-      </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="F32">
-        <v>4228</v>
+        <v>3173</v>
       </c>
       <c r="G32">
-        <v>45.5</v>
+        <v>36.99</v>
       </c>
       <c r="H32">
         <v>3</v>
       </c>
       <c r="I32" t="str">
         <f>IFERROR(VLOOKUP(E32,colores!$D:$E,2,FALSE),"black")</f>
-        <v>blue</v>
+        <v>lime</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B33">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="C33">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F33">
-        <v>3538</v>
+        <v>943</v>
       </c>
       <c r="G33">
-        <v>38.07</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
+        <v>10.99</v>
       </c>
       <c r="I33" t="str">
         <f>IFERROR(VLOOKUP(E33,colores!$D:$E,2,FALSE),"black")</f>
-        <v>green</v>
+        <v>pink</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B34">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="C34">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E34" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F34">
-        <v>926</v>
+        <v>303</v>
       </c>
       <c r="G34">
-        <v>9.9600000000000009</v>
+        <v>3.53</v>
       </c>
       <c r="I34" t="str">
         <f>IFERROR(VLOOKUP(E34,colores!$D:$E,2,FALSE),"black")</f>
-        <v>red</v>
+        <v>gray</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B35">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
@@ -3684,10 +4738,10 @@
         <v>12</v>
       </c>
       <c r="F35">
-        <v>230</v>
+        <v>305</v>
       </c>
       <c r="G35">
-        <v>2.4700000000000002</v>
+        <v>3.56</v>
       </c>
       <c r="I35" t="str">
         <f>IFERROR(VLOOKUP(E35,colores!$D:$E,2,FALSE),"black")</f>
@@ -3696,7 +4750,7 @@
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="B36">
         <v>2024</v>
@@ -3705,167 +4759,188 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>135</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="F36">
-        <v>3349</v>
+        <v>179</v>
       </c>
       <c r="G36">
-        <v>68</v>
-      </c>
-      <c r="H36">
-        <v>3</v>
+        <v>2.34</v>
       </c>
       <c r="I36" t="str">
         <f>IFERROR(VLOOKUP(E36,colores!$D:$E,2,FALSE),"black")</f>
-        <v>black</v>
+        <v>gray</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="B37">
         <v>2024</v>
       </c>
       <c r="C37">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>136</v>
+      </c>
+      <c r="E37" t="s">
+        <v>16</v>
       </c>
       <c r="F37">
-        <v>47</v>
+        <v>2089</v>
       </c>
       <c r="G37">
-        <v>0.95</v>
+        <v>27.36</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
       </c>
       <c r="I37" t="str">
         <f>IFERROR(VLOOKUP(E37,colores!$D:$E,2,FALSE),"black")</f>
-        <v>black</v>
+        <v>red</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="B38">
         <v>2024</v>
       </c>
       <c r="C38">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>137</v>
+      </c>
+      <c r="E38" t="s">
+        <v>137</v>
       </c>
       <c r="F38">
-        <v>84</v>
+        <v>2809</v>
       </c>
       <c r="G38">
-        <v>1.7</v>
+        <v>36.79</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
       </c>
       <c r="I38" t="str">
         <f>IFERROR(VLOOKUP(E38,colores!$D:$E,2,FALSE),"black")</f>
-        <v>black</v>
+        <v>lime</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="B39">
         <v>2024</v>
       </c>
       <c r="C39">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>138</v>
+      </c>
+      <c r="E39" t="s">
+        <v>22</v>
       </c>
       <c r="F39">
-        <v>1366</v>
+        <v>667</v>
       </c>
       <c r="G39">
-        <v>27.7</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
+        <v>8.73</v>
       </c>
       <c r="I39" t="str">
         <f>IFERROR(VLOOKUP(E39,colores!$D:$E,2,FALSE),"black")</f>
-        <v>black</v>
+        <v>coral</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="B40">
         <v>2024</v>
       </c>
-      <c r="C40" t="s">
-        <v>12</v>
+      <c r="C40">
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>139</v>
+      </c>
+      <c r="E40" t="s">
+        <v>23</v>
       </c>
       <c r="F40">
-        <v>79</v>
+        <v>1470</v>
       </c>
       <c r="G40">
-        <v>1.6</v>
+        <v>19.25</v>
       </c>
       <c r="I40" t="str">
         <f>IFERROR(VLOOKUP(E40,colores!$D:$E,2,FALSE),"black")</f>
-        <v>black</v>
+        <v>pink</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="B41">
-        <v>2022</v>
-      </c>
-      <c r="C41" t="s">
-        <v>66</v>
+        <v>2024</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>140</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
       </c>
       <c r="F41">
-        <v>1506</v>
+        <v>214</v>
       </c>
       <c r="G41">
-        <v>28.03</v>
+        <v>2.8</v>
       </c>
       <c r="I41" t="str">
         <f>IFERROR(VLOOKUP(E41,colores!$D:$E,2,FALSE),"black")</f>
-        <v>black</v>
+        <v>gray</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="B42">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
       </c>
       <c r="F42">
-        <v>135</v>
+        <v>208</v>
       </c>
       <c r="G42">
-        <v>2.0499999999999998</v>
+        <v>2.72</v>
       </c>
       <c r="I42" t="str">
         <f>IFERROR(VLOOKUP(E42,colores!$D:$E,2,FALSE),"black")</f>
-        <v>black</v>
+        <v>lightgray</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3873,26 +4948,29 @@
         <v>61</v>
       </c>
       <c r="B43">
-        <v>2022</v>
-      </c>
-      <c r="C43" t="s">
-        <v>66</v>
+        <v>2024</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>62</v>
+      </c>
+      <c r="E43" t="s">
+        <v>62</v>
       </c>
       <c r="F43">
-        <v>1634</v>
+        <v>3349</v>
       </c>
       <c r="G43">
-        <v>30.7</v>
+        <v>68</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I43" t="str">
         <f>IFERROR(VLOOKUP(E43,colores!$D:$E,2,FALSE),"black")</f>
-        <v>black</v>
+        <v>orange</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3900,26 +4978,26 @@
         <v>61</v>
       </c>
       <c r="B44">
-        <v>2022</v>
-      </c>
-      <c r="C44" t="s">
-        <v>66</v>
+        <v>2024</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>63</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="F44">
-        <v>1961</v>
+        <v>47</v>
       </c>
       <c r="G44">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="H44">
-        <v>3</v>
+        <v>0.95</v>
       </c>
       <c r="I44" t="str">
         <f>IFERROR(VLOOKUP(E44,colores!$D:$E,2,FALSE),"black")</f>
-        <v>black</v>
+        <v>gray</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3927,23 +5005,26 @@
         <v>61</v>
       </c>
       <c r="B45">
-        <v>2022</v>
-      </c>
-      <c r="C45" t="s">
-        <v>66</v>
+        <v>2024</v>
+      </c>
+      <c r="C45">
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>12</v>
+        <v>64</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="F45">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G45">
         <v>1.7</v>
       </c>
       <c r="I45" t="str">
         <f>IFERROR(VLOOKUP(E45,colores!$D:$E,2,FALSE),"black")</f>
-        <v>black</v>
+        <v>gray</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3951,26 +5032,29 @@
         <v>61</v>
       </c>
       <c r="B46">
-        <v>2019</v>
-      </c>
-      <c r="C46" t="s">
-        <v>66</v>
+        <v>2024</v>
+      </c>
+      <c r="C46">
+        <v>14</v>
       </c>
       <c r="D46" t="s">
         <v>65</v>
       </c>
-      <c r="F46" t="s">
-        <v>66</v>
+      <c r="E46" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46">
+        <v>1366</v>
       </c>
       <c r="G46">
-        <v>37.450000000000003</v>
+        <v>27.7</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I46" t="str">
         <f>IFERROR(VLOOKUP(E46,colores!$D:$E,2,FALSE),"black")</f>
-        <v>black</v>
+        <v>pink</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3978,26 +5062,26 @@
         <v>61</v>
       </c>
       <c r="B47">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="C47" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>71</v>
-      </c>
-      <c r="F47" t="s">
-        <v>66</v>
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47">
+        <v>79</v>
       </c>
       <c r="G47">
-        <v>35.5</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="I47" t="str">
         <f>IFERROR(VLOOKUP(E47,colores!$D:$E,2,FALSE),"black")</f>
-        <v>black</v>
+        <v>lightgray</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4005,23 +5089,23 @@
         <v>61</v>
       </c>
       <c r="B48">
-        <v>2019</v>
-      </c>
-      <c r="C48" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D48" t="s">
         <v>66</v>
       </c>
-      <c r="D48" t="s">
-        <v>72</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="E48" t="s">
         <v>66</v>
       </c>
+      <c r="F48">
+        <v>1506</v>
+      </c>
       <c r="G48">
-        <v>21.4</v>
+        <v>28.03</v>
       </c>
       <c r="I48" t="str">
         <f>IFERROR(VLOOKUP(E48,colores!$D:$E,2,FALSE),"black")</f>
-        <v>black</v>
+        <v>green</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4029,23 +5113,23 @@
         <v>61</v>
       </c>
       <c r="B49">
-        <v>2019</v>
-      </c>
-      <c r="C49" t="s">
-        <v>66</v>
+        <v>2022</v>
       </c>
       <c r="D49" t="s">
-        <v>73</v>
-      </c>
-      <c r="F49" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F49">
+        <v>135</v>
       </c>
       <c r="G49">
-        <v>2.4</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="I49" t="str">
         <f>IFERROR(VLOOKUP(E49,colores!$D:$E,2,FALSE),"black")</f>
-        <v>black</v>
+        <v>gray</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4053,187 +5137,163 @@
         <v>61</v>
       </c>
       <c r="B50">
-        <v>2019</v>
-      </c>
-      <c r="C50" t="s">
-        <v>66</v>
+        <v>2022</v>
       </c>
       <c r="D50" t="s">
-        <v>74</v>
-      </c>
-      <c r="F50" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="E50" t="s">
+        <v>68</v>
+      </c>
+      <c r="F50">
+        <v>1634</v>
       </c>
       <c r="G50">
-        <v>1.79</v>
+        <v>30.7</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
       </c>
       <c r="I50" t="str">
         <f>IFERROR(VLOOKUP(E50,colores!$D:$E,2,FALSE),"black")</f>
-        <v>black</v>
+        <v>orange</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>2024</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="D51" t="s">
-        <v>76</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="E51" t="s">
+        <v>69</v>
       </c>
       <c r="F51">
-        <v>443</v>
+        <v>1961</v>
       </c>
       <c r="G51">
-        <v>2.08</v>
+        <v>36.799999999999997</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
       </c>
       <c r="I51" t="str">
         <f>IFERROR(VLOOKUP(E51,colores!$D:$E,2,FALSE),"black")</f>
-        <v>green</v>
+        <v>pink</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B52">
-        <v>2024</v>
-      </c>
-      <c r="C52">
-        <v>2</v>
+        <v>2022</v>
       </c>
       <c r="D52" t="s">
-        <v>77</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>123</v>
+        <v>12</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
       </c>
       <c r="F52">
-        <v>638</v>
+        <v>88</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="I52" t="str">
         <f>IFERROR(VLOOKUP(E52,colores!$D:$E,2,FALSE),"black")</f>
-        <v>red</v>
+        <v>lightgray</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>2024</v>
-      </c>
-      <c r="C53">
-        <v>3</v>
+        <v>2019</v>
       </c>
       <c r="D53" t="s">
-        <v>78</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F53">
-        <v>12598</v>
+        <v>65</v>
+      </c>
+      <c r="E53" t="s">
+        <v>69</v>
       </c>
       <c r="G53">
-        <v>59.28</v>
+        <v>37.450000000000003</v>
       </c>
       <c r="H53">
         <v>3</v>
       </c>
       <c r="I53" t="str">
         <f>IFERROR(VLOOKUP(E53,colores!$D:$E,2,FALSE),"black")</f>
-        <v>orange</v>
+        <v>pink</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>2024</v>
-      </c>
-      <c r="C54">
-        <v>5</v>
+        <v>2019</v>
       </c>
       <c r="D54" t="s">
-        <v>79</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F54">
-        <v>6766</v>
+        <v>70</v>
+      </c>
+      <c r="E54" t="s">
+        <v>66</v>
       </c>
       <c r="G54">
-        <v>31.84</v>
+        <v>35.5</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54" t="str">
         <f>IFERROR(VLOOKUP(E54,colores!$D:$E,2,FALSE),"black")</f>
-        <v>blue</v>
+        <v>green</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>2024</v>
-      </c>
-      <c r="C55">
-        <v>8</v>
+        <v>2019</v>
       </c>
       <c r="D55" t="s">
-        <v>80</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F55">
-        <v>180</v>
+        <v>71</v>
+      </c>
+      <c r="E55" t="s">
+        <v>68</v>
       </c>
       <c r="G55">
-        <v>0.85</v>
+        <v>21.4</v>
       </c>
       <c r="I55" t="str">
         <f>IFERROR(VLOOKUP(E55,colores!$D:$E,2,FALSE),"black")</f>
-        <v>gray</v>
+        <v>orange</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>2024</v>
-      </c>
-      <c r="C56">
-        <v>11</v>
+        <v>2019</v>
       </c>
       <c r="D56" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F56">
-        <v>87</v>
-      </c>
       <c r="G56">
-        <v>0.41</v>
+        <v>2.4</v>
       </c>
       <c r="I56" t="str">
         <f>IFERROR(VLOOKUP(E56,colores!$D:$E,2,FALSE),"black")</f>
@@ -4242,91 +5302,85 @@
     </row>
     <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>2024</v>
-      </c>
-      <c r="C57">
-        <v>13</v>
+        <v>2019</v>
       </c>
       <c r="D57" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="G57">
-        <v>0.8</v>
+        <v>1.79</v>
       </c>
       <c r="I57" t="str">
         <f>IFERROR(VLOOKUP(E57,colores!$D:$E,2,FALSE),"black")</f>
-        <v>coral</v>
+        <v>gray</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B58">
         <v>2024</v>
       </c>
-      <c r="C58" t="s">
-        <v>12</v>
+      <c r="C58">
+        <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" t="s">
-        <v>12</v>
+        <v>75</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="F58">
-        <v>371</v>
+        <v>443</v>
       </c>
       <c r="G58">
-        <v>1.74</v>
+        <v>2.08</v>
       </c>
       <c r="I58" t="str">
         <f>IFERROR(VLOOKUP(E58,colores!$D:$E,2,FALSE),"black")</f>
-        <v>lightgray</v>
+        <v>gray</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B59">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="F59">
-        <v>232</v>
+        <v>638</v>
       </c>
       <c r="G59">
-        <v>1.03</v>
+        <v>3</v>
       </c>
       <c r="I59" t="str">
         <f>IFERROR(VLOOKUP(E59,colores!$D:$E,2,FALSE),"black")</f>
-        <v>green</v>
+        <v>gray</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B60">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -4338,97 +5392,97 @@
         <v>123</v>
       </c>
       <c r="F60">
-        <v>928</v>
+        <v>12598</v>
       </c>
       <c r="G60">
-        <v>4.13</v>
+        <v>59.28</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
       </c>
       <c r="I60" t="str">
         <f>IFERROR(VLOOKUP(E60,colores!$D:$E,2,FALSE),"black")</f>
-        <v>red</v>
+        <v>orange</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B61">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>124</v>
       </c>
       <c r="F61">
-        <v>11809</v>
+        <v>6766</v>
       </c>
       <c r="G61">
-        <v>52.54</v>
+        <v>31.84</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I61" t="str">
         <f>IFERROR(VLOOKUP(E61,colores!$D:$E,2,FALSE),"black")</f>
-        <v>orange</v>
+        <v>blue</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B62">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C62">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D62" t="s">
         <v>79</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F62">
-        <v>8105</v>
+        <v>180</v>
       </c>
       <c r="G62">
-        <v>36.06</v>
-      </c>
-      <c r="H62">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="I62" t="str">
         <f>IFERROR(VLOOKUP(E62,colores!$D:$E,2,FALSE),"black")</f>
-        <v>blue</v>
+        <v>gray</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B63">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C63">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D63" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F63">
-        <v>266</v>
+        <v>87</v>
       </c>
       <c r="G63">
-        <v>1.18</v>
+        <v>0.41</v>
       </c>
       <c r="I63" t="str">
         <f>IFERROR(VLOOKUP(E63,colores!$D:$E,2,FALSE),"black")</f>
@@ -4437,25 +5491,25 @@
     </row>
     <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C64">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F64">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="G64">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="I64" t="str">
         <f>IFERROR(VLOOKUP(E64,colores!$D:$E,2,FALSE),"black")</f>
@@ -4464,247 +5518,247 @@
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>2022</v>
-      </c>
-      <c r="C65">
-        <v>13</v>
+        <v>2024</v>
+      </c>
+      <c r="C65" t="s">
+        <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>87</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
       </c>
       <c r="F65">
-        <v>232</v>
+        <v>371</v>
       </c>
       <c r="G65">
-        <v>1.03</v>
+        <v>1.74</v>
       </c>
       <c r="I65" t="str">
         <f>IFERROR(VLOOKUP(E65,colores!$D:$E,2,FALSE),"black")</f>
-        <v>coral</v>
+        <v>lightgray</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B66">
         <v>2022</v>
       </c>
       <c r="C66">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="F66">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G66">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="I66" t="str">
         <f>IFERROR(VLOOKUP(E66,colores!$D:$E,2,FALSE),"black")</f>
-        <v>gray</v>
+        <v>green</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B67">
         <v>2022</v>
       </c>
-      <c r="C67" t="s">
-        <v>12</v>
+      <c r="C67">
+        <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>12</v>
-      </c>
-      <c r="E67" t="s">
-        <v>12</v>
+        <v>76</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="F67">
-        <v>445</v>
+        <v>928</v>
       </c>
       <c r="G67">
-        <v>1.98</v>
+        <v>4.13</v>
       </c>
       <c r="I67" t="str">
         <f>IFERROR(VLOOKUP(E67,colores!$D:$E,2,FALSE),"black")</f>
-        <v>lightgray</v>
+        <v>red</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F68">
-        <v>200</v>
+        <v>11809</v>
       </c>
       <c r="G68">
-        <v>0.94</v>
+        <v>52.54</v>
+      </c>
+      <c r="H68">
+        <v>3</v>
       </c>
       <c r="I68" t="str">
         <f>IFERROR(VLOOKUP(E68,colores!$D:$E,2,FALSE),"black")</f>
-        <v>gray</v>
+        <v>orange</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F69">
-        <v>1033</v>
+        <v>8105</v>
       </c>
       <c r="G69">
-        <v>4.88</v>
+        <v>36.06</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
       </c>
       <c r="I69" t="str">
         <f>IFERROR(VLOOKUP(E69,colores!$D:$E,2,FALSE),"black")</f>
-        <v>red</v>
+        <v>blue</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D70" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="F70">
-        <v>5434</v>
+        <v>266</v>
       </c>
       <c r="G70">
-        <v>25.67</v>
+        <v>1.18</v>
       </c>
       <c r="I70" t="str">
         <f>IFERROR(VLOOKUP(E70,colores!$D:$E,2,FALSE),"black")</f>
-        <v>orange</v>
+        <v>gray</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C71">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F71">
-        <v>7441</v>
+        <v>221</v>
       </c>
       <c r="G71">
-        <v>35.15</v>
-      </c>
-      <c r="H71">
-        <v>3</v>
+        <v>0.98</v>
       </c>
       <c r="I71" t="str">
         <f>IFERROR(VLOOKUP(E71,colores!$D:$E,2,FALSE),"black")</f>
-        <v>purple</v>
+        <v>gray</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C72">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F72">
-        <v>3142</v>
+        <v>232</v>
       </c>
       <c r="G72">
-        <v>29.01</v>
-      </c>
-      <c r="H72">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="I72" t="str">
         <f>IFERROR(VLOOKUP(E72,colores!$D:$E,2,FALSE),"black")</f>
-        <v>blue</v>
+        <v>gray</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C73">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D73" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F73">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="G73">
-        <v>1.32</v>
+        <v>1.07</v>
       </c>
       <c r="I73" t="str">
         <f>IFERROR(VLOOKUP(E73,colores!$D:$E,2,FALSE),"black")</f>
@@ -4713,52 +5767,52 @@
     </row>
     <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74">
-        <v>2019</v>
-      </c>
-      <c r="C74">
-        <v>13</v>
+        <v>2022</v>
+      </c>
+      <c r="C74" t="s">
+        <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>8</v>
+        <v>133</v>
       </c>
       <c r="F74">
-        <v>217</v>
+        <v>445</v>
       </c>
       <c r="G74">
-        <v>1.02</v>
+        <v>1.98</v>
       </c>
       <c r="I74" t="str">
         <f>IFERROR(VLOOKUP(E74,colores!$D:$E,2,FALSE),"black")</f>
-        <v>coral</v>
+        <v>gray</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75">
         <v>2019</v>
       </c>
       <c r="C75">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F75">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c r="G75">
-        <v>0.69</v>
+        <v>0.94</v>
       </c>
       <c r="I75" t="str">
         <f>IFERROR(VLOOKUP(E75,colores!$D:$E,2,FALSE),"black")</f>
@@ -4767,52 +5821,52 @@
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76">
         <v>2019</v>
       </c>
-      <c r="C76" t="s">
-        <v>12</v>
+      <c r="C76">
+        <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="F76">
-        <v>277</v>
+        <v>1033</v>
       </c>
       <c r="G76">
-        <v>1.31</v>
+        <v>4.88</v>
       </c>
       <c r="I76" t="str">
         <f>IFERROR(VLOOKUP(E76,colores!$D:$E,2,FALSE),"black")</f>
-        <v>lightgray</v>
+        <v>red</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B77">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D77" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="F77">
-        <v>16057</v>
+        <v>5434</v>
       </c>
       <c r="G77">
-        <v>71.209999999999994</v>
+        <v>25.67</v>
       </c>
       <c r="I77" t="str">
         <f>IFERROR(VLOOKUP(E77,colores!$D:$E,2,FALSE),"black")</f>
@@ -4821,79 +5875,85 @@
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B78">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>94</v>
-      </c>
-      <c r="E78" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="F78">
-        <v>477</v>
+        <v>7441</v>
       </c>
       <c r="G78">
-        <v>2.12</v>
+        <v>35.15</v>
+      </c>
+      <c r="H78">
+        <v>3</v>
       </c>
       <c r="I78" t="str">
         <f>IFERROR(VLOOKUP(E78,colores!$D:$E,2,FALSE),"black")</f>
-        <v>gray</v>
+        <v>purple</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B79">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F79">
-        <v>285</v>
+        <v>3142</v>
       </c>
       <c r="G79">
-        <v>1.26</v>
+        <v>29.01</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
       </c>
       <c r="I79" t="str">
         <f>IFERROR(VLOOKUP(E79,colores!$D:$E,2,FALSE),"black")</f>
-        <v>gray</v>
+        <v>blue</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B80">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="C80">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D80" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F80">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="G80">
-        <v>0.34</v>
+        <v>1.32</v>
       </c>
       <c r="I80" t="str">
         <f>IFERROR(VLOOKUP(E80,colores!$D:$E,2,FALSE),"black")</f>
@@ -4902,25 +5962,25 @@
     </row>
     <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B81">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="C81">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D81" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F81">
-        <v>48</v>
+        <v>217</v>
       </c>
       <c r="G81">
-        <v>0.21</v>
+        <v>1.02</v>
       </c>
       <c r="I81" t="str">
         <f>IFERROR(VLOOKUP(E81,colores!$D:$E,2,FALSE),"black")</f>
@@ -4929,25 +5989,25 @@
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B82">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="C82">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D82" t="s">
-        <v>98</v>
-      </c>
-      <c r="E82" t="s">
-        <v>98</v>
+        <v>91</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="F82">
-        <v>396</v>
+        <v>147</v>
       </c>
       <c r="G82">
-        <v>1.76</v>
+        <v>0.69</v>
       </c>
       <c r="I82" t="str">
         <f>IFERROR(VLOOKUP(E82,colores!$D:$E,2,FALSE),"black")</f>
@@ -4956,79 +6016,82 @@
     </row>
     <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B83">
-        <v>2024</v>
-      </c>
-      <c r="C83">
-        <v>7</v>
+        <v>2019</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
       </c>
       <c r="D83" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="F83">
-        <v>206</v>
+        <v>277</v>
       </c>
       <c r="G83">
-        <v>0.91</v>
+        <v>1.31</v>
       </c>
       <c r="I83" t="str">
         <f>IFERROR(VLOOKUP(E83,colores!$D:$E,2,FALSE),"black")</f>
-        <v>gray</v>
+        <v>lightgray</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B84">
         <v>2024</v>
       </c>
       <c r="C84">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="F84">
-        <v>676</v>
+        <v>16057</v>
       </c>
       <c r="G84">
-        <v>3</v>
+        <v>71.209999999999994</v>
+      </c>
+      <c r="H84">
+        <v>4</v>
       </c>
       <c r="I84" t="str">
         <f>IFERROR(VLOOKUP(E84,colores!$D:$E,2,FALSE),"black")</f>
-        <v>gray</v>
+        <v>orange</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B85">
         <v>2024</v>
       </c>
       <c r="C85">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>101</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>135</v>
+        <v>93</v>
+      </c>
+      <c r="E85" t="s">
+        <v>93</v>
       </c>
       <c r="F85">
-        <v>2106</v>
+        <v>477</v>
       </c>
       <c r="G85">
-        <v>9.34</v>
+        <v>2.12</v>
       </c>
       <c r="I85" t="str">
         <f>IFERROR(VLOOKUP(E85,colores!$D:$E,2,FALSE),"black")</f>
@@ -5037,25 +6100,25 @@
     </row>
     <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B86">
         <v>2024</v>
       </c>
       <c r="C86">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>102</v>
-      </c>
-      <c r="E86" t="s">
-        <v>102</v>
+        <v>94</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="F86">
-        <v>1417</v>
+        <v>285</v>
       </c>
       <c r="G86">
-        <v>6.28</v>
+        <v>1.26</v>
       </c>
       <c r="I86" t="str">
         <f>IFERROR(VLOOKUP(E86,colores!$D:$E,2,FALSE),"black")</f>
@@ -5064,25 +6127,25 @@
     </row>
     <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B87">
         <v>2024</v>
       </c>
       <c r="C87">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F87">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="G87">
-        <v>0.97</v>
+        <v>0.34</v>
       </c>
       <c r="I87" t="str">
         <f>IFERROR(VLOOKUP(E87,colores!$D:$E,2,FALSE),"black")</f>
@@ -5091,22 +6154,22 @@
     </row>
     <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B88">
         <v>2024</v>
       </c>
       <c r="C88">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D88" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F88">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G88">
         <v>0.21</v>
@@ -5118,52 +6181,52 @@
     </row>
     <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B89">
         <v>2024</v>
       </c>
       <c r="C89">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>105</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>12</v>
+        <v>97</v>
+      </c>
+      <c r="E89" t="s">
+        <v>97</v>
       </c>
       <c r="F89">
-        <v>104</v>
+        <v>396</v>
       </c>
       <c r="G89">
-        <v>0.46</v>
+        <v>1.76</v>
       </c>
       <c r="I89" t="str">
         <f>IFERROR(VLOOKUP(E89,colores!$D:$E,2,FALSE),"black")</f>
-        <v>lightgray</v>
+        <v>gray</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B90">
         <v>2024</v>
       </c>
       <c r="C90">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F90">
-        <v>31</v>
+        <v>206</v>
       </c>
       <c r="G90">
-        <v>0.14000000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="I90" t="str">
         <f>IFERROR(VLOOKUP(E90,colores!$D:$E,2,FALSE),"black")</f>
@@ -5172,25 +6235,25 @@
     </row>
     <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B91">
         <v>2024</v>
       </c>
       <c r="C91">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F91">
-        <v>59</v>
+        <v>676</v>
       </c>
       <c r="G91">
-        <v>0.26</v>
+        <v>3</v>
       </c>
       <c r="I91" t="str">
         <f>IFERROR(VLOOKUP(E91,colores!$D:$E,2,FALSE),"black")</f>
@@ -5199,79 +6262,79 @@
     </row>
     <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92">
         <v>2024</v>
       </c>
-      <c r="C92" t="s">
-        <v>108</v>
+      <c r="C92">
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>108</v>
-      </c>
-      <c r="E92" t="s">
-        <v>12</v>
+        <v>100</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="F92">
-        <v>345</v>
+        <v>2106</v>
       </c>
       <c r="G92">
-        <v>1.53</v>
+        <v>9.34</v>
       </c>
       <c r="I92" t="str">
         <f>IFERROR(VLOOKUP(E92,colores!$D:$E,2,FALSE),"black")</f>
-        <v>lightgray</v>
+        <v>gray</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>69</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>69</v>
+        <v>101</v>
+      </c>
+      <c r="E93" t="s">
+        <v>101</v>
       </c>
       <c r="F93">
-        <v>16895</v>
+        <v>1417</v>
       </c>
       <c r="G93">
-        <v>72.11</v>
+        <v>6.28</v>
       </c>
       <c r="I93" t="str">
         <f>IFERROR(VLOOKUP(E93,colores!$D:$E,2,FALSE),"black")</f>
-        <v>orange</v>
+        <v>gray</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>94</v>
-      </c>
-      <c r="E94" t="s">
-        <v>94</v>
+        <v>102</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="F94">
-        <v>695</v>
+        <v>219</v>
       </c>
       <c r="G94">
-        <v>2.97</v>
+        <v>0.97</v>
       </c>
       <c r="I94" t="str">
         <f>IFERROR(VLOOKUP(E94,colores!$D:$E,2,FALSE),"black")</f>
@@ -5280,25 +6343,25 @@
     </row>
     <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F95">
-        <v>196</v>
+        <v>47</v>
       </c>
       <c r="G95">
-        <v>0.84</v>
+        <v>0.21</v>
       </c>
       <c r="I95" t="str">
         <f>IFERROR(VLOOKUP(E95,colores!$D:$E,2,FALSE),"black")</f>
@@ -5307,52 +6370,52 @@
     </row>
     <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B96">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D96" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="F96">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="G96">
-        <v>0.33</v>
+        <v>0.46</v>
       </c>
       <c r="I96" t="str">
         <f>IFERROR(VLOOKUP(E96,colores!$D:$E,2,FALSE),"black")</f>
-        <v>gray</v>
+        <v>lightgray</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B97">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C97">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D97" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F97">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G97">
-        <v>0.21</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I97" t="str">
         <f>IFERROR(VLOOKUP(E97,colores!$D:$E,2,FALSE),"black")</f>
@@ -5361,25 +6424,25 @@
     </row>
     <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B98">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C98">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D98" t="s">
-        <v>98</v>
-      </c>
-      <c r="E98" t="s">
-        <v>98</v>
+        <v>106</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="F98">
-        <v>645</v>
+        <v>59</v>
       </c>
       <c r="G98">
-        <v>2.75</v>
+        <v>0.26</v>
       </c>
       <c r="I98" t="str">
         <f>IFERROR(VLOOKUP(E98,colores!$D:$E,2,FALSE),"black")</f>
@@ -5388,79 +6451,82 @@
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B99">
-        <v>2022</v>
-      </c>
-      <c r="C99">
-        <v>7</v>
+        <v>2024</v>
+      </c>
+      <c r="C99" t="s">
+        <v>107</v>
       </c>
       <c r="D99" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E99" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="F99">
-        <v>482</v>
+        <v>345</v>
       </c>
       <c r="G99">
-        <v>2.06</v>
+        <v>1.53</v>
       </c>
       <c r="I99" t="str">
         <f>IFERROR(VLOOKUP(E99,colores!$D:$E,2,FALSE),"black")</f>
-        <v>gray</v>
+        <v>lightgray</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B100">
         <v>2022</v>
       </c>
       <c r="C100">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>112</v>
-      </c>
-      <c r="E100" t="s">
-        <v>112</v>
+        <v>68</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="F100">
-        <v>1473</v>
+        <v>16895</v>
       </c>
       <c r="G100">
-        <v>6.29</v>
+        <v>72.11</v>
+      </c>
+      <c r="H100">
+        <v>4</v>
       </c>
       <c r="I100" t="str">
         <f>IFERROR(VLOOKUP(E100,colores!$D:$E,2,FALSE),"black")</f>
-        <v>gray</v>
+        <v>orange</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B101">
         <v>2022</v>
       </c>
       <c r="C101">
-        <v>9</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>135</v>
+        <v>2</v>
+      </c>
+      <c r="D101" t="s">
+        <v>93</v>
+      </c>
+      <c r="E101" t="s">
+        <v>93</v>
       </c>
       <c r="F101">
-        <v>1520</v>
+        <v>695</v>
       </c>
       <c r="G101">
-        <v>6.49</v>
+        <v>2.97</v>
       </c>
       <c r="I101" t="str">
         <f>IFERROR(VLOOKUP(E101,colores!$D:$E,2,FALSE),"black")</f>
@@ -5469,25 +6535,25 @@
     </row>
     <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B102">
         <v>2022</v>
       </c>
       <c r="C102">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D102" t="s">
-        <v>102</v>
-      </c>
-      <c r="E102" t="s">
-        <v>102</v>
+        <v>108</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="F102">
-        <v>549</v>
+        <v>196</v>
       </c>
       <c r="G102">
-        <v>2.34</v>
+        <v>0.84</v>
       </c>
       <c r="I102" t="str">
         <f>IFERROR(VLOOKUP(E102,colores!$D:$E,2,FALSE),"black")</f>
@@ -5496,25 +6562,25 @@
     </row>
     <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B103">
         <v>2022</v>
       </c>
       <c r="C103">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D103" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F103">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="G103">
-        <v>0.56000000000000005</v>
+        <v>0.33</v>
       </c>
       <c r="I103" t="str">
         <f>IFERROR(VLOOKUP(E103,colores!$D:$E,2,FALSE),"black")</f>
@@ -5523,25 +6589,25 @@
     </row>
     <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B104">
         <v>2022</v>
       </c>
       <c r="C104">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D104" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F104">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="G104">
-        <v>0.33</v>
+        <v>0.21</v>
       </c>
       <c r="I104" t="str">
         <f>IFERROR(VLOOKUP(E104,colores!$D:$E,2,FALSE),"black")</f>
@@ -5550,52 +6616,52 @@
     </row>
     <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B105">
         <v>2022</v>
       </c>
       <c r="C105">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D105" t="s">
-        <v>105</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>12</v>
+        <v>97</v>
+      </c>
+      <c r="E105" t="s">
+        <v>97</v>
       </c>
       <c r="F105">
-        <v>134</v>
+        <v>645</v>
       </c>
       <c r="G105">
-        <v>0.56999999999999995</v>
+        <v>2.75</v>
       </c>
       <c r="I105" t="str">
         <f>IFERROR(VLOOKUP(E105,colores!$D:$E,2,FALSE),"black")</f>
-        <v>lightgray</v>
+        <v>gray</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B106">
         <v>2022</v>
       </c>
       <c r="C106">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D106" t="s">
-        <v>106</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>134</v>
+        <v>110</v>
+      </c>
+      <c r="E106" t="s">
+        <v>110</v>
       </c>
       <c r="F106">
-        <v>35</v>
+        <v>482</v>
       </c>
       <c r="G106">
-        <v>0.15</v>
+        <v>2.06</v>
       </c>
       <c r="I106" t="str">
         <f>IFERROR(VLOOKUP(E106,colores!$D:$E,2,FALSE),"black")</f>
@@ -5604,25 +6670,25 @@
     </row>
     <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B107">
         <v>2022</v>
       </c>
       <c r="C107">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="D107" t="s">
-        <v>114</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>134</v>
+        <v>111</v>
+      </c>
+      <c r="E107" t="s">
+        <v>111</v>
       </c>
       <c r="F107">
-        <v>78</v>
+        <v>1473</v>
       </c>
       <c r="G107">
-        <v>0.33</v>
+        <v>6.29</v>
       </c>
       <c r="I107" t="str">
         <f>IFERROR(VLOOKUP(E107,colores!$D:$E,2,FALSE),"black")</f>
@@ -5631,79 +6697,79 @@
     </row>
     <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B108">
         <v>2022</v>
       </c>
-      <c r="C108" t="s">
-        <v>108</v>
-      </c>
-      <c r="D108" t="s">
-        <v>108</v>
-      </c>
-      <c r="E108" t="s">
-        <v>12</v>
+      <c r="C108">
+        <v>9</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="F108">
-        <v>391</v>
+        <v>1520</v>
       </c>
       <c r="G108">
-        <v>1.67</v>
+        <v>6.49</v>
       </c>
       <c r="I108" t="str">
         <f>IFERROR(VLOOKUP(E108,colores!$D:$E,2,FALSE),"black")</f>
-        <v>lightgray</v>
+        <v>gray</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B109">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>69</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>69</v>
+        <v>101</v>
+      </c>
+      <c r="E109" t="s">
+        <v>101</v>
       </c>
       <c r="F109">
-        <v>19394</v>
+        <v>549</v>
       </c>
       <c r="G109">
-        <v>74.209999999999994</v>
+        <v>2.34</v>
       </c>
       <c r="I109" t="str">
         <f>IFERROR(VLOOKUP(E109,colores!$D:$E,2,FALSE),"black")</f>
-        <v>orange</v>
+        <v>gray</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B110">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D110" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F110">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="G110">
-        <v>0.56999999999999995</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I110" t="str">
         <f>IFERROR(VLOOKUP(E110,colores!$D:$E,2,FALSE),"black")</f>
@@ -5712,25 +6778,25 @@
     </row>
     <row r="111" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B111">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C111">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D111" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F111">
-        <v>338</v>
+        <v>78</v>
       </c>
       <c r="G111">
-        <v>1.29</v>
+        <v>0.33</v>
       </c>
       <c r="I111" t="str">
         <f>IFERROR(VLOOKUP(E111,colores!$D:$E,2,FALSE),"black")</f>
@@ -5739,52 +6805,52 @@
     </row>
     <row r="112" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B112">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C112">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D112" t="s">
-        <v>94</v>
-      </c>
-      <c r="E112" t="s">
-        <v>94</v>
+        <v>104</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="F112">
-        <v>1063</v>
+        <v>134</v>
       </c>
       <c r="G112">
-        <v>4.07</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I112" t="str">
         <f>IFERROR(VLOOKUP(E112,colores!$D:$E,2,FALSE),"black")</f>
-        <v>gray</v>
+        <v>lightgray</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B113">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C113">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D113" t="s">
-        <v>115</v>
-      </c>
-      <c r="E113" t="s">
-        <v>115</v>
+        <v>105</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="F113">
-        <v>822</v>
+        <v>35</v>
       </c>
       <c r="G113">
-        <v>3.15</v>
+        <v>0.15</v>
       </c>
       <c r="I113" t="str">
         <f>IFERROR(VLOOKUP(E113,colores!$D:$E,2,FALSE),"black")</f>
@@ -5793,25 +6859,25 @@
     </row>
     <row r="114" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B114">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C114">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D114" t="s">
-        <v>116</v>
-      </c>
-      <c r="E114" t="s">
-        <v>98</v>
+        <v>113</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="F114">
-        <v>1952</v>
+        <v>78</v>
       </c>
       <c r="G114">
-        <v>7.47</v>
+        <v>0.33</v>
       </c>
       <c r="I114" t="str">
         <f>IFERROR(VLOOKUP(E114,colores!$D:$E,2,FALSE),"black")</f>
@@ -5820,79 +6886,82 @@
     </row>
     <row r="115" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B115">
-        <v>2019</v>
-      </c>
-      <c r="C115">
-        <v>7</v>
+        <v>2022</v>
+      </c>
+      <c r="C115" t="s">
+        <v>107</v>
       </c>
       <c r="D115" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E115" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="F115">
-        <v>1112</v>
+        <v>391</v>
       </c>
       <c r="G115">
-        <v>4.25</v>
+        <v>1.67</v>
       </c>
       <c r="I115" t="str">
         <f>IFERROR(VLOOKUP(E115,colores!$D:$E,2,FALSE),"black")</f>
-        <v>gray</v>
+        <v>lightgray</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B116">
         <v>2019</v>
       </c>
       <c r="C116">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>117</v>
-      </c>
-      <c r="E116" t="s">
-        <v>112</v>
+        <v>68</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="F116">
-        <v>415</v>
+        <v>19394</v>
       </c>
       <c r="G116">
-        <v>1.59</v>
+        <v>74.209999999999994</v>
+      </c>
+      <c r="H116">
+        <v>4</v>
       </c>
       <c r="I116" t="str">
         <f>IFERROR(VLOOKUP(E116,colores!$D:$E,2,FALSE),"black")</f>
-        <v>gray</v>
+        <v>orange</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B117">
         <v>2019</v>
       </c>
       <c r="C117">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D117" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F117">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="G117">
-        <v>0.14000000000000001</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I117" t="str">
         <f>IFERROR(VLOOKUP(E117,colores!$D:$E,2,FALSE),"black")</f>
@@ -5901,25 +6970,25 @@
     </row>
     <row r="118" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B118">
         <v>2019</v>
       </c>
       <c r="C118">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D118" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F118">
-        <v>139</v>
+        <v>338</v>
       </c>
       <c r="G118">
-        <v>0.53</v>
+        <v>1.29</v>
       </c>
       <c r="I118" t="str">
         <f>IFERROR(VLOOKUP(E118,colores!$D:$E,2,FALSE),"black")</f>
@@ -5928,55 +6997,1747 @@
     </row>
     <row r="119" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B119">
         <v>2019</v>
       </c>
       <c r="C119">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D119" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E119" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="F119">
-        <v>176</v>
+        <v>1063</v>
       </c>
       <c r="G119">
-        <v>0.67</v>
+        <v>4.07</v>
       </c>
       <c r="I119" t="str">
         <f>IFERROR(VLOOKUP(E119,colores!$D:$E,2,FALSE),"black")</f>
-        <v>lightgray</v>
+        <v>gray</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B120">
         <v>2019</v>
       </c>
-      <c r="C120" t="s">
-        <v>12</v>
+      <c r="C120">
+        <v>5</v>
       </c>
       <c r="D120" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="E120" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="F120">
-        <v>537</v>
+        <v>822</v>
       </c>
       <c r="G120">
-        <v>2.06</v>
+        <v>3.15</v>
       </c>
       <c r="I120" t="str">
         <f>IFERROR(VLOOKUP(E120,colores!$D:$E,2,FALSE),"black")</f>
+        <v>gray</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>92</v>
+      </c>
+      <c r="B121">
+        <v>2019</v>
+      </c>
+      <c r="C121">
+        <v>6</v>
+      </c>
+      <c r="D121" t="s">
+        <v>115</v>
+      </c>
+      <c r="E121" t="s">
+        <v>97</v>
+      </c>
+      <c r="F121">
+        <v>1952</v>
+      </c>
+      <c r="G121">
+        <v>7.47</v>
+      </c>
+      <c r="I121" t="str">
+        <f>IFERROR(VLOOKUP(E121,colores!$D:$E,2,FALSE),"black")</f>
+        <v>gray</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>92</v>
+      </c>
+      <c r="B122">
+        <v>2019</v>
+      </c>
+      <c r="C122">
+        <v>7</v>
+      </c>
+      <c r="D122" t="s">
+        <v>110</v>
+      </c>
+      <c r="E122" t="s">
+        <v>110</v>
+      </c>
+      <c r="F122">
+        <v>1112</v>
+      </c>
+      <c r="G122">
+        <v>4.25</v>
+      </c>
+      <c r="I122" t="str">
+        <f>IFERROR(VLOOKUP(E122,colores!$D:$E,2,FALSE),"black")</f>
+        <v>gray</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>92</v>
+      </c>
+      <c r="B123">
+        <v>2019</v>
+      </c>
+      <c r="C123">
+        <v>8</v>
+      </c>
+      <c r="D123" t="s">
+        <v>116</v>
+      </c>
+      <c r="E123" t="s">
+        <v>111</v>
+      </c>
+      <c r="F123">
+        <v>415</v>
+      </c>
+      <c r="G123">
+        <v>1.59</v>
+      </c>
+      <c r="I123" t="str">
+        <f>IFERROR(VLOOKUP(E123,colores!$D:$E,2,FALSE),"black")</f>
+        <v>gray</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>92</v>
+      </c>
+      <c r="B124">
+        <v>2019</v>
+      </c>
+      <c r="C124">
+        <v>9</v>
+      </c>
+      <c r="D124" t="s">
+        <v>117</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F124">
+        <v>36</v>
+      </c>
+      <c r="G124">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I124" t="str">
+        <f>IFERROR(VLOOKUP(E124,colores!$D:$E,2,FALSE),"black")</f>
+        <v>gray</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>92</v>
+      </c>
+      <c r="B125">
+        <v>2019</v>
+      </c>
+      <c r="C125">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s">
+        <v>112</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F125">
+        <v>139</v>
+      </c>
+      <c r="G125">
+        <v>0.53</v>
+      </c>
+      <c r="I125" t="str">
+        <f>IFERROR(VLOOKUP(E125,colores!$D:$E,2,FALSE),"black")</f>
+        <v>gray</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>92</v>
+      </c>
+      <c r="B126">
+        <v>2019</v>
+      </c>
+      <c r="C126">
+        <v>12</v>
+      </c>
+      <c r="D126" t="s">
+        <v>104</v>
+      </c>
+      <c r="E126" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126">
+        <v>176</v>
+      </c>
+      <c r="G126">
+        <v>0.67</v>
+      </c>
+      <c r="I126" t="str">
+        <f>IFERROR(VLOOKUP(E126,colores!$D:$E,2,FALSE),"black")</f>
+        <v>lightgray</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>92</v>
+      </c>
+      <c r="B127">
+        <v>2019</v>
+      </c>
+      <c r="C127" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127">
+        <v>537</v>
+      </c>
+      <c r="G127">
+        <v>2.06</v>
+      </c>
+      <c r="I127" t="str">
+        <f>IFERROR(VLOOKUP(E127,colores!$D:$E,2,FALSE),"black")</f>
+        <v>lightgray</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>141</v>
+      </c>
+      <c r="B128">
+        <v>2024</v>
+      </c>
+      <c r="C128">
+        <v>4</v>
+      </c>
+      <c r="D128" t="s">
+        <v>142</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F128">
+        <v>321</v>
+      </c>
+      <c r="G128">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="I128" t="str">
+        <f>IFERROR(VLOOKUP(E128,colores!$D:$E,2,FALSE),"black")</f>
+        <v>gray</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>141</v>
+      </c>
+      <c r="B129">
+        <v>2024</v>
+      </c>
+      <c r="C129">
+        <v>7</v>
+      </c>
+      <c r="D129" t="s">
+        <v>143</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F129">
+        <v>1872</v>
+      </c>
+      <c r="G129">
+        <v>23.45</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129" t="str">
+        <f>IFERROR(VLOOKUP(E129,colores!$D:$E,2,FALSE),"black")</f>
+        <v>pink</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>141</v>
+      </c>
+      <c r="B130">
+        <v>2024</v>
+      </c>
+      <c r="C130">
+        <v>8</v>
+      </c>
+      <c r="D130" t="s">
+        <v>144</v>
+      </c>
+      <c r="E130" t="s">
+        <v>144</v>
+      </c>
+      <c r="F130">
+        <v>258</v>
+      </c>
+      <c r="G130">
+        <v>3.23</v>
+      </c>
+      <c r="I130" t="str">
+        <f>IFERROR(VLOOKUP(E130,colores!$D:$E,2,FALSE),"black")</f>
+        <v>red</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>141</v>
+      </c>
+      <c r="B131">
+        <v>2024</v>
+      </c>
+      <c r="C131">
+        <v>9</v>
+      </c>
+      <c r="D131" t="s">
+        <v>145</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F131">
+        <v>2964</v>
+      </c>
+      <c r="G131">
+        <v>37.119999999999997</v>
+      </c>
+      <c r="H131">
+        <v>3</v>
+      </c>
+      <c r="I131" t="str">
+        <f>IFERROR(VLOOKUP(E131,colores!$D:$E,2,FALSE),"black")</f>
+        <v>blue</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>141</v>
+      </c>
+      <c r="B132">
+        <v>2024</v>
+      </c>
+      <c r="C132">
+        <v>10</v>
+      </c>
+      <c r="D132" t="s">
+        <v>146</v>
+      </c>
+      <c r="E132" t="s">
+        <v>146</v>
+      </c>
+      <c r="F132">
+        <v>1610</v>
+      </c>
+      <c r="G132">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="I132" t="str">
+        <f>IFERROR(VLOOKUP(E132,colores!$D:$E,2,FALSE),"black")</f>
+        <v>orange</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>141</v>
+      </c>
+      <c r="B133">
+        <v>2024</v>
+      </c>
+      <c r="C133">
+        <v>13</v>
+      </c>
+      <c r="D133" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F133">
+        <v>58</v>
+      </c>
+      <c r="G133">
+        <v>0.73</v>
+      </c>
+      <c r="I133" t="str">
+        <f>IFERROR(VLOOKUP(E133,colores!$D:$E,2,FALSE),"black")</f>
+        <v>gray</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>141</v>
+      </c>
+      <c r="B134">
+        <v>2024</v>
+      </c>
+      <c r="C134">
+        <v>14</v>
+      </c>
+      <c r="D134" t="s">
+        <v>147</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F134">
+        <v>105</v>
+      </c>
+      <c r="G134">
+        <v>1.32</v>
+      </c>
+      <c r="I134" t="str">
+        <f>IFERROR(VLOOKUP(E134,colores!$D:$E,2,FALSE),"black")</f>
+        <v>gray</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>141</v>
+      </c>
+      <c r="B135">
+        <v>2024</v>
+      </c>
+      <c r="C135">
+        <v>17</v>
+      </c>
+      <c r="D135" t="s">
+        <v>148</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F135">
+        <v>165</v>
+      </c>
+      <c r="G135">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="I135" t="str">
+        <f>IFERROR(VLOOKUP(E135,colores!$D:$E,2,FALSE),"black")</f>
+        <v>gray</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>141</v>
+      </c>
+      <c r="B136">
+        <v>2024</v>
+      </c>
+      <c r="C136" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" t="s">
+        <v>12</v>
+      </c>
+      <c r="F136">
+        <v>631</v>
+      </c>
+      <c r="G136">
+        <v>7.9</v>
+      </c>
+      <c r="I136" t="str">
+        <f>IFERROR(VLOOKUP(E136,colores!$D:$E,2,FALSE),"black")</f>
+        <v>lightgray</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>141</v>
+      </c>
+      <c r="B137">
+        <v>2022</v>
+      </c>
+      <c r="C137">
+        <v>7</v>
+      </c>
+      <c r="D137" t="s">
+        <v>143</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F137">
+        <v>1891</v>
+      </c>
+      <c r="G137">
+        <v>30.45</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137" t="str">
+        <f>IFERROR(VLOOKUP(E137,colores!$D:$E,2,FALSE),"black")</f>
+        <v>pink</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138">
+        <v>2022</v>
+      </c>
+      <c r="C138">
+        <v>8</v>
+      </c>
+      <c r="D138" t="s">
+        <v>144</v>
+      </c>
+      <c r="E138" t="s">
+        <v>144</v>
+      </c>
+      <c r="F138">
+        <v>1097</v>
+      </c>
+      <c r="G138">
+        <v>17.66</v>
+      </c>
+      <c r="I138" t="str">
+        <f>IFERROR(VLOOKUP(E138,colores!$D:$E,2,FALSE),"black")</f>
+        <v>red</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>141</v>
+      </c>
+      <c r="B139">
+        <v>2022</v>
+      </c>
+      <c r="C139">
+        <v>9</v>
+      </c>
+      <c r="D139" t="s">
+        <v>145</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F139">
+        <v>2588</v>
+      </c>
+      <c r="G139">
+        <v>41.67</v>
+      </c>
+      <c r="H139">
+        <v>3</v>
+      </c>
+      <c r="I139" t="str">
+        <f>IFERROR(VLOOKUP(E139,colores!$D:$E,2,FALSE),"black")</f>
+        <v>blue</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140">
+        <v>2022</v>
+      </c>
+      <c r="C140" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140" t="s">
+        <v>12</v>
+      </c>
+      <c r="F140">
+        <v>635</v>
+      </c>
+      <c r="G140">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="I140" t="str">
+        <f>IFERROR(VLOOKUP(E140,colores!$D:$E,2,FALSE),"black")</f>
+        <v>lightgray</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141">
+        <v>2019</v>
+      </c>
+      <c r="C141">
+        <v>7</v>
+      </c>
+      <c r="D141" t="s">
+        <v>149</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F141">
+        <v>1505</v>
+      </c>
+      <c r="G141">
+        <v>26.54</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141" t="str">
+        <f>IFERROR(VLOOKUP(E141,colores!$D:$E,2,FALSE),"black")</f>
+        <v>pink</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>2019</v>
+      </c>
+      <c r="C142">
+        <v>8</v>
+      </c>
+      <c r="D142" t="s">
+        <v>16</v>
+      </c>
+      <c r="E142" t="s">
+        <v>144</v>
+      </c>
+      <c r="F142">
+        <v>1245</v>
+      </c>
+      <c r="G142">
+        <v>21.95</v>
+      </c>
+      <c r="I142" t="str">
+        <f>IFERROR(VLOOKUP(E142,colores!$D:$E,2,FALSE),"black")</f>
+        <v>red</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>2019</v>
+      </c>
+      <c r="C143">
+        <v>9</v>
+      </c>
+      <c r="D143" t="s">
+        <v>150</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F143">
+        <v>1912</v>
+      </c>
+      <c r="G143">
+        <v>33.72</v>
+      </c>
+      <c r="H143">
+        <v>3</v>
+      </c>
+      <c r="I143" t="str">
+        <f>IFERROR(VLOOKUP(E143,colores!$D:$E,2,FALSE),"black")</f>
+        <v>blue</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>141</v>
+      </c>
+      <c r="B144">
+        <v>2019</v>
+      </c>
+      <c r="C144">
+        <v>26</v>
+      </c>
+      <c r="D144" t="s">
+        <v>151</v>
+      </c>
+      <c r="E144" t="s">
+        <v>151</v>
+      </c>
+      <c r="F144">
+        <v>517</v>
+      </c>
+      <c r="G144">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="I144" t="str">
+        <f>IFERROR(VLOOKUP(E144,colores!$D:$E,2,FALSE),"black")</f>
+        <v>gray</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>141</v>
+      </c>
+      <c r="B145">
+        <v>2019</v>
+      </c>
+      <c r="C145" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" t="s">
+        <v>12</v>
+      </c>
+      <c r="E145" t="s">
+        <v>12</v>
+      </c>
+      <c r="F145">
+        <v>492</v>
+      </c>
+      <c r="G145">
+        <v>8.68</v>
+      </c>
+      <c r="I145" t="str">
+        <f>IFERROR(VLOOKUP(E145,colores!$D:$E,2,FALSE),"black")</f>
+        <v>lightgray</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>152</v>
+      </c>
+      <c r="B146">
+        <v>2024</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146" t="s">
+        <v>153</v>
+      </c>
+      <c r="E146" t="s">
+        <v>153</v>
+      </c>
+      <c r="F146">
+        <v>1346</v>
+      </c>
+      <c r="G146">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="I146" t="str">
+        <f>IFERROR(VLOOKUP(E146,colores!$D:$E,2,FALSE),"black")</f>
+        <v>black</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>152</v>
+      </c>
+      <c r="B147">
+        <v>2024</v>
+      </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
+      <c r="D147" t="s">
+        <v>101</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F147">
+        <v>1467</v>
+      </c>
+      <c r="G147">
+        <v>18.440000000000001</v>
+      </c>
+      <c r="I147" t="str">
+        <f>IFERROR(VLOOKUP(E147,colores!$D:$E,2,FALSE),"black")</f>
+        <v>yellow</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>152</v>
+      </c>
+      <c r="B148">
+        <v>2024</v>
+      </c>
+      <c r="C148">
+        <v>7</v>
+      </c>
+      <c r="D148" t="s">
+        <v>154</v>
+      </c>
+      <c r="E148" t="s">
+        <v>159</v>
+      </c>
+      <c r="F148">
+        <v>609</v>
+      </c>
+      <c r="G148">
+        <v>7.66</v>
+      </c>
+      <c r="I148" t="str">
+        <f>IFERROR(VLOOKUP(E148,colores!$D:$E,2,FALSE),"black")</f>
+        <v>blue</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149">
+        <v>2024</v>
+      </c>
+      <c r="C149">
+        <v>8</v>
+      </c>
+      <c r="D149" t="s">
+        <v>155</v>
+      </c>
+      <c r="E149" t="s">
+        <v>155</v>
+      </c>
+      <c r="F149">
+        <v>1312</v>
+      </c>
+      <c r="G149">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="I149" t="str">
+        <f>IFERROR(VLOOKUP(E149,colores!$D:$E,2,FALSE),"black")</f>
+        <v>green</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>152</v>
+      </c>
+      <c r="B150">
+        <v>2024</v>
+      </c>
+      <c r="C150">
+        <v>417</v>
+      </c>
+      <c r="D150" t="s">
+        <v>156</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F150">
+        <v>2786</v>
+      </c>
+      <c r="G150">
+        <v>35.03</v>
+      </c>
+      <c r="H150">
+        <v>4</v>
+      </c>
+      <c r="I150" t="str">
+        <f>IFERROR(VLOOKUP(E150,colores!$D:$E,2,FALSE),"black")</f>
+        <v>salmon</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151">
+        <v>2024</v>
+      </c>
+      <c r="C151" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151" t="s">
+        <v>12</v>
+      </c>
+      <c r="F151">
+        <v>434</v>
+      </c>
+      <c r="G151">
+        <v>5.46</v>
+      </c>
+      <c r="I151" t="str">
+        <f>IFERROR(VLOOKUP(E151,colores!$D:$E,2,FALSE),"black")</f>
+        <v>lightgray</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152">
+        <v>2019</v>
+      </c>
+      <c r="C152">
+        <v>2</v>
+      </c>
+      <c r="D152" t="s">
+        <v>157</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F152">
+        <v>1597</v>
+      </c>
+      <c r="G152">
+        <v>19.559999999999999</v>
+      </c>
+      <c r="I152" t="str">
+        <f>IFERROR(VLOOKUP(E152,colores!$D:$E,2,FALSE),"black")</f>
+        <v>yellow</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>2019</v>
+      </c>
+      <c r="C153">
+        <v>9</v>
+      </c>
+      <c r="D153" t="s">
+        <v>158</v>
+      </c>
+      <c r="E153" t="s">
+        <v>158</v>
+      </c>
+      <c r="F153">
+        <v>649</v>
+      </c>
+      <c r="G153">
+        <v>7.95</v>
+      </c>
+      <c r="I153" t="str">
+        <f>IFERROR(VLOOKUP(E153,colores!$D:$E,2,FALSE),"black")</f>
+        <v>black</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>2019</v>
+      </c>
+      <c r="C154">
+        <v>10</v>
+      </c>
+      <c r="D154" t="s">
+        <v>159</v>
+      </c>
+      <c r="E154" t="s">
+        <v>159</v>
+      </c>
+      <c r="F154">
+        <v>846</v>
+      </c>
+      <c r="G154">
+        <v>10.36</v>
+      </c>
+      <c r="I154" t="str">
+        <f>IFERROR(VLOOKUP(E154,colores!$D:$E,2,FALSE),"black")</f>
+        <v>blue</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>152</v>
+      </c>
+      <c r="B155">
+        <v>2019</v>
+      </c>
+      <c r="C155">
+        <v>256</v>
+      </c>
+      <c r="D155" t="s">
+        <v>160</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F155">
+        <v>178</v>
+      </c>
+      <c r="G155">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="I155" t="str">
+        <f>IFERROR(VLOOKUP(E155,colores!$D:$E,2,FALSE),"black")</f>
+        <v>gray</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>152</v>
+      </c>
+      <c r="B156">
+        <v>2019</v>
+      </c>
+      <c r="C156">
+        <v>314</v>
+      </c>
+      <c r="D156" t="s">
+        <v>161</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F156">
+        <v>394</v>
+      </c>
+      <c r="G156">
+        <v>4.83</v>
+      </c>
+      <c r="I156" t="str">
+        <f>IFERROR(VLOOKUP(E156,colores!$D:$E,2,FALSE),"black")</f>
+        <v>gray</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>152</v>
+      </c>
+      <c r="B157">
+        <v>2019</v>
+      </c>
+      <c r="C157">
+        <v>417</v>
+      </c>
+      <c r="D157" t="s">
+        <v>156</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F157">
+        <v>4214</v>
+      </c>
+      <c r="G157">
+        <v>51.62</v>
+      </c>
+      <c r="H157">
+        <v>4</v>
+      </c>
+      <c r="I157" t="str">
+        <f>IFERROR(VLOOKUP(E157,colores!$D:$E,2,FALSE),"black")</f>
+        <v>salmon</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>152</v>
+      </c>
+      <c r="B158">
+        <v>2019</v>
+      </c>
+      <c r="C158" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158" t="s">
+        <v>12</v>
+      </c>
+      <c r="E158" t="s">
+        <v>12</v>
+      </c>
+      <c r="F158">
+        <v>286</v>
+      </c>
+      <c r="G158">
+        <v>3.5</v>
+      </c>
+      <c r="I158" t="str">
+        <f>IFERROR(VLOOKUP(E158,colores!$D:$E,2,FALSE),"black")</f>
+        <v>lightgray</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>162</v>
+      </c>
+      <c r="B159">
+        <v>2022</v>
+      </c>
+      <c r="C159">
+        <v>10</v>
+      </c>
+      <c r="D159" t="s">
+        <v>163</v>
+      </c>
+      <c r="E159" t="s">
+        <v>163</v>
+      </c>
+      <c r="F159">
+        <v>14056</v>
+      </c>
+      <c r="G159">
+        <v>59.97</v>
+      </c>
+      <c r="H159">
+        <v>3</v>
+      </c>
+      <c r="I159" t="str">
+        <f>IFERROR(VLOOKUP(E159,colores!$D:$E,2,FALSE),"black")</f>
+        <v>orange</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>162</v>
+      </c>
+      <c r="B160">
+        <v>2022</v>
+      </c>
+      <c r="C160">
+        <v>22</v>
+      </c>
+      <c r="D160" t="s">
+        <v>164</v>
+      </c>
+      <c r="E160" t="s">
+        <v>164</v>
+      </c>
+      <c r="F160">
+        <v>6225</v>
+      </c>
+      <c r="G160">
+        <v>26.56</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160" t="str">
+        <f>IFERROR(VLOOKUP(E160,colores!$D:$E,2,FALSE),"black")</f>
+        <v>green</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161">
+        <v>2022</v>
+      </c>
+      <c r="C161">
+        <v>5</v>
+      </c>
+      <c r="D161" t="s">
+        <v>165</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F161">
+        <v>1106</v>
+      </c>
+      <c r="G161">
+        <v>4.72</v>
+      </c>
+      <c r="I161" t="str">
+        <f>IFERROR(VLOOKUP(E161,colores!$D:$E,2,FALSE),"black")</f>
+        <v>gray</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162">
+        <v>2022</v>
+      </c>
+      <c r="C162">
+        <v>8</v>
+      </c>
+      <c r="D162" t="s">
+        <v>166</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F162">
+        <v>765</v>
+      </c>
+      <c r="G162">
+        <v>3.26</v>
+      </c>
+      <c r="I162" t="str">
+        <f>IFERROR(VLOOKUP(E162,colores!$D:$E,2,FALSE),"black")</f>
+        <v>gray</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>2022</v>
+      </c>
+      <c r="C163">
+        <v>7</v>
+      </c>
+      <c r="D163" t="s">
+        <v>167</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F163">
+        <v>505</v>
+      </c>
+      <c r="G163">
+        <v>2.15</v>
+      </c>
+      <c r="I163" t="str">
+        <f>IFERROR(VLOOKUP(E163,colores!$D:$E,2,FALSE),"black")</f>
+        <v>gray</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>2022</v>
+      </c>
+      <c r="C164">
+        <v>13</v>
+      </c>
+      <c r="D164" t="s">
+        <v>168</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F164">
+        <v>232</v>
+      </c>
+      <c r="G164">
+        <v>0.99</v>
+      </c>
+      <c r="I164" t="str">
+        <f>IFERROR(VLOOKUP(E164,colores!$D:$E,2,FALSE),"black")</f>
+        <v>gray</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>162</v>
+      </c>
+      <c r="B165">
+        <v>2022</v>
+      </c>
+      <c r="C165">
+        <v>6</v>
+      </c>
+      <c r="D165" t="s">
+        <v>169</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F165">
+        <v>141</v>
+      </c>
+      <c r="G165">
+        <v>0.6</v>
+      </c>
+      <c r="I165" t="str">
+        <f>IFERROR(VLOOKUP(E165,colores!$D:$E,2,FALSE),"black")</f>
+        <v>gray</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>162</v>
+      </c>
+      <c r="B166">
+        <v>2022</v>
+      </c>
+      <c r="C166" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" t="s">
+        <v>12</v>
+      </c>
+      <c r="E166" t="s">
+        <v>12</v>
+      </c>
+      <c r="F166">
+        <v>407</v>
+      </c>
+      <c r="G166">
+        <v>1.74</v>
+      </c>
+      <c r="I166" t="str">
+        <f>IFERROR(VLOOKUP(E166,colores!$D:$E,2,FALSE),"black")</f>
+        <v>lightgray</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>35</v>
+      </c>
+      <c r="B167">
+        <v>2024</v>
+      </c>
+      <c r="C167">
+        <v>2</v>
+      </c>
+      <c r="D167" t="s">
+        <v>170</v>
+      </c>
+      <c r="E167" t="s">
+        <v>170</v>
+      </c>
+      <c r="F167">
+        <v>1062</v>
+      </c>
+      <c r="G167">
+        <v>45.58</v>
+      </c>
+      <c r="H167">
+        <v>3</v>
+      </c>
+      <c r="I167" t="str">
+        <f>IFERROR(VLOOKUP(E167,colores!$D:$E,2,FALSE),"black")</f>
+        <v>green</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>35</v>
+      </c>
+      <c r="B168">
+        <v>2024</v>
+      </c>
+      <c r="C168">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s">
+        <v>171</v>
+      </c>
+      <c r="E168" t="s">
+        <v>171</v>
+      </c>
+      <c r="F168">
+        <v>880</v>
+      </c>
+      <c r="G168">
+        <v>37.770000000000003</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="I168" t="str">
+        <f>IFERROR(VLOOKUP(E168,colores!$D:$E,2,FALSE),"black")</f>
+        <v>pink</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>35</v>
+      </c>
+      <c r="B169">
+        <v>2024</v>
+      </c>
+      <c r="C169">
+        <v>14</v>
+      </c>
+      <c r="D169" t="s">
+        <v>172</v>
+      </c>
+      <c r="E169" t="s">
+        <v>172</v>
+      </c>
+      <c r="F169">
+        <v>336</v>
+      </c>
+      <c r="G169">
+        <v>14.42</v>
+      </c>
+      <c r="I169" t="str">
+        <f>IFERROR(VLOOKUP(E169,colores!$D:$E,2,FALSE),"black")</f>
+        <v>red</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>35</v>
+      </c>
+      <c r="B170">
+        <v>2024</v>
+      </c>
+      <c r="C170" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" t="s">
+        <v>12</v>
+      </c>
+      <c r="E170" t="s">
+        <v>12</v>
+      </c>
+      <c r="F170">
+        <v>52</v>
+      </c>
+      <c r="G170">
+        <v>2.23</v>
+      </c>
+      <c r="I170" t="str">
+        <f>IFERROR(VLOOKUP(E170,colores!$D:$E,2,FALSE),"black")</f>
+        <v>lightgray</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>173</v>
+      </c>
+      <c r="B171">
+        <v>2024</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171" t="s">
+        <v>174</v>
+      </c>
+      <c r="E171" t="s">
+        <v>174</v>
+      </c>
+      <c r="F171">
+        <v>1026</v>
+      </c>
+      <c r="G171">
+        <v>25.2</v>
+      </c>
+      <c r="I171" t="str">
+        <f>IFERROR(VLOOKUP(E171,colores!$D:$E,2,FALSE),"black")</f>
+        <v>purple</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172">
+        <v>2024</v>
+      </c>
+      <c r="C172">
+        <v>10</v>
+      </c>
+      <c r="D172" t="s">
+        <v>175</v>
+      </c>
+      <c r="E172" t="s">
+        <v>175</v>
+      </c>
+      <c r="F172">
+        <v>1539</v>
+      </c>
+      <c r="G172">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="H172">
+        <v>3</v>
+      </c>
+      <c r="I172" t="str">
+        <f>IFERROR(VLOOKUP(E172,colores!$D:$E,2,FALSE),"black")</f>
+        <v>red</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173">
+        <v>2024</v>
+      </c>
+      <c r="C173">
+        <v>14</v>
+      </c>
+      <c r="D173" t="s">
+        <v>176</v>
+      </c>
+      <c r="E173" t="s">
+        <v>176</v>
+      </c>
+      <c r="F173">
+        <v>1469</v>
+      </c>
+      <c r="G173">
+        <v>36.08</v>
+      </c>
+      <c r="H173">
+        <v>1</v>
+      </c>
+      <c r="I173" t="str">
+        <f>IFERROR(VLOOKUP(E173,colores!$D:$E,2,FALSE),"black")</f>
+        <v>blue</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>2024</v>
+      </c>
+      <c r="C174" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" t="s">
+        <v>12</v>
+      </c>
+      <c r="E174" t="s">
+        <v>12</v>
+      </c>
+      <c r="F174">
+        <v>37</v>
+      </c>
+      <c r="G174">
+        <v>0.91</v>
+      </c>
+      <c r="I174" t="str">
+        <f>IFERROR(VLOOKUP(E174,colores!$D:$E,2,FALSE),"black")</f>
+        <v>lightgray</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>177</v>
+      </c>
+      <c r="B175">
+        <v>2019</v>
+      </c>
+      <c r="C175">
+        <v>39</v>
+      </c>
+      <c r="D175" t="s">
+        <v>178</v>
+      </c>
+      <c r="E175" t="s">
+        <v>178</v>
+      </c>
+      <c r="F175">
+        <v>5099</v>
+      </c>
+      <c r="G175">
+        <v>13.31</v>
+      </c>
+      <c r="I175" t="str">
+        <f>IFERROR(VLOOKUP(E175,colores!$D:$E,2,FALSE),"black")</f>
+        <v>blue</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>177</v>
+      </c>
+      <c r="B176">
+        <v>2019</v>
+      </c>
+      <c r="C176">
+        <v>18</v>
+      </c>
+      <c r="D176" t="s">
+        <v>179</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F176">
+        <v>719</v>
+      </c>
+      <c r="G176">
+        <v>1.88</v>
+      </c>
+      <c r="I176" t="str">
+        <f>IFERROR(VLOOKUP(E176,colores!$D:$E,2,FALSE),"black")</f>
+        <v>gray</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177">
+        <v>2019</v>
+      </c>
+      <c r="C177">
+        <v>13</v>
+      </c>
+      <c r="D177" t="s">
+        <v>180</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F177">
+        <v>455</v>
+      </c>
+      <c r="G177">
+        <v>1.19</v>
+      </c>
+      <c r="I177" t="str">
+        <f>IFERROR(VLOOKUP(E177,colores!$D:$E,2,FALSE),"black")</f>
+        <v>gray</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>2019</v>
+      </c>
+      <c r="C178">
+        <v>4</v>
+      </c>
+      <c r="D178" t="s">
+        <v>181</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F178">
+        <v>1044</v>
+      </c>
+      <c r="G178">
+        <v>2.72</v>
+      </c>
+      <c r="I178" t="str">
+        <f>IFERROR(VLOOKUP(E178,colores!$D:$E,2,FALSE),"black")</f>
+        <v>gray</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>2019</v>
+      </c>
+      <c r="C179">
+        <v>8</v>
+      </c>
+      <c r="D179" t="s">
+        <v>182</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F179">
+        <v>2910</v>
+      </c>
+      <c r="G179">
+        <v>7.59</v>
+      </c>
+      <c r="I179" t="str">
+        <f>IFERROR(VLOOKUP(E179,colores!$D:$E,2,FALSE),"black")</f>
+        <v>gray</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>177</v>
+      </c>
+      <c r="B180">
+        <v>2019</v>
+      </c>
+      <c r="C180">
+        <v>10</v>
+      </c>
+      <c r="D180" t="s">
+        <v>71</v>
+      </c>
+      <c r="E180" t="s">
+        <v>71</v>
+      </c>
+      <c r="F180">
+        <v>27465</v>
+      </c>
+      <c r="G180">
+        <v>71.680000000000007</v>
+      </c>
+      <c r="H180">
+        <v>4</v>
+      </c>
+      <c r="I180" t="str">
+        <f>IFERROR(VLOOKUP(E180,colores!$D:$E,2,FALSE),"black")</f>
+        <v>orange</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>177</v>
+      </c>
+      <c r="B181">
+        <v>2019</v>
+      </c>
+      <c r="C181" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181" t="s">
+        <v>12</v>
+      </c>
+      <c r="E181" t="s">
+        <v>12</v>
+      </c>
+      <c r="F181">
+        <v>624</v>
+      </c>
+      <c r="G181">
+        <v>1.63</v>
+      </c>
+      <c r="I181" t="str">
+        <f>IFERROR(VLOOKUP(E181,colores!$D:$E,2,FALSE),"black")</f>
         <v>lightgray</v>
       </c>
     </row>

--- a/uba_cd_estudiantes.xlsx
+++ b/uba_cd_estudiantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\personal\sociologia\emergit\uba_electoral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39FDFC1-9FC7-4034-911E-225BDF8CED97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942DB7B4-A722-4299-A48B-8DCB7B137489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="colores" sheetId="3" r:id="rId1"/>
@@ -119,9 +119,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>Sociales en movimiento - La 15 + Acción x sociales</t>
-  </si>
-  <si>
     <t>La UES - Unidad estudianti de sociales - Alternativa</t>
   </si>
   <si>
@@ -219,9 +216,6 @@
   </si>
   <si>
     <t>FRENTE DE IZQUIERDA - UNIDAD</t>
-  </si>
-  <si>
-    <t>FRENTE REFORMISTA FRANJA MORADA Y NUEVO DERECHO</t>
   </si>
   <si>
     <t>LA CENTENO - ACCIÓN COLECTIVA</t>
@@ -743,6 +737,12 @@
   </si>
   <si>
     <t>El colectivo (+ Aquelarre)</t>
+  </si>
+  <si>
+    <t>LAI</t>
+  </si>
+  <si>
+    <t>Sociales en movimiento</t>
   </si>
 </sst>
 </file>
@@ -7590,7 +7590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24D8039-D0D6-4DE2-92CD-2A0539E40632}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
@@ -7601,212 +7601,212 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J3" t="s">
         <v>166</v>
       </c>
-      <c r="J3" t="s">
-        <v>168</v>
-      </c>
       <c r="K3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" t="str">
         <f>VLOOKUP(E4,$J$3:$K$15,2,FALSE)</f>
         <v>white</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" ref="F5:F68" si="0">VLOOKUP(E5,$J$3:$K$15,2,FALSE)</f>
         <v>#3B3B39</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
         <v>#EF233C</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
         <v>#EF233C</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
         <v>#3B3B39</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
         <v>#3B3B39</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
         <v>#B1DDF6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
         <v>#80ED99</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
         <v>#80ED99</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -7814,17 +7814,17 @@
         <v>17</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
         <v>orange</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -7832,17 +7832,17 @@
         <v>18</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
         <v>purple</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -7850,17 +7850,17 @@
         <v>19</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
         <v>#80ED99</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -7868,7 +7868,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -7880,7 +7880,7 @@
         <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
@@ -7892,7 +7892,7 @@
         <v>23</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
@@ -7901,10 +7901,10 @@
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D19" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
@@ -7913,10 +7913,10 @@
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D20" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -7925,10 +7925,10 @@
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D21" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -7937,10 +7937,10 @@
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D22" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
@@ -7949,10 +7949,10 @@
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D23" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
@@ -7961,10 +7961,10 @@
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D24" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
@@ -7973,10 +7973,10 @@
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D25" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
@@ -7985,10 +7985,10 @@
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D26" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
@@ -7997,10 +7997,10 @@
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D27" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
@@ -8009,10 +8009,10 @@
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D28" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
@@ -8021,10 +8021,10 @@
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D29" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
@@ -8033,10 +8033,10 @@
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D30" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
@@ -8045,10 +8045,10 @@
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D31" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
@@ -8057,10 +8057,10 @@
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D32" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
@@ -8069,10 +8069,10 @@
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D33" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
@@ -8081,10 +8081,10 @@
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D34" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
@@ -8093,10 +8093,10 @@
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D35" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
@@ -8105,10 +8105,10 @@
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D36" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
@@ -8117,10 +8117,10 @@
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D37" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
@@ -8129,10 +8129,10 @@
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D38" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
@@ -8141,10 +8141,10 @@
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D39" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
@@ -8153,10 +8153,10 @@
     </row>
     <row r="40" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D40" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
@@ -8165,10 +8165,10 @@
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D41" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
@@ -8177,10 +8177,10 @@
     </row>
     <row r="42" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D42" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
@@ -8189,10 +8189,10 @@
     </row>
     <row r="43" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D43" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
@@ -8201,10 +8201,10 @@
     </row>
     <row r="44" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D44" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
@@ -8213,10 +8213,10 @@
     </row>
     <row r="45" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D45" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
@@ -8225,10 +8225,10 @@
     </row>
     <row r="46" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D46" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
@@ -8237,10 +8237,10 @@
     </row>
     <row r="47" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D47" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
@@ -8249,10 +8249,10 @@
     </row>
     <row r="48" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D48" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
@@ -8261,10 +8261,10 @@
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D49" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
@@ -8273,10 +8273,10 @@
     </row>
     <row r="50" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D50" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
@@ -8285,10 +8285,10 @@
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D51" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
@@ -8297,10 +8297,10 @@
     </row>
     <row r="52" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D52" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
@@ -8309,10 +8309,10 @@
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D53" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
@@ -8321,10 +8321,10 @@
     </row>
     <row r="54" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D54" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
@@ -8333,10 +8333,10 @@
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D55" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
@@ -8345,10 +8345,10 @@
     </row>
     <row r="56" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D56" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
@@ -8357,10 +8357,10 @@
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D57" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="0"/>
@@ -8369,10 +8369,10 @@
     </row>
     <row r="58" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D58" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="0"/>
@@ -8381,10 +8381,10 @@
     </row>
     <row r="59" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="0"/>
@@ -8393,10 +8393,10 @@
     </row>
     <row r="60" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" si="0"/>
@@ -8405,10 +8405,10 @@
     </row>
     <row r="61" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D61" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
@@ -8417,10 +8417,10 @@
     </row>
     <row r="62" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="0"/>
@@ -8429,10 +8429,10 @@
     </row>
     <row r="63" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="0"/>
@@ -8441,10 +8441,10 @@
     </row>
     <row r="64" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F64" t="str">
         <f t="shared" si="0"/>
@@ -8453,10 +8453,10 @@
     </row>
     <row r="65" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="0"/>
@@ -8465,10 +8465,10 @@
     </row>
     <row r="66" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" si="0"/>
@@ -8477,10 +8477,10 @@
     </row>
     <row r="67" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" si="0"/>
@@ -8489,10 +8489,10 @@
     </row>
     <row r="68" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="0"/>
@@ -8501,10 +8501,10 @@
     </row>
     <row r="69" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" ref="F69:F72" si="1">VLOOKUP(E69,$J$3:$K$15,2,FALSE)</f>
@@ -8513,10 +8513,10 @@
     </row>
     <row r="70" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="1"/>
@@ -8525,10 +8525,10 @@
     </row>
     <row r="71" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="1"/>
@@ -8537,10 +8537,10 @@
     </row>
     <row r="72" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D72" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="1"/>
@@ -8576,15 +8576,15 @@
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>2019</v>
@@ -8596,15 +8596,15 @@
         <v>2024</v>
       </c>
       <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
         <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>2804</v>
@@ -8621,7 +8621,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <v>18171</v>
@@ -8638,7 +8638,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B7">
         <v>8164</v>
@@ -8652,7 +8652,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B8">
         <v>38316</v>
@@ -8669,17 +8669,17 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B11">
         <v>23066</v>
@@ -8696,7 +8696,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B12">
         <v>26133</v>
@@ -8713,7 +8713,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B13">
         <v>5671</v>
@@ -8730,7 +8730,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B14">
         <v>11600</v>
@@ -8747,7 +8747,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B15">
         <v>3581</v>
@@ -8764,7 +8764,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C16">
         <v>5324</v>
@@ -8778,7 +8778,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B17">
         <v>8578</v>
@@ -8795,7 +8795,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C18">
         <v>17208</v>
@@ -8809,7 +8809,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>146084</v>
@@ -8836,8 +8836,8 @@
   </sheetPr>
   <dimension ref="A1:J261"/>
   <sheetViews>
-    <sheetView topLeftCell="A179" zoomScale="101" workbookViewId="0">
-      <selection activeCell="E192" sqref="E192"/>
+    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="101" workbookViewId="0">
+      <selection activeCell="D208" sqref="D208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8861,7 +8861,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
@@ -8870,18 +8870,18 @@
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>2019</v>
@@ -8890,10 +8890,10 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F2">
         <v>1421</v>
@@ -8914,7 +8914,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>2019</v>
@@ -8923,10 +8923,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F3">
         <v>1238</v>
@@ -8947,7 +8947,7 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>2019</v>
@@ -8956,10 +8956,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F4">
         <v>102</v>
@@ -8977,7 +8977,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>2019</v>
@@ -9007,7 +9007,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>2022</v>
@@ -9016,10 +9016,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F6">
         <v>1145</v>
@@ -9040,7 +9040,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>2022</v>
@@ -9049,10 +9049,10 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F7">
         <v>986</v>
@@ -9073,7 +9073,7 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>2022</v>
@@ -9082,10 +9082,10 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F8">
         <v>390</v>
@@ -9103,7 +9103,7 @@
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <v>2022</v>
@@ -9133,7 +9133,7 @@
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>2024</v>
@@ -9142,10 +9142,10 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>148</v>
+        <v>225</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F10">
         <v>1062</v>
@@ -9166,7 +9166,7 @@
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>2024</v>
@@ -9175,10 +9175,10 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F11">
         <v>880</v>
@@ -9199,7 +9199,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>2024</v>
@@ -9208,10 +9208,10 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F12">
         <v>336</v>
@@ -9229,7 +9229,7 @@
     </row>
     <row r="13" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>2024</v>
@@ -9259,7 +9259,7 @@
     </row>
     <row r="14" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B14">
         <v>2019</v>
@@ -9268,10 +9268,10 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F14">
         <v>10506</v>
@@ -9292,7 +9292,7 @@
     </row>
     <row r="15" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B15">
         <v>2019</v>
@@ -9301,10 +9301,10 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F15">
         <v>7431</v>
@@ -9325,7 +9325,7 @@
     </row>
     <row r="16" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B16">
         <v>2019</v>
@@ -9334,10 +9334,10 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F16">
         <v>2028</v>
@@ -9355,7 +9355,7 @@
     </row>
     <row r="17" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B17">
         <v>2019</v>
@@ -9364,10 +9364,10 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F17">
         <v>1398</v>
@@ -9385,7 +9385,7 @@
     </row>
     <row r="18" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B18">
         <v>2019</v>
@@ -9394,10 +9394,10 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F18">
         <v>1351</v>
@@ -9415,7 +9415,7 @@
     </row>
     <row r="19" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B19">
         <v>2019</v>
@@ -9445,7 +9445,7 @@
     </row>
     <row r="20" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B20">
         <v>2022</v>
@@ -9454,10 +9454,10 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F20">
         <v>14056</v>
@@ -9478,7 +9478,7 @@
     </row>
     <row r="21" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B21">
         <v>2022</v>
@@ -9487,10 +9487,10 @@
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F21">
         <v>6225</v>
@@ -9511,7 +9511,7 @@
     </row>
     <row r="22" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B22">
         <v>2022</v>
@@ -9520,10 +9520,10 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F22">
         <v>1106</v>
@@ -9541,7 +9541,7 @@
     </row>
     <row r="23" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B23">
         <v>2022</v>
@@ -9550,10 +9550,10 @@
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F23">
         <v>765</v>
@@ -9571,7 +9571,7 @@
     </row>
     <row r="24" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B24">
         <v>2022</v>
@@ -9580,10 +9580,10 @@
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F24">
         <v>505</v>
@@ -9601,7 +9601,7 @@
     </row>
     <row r="25" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B25">
         <v>2022</v>
@@ -9631,7 +9631,7 @@
     </row>
     <row r="26" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B26">
         <v>2022</v>
@@ -9640,10 +9640,10 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F26">
         <v>232</v>
@@ -9661,7 +9661,7 @@
     </row>
     <row r="27" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B27">
         <v>2022</v>
@@ -9670,10 +9670,10 @@
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F27">
         <v>141</v>
@@ -9691,7 +9691,7 @@
     </row>
     <row r="28" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B28">
         <v>2024</v>
@@ -9700,10 +9700,10 @@
         <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F28">
         <v>15172</v>
@@ -9724,7 +9724,7 @@
     </row>
     <row r="29" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B29">
         <v>2024</v>
@@ -9733,10 +9733,10 @@
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F29">
         <v>9556</v>
@@ -9757,7 +9757,7 @@
     </row>
     <row r="30" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B30">
         <v>2024</v>
@@ -9766,10 +9766,10 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F30">
         <v>1941</v>
@@ -9787,7 +9787,7 @@
     </row>
     <row r="31" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B31">
         <v>2024</v>
@@ -9796,10 +9796,10 @@
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F31">
         <v>951</v>
@@ -9817,7 +9817,7 @@
     </row>
     <row r="32" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B32">
         <v>2024</v>
@@ -9847,7 +9847,7 @@
     </row>
     <row r="33" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B33">
         <v>2024</v>
@@ -9856,10 +9856,10 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F33">
         <v>272</v>
@@ -9877,7 +9877,7 @@
     </row>
     <row r="34" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B34">
         <v>2019</v>
@@ -9886,10 +9886,10 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F34">
         <v>19394</v>
@@ -9910,7 +9910,7 @@
     </row>
     <row r="35" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B35">
         <v>2019</v>
@@ -9919,10 +9919,10 @@
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F35">
         <v>1952</v>
@@ -9940,7 +9940,7 @@
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B36">
         <v>2019</v>
@@ -9949,10 +9949,10 @@
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F36">
         <v>1112</v>
@@ -9970,7 +9970,7 @@
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B37">
         <v>2019</v>
@@ -9979,10 +9979,10 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F37">
         <v>1063</v>
@@ -10000,7 +10000,7 @@
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B38">
         <v>2019</v>
@@ -10009,10 +10009,10 @@
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F38">
         <v>822</v>
@@ -10030,7 +10030,7 @@
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B39">
         <v>2019</v>
@@ -10060,7 +10060,7 @@
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B40">
         <v>2019</v>
@@ -10069,10 +10069,10 @@
         <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F40">
         <v>415</v>
@@ -10090,7 +10090,7 @@
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B41">
         <v>2019</v>
@@ -10099,10 +10099,10 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F41">
         <v>338</v>
@@ -10120,7 +10120,7 @@
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B42">
         <v>2019</v>
@@ -10129,7 +10129,7 @@
         <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
@@ -10150,7 +10150,7 @@
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B43">
         <v>2019</v>
@@ -10159,10 +10159,10 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F43">
         <v>149</v>
@@ -10180,7 +10180,7 @@
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B44">
         <v>2019</v>
@@ -10189,10 +10189,10 @@
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F44">
         <v>139</v>
@@ -10210,7 +10210,7 @@
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B45">
         <v>2019</v>
@@ -10219,10 +10219,10 @@
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F45">
         <v>36</v>
@@ -10240,7 +10240,7 @@
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B46">
         <v>2022</v>
@@ -10249,10 +10249,10 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F46">
         <v>16895</v>
@@ -10273,7 +10273,7 @@
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B47">
         <v>2022</v>
@@ -10282,10 +10282,10 @@
         <v>9</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F47">
         <v>1520</v>
@@ -10303,7 +10303,7 @@
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B48">
         <v>2022</v>
@@ -10312,10 +10312,10 @@
         <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F48">
         <v>1473</v>
@@ -10333,7 +10333,7 @@
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B49">
         <v>2022</v>
@@ -10342,10 +10342,10 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F49">
         <v>695</v>
@@ -10363,7 +10363,7 @@
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B50">
         <v>2022</v>
@@ -10372,10 +10372,10 @@
         <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F50">
         <v>645</v>
@@ -10393,7 +10393,7 @@
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B51">
         <v>2022</v>
@@ -10402,10 +10402,10 @@
         <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E51" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F51">
         <v>549</v>
@@ -10423,7 +10423,7 @@
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B52">
         <v>2022</v>
@@ -10432,10 +10432,10 @@
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F52">
         <v>482</v>
@@ -10453,16 +10453,16 @@
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B53">
         <v>2022</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D53" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
@@ -10483,7 +10483,7 @@
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B54">
         <v>2022</v>
@@ -10492,10 +10492,10 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F54">
         <v>196</v>
@@ -10513,7 +10513,7 @@
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B55">
         <v>2022</v>
@@ -10522,7 +10522,7 @@
         <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>11</v>
@@ -10543,7 +10543,7 @@
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B56">
         <v>2022</v>
@@ -10552,10 +10552,10 @@
         <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F56">
         <v>131</v>
@@ -10573,7 +10573,7 @@
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B57">
         <v>2022</v>
@@ -10582,10 +10582,10 @@
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F57">
         <v>77</v>
@@ -10603,7 +10603,7 @@
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B58">
         <v>2022</v>
@@ -10612,10 +10612,10 @@
         <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F58">
         <v>78</v>
@@ -10633,7 +10633,7 @@
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B59">
         <v>2022</v>
@@ -10642,10 +10642,10 @@
         <v>69</v>
       </c>
       <c r="D59" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F59">
         <v>78</v>
@@ -10663,7 +10663,7 @@
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B60">
         <v>2022</v>
@@ -10672,10 +10672,10 @@
         <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F60">
         <v>50</v>
@@ -10693,7 +10693,7 @@
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B61">
         <v>2022</v>
@@ -10702,10 +10702,10 @@
         <v>44</v>
       </c>
       <c r="D61" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F61">
         <v>35</v>
@@ -10723,7 +10723,7 @@
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B62">
         <v>2024</v>
@@ -10732,10 +10732,10 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F62">
         <v>16057</v>
@@ -10756,7 +10756,7 @@
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B63">
         <v>2024</v>
@@ -10765,10 +10765,10 @@
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F63">
         <v>2106</v>
@@ -10786,7 +10786,7 @@
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B64">
         <v>2024</v>
@@ -10795,10 +10795,10 @@
         <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E64" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F64">
         <v>1417</v>
@@ -10816,7 +10816,7 @@
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B65">
         <v>2024</v>
@@ -10825,10 +10825,10 @@
         <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F65">
         <v>676</v>
@@ -10846,7 +10846,7 @@
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B66">
         <v>2024</v>
@@ -10855,10 +10855,10 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F66">
         <v>477</v>
@@ -10876,7 +10876,7 @@
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B67">
         <v>2024</v>
@@ -10885,10 +10885,10 @@
         <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E67" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F67">
         <v>396</v>
@@ -10906,16 +10906,16 @@
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B68">
         <v>2024</v>
       </c>
       <c r="C68" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D68" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
@@ -10936,7 +10936,7 @@
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B69">
         <v>2024</v>
@@ -10945,10 +10945,10 @@
         <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F69">
         <v>285</v>
@@ -10966,7 +10966,7 @@
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B70">
         <v>2024</v>
@@ -10975,10 +10975,10 @@
         <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F70">
         <v>219</v>
@@ -10996,7 +10996,7 @@
     </row>
     <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B71">
         <v>2024</v>
@@ -11005,10 +11005,10 @@
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F71">
         <v>206</v>
@@ -11026,7 +11026,7 @@
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B72">
         <v>2024</v>
@@ -11035,7 +11035,7 @@
         <v>22</v>
       </c>
       <c r="D72" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>11</v>
@@ -11056,7 +11056,7 @@
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B73">
         <v>2024</v>
@@ -11065,10 +11065,10 @@
         <v>4</v>
       </c>
       <c r="D73" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F73">
         <v>76</v>
@@ -11086,7 +11086,7 @@
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B74">
         <v>2024</v>
@@ -11095,10 +11095,10 @@
         <v>69</v>
       </c>
       <c r="D74" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F74">
         <v>59</v>
@@ -11116,7 +11116,7 @@
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B75">
         <v>2024</v>
@@ -11125,10 +11125,10 @@
         <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F75">
         <v>48</v>
@@ -11146,7 +11146,7 @@
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B76">
         <v>2024</v>
@@ -11155,10 +11155,10 @@
         <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F76">
         <v>47</v>
@@ -11176,7 +11176,7 @@
     </row>
     <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B77">
         <v>2024</v>
@@ -11185,10 +11185,10 @@
         <v>44</v>
       </c>
       <c r="D77" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F77">
         <v>31</v>
@@ -11206,7 +11206,7 @@
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B78">
         <v>2019</v>
@@ -11215,10 +11215,10 @@
         <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F78">
         <v>1912</v>
@@ -11239,7 +11239,7 @@
     </row>
     <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B79">
         <v>2019</v>
@@ -11248,10 +11248,10 @@
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F79">
         <v>1505</v>
@@ -11272,7 +11272,7 @@
     </row>
     <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B80">
         <v>2019</v>
@@ -11284,7 +11284,7 @@
         <v>15</v>
       </c>
       <c r="E80" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F80">
         <v>1245</v>
@@ -11302,7 +11302,7 @@
     </row>
     <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B81">
         <v>2019</v>
@@ -11311,10 +11311,10 @@
         <v>26</v>
       </c>
       <c r="D81" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E81" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F81">
         <v>517</v>
@@ -11332,7 +11332,7 @@
     </row>
     <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B82">
         <v>2019</v>
@@ -11362,7 +11362,7 @@
     </row>
     <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B83">
         <v>2022</v>
@@ -11371,10 +11371,10 @@
         <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F83">
         <v>2588</v>
@@ -11395,7 +11395,7 @@
     </row>
     <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B84">
         <v>2022</v>
@@ -11404,10 +11404,10 @@
         <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F84">
         <v>1891</v>
@@ -11428,7 +11428,7 @@
     </row>
     <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B85">
         <v>2022</v>
@@ -11437,10 +11437,10 @@
         <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E85" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F85">
         <v>1097</v>
@@ -11458,7 +11458,7 @@
     </row>
     <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B86">
         <v>2022</v>
@@ -11488,7 +11488,7 @@
     </row>
     <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B87">
         <v>2024</v>
@@ -11497,10 +11497,10 @@
         <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F87">
         <v>2964</v>
@@ -11521,7 +11521,7 @@
     </row>
     <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B88">
         <v>2024</v>
@@ -11530,10 +11530,10 @@
         <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F88">
         <v>1872</v>
@@ -11554,7 +11554,7 @@
     </row>
     <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B89">
         <v>2024</v>
@@ -11563,10 +11563,10 @@
         <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E89" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F89">
         <v>1610</v>
@@ -11584,7 +11584,7 @@
     </row>
     <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B90">
         <v>2024</v>
@@ -11614,7 +11614,7 @@
     </row>
     <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B91">
         <v>2024</v>
@@ -11623,10 +11623,10 @@
         <v>4</v>
       </c>
       <c r="D91" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F91">
         <v>321</v>
@@ -11644,7 +11644,7 @@
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B92">
         <v>2024</v>
@@ -11653,10 +11653,10 @@
         <v>8</v>
       </c>
       <c r="D92" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E92" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F92">
         <v>258</v>
@@ -11674,7 +11674,7 @@
     </row>
     <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B93">
         <v>2024</v>
@@ -11683,10 +11683,10 @@
         <v>17</v>
       </c>
       <c r="D93" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F93">
         <v>165</v>
@@ -11704,7 +11704,7 @@
     </row>
     <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B94">
         <v>2024</v>
@@ -11713,10 +11713,10 @@
         <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F94">
         <v>105</v>
@@ -11734,7 +11734,7 @@
     </row>
     <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B95">
         <v>2024</v>
@@ -11746,7 +11746,7 @@
         <v>7</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F95">
         <v>58</v>
@@ -11764,7 +11764,7 @@
     </row>
     <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B96">
         <v>2019</v>
@@ -11776,7 +11776,7 @@
         <v>14</v>
       </c>
       <c r="E96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F96">
         <v>4687</v>
@@ -11797,7 +11797,7 @@
     </row>
     <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B97">
         <v>2019</v>
@@ -11809,7 +11809,7 @@
         <v>13</v>
       </c>
       <c r="E97" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F97">
         <v>3750</v>
@@ -11830,7 +11830,7 @@
     </row>
     <row r="98" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B98">
         <v>2019</v>
@@ -11860,7 +11860,7 @@
     </row>
     <row r="99" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B99">
         <v>2019</v>
@@ -11890,7 +11890,7 @@
     </row>
     <row r="100" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B100">
         <v>2019</v>
@@ -11920,7 +11920,7 @@
     </row>
     <row r="101" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B101">
         <v>2019</v>
@@ -11950,7 +11950,7 @@
     </row>
     <row r="102" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B102">
         <v>2019</v>
@@ -11962,7 +11962,7 @@
         <v>16</v>
       </c>
       <c r="E102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F102">
         <v>179</v>
@@ -11980,7 +11980,7 @@
     </row>
     <row r="103" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B103">
         <v>2022</v>
@@ -11992,7 +11992,7 @@
         <v>9</v>
       </c>
       <c r="E103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F103">
         <v>4015</v>
@@ -12013,7 +12013,7 @@
     </row>
     <row r="104" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B104">
         <v>2022</v>
@@ -12025,7 +12025,7 @@
         <v>8</v>
       </c>
       <c r="E104" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F104">
         <v>3941</v>
@@ -12046,7 +12046,7 @@
     </row>
     <row r="105" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B105">
         <v>2022</v>
@@ -12076,7 +12076,7 @@
     </row>
     <row r="106" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B106">
         <v>2022</v>
@@ -12106,7 +12106,7 @@
     </row>
     <row r="107" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B107">
         <v>2022</v>
@@ -12136,7 +12136,7 @@
     </row>
     <row r="108" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B108">
         <v>2022</v>
@@ -12166,7 +12166,7 @@
     </row>
     <row r="109" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B109">
         <v>2024</v>
@@ -12174,11 +12174,11 @@
       <c r="C109">
         <v>15</v>
       </c>
-      <c r="D109" t="s">
-        <v>25</v>
+      <c r="D109" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="E109" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F109">
         <v>4228</v>
@@ -12199,7 +12199,7 @@
     </row>
     <row r="110" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B110">
         <v>2024</v>
@@ -12208,10 +12208,10 @@
         <v>16</v>
       </c>
       <c r="D110" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F110">
         <v>3538</v>
@@ -12232,7 +12232,7 @@
     </row>
     <row r="111" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B111">
         <v>2024</v>
@@ -12262,7 +12262,7 @@
     </row>
     <row r="112" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B112">
         <v>2024</v>
@@ -12292,7 +12292,7 @@
     </row>
     <row r="113" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B113">
         <v>2024</v>
@@ -12322,7 +12322,7 @@
     </row>
     <row r="114" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B114">
         <v>2024</v>
@@ -12352,7 +12352,7 @@
     </row>
     <row r="115" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B115">
         <v>2019</v>
@@ -12361,10 +12361,10 @@
         <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E115" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F115">
         <v>1598</v>
@@ -12385,7 +12385,7 @@
     </row>
     <row r="116" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B116">
         <v>2019</v>
@@ -12394,10 +12394,10 @@
         <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E116" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F116">
         <v>1284</v>
@@ -12418,7 +12418,7 @@
     </row>
     <row r="117" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B117">
         <v>2019</v>
@@ -12427,10 +12427,10 @@
         <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E117" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F117">
         <v>340</v>
@@ -12448,7 +12448,7 @@
     </row>
     <row r="118" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B118">
         <v>2019</v>
@@ -12457,10 +12457,10 @@
         <v>7</v>
       </c>
       <c r="D118" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E118" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F118">
         <v>289</v>
@@ -12478,7 +12478,7 @@
     </row>
     <row r="119" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B119">
         <v>2019</v>
@@ -12508,7 +12508,7 @@
     </row>
     <row r="120" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B120">
         <v>2022</v>
@@ -12517,10 +12517,10 @@
         <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E120" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F120">
         <v>1522</v>
@@ -12541,7 +12541,7 @@
     </row>
     <row r="121" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B121">
         <v>2022</v>
@@ -12550,10 +12550,10 @@
         <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E121" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F121">
         <v>1163</v>
@@ -12574,7 +12574,7 @@
     </row>
     <row r="122" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B122">
         <v>2022</v>
@@ -12583,10 +12583,10 @@
         <v>14</v>
       </c>
       <c r="D122" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E122" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F122">
         <v>588</v>
@@ -12604,7 +12604,7 @@
     </row>
     <row r="123" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B123">
         <v>2022</v>
@@ -12613,10 +12613,10 @@
         <v>7</v>
       </c>
       <c r="D123" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E123" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F123">
         <v>413</v>
@@ -12634,7 +12634,7 @@
     </row>
     <row r="124" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B124">
         <v>2022</v>
@@ -12643,10 +12643,10 @@
         <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E124" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F124">
         <v>231</v>
@@ -12664,7 +12664,7 @@
     </row>
     <row r="125" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B125">
         <v>2022</v>
@@ -12694,7 +12694,7 @@
     </row>
     <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B126">
         <v>2024</v>
@@ -12703,10 +12703,10 @@
         <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E126" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F126">
         <v>1539</v>
@@ -12727,7 +12727,7 @@
     </row>
     <row r="127" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B127">
         <v>2024</v>
@@ -12736,10 +12736,10 @@
         <v>14</v>
       </c>
       <c r="D127" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E127" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F127">
         <v>1469</v>
@@ -12760,7 +12760,7 @@
     </row>
     <row r="128" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B128">
         <v>2024</v>
@@ -12769,10 +12769,10 @@
         <v>1</v>
       </c>
       <c r="D128" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E128" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F128">
         <v>1026</v>
@@ -12790,7 +12790,7 @@
     </row>
     <row r="129" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B129">
         <v>2024</v>
@@ -12820,7 +12820,7 @@
     </row>
     <row r="130" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B130">
         <v>2019</v>
@@ -12829,10 +12829,10 @@
         <v>4</v>
       </c>
       <c r="D130" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F130">
         <v>7441</v>
@@ -12853,7 +12853,7 @@
     </row>
     <row r="131" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B131">
         <v>2019</v>
@@ -12862,10 +12862,10 @@
         <v>5</v>
       </c>
       <c r="D131" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F131">
         <v>3142</v>
@@ -12886,7 +12886,7 @@
     </row>
     <row r="132" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B132">
         <v>2019</v>
@@ -12895,7 +12895,7 @@
         <v>3</v>
       </c>
       <c r="D132" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>17</v>
@@ -12916,7 +12916,7 @@
     </row>
     <row r="133" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B133">
         <v>2019</v>
@@ -12925,10 +12925,10 @@
         <v>2</v>
       </c>
       <c r="D133" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F133">
         <v>1033</v>
@@ -12946,7 +12946,7 @@
     </row>
     <row r="134" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B134">
         <v>2019</v>
@@ -12958,7 +12958,7 @@
         <v>22</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F134">
         <v>280</v>
@@ -12976,7 +12976,7 @@
     </row>
     <row r="135" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B135">
         <v>2019</v>
@@ -13006,7 +13006,7 @@
     </row>
     <row r="136" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B136">
         <v>2019</v>
@@ -13015,10 +13015,10 @@
         <v>13</v>
       </c>
       <c r="D136" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F136">
         <v>217</v>
@@ -13036,7 +13036,7 @@
     </row>
     <row r="137" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B137">
         <v>2019</v>
@@ -13045,10 +13045,10 @@
         <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F137">
         <v>200</v>
@@ -13066,7 +13066,7 @@
     </row>
     <row r="138" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B138">
         <v>2019</v>
@@ -13075,10 +13075,10 @@
         <v>15</v>
       </c>
       <c r="D138" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F138">
         <v>147</v>
@@ -13096,7 +13096,7 @@
     </row>
     <row r="139" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B139">
         <v>2022</v>
@@ -13105,10 +13105,10 @@
         <v>4</v>
       </c>
       <c r="D139" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F139">
         <v>11809</v>
@@ -13129,7 +13129,7 @@
     </row>
     <row r="140" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B140">
         <v>2022</v>
@@ -13138,10 +13138,10 @@
         <v>5</v>
       </c>
       <c r="D140" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F140">
         <v>8105</v>
@@ -13162,7 +13162,7 @@
     </row>
     <row r="141" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B141">
         <v>2022</v>
@@ -13171,10 +13171,10 @@
         <v>3</v>
       </c>
       <c r="D141" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F141">
         <v>928</v>
@@ -13192,7 +13192,7 @@
     </row>
     <row r="142" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B142">
         <v>2022</v>
@@ -13204,7 +13204,7 @@
         <v>11</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F142">
         <v>445</v>
@@ -13222,7 +13222,7 @@
     </row>
     <row r="143" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B143">
         <v>2022</v>
@@ -13231,10 +13231,10 @@
         <v>6</v>
       </c>
       <c r="D143" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F143">
         <v>266</v>
@@ -13252,7 +13252,7 @@
     </row>
     <row r="144" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B144">
         <v>2022</v>
@@ -13261,10 +13261,10 @@
         <v>21</v>
       </c>
       <c r="D144" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F144">
         <v>240</v>
@@ -13282,7 +13282,7 @@
     </row>
     <row r="145" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B145">
         <v>2022</v>
@@ -13291,10 +13291,10 @@
         <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F145">
         <v>232</v>
@@ -13312,7 +13312,7 @@
     </row>
     <row r="146" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B146">
         <v>2022</v>
@@ -13321,10 +13321,10 @@
         <v>13</v>
       </c>
       <c r="D146" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F146">
         <v>232</v>
@@ -13342,7 +13342,7 @@
     </row>
     <row r="147" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B147">
         <v>2022</v>
@@ -13351,10 +13351,10 @@
         <v>8</v>
       </c>
       <c r="D147" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F147">
         <v>221</v>
@@ -13372,7 +13372,7 @@
     </row>
     <row r="148" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B148">
         <v>2024</v>
@@ -13380,11 +13380,11 @@
       <c r="C148">
         <v>3</v>
       </c>
-      <c r="D148" t="s">
-        <v>59</v>
+      <c r="D148" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F148">
         <v>12598</v>
@@ -13405,7 +13405,7 @@
     </row>
     <row r="149" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B149">
         <v>2024</v>
@@ -13414,10 +13414,10 @@
         <v>5</v>
       </c>
       <c r="D149" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F149">
         <v>6766</v>
@@ -13438,7 +13438,7 @@
     </row>
     <row r="150" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B150">
         <v>2024</v>
@@ -13447,10 +13447,10 @@
         <v>2</v>
       </c>
       <c r="D150" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F150">
         <v>638</v>
@@ -13468,7 +13468,7 @@
     </row>
     <row r="151" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B151">
         <v>2024</v>
@@ -13477,10 +13477,10 @@
         <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F151">
         <v>443</v>
@@ -13498,7 +13498,7 @@
     </row>
     <row r="152" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B152">
         <v>2024</v>
@@ -13528,7 +13528,7 @@
     </row>
     <row r="153" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B153">
         <v>2024</v>
@@ -13537,10 +13537,10 @@
         <v>8</v>
       </c>
       <c r="D153" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F153">
         <v>180</v>
@@ -13558,7 +13558,7 @@
     </row>
     <row r="154" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B154">
         <v>2024</v>
@@ -13567,10 +13567,10 @@
         <v>13</v>
       </c>
       <c r="D154" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F154">
         <v>170</v>
@@ -13588,7 +13588,7 @@
     </row>
     <row r="155" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B155">
         <v>2024</v>
@@ -13597,10 +13597,10 @@
         <v>11</v>
       </c>
       <c r="D155" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F155">
         <v>87</v>
@@ -13618,16 +13618,16 @@
     </row>
     <row r="156" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B156">
         <v>2019</v>
       </c>
       <c r="D156" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E156" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G156" s="7">
         <v>37.450000000000003</v>
@@ -13645,16 +13645,16 @@
     </row>
     <row r="157" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B157">
         <v>2019</v>
       </c>
       <c r="D157" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E157" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G157" s="7">
         <v>35.5</v>
@@ -13672,16 +13672,16 @@
     </row>
     <row r="158" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B158">
         <v>2019</v>
       </c>
       <c r="D158" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E158" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G158" s="7">
         <v>21.4</v>
@@ -13696,16 +13696,16 @@
     </row>
     <row r="159" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B159">
         <v>2019</v>
       </c>
       <c r="D159" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G159" s="7">
         <v>2.4</v>
@@ -13720,16 +13720,16 @@
     </row>
     <row r="160" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B160">
         <v>2019</v>
       </c>
       <c r="D160" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G160" s="7">
         <v>1.79</v>
@@ -13744,16 +13744,16 @@
     </row>
     <row r="161" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B161">
         <v>2022</v>
       </c>
       <c r="D161" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E161" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F161">
         <v>1961</v>
@@ -13774,16 +13774,16 @@
     </row>
     <row r="162" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B162">
         <v>2022</v>
       </c>
       <c r="D162" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E162" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F162">
         <v>1634</v>
@@ -13804,16 +13804,16 @@
     </row>
     <row r="163" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B163">
         <v>2022</v>
       </c>
       <c r="D163" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E163" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F163">
         <v>1506</v>
@@ -13831,16 +13831,16 @@
     </row>
     <row r="164" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B164">
         <v>2022</v>
       </c>
       <c r="D164" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F164">
         <v>135</v>
@@ -13858,7 +13858,7 @@
     </row>
     <row r="165" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B165">
         <v>2022</v>
@@ -13885,7 +13885,7 @@
     </row>
     <row r="166" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B166">
         <v>2024</v>
@@ -13894,10 +13894,10 @@
         <v>1</v>
       </c>
       <c r="D166" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E166" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F166">
         <v>3349</v>
@@ -13918,7 +13918,7 @@
     </row>
     <row r="167" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B167">
         <v>2024</v>
@@ -13927,10 +13927,10 @@
         <v>14</v>
       </c>
       <c r="D167" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E167" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F167">
         <v>1366</v>
@@ -13951,7 +13951,7 @@
     </row>
     <row r="168" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B168">
         <v>2024</v>
@@ -13960,10 +13960,10 @@
         <v>13</v>
       </c>
       <c r="D168" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F168">
         <v>84</v>
@@ -13981,7 +13981,7 @@
     </row>
     <row r="169" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B169">
         <v>2024</v>
@@ -14011,7 +14011,7 @@
     </row>
     <row r="170" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B170">
         <v>2024</v>
@@ -14020,10 +14020,10 @@
         <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F170">
         <v>47</v>
@@ -14041,7 +14041,7 @@
     </row>
     <row r="171" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B171">
         <v>2019</v>
@@ -14074,7 +14074,7 @@
     </row>
     <row r="172" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B172">
         <v>2019</v>
@@ -14107,7 +14107,7 @@
     </row>
     <row r="173" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B173">
         <v>2019</v>
@@ -14137,7 +14137,7 @@
     </row>
     <row r="174" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B174">
         <v>2019</v>
@@ -14167,7 +14167,7 @@
     </row>
     <row r="175" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B175">
         <v>2019</v>
@@ -14197,7 +14197,7 @@
     </row>
     <row r="176" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B176">
         <v>2019</v>
@@ -14227,7 +14227,7 @@
     </row>
     <row r="177" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B177">
         <v>2019</v>
@@ -14257,7 +14257,7 @@
     </row>
     <row r="178" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B178">
         <v>2022</v>
@@ -14290,7 +14290,7 @@
     </row>
     <row r="179" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B179">
         <v>2022</v>
@@ -14323,7 +14323,7 @@
     </row>
     <row r="180" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B180">
         <v>2022</v>
@@ -14353,7 +14353,7 @@
     </row>
     <row r="181" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B181">
         <v>2022</v>
@@ -14383,7 +14383,7 @@
     </row>
     <row r="182" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B182">
         <v>2022</v>
@@ -14413,7 +14413,7 @@
     </row>
     <row r="183" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B183">
         <v>2022</v>
@@ -14443,7 +14443,7 @@
     </row>
     <row r="184" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B184">
         <v>2022</v>
@@ -14473,7 +14473,7 @@
     </row>
     <row r="185" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B185">
         <v>2022</v>
@@ -14503,7 +14503,7 @@
     </row>
     <row r="186" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B186">
         <v>2024</v>
@@ -14512,10 +14512,10 @@
         <v>6</v>
       </c>
       <c r="D186" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E186" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F186">
         <v>2809</v>
@@ -14536,7 +14536,7 @@
     </row>
     <row r="187" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B187">
         <v>2024</v>
@@ -14545,7 +14545,7 @@
         <v>4</v>
       </c>
       <c r="D187" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E187" t="s">
         <v>15</v>
@@ -14569,7 +14569,7 @@
     </row>
     <row r="188" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B188">
         <v>2024</v>
@@ -14578,7 +14578,7 @@
         <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E188" t="s">
         <v>21</v>
@@ -14599,7 +14599,7 @@
     </row>
     <row r="189" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B189">
         <v>2024</v>
@@ -14608,7 +14608,7 @@
         <v>7</v>
       </c>
       <c r="D189" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E189" t="s">
         <v>20</v>
@@ -14629,7 +14629,7 @@
     </row>
     <row r="190" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B190">
         <v>2024</v>
@@ -14638,7 +14638,7 @@
         <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E190" t="s">
         <v>23</v>
@@ -14659,7 +14659,7 @@
     </row>
     <row r="191" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B191">
         <v>2024</v>
@@ -14689,7 +14689,7 @@
     </row>
     <row r="192" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B192">
         <v>2024</v>
@@ -14698,10 +14698,10 @@
         <v>1</v>
       </c>
       <c r="D192" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F192">
         <v>179</v>
@@ -14719,7 +14719,7 @@
     </row>
     <row r="193" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B193">
         <v>2019</v>
@@ -14728,10 +14728,10 @@
         <v>417</v>
       </c>
       <c r="D193" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F193">
         <v>4214</v>
@@ -14752,7 +14752,7 @@
     </row>
     <row r="194" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B194">
         <v>2019</v>
@@ -14761,10 +14761,10 @@
         <v>2</v>
       </c>
       <c r="D194" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F194">
         <v>1597</v>
@@ -14782,7 +14782,7 @@
     </row>
     <row r="195" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B195">
         <v>2019</v>
@@ -14791,10 +14791,10 @@
         <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E195" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F195">
         <v>846</v>
@@ -14812,7 +14812,7 @@
     </row>
     <row r="196" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B196">
         <v>2019</v>
@@ -14821,10 +14821,10 @@
         <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F196">
         <v>649</v>
@@ -14842,7 +14842,7 @@
     </row>
     <row r="197" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B197">
         <v>2019</v>
@@ -14851,10 +14851,10 @@
         <v>314</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F197">
         <v>394</v>
@@ -14872,7 +14872,7 @@
     </row>
     <row r="198" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B198">
         <v>2019</v>
@@ -14902,7 +14902,7 @@
     </row>
     <row r="199" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B199">
         <v>2019</v>
@@ -14911,10 +14911,10 @@
         <v>256</v>
       </c>
       <c r="D199" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F199">
         <v>178</v>
@@ -14932,7 +14932,7 @@
     </row>
     <row r="200" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B200">
         <v>2022</v>
@@ -14941,10 +14941,10 @@
         <v>417</v>
       </c>
       <c r="D200" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G200" s="7">
         <v>61.7</v>
@@ -14962,7 +14962,7 @@
     </row>
     <row r="201" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B201">
         <v>2022</v>
@@ -14971,10 +14971,10 @@
         <v>2</v>
       </c>
       <c r="D201" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E201" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G201" s="7">
         <v>12.2</v>
@@ -14989,7 +14989,7 @@
     </row>
     <row r="202" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B202">
         <v>2022</v>
@@ -14998,10 +14998,10 @@
         <v>19</v>
       </c>
       <c r="D202" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G202" s="7">
         <v>7</v>
@@ -15016,7 +15016,7 @@
     </row>
     <row r="203" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B203">
         <v>2022</v>
@@ -15025,10 +15025,10 @@
         <v>1</v>
       </c>
       <c r="D203" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E203" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G203" s="7">
         <v>6.7</v>
@@ -15043,7 +15043,7 @@
     </row>
     <row r="204" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B204">
         <v>2022</v>
@@ -15052,10 +15052,10 @@
         <v>8</v>
       </c>
       <c r="D204" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E204" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G204" s="7">
         <v>5.9</v>
@@ -15070,7 +15070,7 @@
     </row>
     <row r="205" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B205">
         <v>2022</v>
@@ -15097,7 +15097,7 @@
     </row>
     <row r="206" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B206">
         <v>2022</v>
@@ -15106,10 +15106,10 @@
         <v>17</v>
       </c>
       <c r="D206" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E206" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G206" s="7">
         <v>1.9</v>
@@ -15124,7 +15124,7 @@
     </row>
     <row r="207" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B207">
         <v>2024</v>
@@ -15132,11 +15132,11 @@
       <c r="C207">
         <v>417</v>
       </c>
-      <c r="D207" t="s">
-        <v>136</v>
+      <c r="D207" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F207">
         <v>2786</v>
@@ -15157,7 +15157,7 @@
     </row>
     <row r="208" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B208">
         <v>2024</v>
@@ -15166,10 +15166,10 @@
         <v>2</v>
       </c>
       <c r="D208" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F208">
         <v>1467</v>
@@ -15187,7 +15187,7 @@
     </row>
     <row r="209" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B209">
         <v>2024</v>
@@ -15196,10 +15196,10 @@
         <v>1</v>
       </c>
       <c r="D209" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E209" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F209">
         <v>1346</v>
@@ -15217,7 +15217,7 @@
     </row>
     <row r="210" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B210">
         <v>2024</v>
@@ -15226,10 +15226,10 @@
         <v>8</v>
       </c>
       <c r="D210" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E210" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F210">
         <v>1312</v>
@@ -15247,7 +15247,7 @@
     </row>
     <row r="211" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B211">
         <v>2024</v>
@@ -15256,10 +15256,10 @@
         <v>7</v>
       </c>
       <c r="D211" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E211" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F211">
         <v>609</v>
@@ -15277,7 +15277,7 @@
     </row>
     <row r="212" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B212">
         <v>2024</v>
@@ -15307,7 +15307,7 @@
     </row>
     <row r="213" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B213">
         <v>2019</v>
@@ -15316,10 +15316,10 @@
         <v>10</v>
       </c>
       <c r="D213" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E213" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F213">
         <v>27465</v>
@@ -15340,7 +15340,7 @@
     </row>
     <row r="214" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B214">
         <v>2019</v>
@@ -15349,10 +15349,10 @@
         <v>39</v>
       </c>
       <c r="D214" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F214">
         <v>5099</v>
@@ -15370,7 +15370,7 @@
     </row>
     <row r="215" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B215">
         <v>2019</v>
@@ -15379,10 +15379,10 @@
         <v>8</v>
       </c>
       <c r="D215" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F215">
         <v>2910</v>
@@ -15400,7 +15400,7 @@
     </row>
     <row r="216" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B216">
         <v>2019</v>
@@ -15409,10 +15409,10 @@
         <v>4</v>
       </c>
       <c r="D216" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F216">
         <v>1044</v>
@@ -15430,7 +15430,7 @@
     </row>
     <row r="217" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B217">
         <v>2019</v>
@@ -15439,10 +15439,10 @@
         <v>18</v>
       </c>
       <c r="D217" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F217">
         <v>719</v>
@@ -15460,7 +15460,7 @@
     </row>
     <row r="218" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B218">
         <v>2019</v>
@@ -15490,7 +15490,7 @@
     </row>
     <row r="219" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B219">
         <v>2019</v>
@@ -15499,10 +15499,10 @@
         <v>13</v>
       </c>
       <c r="D219" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F219">
         <v>455</v>
@@ -15520,7 +15520,7 @@
     </row>
     <row r="220" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B220">
         <v>2022</v>
@@ -15529,10 +15529,10 @@
         <v>10</v>
       </c>
       <c r="D220" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E220" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F220">
         <v>34989</v>
@@ -15553,7 +15553,7 @@
     </row>
     <row r="221" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B221">
         <v>2022</v>
@@ -15562,10 +15562,10 @@
         <v>39</v>
       </c>
       <c r="D221" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F221">
         <v>5331</v>
@@ -15583,7 +15583,7 @@
     </row>
     <row r="222" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B222">
         <v>2022</v>
@@ -15592,10 +15592,10 @@
         <v>6</v>
       </c>
       <c r="D222" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F222">
         <v>1697</v>
@@ -15613,7 +15613,7 @@
     </row>
     <row r="223" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B223">
         <v>2022</v>
@@ -15622,10 +15622,10 @@
         <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F223">
         <v>1626</v>
@@ -15643,7 +15643,7 @@
     </row>
     <row r="224" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B224">
         <v>2022</v>
@@ -15652,10 +15652,10 @@
         <v>2</v>
       </c>
       <c r="D224" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F224">
         <v>1026</v>
@@ -15673,7 +15673,7 @@
     </row>
     <row r="225" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B225">
         <v>2022</v>
@@ -15682,10 +15682,10 @@
         <v>13</v>
       </c>
       <c r="D225" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F225">
         <v>782</v>
@@ -15703,7 +15703,7 @@
     </row>
     <row r="226" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B226">
         <v>2022</v>
@@ -15712,10 +15712,10 @@
         <v>11</v>
       </c>
       <c r="D226" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F226">
         <v>771</v>
@@ -15733,7 +15733,7 @@
     </row>
     <row r="227" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B227">
         <v>2022</v>
@@ -15763,7 +15763,7 @@
     </row>
     <row r="228" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B228">
         <v>2024</v>
@@ -15772,10 +15772,10 @@
         <v>10</v>
       </c>
       <c r="D228" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F228">
         <v>28905</v>
@@ -15796,7 +15796,7 @@
     </row>
     <row r="229" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B229">
         <v>2024</v>
@@ -15805,10 +15805,10 @@
         <v>11</v>
       </c>
       <c r="D229" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F229">
         <v>10891</v>
@@ -15829,7 +15829,7 @@
     </row>
     <row r="230" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B230">
         <v>2024</v>
@@ -15838,10 +15838,10 @@
         <v>2</v>
       </c>
       <c r="D230" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F230">
         <v>3168</v>
@@ -15859,7 +15859,7 @@
     </row>
     <row r="231" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B231">
         <v>2024</v>
@@ -15868,10 +15868,10 @@
         <v>8</v>
       </c>
       <c r="D231" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F231">
         <v>973</v>
@@ -15889,7 +15889,7 @@
     </row>
     <row r="232" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B232">
         <v>2024</v>
@@ -15898,10 +15898,10 @@
         <v>17</v>
       </c>
       <c r="D232" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F232">
         <v>912</v>
@@ -15919,7 +15919,7 @@
     </row>
     <row r="233" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B233">
         <v>2024</v>
@@ -15928,10 +15928,10 @@
         <v>4</v>
       </c>
       <c r="D233" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F233">
         <v>902</v>
@@ -15949,7 +15949,7 @@
     </row>
     <row r="234" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B234">
         <v>2024</v>
@@ -15979,7 +15979,7 @@
     </row>
     <row r="235" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B235">
         <v>2024</v>
@@ -15988,10 +15988,10 @@
         <v>13</v>
       </c>
       <c r="D235" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F235">
         <v>287</v>
@@ -16009,19 +16009,19 @@
     </row>
     <row r="236" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B236">
         <v>2019</v>
       </c>
       <c r="C236" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D236" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E236" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G236" s="7">
         <v>92.4</v>
@@ -16039,19 +16039,19 @@
     </row>
     <row r="237" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B237">
         <v>2019</v>
       </c>
       <c r="C237" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D237" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E237" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G237" s="7">
         <v>6.6</v>
@@ -16066,7 +16066,7 @@
     </row>
     <row r="238" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B238">
         <v>2019</v>
@@ -16093,19 +16093,19 @@
     </row>
     <row r="239" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B239">
         <v>2022</v>
       </c>
       <c r="C239" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D239" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E239" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G239" s="7">
         <v>95.2</v>
@@ -16123,19 +16123,19 @@
     </row>
     <row r="240" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B240">
         <v>2022</v>
       </c>
       <c r="C240" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D240" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E240" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G240" s="7">
         <v>4.4000000000000004</v>
@@ -16150,7 +16150,7 @@
     </row>
     <row r="241" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B241">
         <v>2022</v>
@@ -16177,19 +16177,19 @@
     </row>
     <row r="242" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B242">
         <v>2024</v>
       </c>
       <c r="C242" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D242" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E242" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G242" s="7">
         <v>99</v>
@@ -16207,19 +16207,19 @@
     </row>
     <row r="243" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B243">
         <v>2024</v>
       </c>
       <c r="C243" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D243" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E243" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G243" s="7">
         <v>0.5</v>
@@ -16234,7 +16234,7 @@
     </row>
     <row r="244" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B244">
         <v>2024</v>
@@ -16261,7 +16261,7 @@
     </row>
     <row r="245" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B245">
         <v>2019</v>
@@ -16270,10 +16270,10 @@
         <v>3</v>
       </c>
       <c r="D245" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E245" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G245">
         <v>45.39</v>
@@ -16291,16 +16291,16 @@
     </row>
     <row r="246" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B246">
         <v>2019</v>
       </c>
       <c r="D246" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E246" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G246">
         <v>33.47</v>
@@ -16318,7 +16318,7 @@
     </row>
     <row r="247" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B247">
         <v>2019</v>
@@ -16327,7 +16327,7 @@
         <v>15</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G247">
         <v>13.66</v>
@@ -16342,16 +16342,16 @@
     </row>
     <row r="248" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B248">
         <v>2019</v>
       </c>
       <c r="D248" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G248">
         <v>4.3</v>
@@ -16366,16 +16366,16 @@
     </row>
     <row r="249" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B249">
         <v>2019</v>
       </c>
       <c r="D249" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G249">
         <v>2.17</v>
@@ -16390,7 +16390,7 @@
     </row>
     <row r="250" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B250">
         <v>2019</v>
@@ -16417,7 +16417,7 @@
     </row>
     <row r="251" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B251">
         <v>2022</v>
@@ -16426,10 +16426,10 @@
         <v>3</v>
       </c>
       <c r="D251" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E251" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F251">
         <v>10191</v>
@@ -16450,7 +16450,7 @@
     </row>
     <row r="252" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B252">
         <v>2022</v>
@@ -16459,10 +16459,10 @@
         <v>5</v>
       </c>
       <c r="D252" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E252" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F252">
         <v>4128</v>
@@ -16483,7 +16483,7 @@
     </row>
     <row r="253" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B253">
         <v>2022</v>
@@ -16492,10 +16492,10 @@
         <v>6</v>
       </c>
       <c r="D253" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F253">
         <v>1293</v>
@@ -16513,7 +16513,7 @@
     </row>
     <row r="254" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B254">
         <v>2022</v>
@@ -16522,10 +16522,10 @@
         <v>2</v>
       </c>
       <c r="D254" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F254">
         <v>1024</v>
@@ -16543,7 +16543,7 @@
     </row>
     <row r="255" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B255">
         <v>2022</v>
@@ -16552,10 +16552,10 @@
         <v>13</v>
       </c>
       <c r="D255" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F255">
         <v>393</v>
@@ -16573,7 +16573,7 @@
     </row>
     <row r="256" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B256">
         <v>2022</v>
@@ -16603,7 +16603,7 @@
     </row>
     <row r="257" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B257">
         <v>2024</v>
@@ -16612,10 +16612,10 @@
         <v>3</v>
       </c>
       <c r="D257" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E257" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F257">
         <v>8538</v>
@@ -16636,7 +16636,7 @@
     </row>
     <row r="258" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B258">
         <v>2024</v>
@@ -16645,10 +16645,10 @@
         <v>5</v>
       </c>
       <c r="D258" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E258" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F258">
         <v>5227</v>
@@ -16669,7 +16669,7 @@
     </row>
     <row r="259" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B259">
         <v>2024</v>
@@ -16678,10 +16678,10 @@
         <v>6</v>
       </c>
       <c r="D259" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F259">
         <v>1271</v>
@@ -16699,7 +16699,7 @@
     </row>
     <row r="260" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B260">
         <v>2024</v>
@@ -16708,10 +16708,10 @@
         <v>2</v>
       </c>
       <c r="D260" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F260">
         <v>863</v>
@@ -16729,7 +16729,7 @@
     </row>
     <row r="261" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B261">
         <v>2024</v>

--- a/uba_cd_estudiantes.xlsx
+++ b/uba_cd_estudiantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\personal\sociologia\emergit\uba_electoral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942DB7B4-A722-4299-A48B-8DCB7B137489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9C59A3-D36B-4BD1-A1DD-E5B776B0A0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="colores" sheetId="3" r:id="rId1"/>
@@ -131,9 +131,6 @@
     <t>Sociales en Movimiento</t>
   </si>
   <si>
-    <t>UES + AA</t>
-  </si>
-  <si>
     <t>Rebelión</t>
   </si>
   <si>
@@ -743,6 +740,9 @@
   </si>
   <si>
     <t>Sociales en movimiento</t>
+  </si>
+  <si>
+    <t>UES/UES + AA</t>
   </si>
 </sst>
 </file>
@@ -7590,8 +7590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24D8039-D0D6-4DE2-92CD-2A0539E40632}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7601,35 +7601,35 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K3" t="s">
         <v>166</v>
-      </c>
-      <c r="K3" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -7640,119 +7640,119 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" t="str">
         <f>VLOOKUP(E4,$J$3:$K$15,2,FALSE)</f>
         <v>white</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" ref="F5:F68" si="0">VLOOKUP(E5,$J$3:$K$15,2,FALSE)</f>
         <v>#3B3B39</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
         <v>#EF233C</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
         <v>#EF233C</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
         <v>#3B3B39</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
         <v>#3B3B39</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -7760,53 +7760,53 @@
         <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
         <v>#B1DDF6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D11" s="3" t="s">
-        <v>29</v>
+      <c r="D11" t="s">
+        <v>226</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
         <v>#80ED99</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
         <v>#80ED99</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -7814,17 +7814,17 @@
         <v>17</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
         <v>orange</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -7832,17 +7832,17 @@
         <v>18</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
         <v>purple</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -7850,17 +7850,17 @@
         <v>19</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
         <v>#80ED99</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -7868,7 +7868,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -7880,7 +7880,7 @@
         <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
@@ -7892,7 +7892,7 @@
         <v>23</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
@@ -7901,10 +7901,10 @@
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D19" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
@@ -7913,10 +7913,10 @@
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D20" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -7925,10 +7925,10 @@
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D21" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -7937,10 +7937,10 @@
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D22" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
@@ -7949,10 +7949,10 @@
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D23" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
@@ -7961,10 +7961,10 @@
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D24" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
@@ -7973,10 +7973,10 @@
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D25" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
@@ -7985,10 +7985,10 @@
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D26" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
@@ -7997,10 +7997,10 @@
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D27" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
@@ -8009,10 +8009,10 @@
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D28" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
@@ -8021,10 +8021,10 @@
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D29" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
@@ -8033,10 +8033,10 @@
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D30" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
@@ -8045,10 +8045,10 @@
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D31" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
@@ -8057,10 +8057,10 @@
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D32" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
@@ -8069,10 +8069,10 @@
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D33" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
@@ -8081,10 +8081,10 @@
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D34" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
@@ -8093,10 +8093,10 @@
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D35" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
@@ -8105,10 +8105,10 @@
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D36" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
@@ -8117,10 +8117,10 @@
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D37" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
@@ -8129,10 +8129,10 @@
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D38" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
@@ -8141,10 +8141,10 @@
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D39" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
@@ -8153,10 +8153,10 @@
     </row>
     <row r="40" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D40" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
@@ -8165,10 +8165,10 @@
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D41" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
@@ -8177,10 +8177,10 @@
     </row>
     <row r="42" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D42" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
@@ -8189,10 +8189,10 @@
     </row>
     <row r="43" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D43" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
@@ -8201,10 +8201,10 @@
     </row>
     <row r="44" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D44" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
@@ -8213,10 +8213,10 @@
     </row>
     <row r="45" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D45" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
@@ -8225,10 +8225,10 @@
     </row>
     <row r="46" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D46" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
@@ -8237,10 +8237,10 @@
     </row>
     <row r="47" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D47" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
@@ -8249,10 +8249,10 @@
     </row>
     <row r="48" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D48" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
@@ -8261,10 +8261,10 @@
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D49" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
@@ -8273,10 +8273,10 @@
     </row>
     <row r="50" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D50" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
@@ -8285,10 +8285,10 @@
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D51" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
@@ -8297,10 +8297,10 @@
     </row>
     <row r="52" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D52" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
@@ -8309,10 +8309,10 @@
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D53" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
@@ -8321,10 +8321,10 @@
     </row>
     <row r="54" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D54" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
@@ -8333,10 +8333,10 @@
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D55" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
@@ -8345,10 +8345,10 @@
     </row>
     <row r="56" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D56" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
@@ -8357,10 +8357,10 @@
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D57" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="0"/>
@@ -8369,10 +8369,10 @@
     </row>
     <row r="58" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D58" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="0"/>
@@ -8381,10 +8381,10 @@
     </row>
     <row r="59" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="0"/>
@@ -8393,10 +8393,10 @@
     </row>
     <row r="60" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" si="0"/>
@@ -8405,10 +8405,10 @@
     </row>
     <row r="61" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D61" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
@@ -8417,10 +8417,10 @@
     </row>
     <row r="62" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="0"/>
@@ -8429,10 +8429,10 @@
     </row>
     <row r="63" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="0"/>
@@ -8441,10 +8441,10 @@
     </row>
     <row r="64" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F64" t="str">
         <f t="shared" si="0"/>
@@ -8453,10 +8453,10 @@
     </row>
     <row r="65" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="0"/>
@@ -8465,10 +8465,10 @@
     </row>
     <row r="66" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" si="0"/>
@@ -8477,10 +8477,10 @@
     </row>
     <row r="67" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" si="0"/>
@@ -8489,10 +8489,10 @@
     </row>
     <row r="68" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="0"/>
@@ -8501,10 +8501,10 @@
     </row>
     <row r="69" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" ref="F69:F72" si="1">VLOOKUP(E69,$J$3:$K$15,2,FALSE)</f>
@@ -8513,10 +8513,10 @@
     </row>
     <row r="70" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="1"/>
@@ -8525,10 +8525,10 @@
     </row>
     <row r="71" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="1"/>
@@ -8537,10 +8537,10 @@
     </row>
     <row r="72" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D72" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="1"/>
@@ -8576,15 +8576,15 @@
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>2019</v>
@@ -8596,10 +8596,10 @@
         <v>2024</v>
       </c>
       <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
         <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8621,7 +8621,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6">
         <v>18171</v>
@@ -8638,7 +8638,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7">
         <v>8164</v>
@@ -8652,7 +8652,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8">
         <v>38316</v>
@@ -8669,17 +8669,17 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B11">
         <v>23066</v>
@@ -8696,7 +8696,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B12">
         <v>26133</v>
@@ -8713,7 +8713,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B13">
         <v>5671</v>
@@ -8730,7 +8730,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B14">
         <v>11600</v>
@@ -8747,7 +8747,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B15">
         <v>3581</v>
@@ -8764,7 +8764,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C16">
         <v>5324</v>
@@ -8778,7 +8778,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B17">
         <v>8578</v>
@@ -8795,7 +8795,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C18">
         <v>17208</v>
@@ -8809,7 +8809,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19">
         <v>146084</v>
@@ -8836,8 +8836,8 @@
   </sheetPr>
   <dimension ref="A1:J261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="101" workbookViewId="0">
-      <selection activeCell="D208" sqref="D208"/>
+    <sheetView topLeftCell="A93" zoomScale="101" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8870,13 +8870,13 @@
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8890,10 +8890,10 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F2">
         <v>1421</v>
@@ -8923,10 +8923,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F3">
         <v>1238</v>
@@ -8956,10 +8956,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F4">
         <v>102</v>
@@ -9016,10 +9016,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F6">
         <v>1145</v>
@@ -9049,10 +9049,10 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F7">
         <v>986</v>
@@ -9082,10 +9082,10 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F8">
         <v>390</v>
@@ -9142,10 +9142,10 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F10">
         <v>1062</v>
@@ -9175,10 +9175,10 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F11">
         <v>880</v>
@@ -9208,10 +9208,10 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F12">
         <v>336</v>
@@ -9259,7 +9259,7 @@
     </row>
     <row r="14" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B14">
         <v>2019</v>
@@ -9268,10 +9268,10 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F14">
         <v>10506</v>
@@ -9292,7 +9292,7 @@
     </row>
     <row r="15" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B15">
         <v>2019</v>
@@ -9301,10 +9301,10 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F15">
         <v>7431</v>
@@ -9325,7 +9325,7 @@
     </row>
     <row r="16" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B16">
         <v>2019</v>
@@ -9334,10 +9334,10 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F16">
         <v>2028</v>
@@ -9355,7 +9355,7 @@
     </row>
     <row r="17" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B17">
         <v>2019</v>
@@ -9364,10 +9364,10 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F17">
         <v>1398</v>
@@ -9385,7 +9385,7 @@
     </row>
     <row r="18" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B18">
         <v>2019</v>
@@ -9394,10 +9394,10 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F18">
         <v>1351</v>
@@ -9415,7 +9415,7 @@
     </row>
     <row r="19" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B19">
         <v>2019</v>
@@ -9445,7 +9445,7 @@
     </row>
     <row r="20" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B20">
         <v>2022</v>
@@ -9454,10 +9454,10 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F20">
         <v>14056</v>
@@ -9478,7 +9478,7 @@
     </row>
     <row r="21" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21">
         <v>2022</v>
@@ -9487,10 +9487,10 @@
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F21">
         <v>6225</v>
@@ -9511,7 +9511,7 @@
     </row>
     <row r="22" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B22">
         <v>2022</v>
@@ -9520,10 +9520,10 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F22">
         <v>1106</v>
@@ -9541,7 +9541,7 @@
     </row>
     <row r="23" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B23">
         <v>2022</v>
@@ -9550,10 +9550,10 @@
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F23">
         <v>765</v>
@@ -9571,7 +9571,7 @@
     </row>
     <row r="24" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B24">
         <v>2022</v>
@@ -9580,10 +9580,10 @@
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F24">
         <v>505</v>
@@ -9601,7 +9601,7 @@
     </row>
     <row r="25" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B25">
         <v>2022</v>
@@ -9631,7 +9631,7 @@
     </row>
     <row r="26" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B26">
         <v>2022</v>
@@ -9640,10 +9640,10 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F26">
         <v>232</v>
@@ -9661,7 +9661,7 @@
     </row>
     <row r="27" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B27">
         <v>2022</v>
@@ -9670,10 +9670,10 @@
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F27">
         <v>141</v>
@@ -9691,7 +9691,7 @@
     </row>
     <row r="28" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B28">
         <v>2024</v>
@@ -9700,10 +9700,10 @@
         <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F28">
         <v>15172</v>
@@ -9724,7 +9724,7 @@
     </row>
     <row r="29" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B29">
         <v>2024</v>
@@ -9733,10 +9733,10 @@
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F29">
         <v>9556</v>
@@ -9757,7 +9757,7 @@
     </row>
     <row r="30" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B30">
         <v>2024</v>
@@ -9766,10 +9766,10 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F30">
         <v>1941</v>
@@ -9787,7 +9787,7 @@
     </row>
     <row r="31" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B31">
         <v>2024</v>
@@ -9796,10 +9796,10 @@
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F31">
         <v>951</v>
@@ -9817,7 +9817,7 @@
     </row>
     <row r="32" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B32">
         <v>2024</v>
@@ -9847,7 +9847,7 @@
     </row>
     <row r="33" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B33">
         <v>2024</v>
@@ -9856,10 +9856,10 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F33">
         <v>272</v>
@@ -9877,7 +9877,7 @@
     </row>
     <row r="34" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B34">
         <v>2019</v>
@@ -9886,10 +9886,10 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F34">
         <v>19394</v>
@@ -9910,7 +9910,7 @@
     </row>
     <row r="35" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B35">
         <v>2019</v>
@@ -9919,10 +9919,10 @@
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F35">
         <v>1952</v>
@@ -9940,7 +9940,7 @@
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B36">
         <v>2019</v>
@@ -9949,10 +9949,10 @@
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F36">
         <v>1112</v>
@@ -9970,7 +9970,7 @@
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B37">
         <v>2019</v>
@@ -9979,10 +9979,10 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F37">
         <v>1063</v>
@@ -10000,7 +10000,7 @@
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B38">
         <v>2019</v>
@@ -10009,10 +10009,10 @@
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F38">
         <v>822</v>
@@ -10030,7 +10030,7 @@
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B39">
         <v>2019</v>
@@ -10060,7 +10060,7 @@
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B40">
         <v>2019</v>
@@ -10069,10 +10069,10 @@
         <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F40">
         <v>415</v>
@@ -10090,7 +10090,7 @@
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B41">
         <v>2019</v>
@@ -10099,10 +10099,10 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F41">
         <v>338</v>
@@ -10120,7 +10120,7 @@
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B42">
         <v>2019</v>
@@ -10129,7 +10129,7 @@
         <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
@@ -10150,7 +10150,7 @@
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B43">
         <v>2019</v>
@@ -10159,10 +10159,10 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F43">
         <v>149</v>
@@ -10180,7 +10180,7 @@
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B44">
         <v>2019</v>
@@ -10189,10 +10189,10 @@
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F44">
         <v>139</v>
@@ -10210,7 +10210,7 @@
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B45">
         <v>2019</v>
@@ -10219,10 +10219,10 @@
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F45">
         <v>36</v>
@@ -10240,7 +10240,7 @@
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B46">
         <v>2022</v>
@@ -10249,10 +10249,10 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F46">
         <v>16895</v>
@@ -10273,7 +10273,7 @@
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B47">
         <v>2022</v>
@@ -10282,10 +10282,10 @@
         <v>9</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F47">
         <v>1520</v>
@@ -10303,7 +10303,7 @@
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B48">
         <v>2022</v>
@@ -10312,10 +10312,10 @@
         <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F48">
         <v>1473</v>
@@ -10333,7 +10333,7 @@
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B49">
         <v>2022</v>
@@ -10342,10 +10342,10 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F49">
         <v>695</v>
@@ -10363,7 +10363,7 @@
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B50">
         <v>2022</v>
@@ -10372,10 +10372,10 @@
         <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F50">
         <v>645</v>
@@ -10393,7 +10393,7 @@
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B51">
         <v>2022</v>
@@ -10402,10 +10402,10 @@
         <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F51">
         <v>549</v>
@@ -10423,7 +10423,7 @@
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B52">
         <v>2022</v>
@@ -10432,10 +10432,10 @@
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F52">
         <v>482</v>
@@ -10453,16 +10453,16 @@
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B53">
         <v>2022</v>
       </c>
       <c r="C53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
@@ -10483,7 +10483,7 @@
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B54">
         <v>2022</v>
@@ -10492,10 +10492,10 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F54">
         <v>196</v>
@@ -10513,7 +10513,7 @@
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B55">
         <v>2022</v>
@@ -10522,7 +10522,7 @@
         <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>11</v>
@@ -10543,7 +10543,7 @@
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B56">
         <v>2022</v>
@@ -10552,10 +10552,10 @@
         <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F56">
         <v>131</v>
@@ -10573,7 +10573,7 @@
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B57">
         <v>2022</v>
@@ -10582,10 +10582,10 @@
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F57">
         <v>77</v>
@@ -10603,7 +10603,7 @@
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B58">
         <v>2022</v>
@@ -10612,10 +10612,10 @@
         <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F58">
         <v>78</v>
@@ -10633,7 +10633,7 @@
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B59">
         <v>2022</v>
@@ -10642,10 +10642,10 @@
         <v>69</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F59">
         <v>78</v>
@@ -10663,7 +10663,7 @@
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B60">
         <v>2022</v>
@@ -10672,10 +10672,10 @@
         <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F60">
         <v>50</v>
@@ -10693,7 +10693,7 @@
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B61">
         <v>2022</v>
@@ -10702,10 +10702,10 @@
         <v>44</v>
       </c>
       <c r="D61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F61">
         <v>35</v>
@@ -10723,7 +10723,7 @@
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B62">
         <v>2024</v>
@@ -10732,10 +10732,10 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F62">
         <v>16057</v>
@@ -10756,7 +10756,7 @@
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B63">
         <v>2024</v>
@@ -10765,10 +10765,10 @@
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F63">
         <v>2106</v>
@@ -10786,7 +10786,7 @@
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B64">
         <v>2024</v>
@@ -10795,10 +10795,10 @@
         <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F64">
         <v>1417</v>
@@ -10816,7 +10816,7 @@
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B65">
         <v>2024</v>
@@ -10825,10 +10825,10 @@
         <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F65">
         <v>676</v>
@@ -10846,7 +10846,7 @@
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B66">
         <v>2024</v>
@@ -10855,10 +10855,10 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F66">
         <v>477</v>
@@ -10876,7 +10876,7 @@
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B67">
         <v>2024</v>
@@ -10885,10 +10885,10 @@
         <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F67">
         <v>396</v>
@@ -10906,16 +10906,16 @@
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B68">
         <v>2024</v>
       </c>
       <c r="C68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
@@ -10936,7 +10936,7 @@
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B69">
         <v>2024</v>
@@ -10945,10 +10945,10 @@
         <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F69">
         <v>285</v>
@@ -10966,7 +10966,7 @@
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B70">
         <v>2024</v>
@@ -10975,10 +10975,10 @@
         <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F70">
         <v>219</v>
@@ -10996,7 +10996,7 @@
     </row>
     <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B71">
         <v>2024</v>
@@ -11005,10 +11005,10 @@
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F71">
         <v>206</v>
@@ -11026,7 +11026,7 @@
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B72">
         <v>2024</v>
@@ -11035,7 +11035,7 @@
         <v>22</v>
       </c>
       <c r="D72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>11</v>
@@ -11056,7 +11056,7 @@
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B73">
         <v>2024</v>
@@ -11065,10 +11065,10 @@
         <v>4</v>
       </c>
       <c r="D73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F73">
         <v>76</v>
@@ -11086,7 +11086,7 @@
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B74">
         <v>2024</v>
@@ -11095,10 +11095,10 @@
         <v>69</v>
       </c>
       <c r="D74" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F74">
         <v>59</v>
@@ -11116,7 +11116,7 @@
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B75">
         <v>2024</v>
@@ -11125,10 +11125,10 @@
         <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F75">
         <v>48</v>
@@ -11146,7 +11146,7 @@
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B76">
         <v>2024</v>
@@ -11155,10 +11155,10 @@
         <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F76">
         <v>47</v>
@@ -11176,7 +11176,7 @@
     </row>
     <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B77">
         <v>2024</v>
@@ -11185,10 +11185,10 @@
         <v>44</v>
       </c>
       <c r="D77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F77">
         <v>31</v>
@@ -11206,7 +11206,7 @@
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B78">
         <v>2019</v>
@@ -11215,10 +11215,10 @@
         <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F78">
         <v>1912</v>
@@ -11239,7 +11239,7 @@
     </row>
     <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B79">
         <v>2019</v>
@@ -11248,10 +11248,10 @@
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F79">
         <v>1505</v>
@@ -11272,7 +11272,7 @@
     </row>
     <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B80">
         <v>2019</v>
@@ -11284,7 +11284,7 @@
         <v>15</v>
       </c>
       <c r="E80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F80">
         <v>1245</v>
@@ -11302,7 +11302,7 @@
     </row>
     <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B81">
         <v>2019</v>
@@ -11311,10 +11311,10 @@
         <v>26</v>
       </c>
       <c r="D81" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E81" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F81">
         <v>517</v>
@@ -11332,7 +11332,7 @@
     </row>
     <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B82">
         <v>2019</v>
@@ -11362,7 +11362,7 @@
     </row>
     <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B83">
         <v>2022</v>
@@ -11371,10 +11371,10 @@
         <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F83">
         <v>2588</v>
@@ -11395,7 +11395,7 @@
     </row>
     <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B84">
         <v>2022</v>
@@ -11404,10 +11404,10 @@
         <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F84">
         <v>1891</v>
@@ -11428,7 +11428,7 @@
     </row>
     <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B85">
         <v>2022</v>
@@ -11437,10 +11437,10 @@
         <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E85" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F85">
         <v>1097</v>
@@ -11458,7 +11458,7 @@
     </row>
     <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B86">
         <v>2022</v>
@@ -11488,7 +11488,7 @@
     </row>
     <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B87">
         <v>2024</v>
@@ -11497,10 +11497,10 @@
         <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F87">
         <v>2964</v>
@@ -11521,7 +11521,7 @@
     </row>
     <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B88">
         <v>2024</v>
@@ -11530,10 +11530,10 @@
         <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F88">
         <v>1872</v>
@@ -11554,7 +11554,7 @@
     </row>
     <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B89">
         <v>2024</v>
@@ -11563,10 +11563,10 @@
         <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E89" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F89">
         <v>1610</v>
@@ -11584,7 +11584,7 @@
     </row>
     <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B90">
         <v>2024</v>
@@ -11614,7 +11614,7 @@
     </row>
     <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B91">
         <v>2024</v>
@@ -11623,10 +11623,10 @@
         <v>4</v>
       </c>
       <c r="D91" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F91">
         <v>321</v>
@@ -11644,7 +11644,7 @@
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B92">
         <v>2024</v>
@@ -11653,10 +11653,10 @@
         <v>8</v>
       </c>
       <c r="D92" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E92" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F92">
         <v>258</v>
@@ -11674,7 +11674,7 @@
     </row>
     <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B93">
         <v>2024</v>
@@ -11683,10 +11683,10 @@
         <v>17</v>
       </c>
       <c r="D93" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F93">
         <v>165</v>
@@ -11704,7 +11704,7 @@
     </row>
     <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B94">
         <v>2024</v>
@@ -11713,10 +11713,10 @@
         <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F94">
         <v>105</v>
@@ -11734,7 +11734,7 @@
     </row>
     <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B95">
         <v>2024</v>
@@ -11746,7 +11746,7 @@
         <v>7</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F95">
         <v>58</v>
@@ -11764,7 +11764,7 @@
     </row>
     <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B96">
         <v>2019</v>
@@ -11776,7 +11776,7 @@
         <v>14</v>
       </c>
       <c r="E96" t="s">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="F96">
         <v>4687</v>
@@ -11797,7 +11797,7 @@
     </row>
     <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B97">
         <v>2019</v>
@@ -11830,7 +11830,7 @@
     </row>
     <row r="98" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B98">
         <v>2019</v>
@@ -11860,7 +11860,7 @@
     </row>
     <row r="99" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B99">
         <v>2019</v>
@@ -11890,7 +11890,7 @@
     </row>
     <row r="100" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B100">
         <v>2019</v>
@@ -11920,7 +11920,7 @@
     </row>
     <row r="101" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B101">
         <v>2019</v>
@@ -11950,7 +11950,7 @@
     </row>
     <row r="102" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B102">
         <v>2019</v>
@@ -11962,7 +11962,7 @@
         <v>16</v>
       </c>
       <c r="E102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F102">
         <v>179</v>
@@ -11980,7 +11980,7 @@
     </row>
     <row r="103" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B103">
         <v>2022</v>
@@ -11992,7 +11992,7 @@
         <v>9</v>
       </c>
       <c r="E103" t="s">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="F103">
         <v>4015</v>
@@ -12013,7 +12013,7 @@
     </row>
     <row r="104" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B104">
         <v>2022</v>
@@ -12046,7 +12046,7 @@
     </row>
     <row r="105" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B105">
         <v>2022</v>
@@ -12076,7 +12076,7 @@
     </row>
     <row r="106" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B106">
         <v>2022</v>
@@ -12106,7 +12106,7 @@
     </row>
     <row r="107" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B107">
         <v>2022</v>
@@ -12136,7 +12136,7 @@
     </row>
     <row r="108" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B108">
         <v>2022</v>
@@ -12166,7 +12166,7 @@
     </row>
     <row r="109" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B109">
         <v>2024</v>
@@ -12175,7 +12175,7 @@
         <v>15</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E109" t="s">
         <v>28</v>
@@ -12199,7 +12199,7 @@
     </row>
     <row r="110" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B110">
         <v>2024</v>
@@ -12211,7 +12211,7 @@
         <v>25</v>
       </c>
       <c r="E110" t="s">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="F110">
         <v>3538</v>
@@ -12232,7 +12232,7 @@
     </row>
     <row r="111" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B111">
         <v>2024</v>
@@ -12262,7 +12262,7 @@
     </row>
     <row r="112" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B112">
         <v>2024</v>
@@ -12292,7 +12292,7 @@
     </row>
     <row r="113" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B113">
         <v>2024</v>
@@ -12322,7 +12322,7 @@
     </row>
     <row r="114" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B114">
         <v>2024</v>
@@ -12352,7 +12352,7 @@
     </row>
     <row r="115" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B115">
         <v>2019</v>
@@ -12361,10 +12361,10 @@
         <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E115" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F115">
         <v>1598</v>
@@ -12385,7 +12385,7 @@
     </row>
     <row r="116" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B116">
         <v>2019</v>
@@ -12394,10 +12394,10 @@
         <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E116" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F116">
         <v>1284</v>
@@ -12418,7 +12418,7 @@
     </row>
     <row r="117" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B117">
         <v>2019</v>
@@ -12427,10 +12427,10 @@
         <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E117" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F117">
         <v>340</v>
@@ -12448,7 +12448,7 @@
     </row>
     <row r="118" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B118">
         <v>2019</v>
@@ -12457,10 +12457,10 @@
         <v>7</v>
       </c>
       <c r="D118" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E118" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F118">
         <v>289</v>
@@ -12478,7 +12478,7 @@
     </row>
     <row r="119" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B119">
         <v>2019</v>
@@ -12508,7 +12508,7 @@
     </row>
     <row r="120" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B120">
         <v>2022</v>
@@ -12517,10 +12517,10 @@
         <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E120" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F120">
         <v>1522</v>
@@ -12541,7 +12541,7 @@
     </row>
     <row r="121" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B121">
         <v>2022</v>
@@ -12550,10 +12550,10 @@
         <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E121" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F121">
         <v>1163</v>
@@ -12574,7 +12574,7 @@
     </row>
     <row r="122" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B122">
         <v>2022</v>
@@ -12583,10 +12583,10 @@
         <v>14</v>
       </c>
       <c r="D122" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E122" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F122">
         <v>588</v>
@@ -12604,7 +12604,7 @@
     </row>
     <row r="123" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B123">
         <v>2022</v>
@@ -12613,10 +12613,10 @@
         <v>7</v>
       </c>
       <c r="D123" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E123" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F123">
         <v>413</v>
@@ -12634,7 +12634,7 @@
     </row>
     <row r="124" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B124">
         <v>2022</v>
@@ -12643,10 +12643,10 @@
         <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E124" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F124">
         <v>231</v>
@@ -12664,7 +12664,7 @@
     </row>
     <row r="125" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B125">
         <v>2022</v>
@@ -12694,7 +12694,7 @@
     </row>
     <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B126">
         <v>2024</v>
@@ -12703,10 +12703,10 @@
         <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E126" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F126">
         <v>1539</v>
@@ -12727,7 +12727,7 @@
     </row>
     <row r="127" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B127">
         <v>2024</v>
@@ -12736,10 +12736,10 @@
         <v>14</v>
       </c>
       <c r="D127" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E127" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F127">
         <v>1469</v>
@@ -12760,7 +12760,7 @@
     </row>
     <row r="128" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B128">
         <v>2024</v>
@@ -12769,10 +12769,10 @@
         <v>1</v>
       </c>
       <c r="D128" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E128" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F128">
         <v>1026</v>
@@ -12790,7 +12790,7 @@
     </row>
     <row r="129" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B129">
         <v>2024</v>
@@ -12820,7 +12820,7 @@
     </row>
     <row r="130" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B130">
         <v>2019</v>
@@ -12829,10 +12829,10 @@
         <v>4</v>
       </c>
       <c r="D130" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F130">
         <v>7441</v>
@@ -12853,7 +12853,7 @@
     </row>
     <row r="131" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B131">
         <v>2019</v>
@@ -12862,10 +12862,10 @@
         <v>5</v>
       </c>
       <c r="D131" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F131">
         <v>3142</v>
@@ -12886,7 +12886,7 @@
     </row>
     <row r="132" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B132">
         <v>2019</v>
@@ -12895,7 +12895,7 @@
         <v>3</v>
       </c>
       <c r="D132" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>17</v>
@@ -12916,7 +12916,7 @@
     </row>
     <row r="133" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B133">
         <v>2019</v>
@@ -12925,10 +12925,10 @@
         <v>2</v>
       </c>
       <c r="D133" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F133">
         <v>1033</v>
@@ -12946,7 +12946,7 @@
     </row>
     <row r="134" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B134">
         <v>2019</v>
@@ -12958,7 +12958,7 @@
         <v>22</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F134">
         <v>280</v>
@@ -12976,7 +12976,7 @@
     </row>
     <row r="135" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B135">
         <v>2019</v>
@@ -13006,7 +13006,7 @@
     </row>
     <row r="136" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B136">
         <v>2019</v>
@@ -13015,10 +13015,10 @@
         <v>13</v>
       </c>
       <c r="D136" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F136">
         <v>217</v>
@@ -13036,7 +13036,7 @@
     </row>
     <row r="137" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B137">
         <v>2019</v>
@@ -13045,10 +13045,10 @@
         <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F137">
         <v>200</v>
@@ -13066,7 +13066,7 @@
     </row>
     <row r="138" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B138">
         <v>2019</v>
@@ -13075,10 +13075,10 @@
         <v>15</v>
       </c>
       <c r="D138" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F138">
         <v>147</v>
@@ -13096,7 +13096,7 @@
     </row>
     <row r="139" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B139">
         <v>2022</v>
@@ -13105,10 +13105,10 @@
         <v>4</v>
       </c>
       <c r="D139" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F139">
         <v>11809</v>
@@ -13129,7 +13129,7 @@
     </row>
     <row r="140" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B140">
         <v>2022</v>
@@ -13138,10 +13138,10 @@
         <v>5</v>
       </c>
       <c r="D140" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F140">
         <v>8105</v>
@@ -13162,7 +13162,7 @@
     </row>
     <row r="141" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B141">
         <v>2022</v>
@@ -13171,10 +13171,10 @@
         <v>3</v>
       </c>
       <c r="D141" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F141">
         <v>928</v>
@@ -13192,7 +13192,7 @@
     </row>
     <row r="142" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B142">
         <v>2022</v>
@@ -13204,7 +13204,7 @@
         <v>11</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F142">
         <v>445</v>
@@ -13222,7 +13222,7 @@
     </row>
     <row r="143" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B143">
         <v>2022</v>
@@ -13231,10 +13231,10 @@
         <v>6</v>
       </c>
       <c r="D143" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F143">
         <v>266</v>
@@ -13252,7 +13252,7 @@
     </row>
     <row r="144" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B144">
         <v>2022</v>
@@ -13261,10 +13261,10 @@
         <v>21</v>
       </c>
       <c r="D144" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F144">
         <v>240</v>
@@ -13282,7 +13282,7 @@
     </row>
     <row r="145" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B145">
         <v>2022</v>
@@ -13291,10 +13291,10 @@
         <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F145">
         <v>232</v>
@@ -13312,7 +13312,7 @@
     </row>
     <row r="146" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B146">
         <v>2022</v>
@@ -13321,10 +13321,10 @@
         <v>13</v>
       </c>
       <c r="D146" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F146">
         <v>232</v>
@@ -13342,7 +13342,7 @@
     </row>
     <row r="147" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B147">
         <v>2022</v>
@@ -13351,10 +13351,10 @@
         <v>8</v>
       </c>
       <c r="D147" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F147">
         <v>221</v>
@@ -13372,7 +13372,7 @@
     </row>
     <row r="148" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B148">
         <v>2024</v>
@@ -13381,10 +13381,10 @@
         <v>3</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F148">
         <v>12598</v>
@@ -13405,7 +13405,7 @@
     </row>
     <row r="149" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B149">
         <v>2024</v>
@@ -13414,10 +13414,10 @@
         <v>5</v>
       </c>
       <c r="D149" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F149">
         <v>6766</v>
@@ -13438,7 +13438,7 @@
     </row>
     <row r="150" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B150">
         <v>2024</v>
@@ -13447,10 +13447,10 @@
         <v>2</v>
       </c>
       <c r="D150" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F150">
         <v>638</v>
@@ -13468,7 +13468,7 @@
     </row>
     <row r="151" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B151">
         <v>2024</v>
@@ -13477,10 +13477,10 @@
         <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F151">
         <v>443</v>
@@ -13498,7 +13498,7 @@
     </row>
     <row r="152" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B152">
         <v>2024</v>
@@ -13528,7 +13528,7 @@
     </row>
     <row r="153" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B153">
         <v>2024</v>
@@ -13537,10 +13537,10 @@
         <v>8</v>
       </c>
       <c r="D153" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F153">
         <v>180</v>
@@ -13558,7 +13558,7 @@
     </row>
     <row r="154" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B154">
         <v>2024</v>
@@ -13567,10 +13567,10 @@
         <v>13</v>
       </c>
       <c r="D154" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F154">
         <v>170</v>
@@ -13588,7 +13588,7 @@
     </row>
     <row r="155" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B155">
         <v>2024</v>
@@ -13597,10 +13597,10 @@
         <v>11</v>
       </c>
       <c r="D155" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F155">
         <v>87</v>
@@ -13618,16 +13618,16 @@
     </row>
     <row r="156" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B156">
         <v>2019</v>
       </c>
       <c r="D156" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E156" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G156" s="7">
         <v>37.450000000000003</v>
@@ -13645,16 +13645,16 @@
     </row>
     <row r="157" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B157">
         <v>2019</v>
       </c>
       <c r="D157" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E157" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G157" s="7">
         <v>35.5</v>
@@ -13672,16 +13672,16 @@
     </row>
     <row r="158" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B158">
         <v>2019</v>
       </c>
       <c r="D158" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E158" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G158" s="7">
         <v>21.4</v>
@@ -13696,16 +13696,16 @@
     </row>
     <row r="159" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B159">
         <v>2019</v>
       </c>
       <c r="D159" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G159" s="7">
         <v>2.4</v>
@@ -13720,16 +13720,16 @@
     </row>
     <row r="160" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B160">
         <v>2019</v>
       </c>
       <c r="D160" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G160" s="7">
         <v>1.79</v>
@@ -13744,16 +13744,16 @@
     </row>
     <row r="161" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B161">
         <v>2022</v>
       </c>
       <c r="D161" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E161" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F161">
         <v>1961</v>
@@ -13774,16 +13774,16 @@
     </row>
     <row r="162" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B162">
         <v>2022</v>
       </c>
       <c r="D162" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E162" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F162">
         <v>1634</v>
@@ -13804,16 +13804,16 @@
     </row>
     <row r="163" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B163">
         <v>2022</v>
       </c>
       <c r="D163" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E163" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F163">
         <v>1506</v>
@@ -13831,16 +13831,16 @@
     </row>
     <row r="164" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B164">
         <v>2022</v>
       </c>
       <c r="D164" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F164">
         <v>135</v>
@@ -13858,7 +13858,7 @@
     </row>
     <row r="165" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B165">
         <v>2022</v>
@@ -13885,7 +13885,7 @@
     </row>
     <row r="166" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B166">
         <v>2024</v>
@@ -13894,10 +13894,10 @@
         <v>1</v>
       </c>
       <c r="D166" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E166" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F166">
         <v>3349</v>
@@ -13918,7 +13918,7 @@
     </row>
     <row r="167" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B167">
         <v>2024</v>
@@ -13927,10 +13927,10 @@
         <v>14</v>
       </c>
       <c r="D167" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E167" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F167">
         <v>1366</v>
@@ -13951,7 +13951,7 @@
     </row>
     <row r="168" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B168">
         <v>2024</v>
@@ -13960,10 +13960,10 @@
         <v>13</v>
       </c>
       <c r="D168" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F168">
         <v>84</v>
@@ -13981,7 +13981,7 @@
     </row>
     <row r="169" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B169">
         <v>2024</v>
@@ -14011,7 +14011,7 @@
     </row>
     <row r="170" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B170">
         <v>2024</v>
@@ -14020,10 +14020,10 @@
         <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F170">
         <v>47</v>
@@ -14041,7 +14041,7 @@
     </row>
     <row r="171" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B171">
         <v>2019</v>
@@ -14074,7 +14074,7 @@
     </row>
     <row r="172" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B172">
         <v>2019</v>
@@ -14107,7 +14107,7 @@
     </row>
     <row r="173" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B173">
         <v>2019</v>
@@ -14137,7 +14137,7 @@
     </row>
     <row r="174" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B174">
         <v>2019</v>
@@ -14167,7 +14167,7 @@
     </row>
     <row r="175" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B175">
         <v>2019</v>
@@ -14197,7 +14197,7 @@
     </row>
     <row r="176" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B176">
         <v>2019</v>
@@ -14227,7 +14227,7 @@
     </row>
     <row r="177" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B177">
         <v>2019</v>
@@ -14257,7 +14257,7 @@
     </row>
     <row r="178" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B178">
         <v>2022</v>
@@ -14290,7 +14290,7 @@
     </row>
     <row r="179" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B179">
         <v>2022</v>
@@ -14323,7 +14323,7 @@
     </row>
     <row r="180" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B180">
         <v>2022</v>
@@ -14353,7 +14353,7 @@
     </row>
     <row r="181" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B181">
         <v>2022</v>
@@ -14383,7 +14383,7 @@
     </row>
     <row r="182" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B182">
         <v>2022</v>
@@ -14413,7 +14413,7 @@
     </row>
     <row r="183" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B183">
         <v>2022</v>
@@ -14443,7 +14443,7 @@
     </row>
     <row r="184" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B184">
         <v>2022</v>
@@ -14473,7 +14473,7 @@
     </row>
     <row r="185" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B185">
         <v>2022</v>
@@ -14503,7 +14503,7 @@
     </row>
     <row r="186" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B186">
         <v>2024</v>
@@ -14512,10 +14512,10 @@
         <v>6</v>
       </c>
       <c r="D186" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E186" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F186">
         <v>2809</v>
@@ -14536,7 +14536,7 @@
     </row>
     <row r="187" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B187">
         <v>2024</v>
@@ -14545,7 +14545,7 @@
         <v>4</v>
       </c>
       <c r="D187" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E187" t="s">
         <v>15</v>
@@ -14569,7 +14569,7 @@
     </row>
     <row r="188" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B188">
         <v>2024</v>
@@ -14578,7 +14578,7 @@
         <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E188" t="s">
         <v>21</v>
@@ -14599,7 +14599,7 @@
     </row>
     <row r="189" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B189">
         <v>2024</v>
@@ -14608,7 +14608,7 @@
         <v>7</v>
       </c>
       <c r="D189" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E189" t="s">
         <v>20</v>
@@ -14629,7 +14629,7 @@
     </row>
     <row r="190" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B190">
         <v>2024</v>
@@ -14638,7 +14638,7 @@
         <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E190" t="s">
         <v>23</v>
@@ -14659,7 +14659,7 @@
     </row>
     <row r="191" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B191">
         <v>2024</v>
@@ -14689,7 +14689,7 @@
     </row>
     <row r="192" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B192">
         <v>2024</v>
@@ -14698,10 +14698,10 @@
         <v>1</v>
       </c>
       <c r="D192" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F192">
         <v>179</v>
@@ -14719,7 +14719,7 @@
     </row>
     <row r="193" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B193">
         <v>2019</v>
@@ -14728,10 +14728,10 @@
         <v>417</v>
       </c>
       <c r="D193" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F193">
         <v>4214</v>
@@ -14752,7 +14752,7 @@
     </row>
     <row r="194" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B194">
         <v>2019</v>
@@ -14761,10 +14761,10 @@
         <v>2</v>
       </c>
       <c r="D194" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F194">
         <v>1597</v>
@@ -14782,7 +14782,7 @@
     </row>
     <row r="195" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B195">
         <v>2019</v>
@@ -14791,10 +14791,10 @@
         <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E195" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F195">
         <v>846</v>
@@ -14812,7 +14812,7 @@
     </row>
     <row r="196" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B196">
         <v>2019</v>
@@ -14821,10 +14821,10 @@
         <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F196">
         <v>649</v>
@@ -14842,7 +14842,7 @@
     </row>
     <row r="197" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B197">
         <v>2019</v>
@@ -14851,10 +14851,10 @@
         <v>314</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F197">
         <v>394</v>
@@ -14872,7 +14872,7 @@
     </row>
     <row r="198" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B198">
         <v>2019</v>
@@ -14902,7 +14902,7 @@
     </row>
     <row r="199" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B199">
         <v>2019</v>
@@ -14911,10 +14911,10 @@
         <v>256</v>
       </c>
       <c r="D199" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F199">
         <v>178</v>
@@ -14932,7 +14932,7 @@
     </row>
     <row r="200" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B200">
         <v>2022</v>
@@ -14941,10 +14941,10 @@
         <v>417</v>
       </c>
       <c r="D200" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G200" s="7">
         <v>61.7</v>
@@ -14962,7 +14962,7 @@
     </row>
     <row r="201" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B201">
         <v>2022</v>
@@ -14971,10 +14971,10 @@
         <v>2</v>
       </c>
       <c r="D201" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E201" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G201" s="7">
         <v>12.2</v>
@@ -14989,7 +14989,7 @@
     </row>
     <row r="202" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B202">
         <v>2022</v>
@@ -14998,10 +14998,10 @@
         <v>19</v>
       </c>
       <c r="D202" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G202" s="7">
         <v>7</v>
@@ -15016,7 +15016,7 @@
     </row>
     <row r="203" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B203">
         <v>2022</v>
@@ -15025,10 +15025,10 @@
         <v>1</v>
       </c>
       <c r="D203" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E203" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G203" s="7">
         <v>6.7</v>
@@ -15043,7 +15043,7 @@
     </row>
     <row r="204" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B204">
         <v>2022</v>
@@ -15052,10 +15052,10 @@
         <v>8</v>
       </c>
       <c r="D204" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E204" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G204" s="7">
         <v>5.9</v>
@@ -15070,7 +15070,7 @@
     </row>
     <row r="205" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B205">
         <v>2022</v>
@@ -15097,7 +15097,7 @@
     </row>
     <row r="206" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B206">
         <v>2022</v>
@@ -15106,10 +15106,10 @@
         <v>17</v>
       </c>
       <c r="D206" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E206" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G206" s="7">
         <v>1.9</v>
@@ -15124,7 +15124,7 @@
     </row>
     <row r="207" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B207">
         <v>2024</v>
@@ -15133,10 +15133,10 @@
         <v>417</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F207">
         <v>2786</v>
@@ -15157,7 +15157,7 @@
     </row>
     <row r="208" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B208">
         <v>2024</v>
@@ -15166,10 +15166,10 @@
         <v>2</v>
       </c>
       <c r="D208" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F208">
         <v>1467</v>
@@ -15187,7 +15187,7 @@
     </row>
     <row r="209" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B209">
         <v>2024</v>
@@ -15196,10 +15196,10 @@
         <v>1</v>
       </c>
       <c r="D209" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E209" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F209">
         <v>1346</v>
@@ -15217,7 +15217,7 @@
     </row>
     <row r="210" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B210">
         <v>2024</v>
@@ -15226,10 +15226,10 @@
         <v>8</v>
       </c>
       <c r="D210" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E210" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F210">
         <v>1312</v>
@@ -15247,7 +15247,7 @@
     </row>
     <row r="211" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B211">
         <v>2024</v>
@@ -15256,10 +15256,10 @@
         <v>7</v>
       </c>
       <c r="D211" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E211" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F211">
         <v>609</v>
@@ -15277,7 +15277,7 @@
     </row>
     <row r="212" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B212">
         <v>2024</v>
@@ -15307,7 +15307,7 @@
     </row>
     <row r="213" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B213">
         <v>2019</v>
@@ -15316,10 +15316,10 @@
         <v>10</v>
       </c>
       <c r="D213" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E213" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F213">
         <v>27465</v>
@@ -15340,7 +15340,7 @@
     </row>
     <row r="214" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B214">
         <v>2019</v>
@@ -15349,10 +15349,10 @@
         <v>39</v>
       </c>
       <c r="D214" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F214">
         <v>5099</v>
@@ -15370,7 +15370,7 @@
     </row>
     <row r="215" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B215">
         <v>2019</v>
@@ -15379,10 +15379,10 @@
         <v>8</v>
       </c>
       <c r="D215" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F215">
         <v>2910</v>
@@ -15400,7 +15400,7 @@
     </row>
     <row r="216" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B216">
         <v>2019</v>
@@ -15409,10 +15409,10 @@
         <v>4</v>
       </c>
       <c r="D216" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F216">
         <v>1044</v>
@@ -15430,7 +15430,7 @@
     </row>
     <row r="217" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B217">
         <v>2019</v>
@@ -15439,10 +15439,10 @@
         <v>18</v>
       </c>
       <c r="D217" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F217">
         <v>719</v>
@@ -15460,7 +15460,7 @@
     </row>
     <row r="218" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B218">
         <v>2019</v>
@@ -15490,7 +15490,7 @@
     </row>
     <row r="219" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B219">
         <v>2019</v>
@@ -15499,10 +15499,10 @@
         <v>13</v>
       </c>
       <c r="D219" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F219">
         <v>455</v>
@@ -15520,7 +15520,7 @@
     </row>
     <row r="220" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B220">
         <v>2022</v>
@@ -15529,10 +15529,10 @@
         <v>10</v>
       </c>
       <c r="D220" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E220" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F220">
         <v>34989</v>
@@ -15553,7 +15553,7 @@
     </row>
     <row r="221" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B221">
         <v>2022</v>
@@ -15562,10 +15562,10 @@
         <v>39</v>
       </c>
       <c r="D221" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F221">
         <v>5331</v>
@@ -15583,7 +15583,7 @@
     </row>
     <row r="222" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B222">
         <v>2022</v>
@@ -15592,10 +15592,10 @@
         <v>6</v>
       </c>
       <c r="D222" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F222">
         <v>1697</v>
@@ -15613,7 +15613,7 @@
     </row>
     <row r="223" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B223">
         <v>2022</v>
@@ -15622,10 +15622,10 @@
         <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F223">
         <v>1626</v>
@@ -15643,7 +15643,7 @@
     </row>
     <row r="224" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B224">
         <v>2022</v>
@@ -15652,10 +15652,10 @@
         <v>2</v>
       </c>
       <c r="D224" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F224">
         <v>1026</v>
@@ -15673,7 +15673,7 @@
     </row>
     <row r="225" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B225">
         <v>2022</v>
@@ -15682,10 +15682,10 @@
         <v>13</v>
       </c>
       <c r="D225" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F225">
         <v>782</v>
@@ -15703,7 +15703,7 @@
     </row>
     <row r="226" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B226">
         <v>2022</v>
@@ -15712,10 +15712,10 @@
         <v>11</v>
       </c>
       <c r="D226" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F226">
         <v>771</v>
@@ -15733,7 +15733,7 @@
     </row>
     <row r="227" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B227">
         <v>2022</v>
@@ -15763,7 +15763,7 @@
     </row>
     <row r="228" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B228">
         <v>2024</v>
@@ -15772,10 +15772,10 @@
         <v>10</v>
       </c>
       <c r="D228" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F228">
         <v>28905</v>
@@ -15796,7 +15796,7 @@
     </row>
     <row r="229" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B229">
         <v>2024</v>
@@ -15805,10 +15805,10 @@
         <v>11</v>
       </c>
       <c r="D229" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F229">
         <v>10891</v>
@@ -15829,7 +15829,7 @@
     </row>
     <row r="230" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B230">
         <v>2024</v>
@@ -15838,10 +15838,10 @@
         <v>2</v>
       </c>
       <c r="D230" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F230">
         <v>3168</v>
@@ -15859,7 +15859,7 @@
     </row>
     <row r="231" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B231">
         <v>2024</v>
@@ -15868,10 +15868,10 @@
         <v>8</v>
       </c>
       <c r="D231" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F231">
         <v>973</v>
@@ -15889,7 +15889,7 @@
     </row>
     <row r="232" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B232">
         <v>2024</v>
@@ -15898,10 +15898,10 @@
         <v>17</v>
       </c>
       <c r="D232" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F232">
         <v>912</v>
@@ -15919,7 +15919,7 @@
     </row>
     <row r="233" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B233">
         <v>2024</v>
@@ -15928,10 +15928,10 @@
         <v>4</v>
       </c>
       <c r="D233" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F233">
         <v>902</v>
@@ -15949,7 +15949,7 @@
     </row>
     <row r="234" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B234">
         <v>2024</v>
@@ -15979,7 +15979,7 @@
     </row>
     <row r="235" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B235">
         <v>2024</v>
@@ -15988,10 +15988,10 @@
         <v>13</v>
       </c>
       <c r="D235" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F235">
         <v>287</v>
@@ -16009,19 +16009,19 @@
     </row>
     <row r="236" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B236">
         <v>2019</v>
       </c>
       <c r="C236" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D236" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E236" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G236" s="7">
         <v>92.4</v>
@@ -16039,19 +16039,19 @@
     </row>
     <row r="237" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B237">
         <v>2019</v>
       </c>
       <c r="C237" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D237" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E237" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G237" s="7">
         <v>6.6</v>
@@ -16066,7 +16066,7 @@
     </row>
     <row r="238" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B238">
         <v>2019</v>
@@ -16093,19 +16093,19 @@
     </row>
     <row r="239" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B239">
         <v>2022</v>
       </c>
       <c r="C239" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D239" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E239" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G239" s="7">
         <v>95.2</v>
@@ -16123,19 +16123,19 @@
     </row>
     <row r="240" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B240">
         <v>2022</v>
       </c>
       <c r="C240" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D240" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E240" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G240" s="7">
         <v>4.4000000000000004</v>
@@ -16150,7 +16150,7 @@
     </row>
     <row r="241" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B241">
         <v>2022</v>
@@ -16177,19 +16177,19 @@
     </row>
     <row r="242" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B242">
         <v>2024</v>
       </c>
       <c r="C242" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D242" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E242" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G242" s="7">
         <v>99</v>
@@ -16207,19 +16207,19 @@
     </row>
     <row r="243" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B243">
         <v>2024</v>
       </c>
       <c r="C243" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D243" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E243" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G243" s="7">
         <v>0.5</v>
@@ -16234,7 +16234,7 @@
     </row>
     <row r="244" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B244">
         <v>2024</v>
@@ -16261,7 +16261,7 @@
     </row>
     <row r="245" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B245">
         <v>2019</v>
@@ -16270,10 +16270,10 @@
         <v>3</v>
       </c>
       <c r="D245" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E245" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G245">
         <v>45.39</v>
@@ -16291,16 +16291,16 @@
     </row>
     <row r="246" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B246">
         <v>2019</v>
       </c>
       <c r="D246" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E246" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G246">
         <v>33.47</v>
@@ -16318,7 +16318,7 @@
     </row>
     <row r="247" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B247">
         <v>2019</v>
@@ -16327,7 +16327,7 @@
         <v>15</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G247">
         <v>13.66</v>
@@ -16342,16 +16342,16 @@
     </row>
     <row r="248" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B248">
         <v>2019</v>
       </c>
       <c r="D248" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G248">
         <v>4.3</v>
@@ -16366,16 +16366,16 @@
     </row>
     <row r="249" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B249">
         <v>2019</v>
       </c>
       <c r="D249" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G249">
         <v>2.17</v>
@@ -16390,7 +16390,7 @@
     </row>
     <row r="250" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B250">
         <v>2019</v>
@@ -16417,7 +16417,7 @@
     </row>
     <row r="251" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B251">
         <v>2022</v>
@@ -16426,10 +16426,10 @@
         <v>3</v>
       </c>
       <c r="D251" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E251" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F251">
         <v>10191</v>
@@ -16450,7 +16450,7 @@
     </row>
     <row r="252" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B252">
         <v>2022</v>
@@ -16459,10 +16459,10 @@
         <v>5</v>
       </c>
       <c r="D252" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E252" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F252">
         <v>4128</v>
@@ -16483,7 +16483,7 @@
     </row>
     <row r="253" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B253">
         <v>2022</v>
@@ -16492,10 +16492,10 @@
         <v>6</v>
       </c>
       <c r="D253" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F253">
         <v>1293</v>
@@ -16513,7 +16513,7 @@
     </row>
     <row r="254" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B254">
         <v>2022</v>
@@ -16522,10 +16522,10 @@
         <v>2</v>
       </c>
       <c r="D254" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F254">
         <v>1024</v>
@@ -16543,7 +16543,7 @@
     </row>
     <row r="255" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B255">
         <v>2022</v>
@@ -16552,10 +16552,10 @@
         <v>13</v>
       </c>
       <c r="D255" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F255">
         <v>393</v>
@@ -16573,7 +16573,7 @@
     </row>
     <row r="256" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B256">
         <v>2022</v>
@@ -16603,7 +16603,7 @@
     </row>
     <row r="257" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B257">
         <v>2024</v>
@@ -16612,10 +16612,10 @@
         <v>3</v>
       </c>
       <c r="D257" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E257" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F257">
         <v>8538</v>
@@ -16636,7 +16636,7 @@
     </row>
     <row r="258" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B258">
         <v>2024</v>
@@ -16645,10 +16645,10 @@
         <v>5</v>
       </c>
       <c r="D258" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E258" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F258">
         <v>5227</v>
@@ -16669,7 +16669,7 @@
     </row>
     <row r="259" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B259">
         <v>2024</v>
@@ -16678,10 +16678,10 @@
         <v>6</v>
       </c>
       <c r="D259" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F259">
         <v>1271</v>
@@ -16699,7 +16699,7 @@
     </row>
     <row r="260" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B260">
         <v>2024</v>
@@ -16708,10 +16708,10 @@
         <v>2</v>
       </c>
       <c r="D260" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F260">
         <v>863</v>
@@ -16729,7 +16729,7 @@
     </row>
     <row r="261" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B261">
         <v>2024</v>

--- a/uba_cd_estudiantes.xlsx
+++ b/uba_cd_estudiantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\personal\sociologia\emergit\uba_electoral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9C59A3-D36B-4BD1-A1DD-E5B776B0A0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6AB5A1-29CA-4085-8884-25ECF3C4462B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="colores" sheetId="3" r:id="rId1"/>
@@ -7590,7 +7590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24D8039-D0D6-4DE2-92CD-2A0539E40632}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -8836,8 +8836,8 @@
   </sheetPr>
   <dimension ref="A1:J261"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" zoomScale="101" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9276,7 +9276,7 @@
       <c r="F14">
         <v>10506</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="7">
         <v>45.55</v>
       </c>
       <c r="H14">
@@ -9309,7 +9309,7 @@
       <c r="F15">
         <v>7431</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="7">
         <v>32.22</v>
       </c>
       <c r="H15">
@@ -9342,7 +9342,7 @@
       <c r="F16">
         <v>2028</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="7">
         <v>8.7899999999999991</v>
       </c>
       <c r="I16" t="str">
@@ -9372,7 +9372,7 @@
       <c r="F17">
         <v>1398</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="7">
         <v>6.06</v>
       </c>
       <c r="I17" t="str">
@@ -9402,7 +9402,7 @@
       <c r="F18">
         <v>1351</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="7">
         <v>5.86</v>
       </c>
       <c r="I18" t="str">
@@ -9432,7 +9432,7 @@
       <c r="F19">
         <v>352</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="7">
         <v>1.53</v>
       </c>
       <c r="I19" t="str">
@@ -9708,7 +9708,7 @@
       <c r="F28">
         <v>15172</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="7">
         <v>53.46</v>
       </c>
       <c r="H28">
@@ -9741,7 +9741,7 @@
       <c r="F29">
         <v>9556</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="7">
         <v>33.67</v>
       </c>
       <c r="H29">
@@ -9774,7 +9774,7 @@
       <c r="F30">
         <v>1941</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="7">
         <v>6.84</v>
       </c>
       <c r="I30" t="str">
@@ -9804,7 +9804,7 @@
       <c r="F31">
         <v>951</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="7">
         <v>3.35</v>
       </c>
       <c r="I31" t="str">
@@ -9834,7 +9834,7 @@
       <c r="F32">
         <v>488</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="7">
         <v>1.72</v>
       </c>
       <c r="I32" t="str">
@@ -9864,7 +9864,7 @@
       <c r="F33">
         <v>272</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="7">
         <v>0.96</v>
       </c>
       <c r="I33" t="str">
@@ -16275,7 +16275,7 @@
       <c r="E245" t="s">
         <v>194</v>
       </c>
-      <c r="G245">
+      <c r="G245" s="7">
         <v>45.39</v>
       </c>
       <c r="H245">
@@ -16302,7 +16302,7 @@
       <c r="E246" t="s">
         <v>193</v>
       </c>
-      <c r="G246">
+      <c r="G246" s="7">
         <v>33.47</v>
       </c>
       <c r="H246">
@@ -16329,7 +16329,7 @@
       <c r="E247" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G247">
+      <c r="G247" s="7">
         <v>13.66</v>
       </c>
       <c r="I247" t="str">
@@ -16353,7 +16353,7 @@
       <c r="E248" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G248">
+      <c r="G248" s="7">
         <v>4.3</v>
       </c>
       <c r="I248" t="str">
@@ -16377,7 +16377,7 @@
       <c r="E249" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G249">
+      <c r="G249" s="7">
         <v>2.17</v>
       </c>
       <c r="I249" t="str">
@@ -16404,7 +16404,7 @@
       <c r="E250" t="s">
         <v>11</v>
       </c>
-      <c r="G250">
+      <c r="G250" s="7">
         <v>1.01</v>
       </c>
       <c r="I250" t="str">
@@ -16434,7 +16434,7 @@
       <c r="F251">
         <v>10191</v>
       </c>
-      <c r="G251">
+      <c r="G251" s="7">
         <v>59.22</v>
       </c>
       <c r="H251">
@@ -16467,7 +16467,7 @@
       <c r="F252">
         <v>4128</v>
       </c>
-      <c r="G252">
+      <c r="G252" s="7">
         <v>23.99</v>
       </c>
       <c r="H252">
@@ -16500,7 +16500,7 @@
       <c r="F253">
         <v>1293</v>
       </c>
-      <c r="G253">
+      <c r="G253" s="7">
         <v>7.51</v>
       </c>
       <c r="I253" t="str">
@@ -16530,7 +16530,7 @@
       <c r="F254">
         <v>1024</v>
       </c>
-      <c r="G254">
+      <c r="G254" s="7">
         <v>5.95</v>
       </c>
       <c r="I254" t="str">
@@ -16560,7 +16560,7 @@
       <c r="F255">
         <v>393</v>
       </c>
-      <c r="G255">
+      <c r="G255" s="7">
         <v>2.2799999999999998</v>
       </c>
       <c r="I255" t="str">
@@ -16590,7 +16590,7 @@
       <c r="F256">
         <v>179</v>
       </c>
-      <c r="G256">
+      <c r="G256" s="7">
         <v>1.04</v>
       </c>
       <c r="I256" t="str">

--- a/uba_cd_estudiantes.xlsx
+++ b/uba_cd_estudiantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\personal\sociologia\emergit\uba_electoral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D25FE7A-5D79-4CEB-B761-0795B89AE085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A2A422-4ECE-4711-AC37-09077FB89806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11904" yWindow="312" windowWidth="11136" windowHeight="11928" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="colores" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="226">
   <si>
     <t>Facultad</t>
   </si>
@@ -86,9 +86,6 @@
     <t>La 15 + Protagonistas</t>
   </si>
   <si>
-    <t>Volvemos + La UES + Alternativa Académica</t>
-  </si>
-  <si>
     <t>La izquierda al frente</t>
   </si>
   <si>
@@ -251,9 +248,6 @@
     <t>FRANJA MORADA</t>
   </si>
   <si>
-    <t>NUEVO DERECHO</t>
-  </si>
-  <si>
     <t>OKTUBRE</t>
   </si>
   <si>
@@ -441,9 +435,6 @@
   </si>
   <si>
     <t>El Gradiente</t>
-  </si>
-  <si>
-    <t>MLI, Movimiento Linealmente Independiente</t>
   </si>
   <si>
     <t>Ingeniería por el cambio</t>
@@ -743,6 +734,12 @@
   </si>
   <si>
     <t>UES/UES + AA</t>
+  </si>
+  <si>
+    <t>Volvemos + La UES + AA</t>
+  </si>
+  <si>
+    <t>Est. por una NUEVA FAUBA</t>
   </si>
 </sst>
 </file>
@@ -7601,274 +7598,274 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K3" t="s">
         <v>163</v>
-      </c>
-      <c r="J3" t="s">
-        <v>165</v>
-      </c>
-      <c r="K3" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" t="str">
         <f>VLOOKUP(E4,$J$3:$K$15,2,FALSE)</f>
         <v>white</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" ref="F5:F68" si="0">VLOOKUP(E5,$J$3:$K$15,2,FALSE)</f>
         <v>#3B3B39</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
         <v>#EF233C</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
         <v>#EF233C</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
         <v>#3B3B39</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
         <v>#3B3B39</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
         <v>#B1DDF6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
         <v>#80ED99</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
         <v>#80ED99</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
         <v>orange</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
         <v>purple</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
         <v>#80ED99</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -7877,10 +7874,10 @@
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
@@ -7889,10 +7886,10 @@
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D18" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
@@ -7901,10 +7898,10 @@
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D19" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
@@ -7913,10 +7910,10 @@
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D20" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -7925,10 +7922,10 @@
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D21" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -7937,10 +7934,10 @@
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D22" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
@@ -7949,10 +7946,10 @@
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D23" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
@@ -7961,10 +7958,10 @@
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D24" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
@@ -7973,10 +7970,10 @@
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D25" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
@@ -7985,10 +7982,10 @@
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D26" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
@@ -7997,10 +7994,10 @@
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D27" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
@@ -8009,10 +8006,10 @@
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D28" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
@@ -8021,10 +8018,10 @@
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D29" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
@@ -8033,10 +8030,10 @@
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D30" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
@@ -8045,10 +8042,10 @@
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D31" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
@@ -8057,10 +8054,10 @@
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D32" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
@@ -8069,10 +8066,10 @@
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D33" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
@@ -8081,10 +8078,10 @@
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D34" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
@@ -8093,10 +8090,10 @@
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D35" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
@@ -8105,10 +8102,10 @@
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D36" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
@@ -8117,10 +8114,10 @@
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D37" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
@@ -8129,10 +8126,10 @@
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D38" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
@@ -8141,10 +8138,10 @@
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D39" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
@@ -8153,10 +8150,10 @@
     </row>
     <row r="40" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D40" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
@@ -8165,10 +8162,10 @@
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D41" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
@@ -8177,10 +8174,10 @@
     </row>
     <row r="42" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D42" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
@@ -8189,10 +8186,10 @@
     </row>
     <row r="43" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D43" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
@@ -8201,10 +8198,10 @@
     </row>
     <row r="44" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D44" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
@@ -8213,10 +8210,10 @@
     </row>
     <row r="45" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D45" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
@@ -8225,10 +8222,10 @@
     </row>
     <row r="46" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D46" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
@@ -8237,10 +8234,10 @@
     </row>
     <row r="47" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D47" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
@@ -8249,10 +8246,10 @@
     </row>
     <row r="48" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D48" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
@@ -8261,10 +8258,10 @@
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D49" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
@@ -8273,10 +8270,10 @@
     </row>
     <row r="50" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D50" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
@@ -8285,10 +8282,10 @@
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D51" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
@@ -8297,10 +8294,10 @@
     </row>
     <row r="52" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D52" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
@@ -8309,10 +8306,10 @@
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D53" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
@@ -8321,10 +8318,10 @@
     </row>
     <row r="54" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D54" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
@@ -8333,10 +8330,10 @@
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D55" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
@@ -8345,10 +8342,10 @@
     </row>
     <row r="56" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D56" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
@@ -8357,10 +8354,10 @@
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D57" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="0"/>
@@ -8369,10 +8366,10 @@
     </row>
     <row r="58" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D58" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="0"/>
@@ -8381,10 +8378,10 @@
     </row>
     <row r="59" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="0"/>
@@ -8393,10 +8390,10 @@
     </row>
     <row r="60" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" si="0"/>
@@ -8405,10 +8402,10 @@
     </row>
     <row r="61" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D61" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
@@ -8417,10 +8414,10 @@
     </row>
     <row r="62" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="0"/>
@@ -8429,10 +8426,10 @@
     </row>
     <row r="63" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="0"/>
@@ -8441,10 +8438,10 @@
     </row>
     <row r="64" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F64" t="str">
         <f t="shared" si="0"/>
@@ -8453,10 +8450,10 @@
     </row>
     <row r="65" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="0"/>
@@ -8465,10 +8462,10 @@
     </row>
     <row r="66" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" si="0"/>
@@ -8477,10 +8474,10 @@
     </row>
     <row r="67" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" si="0"/>
@@ -8489,10 +8486,10 @@
     </row>
     <row r="68" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="0"/>
@@ -8501,10 +8498,10 @@
     </row>
     <row r="69" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" ref="F69:F72" si="1">VLOOKUP(E69,$J$3:$K$15,2,FALSE)</f>
@@ -8513,10 +8510,10 @@
     </row>
     <row r="70" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="1"/>
@@ -8525,10 +8522,10 @@
     </row>
     <row r="71" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="1"/>
@@ -8537,10 +8534,10 @@
     </row>
     <row r="72" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D72" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="1"/>
@@ -8576,15 +8573,15 @@
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>2019</v>
@@ -8596,15 +8593,15 @@
         <v>2024</v>
       </c>
       <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
         <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>2804</v>
@@ -8621,7 +8618,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>18171</v>
@@ -8638,7 +8635,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B7">
         <v>8164</v>
@@ -8652,7 +8649,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B8">
         <v>38316</v>
@@ -8669,17 +8666,17 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B11">
         <v>23066</v>
@@ -8696,7 +8693,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B12">
         <v>26133</v>
@@ -8713,7 +8710,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B13">
         <v>5671</v>
@@ -8730,7 +8727,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B14">
         <v>11600</v>
@@ -8747,7 +8744,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B15">
         <v>3581</v>
@@ -8764,7 +8761,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C16">
         <v>5324</v>
@@ -8778,7 +8775,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B17">
         <v>8578</v>
@@ -8795,7 +8792,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C18">
         <v>17208</v>
@@ -8809,7 +8806,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>146084</v>
@@ -8836,8 +8833,8 @@
   </sheetPr>
   <dimension ref="A1:K261"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8861,7 +8858,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
@@ -8870,19 +8867,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B2">
         <v>2019</v>
@@ -8891,10 +8888,10 @@
         <v>417</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F2">
         <v>4214</v>
@@ -8915,7 +8912,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B3">
         <v>2019</v>
@@ -8924,10 +8921,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F3">
         <v>1597</v>
@@ -8945,7 +8942,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B4">
         <v>2019</v>
@@ -8954,10 +8951,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F4">
         <v>846</v>
@@ -8975,7 +8972,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B5">
         <v>2019</v>
@@ -8984,10 +8981,10 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F5">
         <v>649</v>
@@ -9005,7 +9002,7 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>2019</v>
@@ -9014,10 +9011,10 @@
         <v>314</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F6">
         <v>394</v>
@@ -9035,7 +9032,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B7">
         <v>2019</v>
@@ -9065,7 +9062,7 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B8">
         <v>2019</v>
@@ -9074,10 +9071,10 @@
         <v>256</v>
       </c>
       <c r="D8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F8">
         <v>178</v>
@@ -9095,7 +9092,7 @@
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B9">
         <v>2022</v>
@@ -9104,10 +9101,10 @@
         <v>417</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G9" s="7">
         <v>61.7</v>
@@ -9125,7 +9122,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B10">
         <v>2022</v>
@@ -9134,10 +9131,10 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G10" s="7">
         <v>12.2</v>
@@ -9152,7 +9149,7 @@
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B11">
         <v>2022</v>
@@ -9161,10 +9158,10 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G11" s="7">
         <v>7</v>
@@ -9179,7 +9176,7 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B12">
         <v>2022</v>
@@ -9188,10 +9185,10 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G12" s="7">
         <v>6.7</v>
@@ -9206,7 +9203,7 @@
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B13">
         <v>2022</v>
@@ -9215,10 +9212,10 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G13" s="7">
         <v>5.9</v>
@@ -9233,7 +9230,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B14">
         <v>2022</v>
@@ -9260,7 +9257,7 @@
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B15">
         <v>2022</v>
@@ -9269,10 +9266,10 @@
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G15" s="7">
         <v>1.9</v>
@@ -9287,7 +9284,7 @@
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B16">
         <v>2024</v>
@@ -9296,10 +9293,10 @@
         <v>417</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F16">
         <v>2786</v>
@@ -9320,7 +9317,7 @@
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B17">
         <v>2024</v>
@@ -9329,10 +9326,10 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F17">
         <v>1467</v>
@@ -9350,7 +9347,7 @@
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B18">
         <v>2024</v>
@@ -9359,10 +9356,10 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F18">
         <v>1346</v>
@@ -9380,7 +9377,7 @@
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B19">
         <v>2024</v>
@@ -9389,10 +9386,10 @@
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F19">
         <v>1312</v>
@@ -9410,7 +9407,7 @@
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B20">
         <v>2024</v>
@@ -9419,10 +9416,10 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F20">
         <v>609</v>
@@ -9440,7 +9437,7 @@
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B21">
         <v>2024</v>
@@ -9470,7 +9467,7 @@
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B22">
         <v>2019</v>
@@ -9479,10 +9476,10 @@
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22">
         <v>3173</v>
@@ -9503,7 +9500,7 @@
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B23">
         <v>2019</v>
@@ -9512,10 +9509,10 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23">
         <v>2642</v>
@@ -9536,7 +9533,7 @@
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B24">
         <v>2019</v>
@@ -9545,10 +9542,10 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F24">
         <v>943</v>
@@ -9566,7 +9563,7 @@
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B25">
         <v>2019</v>
@@ -9575,10 +9572,10 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F25">
         <v>778</v>
@@ -9596,7 +9593,7 @@
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B26">
         <v>2019</v>
@@ -9605,10 +9602,10 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F26">
         <v>434</v>
@@ -9626,7 +9623,7 @@
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B27">
         <v>2019</v>
@@ -9656,7 +9653,7 @@
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B28">
         <v>2019</v>
@@ -9665,10 +9662,10 @@
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F28">
         <v>303</v>
@@ -9686,7 +9683,7 @@
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B29">
         <v>2022</v>
@@ -9695,10 +9692,10 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F29">
         <v>2706</v>
@@ -9719,7 +9716,7 @@
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B30">
         <v>2022</v>
@@ -9728,10 +9725,10 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F30">
         <v>2293</v>
@@ -9752,7 +9749,7 @@
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B31">
         <v>2022</v>
@@ -9761,10 +9758,10 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F31">
         <v>1142</v>
@@ -9782,7 +9779,7 @@
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B32">
         <v>2022</v>
@@ -9791,10 +9788,10 @@
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F32">
         <v>798</v>
@@ -9812,7 +9809,7 @@
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B33">
         <v>2022</v>
@@ -9821,10 +9818,10 @@
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F33">
         <v>634</v>
@@ -9842,7 +9839,7 @@
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B34">
         <v>2022</v>
@@ -9851,10 +9848,10 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F34">
         <v>468</v>
@@ -9872,7 +9869,7 @@
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B35">
         <v>2022</v>
@@ -9881,10 +9878,10 @@
         <v>10</v>
       </c>
       <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
         <v>22</v>
-      </c>
-      <c r="E35" t="s">
-        <v>23</v>
       </c>
       <c r="F35">
         <v>372</v>
@@ -9902,7 +9899,7 @@
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B36">
         <v>2022</v>
@@ -9932,7 +9929,7 @@
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B37">
         <v>2024</v>
@@ -9941,10 +9938,10 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E37" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F37">
         <v>2809</v>
@@ -9965,7 +9962,7 @@
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B38">
         <v>2024</v>
@@ -9974,10 +9971,10 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F38">
         <v>2089</v>
@@ -9998,7 +9995,7 @@
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B39">
         <v>2024</v>
@@ -10007,10 +10004,10 @@
         <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F39">
         <v>1470</v>
@@ -10028,7 +10025,7 @@
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B40">
         <v>2024</v>
@@ -10037,10 +10034,10 @@
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F40">
         <v>667</v>
@@ -10058,7 +10055,7 @@
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B41">
         <v>2024</v>
@@ -10067,10 +10064,10 @@
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F41">
         <v>214</v>
@@ -10088,7 +10085,7 @@
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B42">
         <v>2024</v>
@@ -10118,7 +10115,7 @@
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B43">
         <v>2024</v>
@@ -10127,10 +10124,10 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F43">
         <v>179</v>
@@ -10148,7 +10145,7 @@
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B44">
         <v>2019</v>
@@ -10157,10 +10154,10 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F44">
         <v>1912</v>
@@ -10181,7 +10178,7 @@
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B45">
         <v>2019</v>
@@ -10190,10 +10187,10 @@
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F45">
         <v>1505</v>
@@ -10214,7 +10211,7 @@
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B46">
         <v>2019</v>
@@ -10223,10 +10220,10 @@
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F46">
         <v>1245</v>
@@ -10244,7 +10241,7 @@
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B47">
         <v>2019</v>
@@ -10253,10 +10250,10 @@
         <v>26</v>
       </c>
       <c r="D47" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E47" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F47">
         <v>517</v>
@@ -10274,7 +10271,7 @@
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B48">
         <v>2019</v>
@@ -10304,7 +10301,7 @@
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B49">
         <v>2022</v>
@@ -10313,10 +10310,10 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F49">
         <v>2588</v>
@@ -10337,7 +10334,7 @@
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B50">
         <v>2022</v>
@@ -10346,10 +10343,10 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F50">
         <v>1891</v>
@@ -10370,7 +10367,7 @@
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B51">
         <v>2022</v>
@@ -10379,10 +10376,10 @@
         <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E51" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F51">
         <v>1097</v>
@@ -10400,7 +10397,7 @@
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B52">
         <v>2022</v>
@@ -10430,7 +10427,7 @@
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B53">
         <v>2024</v>
@@ -10439,10 +10436,10 @@
         <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F53">
         <v>2964</v>
@@ -10463,7 +10460,7 @@
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B54">
         <v>2024</v>
@@ -10472,10 +10469,10 @@
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F54">
         <v>1872</v>
@@ -10496,7 +10493,7 @@
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B55">
         <v>2024</v>
@@ -10505,10 +10502,10 @@
         <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E55" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F55">
         <v>1610</v>
@@ -10526,7 +10523,7 @@
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B56">
         <v>2024</v>
@@ -10556,7 +10553,7 @@
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B57">
         <v>2024</v>
@@ -10565,10 +10562,10 @@
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F57">
         <v>321</v>
@@ -10586,7 +10583,7 @@
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B58">
         <v>2024</v>
@@ -10595,10 +10592,10 @@
         <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E58" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F58">
         <v>258</v>
@@ -10616,7 +10613,7 @@
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B59">
         <v>2024</v>
@@ -10625,10 +10622,10 @@
         <v>17</v>
       </c>
       <c r="D59" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F59">
         <v>165</v>
@@ -10646,7 +10643,7 @@
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B60">
         <v>2024</v>
@@ -10655,10 +10652,10 @@
         <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F60">
         <v>105</v>
@@ -10676,7 +10673,7 @@
     </row>
     <row r="61" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B61">
         <v>2024</v>
@@ -10688,7 +10685,7 @@
         <v>7</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F61">
         <v>58</v>
@@ -10706,7 +10703,7 @@
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B62">
         <v>2019</v>
@@ -10715,10 +10712,10 @@
         <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E62" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F62">
         <v>1598</v>
@@ -10739,7 +10736,7 @@
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B63">
         <v>2019</v>
@@ -10748,10 +10745,10 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E63" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F63">
         <v>1284</v>
@@ -10772,7 +10769,7 @@
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B64">
         <v>2019</v>
@@ -10781,10 +10778,10 @@
         <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E64" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F64">
         <v>340</v>
@@ -10802,7 +10799,7 @@
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B65">
         <v>2019</v>
@@ -10811,10 +10808,10 @@
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E65" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F65">
         <v>289</v>
@@ -10832,7 +10829,7 @@
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B66">
         <v>2019</v>
@@ -10862,7 +10859,7 @@
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B67">
         <v>2022</v>
@@ -10871,10 +10868,10 @@
         <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E67" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F67">
         <v>1522</v>
@@ -10895,7 +10892,7 @@
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B68">
         <v>2022</v>
@@ -10904,10 +10901,10 @@
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E68" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F68">
         <v>1163</v>
@@ -10928,7 +10925,7 @@
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B69">
         <v>2022</v>
@@ -10937,10 +10934,10 @@
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E69" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F69">
         <v>588</v>
@@ -10958,7 +10955,7 @@
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B70">
         <v>2022</v>
@@ -10967,10 +10964,10 @@
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E70" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F70">
         <v>413</v>
@@ -10988,7 +10985,7 @@
     </row>
     <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B71">
         <v>2022</v>
@@ -10997,10 +10994,10 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E71" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F71">
         <v>231</v>
@@ -11018,7 +11015,7 @@
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B72">
         <v>2022</v>
@@ -11048,7 +11045,7 @@
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B73">
         <v>2024</v>
@@ -11057,10 +11054,10 @@
         <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E73" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F73">
         <v>1539</v>
@@ -11081,7 +11078,7 @@
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B74">
         <v>2024</v>
@@ -11090,10 +11087,10 @@
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E74" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F74">
         <v>1469</v>
@@ -11114,7 +11111,7 @@
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B75">
         <v>2024</v>
@@ -11123,10 +11120,10 @@
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E75" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F75">
         <v>1026</v>
@@ -11144,7 +11141,7 @@
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B76">
         <v>2024</v>
@@ -11174,7 +11171,7 @@
     </row>
     <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B77">
         <v>2019</v>
@@ -11183,10 +11180,10 @@
         <v>16</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>224</v>
       </c>
       <c r="E77" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F77">
         <v>4687</v>
@@ -11207,7 +11204,7 @@
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B78">
         <v>2019</v>
@@ -11219,7 +11216,7 @@
         <v>13</v>
       </c>
       <c r="E78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F78">
         <v>3750</v>
@@ -11240,7 +11237,7 @@
     </row>
     <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B79">
         <v>2019</v>
@@ -11249,10 +11246,10 @@
         <v>17</v>
       </c>
       <c r="D79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F79">
         <v>1828</v>
@@ -11270,7 +11267,7 @@
     </row>
     <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B80">
         <v>2019</v>
@@ -11300,7 +11297,7 @@
     </row>
     <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B81">
         <v>2019</v>
@@ -11330,7 +11327,7 @@
     </row>
     <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B82">
         <v>2019</v>
@@ -11360,7 +11357,7 @@
     </row>
     <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B83">
         <v>2019</v>
@@ -11369,10 +11366,10 @@
         <v>29</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F83">
         <v>179</v>
@@ -11390,7 +11387,7 @@
     </row>
     <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B84">
         <v>2022</v>
@@ -11402,7 +11399,7 @@
         <v>9</v>
       </c>
       <c r="E84" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F84">
         <v>4015</v>
@@ -11423,7 +11420,7 @@
     </row>
     <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B85">
         <v>2022</v>
@@ -11435,7 +11432,7 @@
         <v>8</v>
       </c>
       <c r="E85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F85">
         <v>3941</v>
@@ -11456,7 +11453,7 @@
     </row>
     <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B86">
         <v>2022</v>
@@ -11468,7 +11465,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F86">
         <v>1219</v>
@@ -11486,7 +11483,7 @@
     </row>
     <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B87">
         <v>2022</v>
@@ -11516,7 +11513,7 @@
     </row>
     <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B88">
         <v>2022</v>
@@ -11546,7 +11543,7 @@
     </row>
     <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B89">
         <v>2022</v>
@@ -11576,7 +11573,7 @@
     </row>
     <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B90">
         <v>2024</v>
@@ -11585,10 +11582,10 @@
         <v>15</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F90">
         <v>4228</v>
@@ -11609,7 +11606,7 @@
     </row>
     <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B91">
         <v>2024</v>
@@ -11618,10 +11615,10 @@
         <v>16</v>
       </c>
       <c r="D91" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E91" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F91">
         <v>3538</v>
@@ -11642,7 +11639,7 @@
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B92">
         <v>2024</v>
@@ -11651,10 +11648,10 @@
         <v>17</v>
       </c>
       <c r="D92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F92">
         <v>926</v>
@@ -11672,7 +11669,7 @@
     </row>
     <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B93">
         <v>2024</v>
@@ -11702,7 +11699,7 @@
     </row>
     <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B94">
         <v>2024</v>
@@ -11732,7 +11729,7 @@
     </row>
     <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B95">
         <v>2024</v>
@@ -11741,7 +11738,7 @@
         <v>5</v>
       </c>
       <c r="D95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E95" t="s">
         <v>12</v>
@@ -11762,7 +11759,7 @@
     </row>
     <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B96">
         <v>2019</v>
@@ -11771,10 +11768,10 @@
         <v>3</v>
       </c>
       <c r="D96" t="s">
-        <v>174</v>
+        <v>225</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F96">
         <v>1421</v>
@@ -11795,7 +11792,7 @@
     </row>
     <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B97">
         <v>2019</v>
@@ -11804,10 +11801,10 @@
         <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E97" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F97">
         <v>1238</v>
@@ -11828,7 +11825,7 @@
     </row>
     <row r="98" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B98">
         <v>2019</v>
@@ -11837,10 +11834,10 @@
         <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E98" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F98">
         <v>102</v>
@@ -11858,7 +11855,7 @@
     </row>
     <row r="99" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B99">
         <v>2019</v>
@@ -11888,7 +11885,7 @@
     </row>
     <row r="100" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B100">
         <v>2022</v>
@@ -11897,10 +11894,10 @@
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E100" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F100">
         <v>1145</v>
@@ -11921,7 +11918,7 @@
     </row>
     <row r="101" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B101">
         <v>2022</v>
@@ -11930,10 +11927,10 @@
         <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F101">
         <v>986</v>
@@ -11954,7 +11951,7 @@
     </row>
     <row r="102" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B102">
         <v>2022</v>
@@ -11963,10 +11960,10 @@
         <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E102" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F102">
         <v>390</v>
@@ -11984,7 +11981,7 @@
     </row>
     <row r="103" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B103">
         <v>2022</v>
@@ -12014,7 +12011,7 @@
     </row>
     <row r="104" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B104">
         <v>2024</v>
@@ -12023,10 +12020,10 @@
         <v>2</v>
       </c>
       <c r="D104" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E104" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F104">
         <v>1062</v>
@@ -12047,7 +12044,7 @@
     </row>
     <row r="105" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B105">
         <v>2024</v>
@@ -12056,10 +12053,10 @@
         <v>11</v>
       </c>
       <c r="D105" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F105">
         <v>880</v>
@@ -12080,7 +12077,7 @@
     </row>
     <row r="106" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B106">
         <v>2024</v>
@@ -12089,10 +12086,10 @@
         <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E106" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F106">
         <v>336</v>
@@ -12110,7 +12107,7 @@
     </row>
     <row r="107" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B107">
         <v>2024</v>
@@ -12140,7 +12137,7 @@
     </row>
     <row r="108" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B108">
         <v>2019</v>
@@ -12149,10 +12146,10 @@
         <v>3</v>
       </c>
       <c r="D108" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E108" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G108" s="7">
         <v>45.39</v>
@@ -12170,16 +12167,16 @@
     </row>
     <row r="109" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B109">
         <v>2019</v>
       </c>
       <c r="D109" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E109" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G109" s="7">
         <v>33.47</v>
@@ -12197,16 +12194,16 @@
     </row>
     <row r="110" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B110">
         <v>2019</v>
       </c>
       <c r="D110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G110" s="7">
         <v>13.66</v>
@@ -12221,16 +12218,16 @@
     </row>
     <row r="111" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B111">
         <v>2019</v>
       </c>
       <c r="D111" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G111" s="7">
         <v>4.3</v>
@@ -12245,16 +12242,16 @@
     </row>
     <row r="112" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B112">
         <v>2019</v>
       </c>
       <c r="D112" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G112" s="7">
         <v>2.17</v>
@@ -12269,7 +12266,7 @@
     </row>
     <row r="113" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B113">
         <v>2019</v>
@@ -12296,7 +12293,7 @@
     </row>
     <row r="114" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B114">
         <v>2022</v>
@@ -12305,10 +12302,10 @@
         <v>3</v>
       </c>
       <c r="D114" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E114" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F114">
         <v>10191</v>
@@ -12329,7 +12326,7 @@
     </row>
     <row r="115" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B115">
         <v>2022</v>
@@ -12338,10 +12335,10 @@
         <v>5</v>
       </c>
       <c r="D115" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E115" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F115">
         <v>4128</v>
@@ -12362,7 +12359,7 @@
     </row>
     <row r="116" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B116">
         <v>2022</v>
@@ -12371,10 +12368,10 @@
         <v>6</v>
       </c>
       <c r="D116" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F116">
         <v>1293</v>
@@ -12392,7 +12389,7 @@
     </row>
     <row r="117" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B117">
         <v>2022</v>
@@ -12401,10 +12398,10 @@
         <v>2</v>
       </c>
       <c r="D117" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F117">
         <v>1024</v>
@@ -12422,7 +12419,7 @@
     </row>
     <row r="118" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B118">
         <v>2022</v>
@@ -12431,10 +12428,10 @@
         <v>13</v>
       </c>
       <c r="D118" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F118">
         <v>393</v>
@@ -12452,7 +12449,7 @@
     </row>
     <row r="119" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B119">
         <v>2022</v>
@@ -12482,7 +12479,7 @@
     </row>
     <row r="120" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B120">
         <v>2024</v>
@@ -12491,10 +12488,10 @@
         <v>3</v>
       </c>
       <c r="D120" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E120" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F120">
         <v>8538</v>
@@ -12515,7 +12512,7 @@
     </row>
     <row r="121" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B121">
         <v>2024</v>
@@ -12524,10 +12521,10 @@
         <v>5</v>
       </c>
       <c r="D121" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E121" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F121">
         <v>5227</v>
@@ -12548,7 +12545,7 @@
     </row>
     <row r="122" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B122">
         <v>2024</v>
@@ -12557,10 +12554,10 @@
         <v>6</v>
       </c>
       <c r="D122" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F122">
         <v>1271</v>
@@ -12578,7 +12575,7 @@
     </row>
     <row r="123" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B123">
         <v>2024</v>
@@ -12587,10 +12584,10 @@
         <v>2</v>
       </c>
       <c r="D123" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F123">
         <v>863</v>
@@ -12608,7 +12605,7 @@
     </row>
     <row r="124" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B124">
         <v>2024</v>
@@ -12638,7 +12635,7 @@
     </row>
     <row r="125" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B125">
         <v>2019</v>
@@ -12647,10 +12644,10 @@
         <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E125" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F125">
         <v>10506</v>
@@ -12671,7 +12668,7 @@
     </row>
     <row r="126" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B126">
         <v>2019</v>
@@ -12680,10 +12677,10 @@
         <v>5</v>
       </c>
       <c r="D126" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E126" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F126">
         <v>7431</v>
@@ -12704,7 +12701,7 @@
     </row>
     <row r="127" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B127">
         <v>2019</v>
@@ -12713,10 +12710,10 @@
         <v>7</v>
       </c>
       <c r="D127" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F127">
         <v>2028</v>
@@ -12734,7 +12731,7 @@
     </row>
     <row r="128" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B128">
         <v>2019</v>
@@ -12743,10 +12740,10 @@
         <v>8</v>
       </c>
       <c r="D128" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F128">
         <v>1398</v>
@@ -12764,7 +12761,7 @@
     </row>
     <row r="129" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B129">
         <v>2019</v>
@@ -12773,10 +12770,10 @@
         <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F129">
         <v>1351</v>
@@ -12794,7 +12791,7 @@
     </row>
     <row r="130" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B130">
         <v>2019</v>
@@ -12824,7 +12821,7 @@
     </row>
     <row r="131" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B131">
         <v>2022</v>
@@ -12833,10 +12830,10 @@
         <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E131" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F131">
         <v>14056</v>
@@ -12857,7 +12854,7 @@
     </row>
     <row r="132" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B132">
         <v>2022</v>
@@ -12866,10 +12863,10 @@
         <v>22</v>
       </c>
       <c r="D132" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E132" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F132">
         <v>6225</v>
@@ -12890,7 +12887,7 @@
     </row>
     <row r="133" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B133">
         <v>2022</v>
@@ -12899,10 +12896,10 @@
         <v>5</v>
       </c>
       <c r="D133" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F133">
         <v>1106</v>
@@ -12920,7 +12917,7 @@
     </row>
     <row r="134" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B134">
         <v>2022</v>
@@ -12929,10 +12926,10 @@
         <v>8</v>
       </c>
       <c r="D134" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F134">
         <v>765</v>
@@ -12950,7 +12947,7 @@
     </row>
     <row r="135" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B135">
         <v>2022</v>
@@ -12959,10 +12956,10 @@
         <v>7</v>
       </c>
       <c r="D135" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F135">
         <v>505</v>
@@ -12980,7 +12977,7 @@
     </row>
     <row r="136" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B136">
         <v>2022</v>
@@ -13010,7 +13007,7 @@
     </row>
     <row r="137" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B137">
         <v>2022</v>
@@ -13019,10 +13016,10 @@
         <v>13</v>
       </c>
       <c r="D137" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F137">
         <v>232</v>
@@ -13040,7 +13037,7 @@
     </row>
     <row r="138" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B138">
         <v>2022</v>
@@ -13049,10 +13046,10 @@
         <v>6</v>
       </c>
       <c r="D138" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F138">
         <v>141</v>
@@ -13070,7 +13067,7 @@
     </row>
     <row r="139" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B139">
         <v>2024</v>
@@ -13079,10 +13076,10 @@
         <v>22</v>
       </c>
       <c r="D139" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F139">
         <v>15172</v>
@@ -13103,7 +13100,7 @@
     </row>
     <row r="140" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B140">
         <v>2024</v>
@@ -13112,10 +13109,10 @@
         <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E140" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F140">
         <v>9556</v>
@@ -13136,7 +13133,7 @@
     </row>
     <row r="141" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B141">
         <v>2024</v>
@@ -13145,10 +13142,10 @@
         <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F141">
         <v>1941</v>
@@ -13166,7 +13163,7 @@
     </row>
     <row r="142" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B142">
         <v>2024</v>
@@ -13175,10 +13172,10 @@
         <v>8</v>
       </c>
       <c r="D142" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F142">
         <v>951</v>
@@ -13196,7 +13193,7 @@
     </row>
     <row r="143" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B143">
         <v>2024</v>
@@ -13226,7 +13223,7 @@
     </row>
     <row r="144" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B144">
         <v>2024</v>
@@ -13235,10 +13232,10 @@
         <v>13</v>
       </c>
       <c r="D144" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F144">
         <v>272</v>
@@ -13256,7 +13253,7 @@
     </row>
     <row r="145" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B145">
         <v>2019</v>
@@ -13265,10 +13262,10 @@
         <v>4</v>
       </c>
       <c r="D145" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F145">
         <v>7441</v>
@@ -13289,7 +13286,7 @@
     </row>
     <row r="146" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B146">
         <v>2019</v>
@@ -13298,10 +13295,10 @@
         <v>5</v>
       </c>
       <c r="D146" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F146">
         <v>3142</v>
@@ -13322,7 +13319,7 @@
     </row>
     <row r="147" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B147">
         <v>2019</v>
@@ -13331,10 +13328,10 @@
         <v>3</v>
       </c>
       <c r="D147" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F147">
         <v>5434</v>
@@ -13352,7 +13349,7 @@
     </row>
     <row r="148" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B148">
         <v>2019</v>
@@ -13361,10 +13358,10 @@
         <v>2</v>
       </c>
       <c r="D148" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F148">
         <v>1033</v>
@@ -13382,7 +13379,7 @@
     </row>
     <row r="149" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B149">
         <v>2019</v>
@@ -13391,10 +13388,10 @@
         <v>6</v>
       </c>
       <c r="D149" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F149">
         <v>280</v>
@@ -13412,7 +13409,7 @@
     </row>
     <row r="150" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B150">
         <v>2019</v>
@@ -13442,7 +13439,7 @@
     </row>
     <row r="151" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B151">
         <v>2019</v>
@@ -13451,10 +13448,10 @@
         <v>13</v>
       </c>
       <c r="D151" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F151">
         <v>217</v>
@@ -13472,7 +13469,7 @@
     </row>
     <row r="152" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B152">
         <v>2019</v>
@@ -13481,10 +13478,10 @@
         <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F152">
         <v>200</v>
@@ -13502,7 +13499,7 @@
     </row>
     <row r="153" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B153">
         <v>2019</v>
@@ -13511,10 +13508,10 @@
         <v>15</v>
       </c>
       <c r="D153" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F153">
         <v>147</v>
@@ -13532,7 +13529,7 @@
     </row>
     <row r="154" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B154">
         <v>2022</v>
@@ -13541,10 +13538,10 @@
         <v>4</v>
       </c>
       <c r="D154" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F154">
         <v>11809</v>
@@ -13565,7 +13562,7 @@
     </row>
     <row r="155" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B155">
         <v>2022</v>
@@ -13574,10 +13571,10 @@
         <v>5</v>
       </c>
       <c r="D155" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F155">
         <v>8105</v>
@@ -13598,7 +13595,7 @@
     </row>
     <row r="156" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B156">
         <v>2022</v>
@@ -13607,10 +13604,10 @@
         <v>3</v>
       </c>
       <c r="D156" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F156">
         <v>928</v>
@@ -13628,7 +13625,7 @@
     </row>
     <row r="157" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B157">
         <v>2022</v>
@@ -13640,7 +13637,7 @@
         <v>11</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F157">
         <v>445</v>
@@ -13658,7 +13655,7 @@
     </row>
     <row r="158" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B158">
         <v>2022</v>
@@ -13667,10 +13664,10 @@
         <v>6</v>
       </c>
       <c r="D158" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F158">
         <v>266</v>
@@ -13688,7 +13685,7 @@
     </row>
     <row r="159" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B159">
         <v>2022</v>
@@ -13697,10 +13694,10 @@
         <v>21</v>
       </c>
       <c r="D159" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F159">
         <v>240</v>
@@ -13718,7 +13715,7 @@
     </row>
     <row r="160" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B160">
         <v>2022</v>
@@ -13727,10 +13724,10 @@
         <v>1</v>
       </c>
       <c r="D160" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F160">
         <v>232</v>
@@ -13748,7 +13745,7 @@
     </row>
     <row r="161" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B161">
         <v>2022</v>
@@ -13757,10 +13754,10 @@
         <v>13</v>
       </c>
       <c r="D161" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F161">
         <v>232</v>
@@ -13778,7 +13775,7 @@
     </row>
     <row r="162" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B162">
         <v>2022</v>
@@ -13787,10 +13784,10 @@
         <v>8</v>
       </c>
       <c r="D162" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F162">
         <v>221</v>
@@ -13808,7 +13805,7 @@
     </row>
     <row r="163" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B163">
         <v>2024</v>
@@ -13817,10 +13814,10 @@
         <v>3</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F163">
         <v>12598</v>
@@ -13841,7 +13838,7 @@
     </row>
     <row r="164" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B164">
         <v>2024</v>
@@ -13850,10 +13847,10 @@
         <v>5</v>
       </c>
       <c r="D164" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F164">
         <v>6766</v>
@@ -13874,7 +13871,7 @@
     </row>
     <row r="165" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B165">
         <v>2024</v>
@@ -13883,10 +13880,10 @@
         <v>2</v>
       </c>
       <c r="D165" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F165">
         <v>638</v>
@@ -13904,7 +13901,7 @@
     </row>
     <row r="166" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B166">
         <v>2024</v>
@@ -13913,10 +13910,10 @@
         <v>1</v>
       </c>
       <c r="D166" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F166">
         <v>443</v>
@@ -13934,7 +13931,7 @@
     </row>
     <row r="167" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B167">
         <v>2024</v>
@@ -13964,7 +13961,7 @@
     </row>
     <row r="168" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B168">
         <v>2024</v>
@@ -13973,10 +13970,10 @@
         <v>8</v>
       </c>
       <c r="D168" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F168">
         <v>180</v>
@@ -13994,7 +13991,7 @@
     </row>
     <row r="169" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B169">
         <v>2024</v>
@@ -14003,10 +14000,10 @@
         <v>13</v>
       </c>
       <c r="D169" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F169">
         <v>170</v>
@@ -14024,7 +14021,7 @@
     </row>
     <row r="170" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B170">
         <v>2024</v>
@@ -14033,10 +14030,10 @@
         <v>11</v>
       </c>
       <c r="D170" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F170">
         <v>87</v>
@@ -14054,7 +14051,7 @@
     </row>
     <row r="171" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B171">
         <v>2019</v>
@@ -14063,10 +14060,10 @@
         <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E171" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F171">
         <v>27465</v>
@@ -14087,7 +14084,7 @@
     </row>
     <row r="172" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B172">
         <v>2019</v>
@@ -14096,10 +14093,10 @@
         <v>39</v>
       </c>
       <c r="D172" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F172">
         <v>5099</v>
@@ -14117,7 +14114,7 @@
     </row>
     <row r="173" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B173">
         <v>2019</v>
@@ -14126,10 +14123,10 @@
         <v>8</v>
       </c>
       <c r="D173" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F173">
         <v>2910</v>
@@ -14147,7 +14144,7 @@
     </row>
     <row r="174" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B174">
         <v>2019</v>
@@ -14156,10 +14153,10 @@
         <v>4</v>
       </c>
       <c r="D174" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F174">
         <v>1044</v>
@@ -14177,7 +14174,7 @@
     </row>
     <row r="175" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B175">
         <v>2019</v>
@@ -14186,10 +14183,10 @@
         <v>18</v>
       </c>
       <c r="D175" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F175">
         <v>719</v>
@@ -14207,7 +14204,7 @@
     </row>
     <row r="176" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B176">
         <v>2019</v>
@@ -14237,7 +14234,7 @@
     </row>
     <row r="177" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B177">
         <v>2019</v>
@@ -14246,10 +14243,10 @@
         <v>13</v>
       </c>
       <c r="D177" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F177">
         <v>455</v>
@@ -14267,7 +14264,7 @@
     </row>
     <row r="178" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B178">
         <v>2022</v>
@@ -14276,10 +14273,10 @@
         <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E178" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F178">
         <v>34989</v>
@@ -14300,7 +14297,7 @@
     </row>
     <row r="179" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B179">
         <v>2022</v>
@@ -14309,10 +14306,10 @@
         <v>39</v>
       </c>
       <c r="D179" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F179">
         <v>5331</v>
@@ -14330,7 +14327,7 @@
     </row>
     <row r="180" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B180">
         <v>2022</v>
@@ -14339,10 +14336,10 @@
         <v>6</v>
       </c>
       <c r="D180" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F180">
         <v>1697</v>
@@ -14360,7 +14357,7 @@
     </row>
     <row r="181" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B181">
         <v>2022</v>
@@ -14369,10 +14366,10 @@
         <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F181">
         <v>1626</v>
@@ -14390,7 +14387,7 @@
     </row>
     <row r="182" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B182">
         <v>2022</v>
@@ -14399,10 +14396,10 @@
         <v>2</v>
       </c>
       <c r="D182" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F182">
         <v>1026</v>
@@ -14420,7 +14417,7 @@
     </row>
     <row r="183" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B183">
         <v>2022</v>
@@ -14429,10 +14426,10 @@
         <v>13</v>
       </c>
       <c r="D183" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F183">
         <v>782</v>
@@ -14450,7 +14447,7 @@
     </row>
     <row r="184" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B184">
         <v>2022</v>
@@ -14459,10 +14456,10 @@
         <v>11</v>
       </c>
       <c r="D184" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F184">
         <v>771</v>
@@ -14480,7 +14477,7 @@
     </row>
     <row r="185" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B185">
         <v>2022</v>
@@ -14510,7 +14507,7 @@
     </row>
     <row r="186" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B186">
         <v>2024</v>
@@ -14519,10 +14516,10 @@
         <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F186">
         <v>28905</v>
@@ -14543,7 +14540,7 @@
     </row>
     <row r="187" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B187">
         <v>2024</v>
@@ -14552,10 +14549,10 @@
         <v>11</v>
       </c>
       <c r="D187" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F187">
         <v>10891</v>
@@ -14576,7 +14573,7 @@
     </row>
     <row r="188" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B188">
         <v>2024</v>
@@ -14585,10 +14582,10 @@
         <v>2</v>
       </c>
       <c r="D188" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F188">
         <v>3168</v>
@@ -14606,7 +14603,7 @@
     </row>
     <row r="189" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B189">
         <v>2024</v>
@@ -14615,10 +14612,10 @@
         <v>8</v>
       </c>
       <c r="D189" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F189">
         <v>973</v>
@@ -14636,7 +14633,7 @@
     </row>
     <row r="190" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B190">
         <v>2024</v>
@@ -14645,10 +14642,10 @@
         <v>17</v>
       </c>
       <c r="D190" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F190">
         <v>912</v>
@@ -14666,7 +14663,7 @@
     </row>
     <row r="191" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B191">
         <v>2024</v>
@@ -14675,10 +14672,10 @@
         <v>4</v>
       </c>
       <c r="D191" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F191">
         <v>902</v>
@@ -14696,7 +14693,7 @@
     </row>
     <row r="192" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B192">
         <v>2024</v>
@@ -14726,7 +14723,7 @@
     </row>
     <row r="193" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B193">
         <v>2024</v>
@@ -14735,10 +14732,10 @@
         <v>13</v>
       </c>
       <c r="D193" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F193">
         <v>287</v>
@@ -14756,16 +14753,16 @@
     </row>
     <row r="194" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B194">
         <v>2019</v>
       </c>
       <c r="D194" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E194" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G194" s="7">
         <v>37.450000000000003</v>
@@ -14783,16 +14780,16 @@
     </row>
     <row r="195" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B195">
         <v>2019</v>
       </c>
       <c r="D195" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E195" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G195" s="7">
         <v>35.5</v>
@@ -14810,16 +14807,16 @@
     </row>
     <row r="196" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B196">
         <v>2019</v>
       </c>
       <c r="D196" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E196" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G196" s="7">
         <v>21.4</v>
@@ -14834,16 +14831,16 @@
     </row>
     <row r="197" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B197">
         <v>2019</v>
       </c>
       <c r="D197" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G197" s="7">
         <v>2.4</v>
@@ -14858,16 +14855,16 @@
     </row>
     <row r="198" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B198">
         <v>2019</v>
       </c>
       <c r="D198" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G198" s="7">
         <v>1.79</v>
@@ -14882,16 +14879,16 @@
     </row>
     <row r="199" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B199">
         <v>2022</v>
       </c>
       <c r="D199" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E199" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F199">
         <v>1961</v>
@@ -14912,16 +14909,16 @@
     </row>
     <row r="200" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B200">
         <v>2022</v>
       </c>
       <c r="D200" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E200" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F200">
         <v>1634</v>
@@ -14942,16 +14939,16 @@
     </row>
     <row r="201" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B201">
         <v>2022</v>
       </c>
       <c r="D201" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E201" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F201">
         <v>1506</v>
@@ -14969,16 +14966,16 @@
     </row>
     <row r="202" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B202">
         <v>2022</v>
       </c>
       <c r="D202" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F202">
         <v>135</v>
@@ -14996,7 +14993,7 @@
     </row>
     <row r="203" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B203">
         <v>2022</v>
@@ -15023,7 +15020,7 @@
     </row>
     <row r="204" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B204">
         <v>2024</v>
@@ -15032,10 +15029,10 @@
         <v>1</v>
       </c>
       <c r="D204" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E204" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F204">
         <v>3349</v>
@@ -15056,7 +15053,7 @@
     </row>
     <row r="205" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B205">
         <v>2024</v>
@@ -15065,10 +15062,10 @@
         <v>14</v>
       </c>
       <c r="D205" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E205" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F205">
         <v>1366</v>
@@ -15089,7 +15086,7 @@
     </row>
     <row r="206" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B206">
         <v>2024</v>
@@ -15098,10 +15095,10 @@
         <v>13</v>
       </c>
       <c r="D206" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F206">
         <v>84</v>
@@ -15119,7 +15116,7 @@
     </row>
     <row r="207" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B207">
         <v>2024</v>
@@ -15149,7 +15146,7 @@
     </row>
     <row r="208" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B208">
         <v>2024</v>
@@ -15158,10 +15155,10 @@
         <v>10</v>
       </c>
       <c r="D208" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F208">
         <v>47</v>
@@ -15179,7 +15176,7 @@
     </row>
     <row r="209" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B209">
         <v>2019</v>
@@ -15188,10 +15185,10 @@
         <v>1</v>
       </c>
       <c r="D209" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F209">
         <v>19394</v>
@@ -15212,7 +15209,7 @@
     </row>
     <row r="210" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B210">
         <v>2019</v>
@@ -15221,10 +15218,10 @@
         <v>6</v>
       </c>
       <c r="D210" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E210" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F210">
         <v>1952</v>
@@ -15242,7 +15239,7 @@
     </row>
     <row r="211" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B211">
         <v>2019</v>
@@ -15251,10 +15248,10 @@
         <v>7</v>
       </c>
       <c r="D211" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F211">
         <v>1112</v>
@@ -15272,7 +15269,7 @@
     </row>
     <row r="212" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B212">
         <v>2019</v>
@@ -15281,10 +15278,10 @@
         <v>4</v>
       </c>
       <c r="D212" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F212">
         <v>1063</v>
@@ -15302,7 +15299,7 @@
     </row>
     <row r="213" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B213">
         <v>2019</v>
@@ -15311,10 +15308,10 @@
         <v>5</v>
       </c>
       <c r="D213" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F213">
         <v>822</v>
@@ -15332,7 +15329,7 @@
     </row>
     <row r="214" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B214">
         <v>2019</v>
@@ -15362,7 +15359,7 @@
     </row>
     <row r="215" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B215">
         <v>2019</v>
@@ -15371,10 +15368,10 @@
         <v>8</v>
       </c>
       <c r="D215" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F215">
         <v>415</v>
@@ -15392,7 +15389,7 @@
     </row>
     <row r="216" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B216">
         <v>2019</v>
@@ -15401,10 +15398,10 @@
         <v>3</v>
       </c>
       <c r="D216" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F216">
         <v>338</v>
@@ -15422,7 +15419,7 @@
     </row>
     <row r="217" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B217">
         <v>2019</v>
@@ -15431,7 +15428,7 @@
         <v>12</v>
       </c>
       <c r="D217" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E217" t="s">
         <v>11</v>
@@ -15452,7 +15449,7 @@
     </row>
     <row r="218" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B218">
         <v>2019</v>
@@ -15461,10 +15458,10 @@
         <v>2</v>
       </c>
       <c r="D218" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F218">
         <v>149</v>
@@ -15482,7 +15479,7 @@
     </row>
     <row r="219" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B219">
         <v>2019</v>
@@ -15491,10 +15488,10 @@
         <v>11</v>
       </c>
       <c r="D219" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F219">
         <v>139</v>
@@ -15512,7 +15509,7 @@
     </row>
     <row r="220" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B220">
         <v>2019</v>
@@ -15521,10 +15518,10 @@
         <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F220">
         <v>36</v>
@@ -15542,7 +15539,7 @@
     </row>
     <row r="221" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B221">
         <v>2022</v>
@@ -15551,10 +15548,10 @@
         <v>1</v>
       </c>
       <c r="D221" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F221">
         <v>16895</v>
@@ -15575,7 +15572,7 @@
     </row>
     <row r="222" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B222">
         <v>2022</v>
@@ -15584,10 +15581,10 @@
         <v>9</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F222">
         <v>1520</v>
@@ -15605,7 +15602,7 @@
     </row>
     <row r="223" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B223">
         <v>2022</v>
@@ -15614,10 +15611,10 @@
         <v>8</v>
       </c>
       <c r="D223" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E223" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F223">
         <v>1473</v>
@@ -15635,7 +15632,7 @@
     </row>
     <row r="224" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B224">
         <v>2022</v>
@@ -15644,10 +15641,10 @@
         <v>2</v>
       </c>
       <c r="D224" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F224">
         <v>695</v>
@@ -15665,7 +15662,7 @@
     </row>
     <row r="225" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B225">
         <v>2022</v>
@@ -15674,10 +15671,10 @@
         <v>6</v>
       </c>
       <c r="D225" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E225" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F225">
         <v>645</v>
@@ -15695,7 +15692,7 @@
     </row>
     <row r="226" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B226">
         <v>2022</v>
@@ -15704,10 +15701,10 @@
         <v>10</v>
       </c>
       <c r="D226" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E226" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F226">
         <v>549</v>
@@ -15725,7 +15722,7 @@
     </row>
     <row r="227" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B227">
         <v>2022</v>
@@ -15734,10 +15731,10 @@
         <v>7</v>
       </c>
       <c r="D227" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E227" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F227">
         <v>482</v>
@@ -15755,16 +15752,16 @@
     </row>
     <row r="228" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B228">
         <v>2022</v>
       </c>
       <c r="C228" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D228" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E228" t="s">
         <v>11</v>
@@ -15785,7 +15782,7 @@
     </row>
     <row r="229" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B229">
         <v>2022</v>
@@ -15794,10 +15791,10 @@
         <v>3</v>
       </c>
       <c r="D229" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F229">
         <v>196</v>
@@ -15815,7 +15812,7 @@
     </row>
     <row r="230" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B230">
         <v>2022</v>
@@ -15824,7 +15821,7 @@
         <v>22</v>
       </c>
       <c r="D230" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>11</v>
@@ -15845,7 +15842,7 @@
     </row>
     <row r="231" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B231">
         <v>2022</v>
@@ -15854,10 +15851,10 @@
         <v>11</v>
       </c>
       <c r="D231" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F231">
         <v>131</v>
@@ -15875,7 +15872,7 @@
     </row>
     <row r="232" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B232">
         <v>2022</v>
@@ -15884,10 +15881,10 @@
         <v>4</v>
       </c>
       <c r="D232" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F232">
         <v>77</v>
@@ -15905,7 +15902,7 @@
     </row>
     <row r="233" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B233">
         <v>2022</v>
@@ -15914,10 +15911,10 @@
         <v>14</v>
       </c>
       <c r="D233" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F233">
         <v>78</v>
@@ -15935,7 +15932,7 @@
     </row>
     <row r="234" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B234">
         <v>2022</v>
@@ -15944,10 +15941,10 @@
         <v>69</v>
       </c>
       <c r="D234" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F234">
         <v>78</v>
@@ -15965,7 +15962,7 @@
     </row>
     <row r="235" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B235">
         <v>2022</v>
@@ -15974,10 +15971,10 @@
         <v>5</v>
       </c>
       <c r="D235" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F235">
         <v>50</v>
@@ -15995,7 +15992,7 @@
     </row>
     <row r="236" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B236">
         <v>2022</v>
@@ -16004,10 +16001,10 @@
         <v>44</v>
       </c>
       <c r="D236" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F236">
         <v>35</v>
@@ -16025,7 +16022,7 @@
     </row>
     <row r="237" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B237">
         <v>2024</v>
@@ -16034,10 +16031,10 @@
         <v>1</v>
       </c>
       <c r="D237" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F237">
         <v>16057</v>
@@ -16058,7 +16055,7 @@
     </row>
     <row r="238" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B238">
         <v>2024</v>
@@ -16067,10 +16064,10 @@
         <v>9</v>
       </c>
       <c r="D238" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F238">
         <v>2106</v>
@@ -16088,7 +16085,7 @@
     </row>
     <row r="239" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B239">
         <v>2024</v>
@@ -16097,10 +16094,10 @@
         <v>10</v>
       </c>
       <c r="D239" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E239" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F239">
         <v>1417</v>
@@ -16118,7 +16115,7 @@
     </row>
     <row r="240" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B240">
         <v>2024</v>
@@ -16127,10 +16124,10 @@
         <v>8</v>
       </c>
       <c r="D240" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F240">
         <v>676</v>
@@ -16148,7 +16145,7 @@
     </row>
     <row r="241" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B241">
         <v>2024</v>
@@ -16157,10 +16154,10 @@
         <v>2</v>
       </c>
       <c r="D241" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F241">
         <v>477</v>
@@ -16178,7 +16175,7 @@
     </row>
     <row r="242" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B242">
         <v>2024</v>
@@ -16187,10 +16184,10 @@
         <v>6</v>
       </c>
       <c r="D242" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E242" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F242">
         <v>396</v>
@@ -16208,16 +16205,16 @@
     </row>
     <row r="243" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B243">
         <v>2024</v>
       </c>
       <c r="C243" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D243" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E243" t="s">
         <v>11</v>
@@ -16238,7 +16235,7 @@
     </row>
     <row r="244" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B244">
         <v>2024</v>
@@ -16247,10 +16244,10 @@
         <v>3</v>
       </c>
       <c r="D244" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F244">
         <v>285</v>
@@ -16268,7 +16265,7 @@
     </row>
     <row r="245" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B245">
         <v>2024</v>
@@ -16277,10 +16274,10 @@
         <v>13</v>
       </c>
       <c r="D245" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F245">
         <v>219</v>
@@ -16298,7 +16295,7 @@
     </row>
     <row r="246" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B246">
         <v>2024</v>
@@ -16307,10 +16304,10 @@
         <v>7</v>
       </c>
       <c r="D246" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F246">
         <v>206</v>
@@ -16328,7 +16325,7 @@
     </row>
     <row r="247" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B247">
         <v>2024</v>
@@ -16337,7 +16334,7 @@
         <v>22</v>
       </c>
       <c r="D247" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>11</v>
@@ -16358,7 +16355,7 @@
     </row>
     <row r="248" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B248">
         <v>2024</v>
@@ -16367,10 +16364,10 @@
         <v>4</v>
       </c>
       <c r="D248" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F248">
         <v>76</v>
@@ -16388,7 +16385,7 @@
     </row>
     <row r="249" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B249">
         <v>2024</v>
@@ -16397,10 +16394,10 @@
         <v>69</v>
       </c>
       <c r="D249" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F249">
         <v>59</v>
@@ -16418,7 +16415,7 @@
     </row>
     <row r="250" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B250">
         <v>2024</v>
@@ -16427,10 +16424,10 @@
         <v>5</v>
       </c>
       <c r="D250" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F250">
         <v>48</v>
@@ -16448,7 +16445,7 @@
     </row>
     <row r="251" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B251">
         <v>2024</v>
@@ -16457,10 +16454,10 @@
         <v>14</v>
       </c>
       <c r="D251" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F251">
         <v>47</v>
@@ -16478,7 +16475,7 @@
     </row>
     <row r="252" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B252">
         <v>2024</v>
@@ -16487,10 +16484,10 @@
         <v>44</v>
       </c>
       <c r="D252" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F252">
         <v>31</v>
@@ -16508,19 +16505,19 @@
     </row>
     <row r="253" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B253">
         <v>2019</v>
       </c>
       <c r="C253" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D253" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E253" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G253" s="7">
         <v>92.4</v>
@@ -16538,19 +16535,19 @@
     </row>
     <row r="254" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B254">
         <v>2019</v>
       </c>
       <c r="C254" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D254" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E254" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G254" s="7">
         <v>6.6</v>
@@ -16565,7 +16562,7 @@
     </row>
     <row r="255" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B255">
         <v>2019</v>
@@ -16592,19 +16589,19 @@
     </row>
     <row r="256" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B256">
         <v>2022</v>
       </c>
       <c r="C256" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D256" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E256" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G256" s="7">
         <v>95.2</v>
@@ -16622,19 +16619,19 @@
     </row>
     <row r="257" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B257">
         <v>2022</v>
       </c>
       <c r="C257" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D257" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E257" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G257" s="7">
         <v>4.4000000000000004</v>
@@ -16649,7 +16646,7 @@
     </row>
     <row r="258" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B258">
         <v>2022</v>
@@ -16676,19 +16673,19 @@
     </row>
     <row r="259" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B259">
         <v>2024</v>
       </c>
       <c r="C259" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D259" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E259" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G259" s="7">
         <v>99</v>
@@ -16706,19 +16703,19 @@
     </row>
     <row r="260" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B260">
         <v>2024</v>
       </c>
       <c r="C260" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D260" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E260" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G260" s="7">
         <v>0.5</v>
@@ -16733,7 +16730,7 @@
     </row>
     <row r="261" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B261">
         <v>2024</v>

--- a/uba_cd_estudiantes.xlsx
+++ b/uba_cd_estudiantes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\personal\sociologia\emergit\uba_electoral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A2A422-4ECE-4711-AC37-09077FB89806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4E9F63-C0DD-44E4-AD68-765D4CAEE305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11904" yWindow="312" windowWidth="11136" windowHeight="11928" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -227,9 +227,6 @@
     <t>LA UES</t>
   </si>
   <si>
-    <t>FRENTE REFORMISTA ND - FM</t>
-  </si>
-  <si>
     <t>SUR DERECHO</t>
   </si>
   <si>
@@ -740,6 +737,9 @@
   </si>
   <si>
     <t>Est. por una NUEVA FAUBA</t>
+  </si>
+  <si>
+    <t>Frente Reformista ND - FM</t>
   </si>
 </sst>
 </file>
@@ -7601,12 +7601,12 @@
         <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -7620,13 +7620,13 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K3" t="s">
         <v>162</v>
-      </c>
-      <c r="K3" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -7647,12 +7647,12 @@
         <v>39</v>
       </c>
       <c r="K4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
@@ -7668,7 +7668,7 @@
         <v>34</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -7689,7 +7689,7 @@
         <v>36</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -7710,7 +7710,7 @@
         <v>35</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -7731,7 +7731,7 @@
         <v>37</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -7749,7 +7749,7 @@
         <v>38</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -7764,15 +7764,15 @@
         <v>#B1DDF6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>38</v>
@@ -7782,10 +7782,10 @@
         <v>#80ED99</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -7800,10 +7800,10 @@
         <v>#80ED99</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -7811,17 +7811,17 @@
         <v>16</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
         <v>orange</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -7829,17 +7829,17 @@
         <v>17</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
         <v>purple</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -7847,17 +7847,17 @@
         <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
         <v>#80ED99</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -7877,7 +7877,7 @@
         <v>20</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
@@ -7898,7 +7898,7 @@
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D19" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>36</v>
@@ -7910,10 +7910,10 @@
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D20" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -7922,7 +7922,7 @@
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D21" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>37</v>
@@ -7934,7 +7934,7 @@
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D22" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>34</v>
@@ -7946,7 +7946,7 @@
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D23" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>34</v>
@@ -7958,7 +7958,7 @@
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D24" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>34</v>
@@ -7970,7 +7970,7 @@
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D25" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>34</v>
@@ -7982,7 +7982,7 @@
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D26" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>34</v>
@@ -7994,7 +7994,7 @@
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D27" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>34</v>
@@ -8006,10 +8006,10 @@
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D28" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
@@ -8018,7 +8018,7 @@
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D29" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>34</v>
@@ -8033,7 +8033,7 @@
         <v>47</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
@@ -8042,7 +8042,7 @@
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D31" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>34</v>
@@ -8054,7 +8054,7 @@
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D32" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>34</v>
@@ -8066,7 +8066,7 @@
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D33" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>34</v>
@@ -8078,7 +8078,7 @@
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D34" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>34</v>
@@ -8090,7 +8090,7 @@
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D35" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>34</v>
@@ -8102,7 +8102,7 @@
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D36" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>34</v>
@@ -8114,7 +8114,7 @@
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D37" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>34</v>
@@ -8126,7 +8126,7 @@
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D38" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>34</v>
@@ -8138,7 +8138,7 @@
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D39" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>34</v>
@@ -8150,7 +8150,7 @@
     </row>
     <row r="40" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D40" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>37</v>
@@ -8165,7 +8165,7 @@
         <v>41</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
@@ -8177,7 +8177,7 @@
         <v>48</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
@@ -8198,10 +8198,10 @@
     </row>
     <row r="44" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D44" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
@@ -8210,7 +8210,7 @@
     </row>
     <row r="45" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D45" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>37</v>
@@ -8222,10 +8222,10 @@
     </row>
     <row r="46" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D46" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
@@ -8234,7 +8234,7 @@
     </row>
     <row r="47" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D47" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>36</v>
@@ -8246,7 +8246,7 @@
     </row>
     <row r="48" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D48" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>34</v>
@@ -8258,10 +8258,10 @@
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D49" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
@@ -8270,10 +8270,10 @@
     </row>
     <row r="50" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D50" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
@@ -8282,7 +8282,7 @@
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D51" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>38</v>
@@ -8294,7 +8294,7 @@
     </row>
     <row r="52" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D52" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>38</v>
@@ -8306,10 +8306,10 @@
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D53" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
@@ -8318,7 +8318,7 @@
     </row>
     <row r="54" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D54" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>36</v>
@@ -8330,10 +8330,10 @@
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D55" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
@@ -8342,7 +8342,7 @@
     </row>
     <row r="56" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D56" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>36</v>
@@ -8354,7 +8354,7 @@
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D57" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>37</v>
@@ -8366,7 +8366,7 @@
     </row>
     <row r="58" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D58" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>37</v>
@@ -8378,7 +8378,7 @@
     </row>
     <row r="59" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>37</v>
@@ -8390,7 +8390,7 @@
     </row>
     <row r="60" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>38</v>
@@ -8402,10 +8402,10 @@
     </row>
     <row r="61" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D61" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
@@ -8414,10 +8414,10 @@
     </row>
     <row r="62" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="0"/>
@@ -8426,7 +8426,7 @@
     </row>
     <row r="63" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E63" t="s">
         <v>36</v>
@@ -8438,10 +8438,10 @@
     </row>
     <row r="64" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F64" t="str">
         <f t="shared" si="0"/>
@@ -8450,7 +8450,7 @@
     </row>
     <row r="65" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>37</v>
@@ -8462,10 +8462,10 @@
     </row>
     <row r="66" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" si="0"/>
@@ -8474,10 +8474,10 @@
     </row>
     <row r="67" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" si="0"/>
@@ -8486,10 +8486,10 @@
     </row>
     <row r="68" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="0"/>
@@ -8498,10 +8498,10 @@
     </row>
     <row r="69" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" ref="F69:F72" si="1">VLOOKUP(E69,$J$3:$K$15,2,FALSE)</f>
@@ -8510,7 +8510,7 @@
     </row>
     <row r="70" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>36</v>
@@ -8522,7 +8522,7 @@
     </row>
     <row r="71" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>34</v>
@@ -8534,7 +8534,7 @@
     </row>
     <row r="72" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D72" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>37</v>
@@ -8573,10 +8573,10 @@
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8635,7 +8635,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7">
         <v>8164</v>
@@ -8649,7 +8649,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B8">
         <v>38316</v>
@@ -8666,7 +8666,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8676,7 +8676,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B11">
         <v>23066</v>
@@ -8693,7 +8693,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B12">
         <v>26133</v>
@@ -8710,7 +8710,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B13">
         <v>5671</v>
@@ -8727,7 +8727,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B14">
         <v>11600</v>
@@ -8744,7 +8744,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B15">
         <v>3581</v>
@@ -8761,7 +8761,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C16">
         <v>5324</v>
@@ -8775,7 +8775,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B17">
         <v>8578</v>
@@ -8792,7 +8792,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C18">
         <v>17208</v>
@@ -8833,8 +8833,8 @@
   </sheetPr>
   <dimension ref="A1:K261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D146" sqref="D146"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D155" sqref="D155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8873,13 +8873,13 @@
         <v>29</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2">
         <v>2019</v>
@@ -8888,10 +8888,10 @@
         <v>417</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F2">
         <v>4214</v>
@@ -8912,7 +8912,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B3">
         <v>2019</v>
@@ -8921,10 +8921,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F3">
         <v>1597</v>
@@ -8942,7 +8942,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4">
         <v>2019</v>
@@ -8951,10 +8951,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F4">
         <v>846</v>
@@ -8972,7 +8972,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <v>2019</v>
@@ -8981,10 +8981,10 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F5">
         <v>649</v>
@@ -9002,7 +9002,7 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6">
         <v>2019</v>
@@ -9011,10 +9011,10 @@
         <v>314</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F6">
         <v>394</v>
@@ -9032,7 +9032,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7">
         <v>2019</v>
@@ -9062,7 +9062,7 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8">
         <v>2019</v>
@@ -9071,10 +9071,10 @@
         <v>256</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F8">
         <v>178</v>
@@ -9092,7 +9092,7 @@
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9">
         <v>2022</v>
@@ -9101,10 +9101,10 @@
         <v>417</v>
       </c>
       <c r="D9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G9" s="7">
         <v>61.7</v>
@@ -9122,7 +9122,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10">
         <v>2022</v>
@@ -9131,10 +9131,10 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G10" s="7">
         <v>12.2</v>
@@ -9149,7 +9149,7 @@
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11">
         <v>2022</v>
@@ -9158,10 +9158,10 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G11" s="7">
         <v>7</v>
@@ -9176,7 +9176,7 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B12">
         <v>2022</v>
@@ -9185,10 +9185,10 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G12" s="7">
         <v>6.7</v>
@@ -9203,7 +9203,7 @@
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13">
         <v>2022</v>
@@ -9212,10 +9212,10 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G13" s="7">
         <v>5.9</v>
@@ -9230,7 +9230,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14">
         <v>2022</v>
@@ -9257,7 +9257,7 @@
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15">
         <v>2022</v>
@@ -9266,10 +9266,10 @@
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G15" s="7">
         <v>1.9</v>
@@ -9284,7 +9284,7 @@
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B16">
         <v>2024</v>
@@ -9293,10 +9293,10 @@
         <v>417</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F16">
         <v>2786</v>
@@ -9317,7 +9317,7 @@
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17">
         <v>2024</v>
@@ -9326,10 +9326,10 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F17">
         <v>1467</v>
@@ -9347,7 +9347,7 @@
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B18">
         <v>2024</v>
@@ -9356,10 +9356,10 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F18">
         <v>1346</v>
@@ -9377,7 +9377,7 @@
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B19">
         <v>2024</v>
@@ -9386,10 +9386,10 @@
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F19">
         <v>1312</v>
@@ -9407,7 +9407,7 @@
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B20">
         <v>2024</v>
@@ -9416,10 +9416,10 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F20">
         <v>609</v>
@@ -9437,7 +9437,7 @@
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B21">
         <v>2024</v>
@@ -9467,7 +9467,7 @@
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B22">
         <v>2019</v>
@@ -9500,7 +9500,7 @@
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B23">
         <v>2019</v>
@@ -9533,7 +9533,7 @@
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B24">
         <v>2019</v>
@@ -9563,7 +9563,7 @@
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B25">
         <v>2019</v>
@@ -9593,7 +9593,7 @@
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B26">
         <v>2019</v>
@@ -9623,7 +9623,7 @@
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B27">
         <v>2019</v>
@@ -9653,7 +9653,7 @@
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B28">
         <v>2019</v>
@@ -9683,7 +9683,7 @@
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B29">
         <v>2022</v>
@@ -9716,7 +9716,7 @@
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B30">
         <v>2022</v>
@@ -9749,7 +9749,7 @@
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B31">
         <v>2022</v>
@@ -9779,7 +9779,7 @@
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B32">
         <v>2022</v>
@@ -9809,7 +9809,7 @@
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B33">
         <v>2022</v>
@@ -9839,7 +9839,7 @@
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B34">
         <v>2022</v>
@@ -9869,7 +9869,7 @@
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B35">
         <v>2022</v>
@@ -9899,7 +9899,7 @@
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B36">
         <v>2022</v>
@@ -9929,7 +9929,7 @@
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B37">
         <v>2024</v>
@@ -9938,10 +9938,10 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E37" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F37">
         <v>2809</v>
@@ -9962,7 +9962,7 @@
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B38">
         <v>2024</v>
@@ -9971,7 +9971,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E38" t="s">
         <v>14</v>
@@ -9995,7 +9995,7 @@
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B39">
         <v>2024</v>
@@ -10004,7 +10004,7 @@
         <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E39" t="s">
         <v>20</v>
@@ -10025,7 +10025,7 @@
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B40">
         <v>2024</v>
@@ -10034,7 +10034,7 @@
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E40" t="s">
         <v>19</v>
@@ -10055,7 +10055,7 @@
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B41">
         <v>2024</v>
@@ -10064,7 +10064,7 @@
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E41" t="s">
         <v>22</v>
@@ -10085,7 +10085,7 @@
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B42">
         <v>2024</v>
@@ -10115,7 +10115,7 @@
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B43">
         <v>2024</v>
@@ -10124,10 +10124,10 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F43">
         <v>179</v>
@@ -10145,7 +10145,7 @@
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B44">
         <v>2019</v>
@@ -10154,10 +10154,10 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F44">
         <v>1912</v>
@@ -10178,7 +10178,7 @@
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B45">
         <v>2019</v>
@@ -10187,10 +10187,10 @@
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F45">
         <v>1505</v>
@@ -10211,7 +10211,7 @@
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B46">
         <v>2019</v>
@@ -10223,7 +10223,7 @@
         <v>14</v>
       </c>
       <c r="E46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F46">
         <v>1245</v>
@@ -10241,7 +10241,7 @@
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B47">
         <v>2019</v>
@@ -10250,10 +10250,10 @@
         <v>26</v>
       </c>
       <c r="D47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F47">
         <v>517</v>
@@ -10271,7 +10271,7 @@
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B48">
         <v>2019</v>
@@ -10301,7 +10301,7 @@
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B49">
         <v>2022</v>
@@ -10310,10 +10310,10 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F49">
         <v>2588</v>
@@ -10334,7 +10334,7 @@
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B50">
         <v>2022</v>
@@ -10343,10 +10343,10 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F50">
         <v>1891</v>
@@ -10367,7 +10367,7 @@
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B51">
         <v>2022</v>
@@ -10376,10 +10376,10 @@
         <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F51">
         <v>1097</v>
@@ -10397,7 +10397,7 @@
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B52">
         <v>2022</v>
@@ -10427,7 +10427,7 @@
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B53">
         <v>2024</v>
@@ -10436,10 +10436,10 @@
         <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F53">
         <v>2964</v>
@@ -10460,7 +10460,7 @@
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B54">
         <v>2024</v>
@@ -10469,10 +10469,10 @@
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F54">
         <v>1872</v>
@@ -10493,7 +10493,7 @@
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B55">
         <v>2024</v>
@@ -10502,10 +10502,10 @@
         <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F55">
         <v>1610</v>
@@ -10523,7 +10523,7 @@
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B56">
         <v>2024</v>
@@ -10553,7 +10553,7 @@
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B57">
         <v>2024</v>
@@ -10562,10 +10562,10 @@
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F57">
         <v>321</v>
@@ -10583,7 +10583,7 @@
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B58">
         <v>2024</v>
@@ -10592,10 +10592,10 @@
         <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E58" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F58">
         <v>258</v>
@@ -10613,7 +10613,7 @@
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B59">
         <v>2024</v>
@@ -10622,10 +10622,10 @@
         <v>17</v>
       </c>
       <c r="D59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F59">
         <v>165</v>
@@ -10643,7 +10643,7 @@
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B60">
         <v>2024</v>
@@ -10652,10 +10652,10 @@
         <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F60">
         <v>105</v>
@@ -10673,7 +10673,7 @@
     </row>
     <row r="61" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B61">
         <v>2024</v>
@@ -10685,7 +10685,7 @@
         <v>7</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F61">
         <v>58</v>
@@ -10703,7 +10703,7 @@
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B62">
         <v>2019</v>
@@ -10712,10 +10712,10 @@
         <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F62">
         <v>1598</v>
@@ -10736,7 +10736,7 @@
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B63">
         <v>2019</v>
@@ -10745,10 +10745,10 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F63">
         <v>1284</v>
@@ -10769,7 +10769,7 @@
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B64">
         <v>2019</v>
@@ -10778,10 +10778,10 @@
         <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F64">
         <v>340</v>
@@ -10799,7 +10799,7 @@
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B65">
         <v>2019</v>
@@ -10808,10 +10808,10 @@
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F65">
         <v>289</v>
@@ -10829,7 +10829,7 @@
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B66">
         <v>2019</v>
@@ -10859,7 +10859,7 @@
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B67">
         <v>2022</v>
@@ -10868,10 +10868,10 @@
         <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E67" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F67">
         <v>1522</v>
@@ -10892,7 +10892,7 @@
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B68">
         <v>2022</v>
@@ -10901,10 +10901,10 @@
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F68">
         <v>1163</v>
@@ -10925,7 +10925,7 @@
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B69">
         <v>2022</v>
@@ -10934,10 +10934,10 @@
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E69" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F69">
         <v>588</v>
@@ -10955,7 +10955,7 @@
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B70">
         <v>2022</v>
@@ -10964,10 +10964,10 @@
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E70" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F70">
         <v>413</v>
@@ -10985,7 +10985,7 @@
     </row>
     <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B71">
         <v>2022</v>
@@ -10994,10 +10994,10 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E71" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F71">
         <v>231</v>
@@ -11015,7 +11015,7 @@
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B72">
         <v>2022</v>
@@ -11045,7 +11045,7 @@
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B73">
         <v>2024</v>
@@ -11054,10 +11054,10 @@
         <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F73">
         <v>1539</v>
@@ -11078,7 +11078,7 @@
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B74">
         <v>2024</v>
@@ -11087,10 +11087,10 @@
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F74">
         <v>1469</v>
@@ -11111,7 +11111,7 @@
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B75">
         <v>2024</v>
@@ -11120,10 +11120,10 @@
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F75">
         <v>1026</v>
@@ -11141,7 +11141,7 @@
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B76">
         <v>2024</v>
@@ -11171,7 +11171,7 @@
     </row>
     <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B77">
         <v>2019</v>
@@ -11180,10 +11180,10 @@
         <v>16</v>
       </c>
       <c r="D77" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E77" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F77">
         <v>4687</v>
@@ -11204,7 +11204,7 @@
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B78">
         <v>2019</v>
@@ -11237,7 +11237,7 @@
     </row>
     <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B79">
         <v>2019</v>
@@ -11267,7 +11267,7 @@
     </row>
     <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B80">
         <v>2019</v>
@@ -11297,7 +11297,7 @@
     </row>
     <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B81">
         <v>2019</v>
@@ -11327,7 +11327,7 @@
     </row>
     <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B82">
         <v>2019</v>
@@ -11357,7 +11357,7 @@
     </row>
     <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B83">
         <v>2019</v>
@@ -11387,7 +11387,7 @@
     </row>
     <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B84">
         <v>2022</v>
@@ -11399,7 +11399,7 @@
         <v>9</v>
       </c>
       <c r="E84" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F84">
         <v>4015</v>
@@ -11420,7 +11420,7 @@
     </row>
     <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B85">
         <v>2022</v>
@@ -11453,7 +11453,7 @@
     </row>
     <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B86">
         <v>2022</v>
@@ -11483,7 +11483,7 @@
     </row>
     <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B87">
         <v>2022</v>
@@ -11513,7 +11513,7 @@
     </row>
     <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B88">
         <v>2022</v>
@@ -11543,7 +11543,7 @@
     </row>
     <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B89">
         <v>2022</v>
@@ -11573,7 +11573,7 @@
     </row>
     <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B90">
         <v>2024</v>
@@ -11582,7 +11582,7 @@
         <v>15</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E90" t="s">
         <v>27</v>
@@ -11606,7 +11606,7 @@
     </row>
     <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B91">
         <v>2024</v>
@@ -11618,7 +11618,7 @@
         <v>24</v>
       </c>
       <c r="E91" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F91">
         <v>3538</v>
@@ -11639,7 +11639,7 @@
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B92">
         <v>2024</v>
@@ -11669,7 +11669,7 @@
     </row>
     <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B93">
         <v>2024</v>
@@ -11699,7 +11699,7 @@
     </row>
     <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B94">
         <v>2024</v>
@@ -11729,7 +11729,7 @@
     </row>
     <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B95">
         <v>2024</v>
@@ -11768,10 +11768,10 @@
         <v>3</v>
       </c>
       <c r="D96" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F96">
         <v>1421</v>
@@ -11801,10 +11801,10 @@
         <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E97" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F97">
         <v>1238</v>
@@ -11834,10 +11834,10 @@
         <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E98" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F98">
         <v>102</v>
@@ -11894,10 +11894,10 @@
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E100" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F100">
         <v>1145</v>
@@ -11927,10 +11927,10 @@
         <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F101">
         <v>986</v>
@@ -11960,10 +11960,10 @@
         <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E102" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F102">
         <v>390</v>
@@ -12020,10 +12020,10 @@
         <v>2</v>
       </c>
       <c r="D104" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E104" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F104">
         <v>1062</v>
@@ -12053,10 +12053,10 @@
         <v>11</v>
       </c>
       <c r="D105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F105">
         <v>880</v>
@@ -12086,10 +12086,10 @@
         <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E106" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F106">
         <v>336</v>
@@ -12137,7 +12137,7 @@
     </row>
     <row r="108" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B108">
         <v>2019</v>
@@ -12146,10 +12146,10 @@
         <v>3</v>
       </c>
       <c r="D108" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E108" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G108" s="7">
         <v>45.39</v>
@@ -12167,16 +12167,16 @@
     </row>
     <row r="109" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B109">
         <v>2019</v>
       </c>
       <c r="D109" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E109" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G109" s="7">
         <v>33.47</v>
@@ -12194,7 +12194,7 @@
     </row>
     <row r="110" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B110">
         <v>2019</v>
@@ -12203,7 +12203,7 @@
         <v>14</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G110" s="7">
         <v>13.66</v>
@@ -12218,16 +12218,16 @@
     </row>
     <row r="111" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B111">
         <v>2019</v>
       </c>
       <c r="D111" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G111" s="7">
         <v>4.3</v>
@@ -12242,16 +12242,16 @@
     </row>
     <row r="112" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B112">
         <v>2019</v>
       </c>
       <c r="D112" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G112" s="7">
         <v>2.17</v>
@@ -12266,7 +12266,7 @@
     </row>
     <row r="113" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B113">
         <v>2019</v>
@@ -12293,7 +12293,7 @@
     </row>
     <row r="114" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B114">
         <v>2022</v>
@@ -12302,10 +12302,10 @@
         <v>3</v>
       </c>
       <c r="D114" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E114" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F114">
         <v>10191</v>
@@ -12326,7 +12326,7 @@
     </row>
     <row r="115" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B115">
         <v>2022</v>
@@ -12335,10 +12335,10 @@
         <v>5</v>
       </c>
       <c r="D115" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E115" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F115">
         <v>4128</v>
@@ -12359,7 +12359,7 @@
     </row>
     <row r="116" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B116">
         <v>2022</v>
@@ -12368,10 +12368,10 @@
         <v>6</v>
       </c>
       <c r="D116" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F116">
         <v>1293</v>
@@ -12389,7 +12389,7 @@
     </row>
     <row r="117" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B117">
         <v>2022</v>
@@ -12398,10 +12398,10 @@
         <v>2</v>
       </c>
       <c r="D117" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F117">
         <v>1024</v>
@@ -12419,7 +12419,7 @@
     </row>
     <row r="118" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B118">
         <v>2022</v>
@@ -12428,10 +12428,10 @@
         <v>13</v>
       </c>
       <c r="D118" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F118">
         <v>393</v>
@@ -12449,7 +12449,7 @@
     </row>
     <row r="119" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B119">
         <v>2022</v>
@@ -12479,7 +12479,7 @@
     </row>
     <row r="120" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B120">
         <v>2024</v>
@@ -12488,10 +12488,10 @@
         <v>3</v>
       </c>
       <c r="D120" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E120" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F120">
         <v>8538</v>
@@ -12512,7 +12512,7 @@
     </row>
     <row r="121" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B121">
         <v>2024</v>
@@ -12521,10 +12521,10 @@
         <v>5</v>
       </c>
       <c r="D121" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E121" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F121">
         <v>5227</v>
@@ -12545,7 +12545,7 @@
     </row>
     <row r="122" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B122">
         <v>2024</v>
@@ -12554,10 +12554,10 @@
         <v>6</v>
       </c>
       <c r="D122" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F122">
         <v>1271</v>
@@ -12575,7 +12575,7 @@
     </row>
     <row r="123" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B123">
         <v>2024</v>
@@ -12584,10 +12584,10 @@
         <v>2</v>
       </c>
       <c r="D123" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F123">
         <v>863</v>
@@ -12605,7 +12605,7 @@
     </row>
     <row r="124" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B124">
         <v>2024</v>
@@ -12635,7 +12635,7 @@
     </row>
     <row r="125" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B125">
         <v>2019</v>
@@ -12644,10 +12644,10 @@
         <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E125" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F125">
         <v>10506</v>
@@ -12668,7 +12668,7 @@
     </row>
     <row r="126" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B126">
         <v>2019</v>
@@ -12677,10 +12677,10 @@
         <v>5</v>
       </c>
       <c r="D126" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E126" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F126">
         <v>7431</v>
@@ -12701,7 +12701,7 @@
     </row>
     <row r="127" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B127">
         <v>2019</v>
@@ -12710,10 +12710,10 @@
         <v>7</v>
       </c>
       <c r="D127" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F127">
         <v>2028</v>
@@ -12731,7 +12731,7 @@
     </row>
     <row r="128" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B128">
         <v>2019</v>
@@ -12740,10 +12740,10 @@
         <v>8</v>
       </c>
       <c r="D128" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F128">
         <v>1398</v>
@@ -12761,7 +12761,7 @@
     </row>
     <row r="129" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B129">
         <v>2019</v>
@@ -12770,10 +12770,10 @@
         <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F129">
         <v>1351</v>
@@ -12791,7 +12791,7 @@
     </row>
     <row r="130" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B130">
         <v>2019</v>
@@ -12821,7 +12821,7 @@
     </row>
     <row r="131" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B131">
         <v>2022</v>
@@ -12830,10 +12830,10 @@
         <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E131" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F131">
         <v>14056</v>
@@ -12854,7 +12854,7 @@
     </row>
     <row r="132" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B132">
         <v>2022</v>
@@ -12863,10 +12863,10 @@
         <v>22</v>
       </c>
       <c r="D132" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E132" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F132">
         <v>6225</v>
@@ -12887,7 +12887,7 @@
     </row>
     <row r="133" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B133">
         <v>2022</v>
@@ -12896,10 +12896,10 @@
         <v>5</v>
       </c>
       <c r="D133" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F133">
         <v>1106</v>
@@ -12917,7 +12917,7 @@
     </row>
     <row r="134" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B134">
         <v>2022</v>
@@ -12926,10 +12926,10 @@
         <v>8</v>
       </c>
       <c r="D134" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F134">
         <v>765</v>
@@ -12947,7 +12947,7 @@
     </row>
     <row r="135" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B135">
         <v>2022</v>
@@ -12956,10 +12956,10 @@
         <v>7</v>
       </c>
       <c r="D135" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F135">
         <v>505</v>
@@ -12977,7 +12977,7 @@
     </row>
     <row r="136" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B136">
         <v>2022</v>
@@ -13007,7 +13007,7 @@
     </row>
     <row r="137" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B137">
         <v>2022</v>
@@ -13016,10 +13016,10 @@
         <v>13</v>
       </c>
       <c r="D137" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F137">
         <v>232</v>
@@ -13037,7 +13037,7 @@
     </row>
     <row r="138" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B138">
         <v>2022</v>
@@ -13046,10 +13046,10 @@
         <v>6</v>
       </c>
       <c r="D138" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F138">
         <v>141</v>
@@ -13067,7 +13067,7 @@
     </row>
     <row r="139" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B139">
         <v>2024</v>
@@ -13076,10 +13076,10 @@
         <v>22</v>
       </c>
       <c r="D139" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F139">
         <v>15172</v>
@@ -13100,7 +13100,7 @@
     </row>
     <row r="140" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B140">
         <v>2024</v>
@@ -13109,10 +13109,10 @@
         <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E140" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F140">
         <v>9556</v>
@@ -13133,7 +13133,7 @@
     </row>
     <row r="141" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B141">
         <v>2024</v>
@@ -13142,10 +13142,10 @@
         <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F141">
         <v>1941</v>
@@ -13163,7 +13163,7 @@
     </row>
     <row r="142" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B142">
         <v>2024</v>
@@ -13172,10 +13172,10 @@
         <v>8</v>
       </c>
       <c r="D142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F142">
         <v>951</v>
@@ -13193,7 +13193,7 @@
     </row>
     <row r="143" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B143">
         <v>2024</v>
@@ -13223,7 +13223,7 @@
     </row>
     <row r="144" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B144">
         <v>2024</v>
@@ -13232,10 +13232,10 @@
         <v>13</v>
       </c>
       <c r="D144" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F144">
         <v>272</v>
@@ -13262,10 +13262,10 @@
         <v>4</v>
       </c>
       <c r="D145" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F145">
         <v>7441</v>
@@ -13298,7 +13298,7 @@
         <v>56</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F146">
         <v>3142</v>
@@ -13328,7 +13328,7 @@
         <v>3</v>
       </c>
       <c r="D147" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>16</v>
@@ -13361,7 +13361,7 @@
         <v>55</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F148">
         <v>1033</v>
@@ -13391,7 +13391,7 @@
         <v>21</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F149">
         <v>280</v>
@@ -13448,10 +13448,10 @@
         <v>13</v>
       </c>
       <c r="D151" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F151">
         <v>217</v>
@@ -13478,10 +13478,10 @@
         <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F152">
         <v>200</v>
@@ -13508,10 +13508,10 @@
         <v>15</v>
       </c>
       <c r="D153" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F153">
         <v>147</v>
@@ -13538,10 +13538,10 @@
         <v>4</v>
       </c>
       <c r="D154" t="s">
-        <v>61</v>
+        <v>225</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F154">
         <v>11809</v>
@@ -13574,7 +13574,7 @@
         <v>56</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F155">
         <v>8105</v>
@@ -13607,7 +13607,7 @@
         <v>55</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F156">
         <v>928</v>
@@ -13637,7 +13637,7 @@
         <v>11</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F157">
         <v>445</v>
@@ -13664,10 +13664,10 @@
         <v>6</v>
       </c>
       <c r="D158" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F158">
         <v>266</v>
@@ -13694,10 +13694,10 @@
         <v>21</v>
       </c>
       <c r="D159" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F159">
         <v>240</v>
@@ -13754,10 +13754,10 @@
         <v>13</v>
       </c>
       <c r="D161" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F161">
         <v>232</v>
@@ -13784,10 +13784,10 @@
         <v>8</v>
       </c>
       <c r="D162" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F162">
         <v>221</v>
@@ -13814,10 +13814,10 @@
         <v>3</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F163">
         <v>12598</v>
@@ -13850,7 +13850,7 @@
         <v>56</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F164">
         <v>6766</v>
@@ -13883,7 +13883,7 @@
         <v>55</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F165">
         <v>638</v>
@@ -13913,7 +13913,7 @@
         <v>54</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F166">
         <v>443</v>
@@ -13973,7 +13973,7 @@
         <v>57</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F168">
         <v>180</v>
@@ -14003,7 +14003,7 @@
         <v>59</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F169">
         <v>170</v>
@@ -14033,7 +14033,7 @@
         <v>58</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F170">
         <v>87</v>
@@ -14051,7 +14051,7 @@
     </row>
     <row r="171" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B171">
         <v>2019</v>
@@ -14084,7 +14084,7 @@
     </row>
     <row r="172" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B172">
         <v>2019</v>
@@ -14093,10 +14093,10 @@
         <v>39</v>
       </c>
       <c r="D172" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F172">
         <v>5099</v>
@@ -14114,7 +14114,7 @@
     </row>
     <row r="173" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B173">
         <v>2019</v>
@@ -14123,10 +14123,10 @@
         <v>8</v>
       </c>
       <c r="D173" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F173">
         <v>2910</v>
@@ -14144,7 +14144,7 @@
     </row>
     <row r="174" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B174">
         <v>2019</v>
@@ -14153,10 +14153,10 @@
         <v>4</v>
       </c>
       <c r="D174" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F174">
         <v>1044</v>
@@ -14174,7 +14174,7 @@
     </row>
     <row r="175" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B175">
         <v>2019</v>
@@ -14183,10 +14183,10 @@
         <v>18</v>
       </c>
       <c r="D175" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F175">
         <v>719</v>
@@ -14204,7 +14204,7 @@
     </row>
     <row r="176" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B176">
         <v>2019</v>
@@ -14234,7 +14234,7 @@
     </row>
     <row r="177" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B177">
         <v>2019</v>
@@ -14243,10 +14243,10 @@
         <v>13</v>
       </c>
       <c r="D177" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F177">
         <v>455</v>
@@ -14264,7 +14264,7 @@
     </row>
     <row r="178" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B178">
         <v>2022</v>
@@ -14297,7 +14297,7 @@
     </row>
     <row r="179" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B179">
         <v>2022</v>
@@ -14306,10 +14306,10 @@
         <v>39</v>
       </c>
       <c r="D179" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F179">
         <v>5331</v>
@@ -14327,7 +14327,7 @@
     </row>
     <row r="180" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B180">
         <v>2022</v>
@@ -14336,10 +14336,10 @@
         <v>6</v>
       </c>
       <c r="D180" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F180">
         <v>1697</v>
@@ -14357,7 +14357,7 @@
     </row>
     <row r="181" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B181">
         <v>2022</v>
@@ -14366,10 +14366,10 @@
         <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F181">
         <v>1626</v>
@@ -14387,7 +14387,7 @@
     </row>
     <row r="182" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B182">
         <v>2022</v>
@@ -14396,10 +14396,10 @@
         <v>2</v>
       </c>
       <c r="D182" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F182">
         <v>1026</v>
@@ -14417,7 +14417,7 @@
     </row>
     <row r="183" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B183">
         <v>2022</v>
@@ -14426,10 +14426,10 @@
         <v>13</v>
       </c>
       <c r="D183" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F183">
         <v>782</v>
@@ -14447,7 +14447,7 @@
     </row>
     <row r="184" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B184">
         <v>2022</v>
@@ -14456,10 +14456,10 @@
         <v>11</v>
       </c>
       <c r="D184" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F184">
         <v>771</v>
@@ -14477,7 +14477,7 @@
     </row>
     <row r="185" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B185">
         <v>2022</v>
@@ -14507,7 +14507,7 @@
     </row>
     <row r="186" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B186">
         <v>2024</v>
@@ -14540,7 +14540,7 @@
     </row>
     <row r="187" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B187">
         <v>2024</v>
@@ -14549,10 +14549,10 @@
         <v>11</v>
       </c>
       <c r="D187" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F187">
         <v>10891</v>
@@ -14573,7 +14573,7 @@
     </row>
     <row r="188" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B188">
         <v>2024</v>
@@ -14582,10 +14582,10 @@
         <v>2</v>
       </c>
       <c r="D188" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F188">
         <v>3168</v>
@@ -14603,7 +14603,7 @@
     </row>
     <row r="189" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B189">
         <v>2024</v>
@@ -14612,10 +14612,10 @@
         <v>8</v>
       </c>
       <c r="D189" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F189">
         <v>973</v>
@@ -14633,7 +14633,7 @@
     </row>
     <row r="190" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B190">
         <v>2024</v>
@@ -14645,7 +14645,7 @@
         <v>45</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F190">
         <v>912</v>
@@ -14663,7 +14663,7 @@
     </row>
     <row r="191" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B191">
         <v>2024</v>
@@ -14672,10 +14672,10 @@
         <v>4</v>
       </c>
       <c r="D191" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F191">
         <v>902</v>
@@ -14693,7 +14693,7 @@
     </row>
     <row r="192" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B192">
         <v>2024</v>
@@ -14723,7 +14723,7 @@
     </row>
     <row r="193" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B193">
         <v>2024</v>
@@ -14732,10 +14732,10 @@
         <v>13</v>
       </c>
       <c r="D193" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F193">
         <v>287</v>
@@ -14753,7 +14753,7 @@
     </row>
     <row r="194" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B194">
         <v>2019</v>
@@ -14780,7 +14780,7 @@
     </row>
     <row r="195" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B195">
         <v>2019</v>
@@ -14807,7 +14807,7 @@
     </row>
     <row r="196" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B196">
         <v>2019</v>
@@ -14831,7 +14831,7 @@
     </row>
     <row r="197" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B197">
         <v>2019</v>
@@ -14840,7 +14840,7 @@
         <v>51</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G197" s="7">
         <v>2.4</v>
@@ -14855,7 +14855,7 @@
     </row>
     <row r="198" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B198">
         <v>2019</v>
@@ -14864,7 +14864,7 @@
         <v>52</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G198" s="7">
         <v>1.79</v>
@@ -14879,7 +14879,7 @@
     </row>
     <row r="199" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B199">
         <v>2022</v>
@@ -14909,7 +14909,7 @@
     </row>
     <row r="200" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B200">
         <v>2022</v>
@@ -14939,7 +14939,7 @@
     </row>
     <row r="201" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B201">
         <v>2022</v>
@@ -14966,7 +14966,7 @@
     </row>
     <row r="202" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B202">
         <v>2022</v>
@@ -14975,7 +14975,7 @@
         <v>46</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F202">
         <v>135</v>
@@ -14993,7 +14993,7 @@
     </row>
     <row r="203" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B203">
         <v>2022</v>
@@ -15020,7 +15020,7 @@
     </row>
     <row r="204" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B204">
         <v>2024</v>
@@ -15053,7 +15053,7 @@
     </row>
     <row r="205" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B205">
         <v>2024</v>
@@ -15086,7 +15086,7 @@
     </row>
     <row r="206" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B206">
         <v>2024</v>
@@ -15098,7 +15098,7 @@
         <v>43</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F206">
         <v>84</v>
@@ -15116,7 +15116,7 @@
     </row>
     <row r="207" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B207">
         <v>2024</v>
@@ -15146,7 +15146,7 @@
     </row>
     <row r="208" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B208">
         <v>2024</v>
@@ -15158,7 +15158,7 @@
         <v>42</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F208">
         <v>47</v>
@@ -15176,7 +15176,7 @@
     </row>
     <row r="209" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B209">
         <v>2019</v>
@@ -15209,7 +15209,7 @@
     </row>
     <row r="210" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B210">
         <v>2019</v>
@@ -15218,10 +15218,10 @@
         <v>6</v>
       </c>
       <c r="D210" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E210" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F210">
         <v>1952</v>
@@ -15239,7 +15239,7 @@
     </row>
     <row r="211" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B211">
         <v>2019</v>
@@ -15248,10 +15248,10 @@
         <v>7</v>
       </c>
       <c r="D211" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F211">
         <v>1112</v>
@@ -15269,7 +15269,7 @@
     </row>
     <row r="212" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B212">
         <v>2019</v>
@@ -15278,10 +15278,10 @@
         <v>4</v>
       </c>
       <c r="D212" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F212">
         <v>1063</v>
@@ -15299,7 +15299,7 @@
     </row>
     <row r="213" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B213">
         <v>2019</v>
@@ -15308,10 +15308,10 @@
         <v>5</v>
       </c>
       <c r="D213" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F213">
         <v>822</v>
@@ -15329,7 +15329,7 @@
     </row>
     <row r="214" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B214">
         <v>2019</v>
@@ -15359,7 +15359,7 @@
     </row>
     <row r="215" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B215">
         <v>2019</v>
@@ -15368,10 +15368,10 @@
         <v>8</v>
       </c>
       <c r="D215" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F215">
         <v>415</v>
@@ -15389,7 +15389,7 @@
     </row>
     <row r="216" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B216">
         <v>2019</v>
@@ -15398,10 +15398,10 @@
         <v>3</v>
       </c>
       <c r="D216" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F216">
         <v>338</v>
@@ -15419,7 +15419,7 @@
     </row>
     <row r="217" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B217">
         <v>2019</v>
@@ -15428,7 +15428,7 @@
         <v>12</v>
       </c>
       <c r="D217" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E217" t="s">
         <v>11</v>
@@ -15449,7 +15449,7 @@
     </row>
     <row r="218" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B218">
         <v>2019</v>
@@ -15458,10 +15458,10 @@
         <v>2</v>
       </c>
       <c r="D218" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F218">
         <v>149</v>
@@ -15479,7 +15479,7 @@
     </row>
     <row r="219" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B219">
         <v>2019</v>
@@ -15488,10 +15488,10 @@
         <v>11</v>
       </c>
       <c r="D219" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F219">
         <v>139</v>
@@ -15509,7 +15509,7 @@
     </row>
     <row r="220" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B220">
         <v>2019</v>
@@ -15518,10 +15518,10 @@
         <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F220">
         <v>36</v>
@@ -15539,7 +15539,7 @@
     </row>
     <row r="221" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B221">
         <v>2022</v>
@@ -15572,7 +15572,7 @@
     </row>
     <row r="222" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B222">
         <v>2022</v>
@@ -15581,10 +15581,10 @@
         <v>9</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F222">
         <v>1520</v>
@@ -15602,7 +15602,7 @@
     </row>
     <row r="223" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B223">
         <v>2022</v>
@@ -15611,10 +15611,10 @@
         <v>8</v>
       </c>
       <c r="D223" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E223" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F223">
         <v>1473</v>
@@ -15632,7 +15632,7 @@
     </row>
     <row r="224" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B224">
         <v>2022</v>
@@ -15641,10 +15641,10 @@
         <v>2</v>
       </c>
       <c r="D224" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F224">
         <v>695</v>
@@ -15662,7 +15662,7 @@
     </row>
     <row r="225" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B225">
         <v>2022</v>
@@ -15671,10 +15671,10 @@
         <v>6</v>
       </c>
       <c r="D225" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E225" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F225">
         <v>645</v>
@@ -15692,7 +15692,7 @@
     </row>
     <row r="226" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B226">
         <v>2022</v>
@@ -15701,10 +15701,10 @@
         <v>10</v>
       </c>
       <c r="D226" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E226" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F226">
         <v>549</v>
@@ -15722,7 +15722,7 @@
     </row>
     <row r="227" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B227">
         <v>2022</v>
@@ -15731,10 +15731,10 @@
         <v>7</v>
       </c>
       <c r="D227" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E227" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F227">
         <v>482</v>
@@ -15752,16 +15752,16 @@
     </row>
     <row r="228" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B228">
         <v>2022</v>
       </c>
       <c r="C228" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D228" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E228" t="s">
         <v>11</v>
@@ -15782,7 +15782,7 @@
     </row>
     <row r="229" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B229">
         <v>2022</v>
@@ -15791,10 +15791,10 @@
         <v>3</v>
       </c>
       <c r="D229" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F229">
         <v>196</v>
@@ -15812,7 +15812,7 @@
     </row>
     <row r="230" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B230">
         <v>2022</v>
@@ -15821,7 +15821,7 @@
         <v>22</v>
       </c>
       <c r="D230" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>11</v>
@@ -15842,7 +15842,7 @@
     </row>
     <row r="231" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B231">
         <v>2022</v>
@@ -15851,10 +15851,10 @@
         <v>11</v>
       </c>
       <c r="D231" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F231">
         <v>131</v>
@@ -15872,7 +15872,7 @@
     </row>
     <row r="232" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B232">
         <v>2022</v>
@@ -15881,10 +15881,10 @@
         <v>4</v>
       </c>
       <c r="D232" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F232">
         <v>77</v>
@@ -15902,7 +15902,7 @@
     </row>
     <row r="233" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B233">
         <v>2022</v>
@@ -15911,10 +15911,10 @@
         <v>14</v>
       </c>
       <c r="D233" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F233">
         <v>78</v>
@@ -15932,7 +15932,7 @@
     </row>
     <row r="234" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B234">
         <v>2022</v>
@@ -15941,10 +15941,10 @@
         <v>69</v>
       </c>
       <c r="D234" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F234">
         <v>78</v>
@@ -15962,7 +15962,7 @@
     </row>
     <row r="235" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B235">
         <v>2022</v>
@@ -15971,10 +15971,10 @@
         <v>5</v>
       </c>
       <c r="D235" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F235">
         <v>50</v>
@@ -15992,7 +15992,7 @@
     </row>
     <row r="236" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B236">
         <v>2022</v>
@@ -16001,10 +16001,10 @@
         <v>44</v>
       </c>
       <c r="D236" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F236">
         <v>35</v>
@@ -16022,7 +16022,7 @@
     </row>
     <row r="237" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B237">
         <v>2024</v>
@@ -16055,7 +16055,7 @@
     </row>
     <row r="238" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B238">
         <v>2024</v>
@@ -16064,10 +16064,10 @@
         <v>9</v>
       </c>
       <c r="D238" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F238">
         <v>2106</v>
@@ -16085,7 +16085,7 @@
     </row>
     <row r="239" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B239">
         <v>2024</v>
@@ -16094,10 +16094,10 @@
         <v>10</v>
       </c>
       <c r="D239" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E239" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F239">
         <v>1417</v>
@@ -16115,7 +16115,7 @@
     </row>
     <row r="240" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B240">
         <v>2024</v>
@@ -16124,10 +16124,10 @@
         <v>8</v>
       </c>
       <c r="D240" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F240">
         <v>676</v>
@@ -16145,7 +16145,7 @@
     </row>
     <row r="241" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B241">
         <v>2024</v>
@@ -16154,10 +16154,10 @@
         <v>2</v>
       </c>
       <c r="D241" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F241">
         <v>477</v>
@@ -16175,7 +16175,7 @@
     </row>
     <row r="242" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B242">
         <v>2024</v>
@@ -16184,10 +16184,10 @@
         <v>6</v>
       </c>
       <c r="D242" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E242" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F242">
         <v>396</v>
@@ -16205,16 +16205,16 @@
     </row>
     <row r="243" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B243">
         <v>2024</v>
       </c>
       <c r="C243" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D243" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E243" t="s">
         <v>11</v>
@@ -16235,7 +16235,7 @@
     </row>
     <row r="244" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B244">
         <v>2024</v>
@@ -16244,10 +16244,10 @@
         <v>3</v>
       </c>
       <c r="D244" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F244">
         <v>285</v>
@@ -16265,7 +16265,7 @@
     </row>
     <row r="245" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B245">
         <v>2024</v>
@@ -16274,10 +16274,10 @@
         <v>13</v>
       </c>
       <c r="D245" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F245">
         <v>219</v>
@@ -16295,7 +16295,7 @@
     </row>
     <row r="246" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B246">
         <v>2024</v>
@@ -16304,10 +16304,10 @@
         <v>7</v>
       </c>
       <c r="D246" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F246">
         <v>206</v>
@@ -16325,7 +16325,7 @@
     </row>
     <row r="247" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B247">
         <v>2024</v>
@@ -16334,7 +16334,7 @@
         <v>22</v>
       </c>
       <c r="D247" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>11</v>
@@ -16355,7 +16355,7 @@
     </row>
     <row r="248" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B248">
         <v>2024</v>
@@ -16364,10 +16364,10 @@
         <v>4</v>
       </c>
       <c r="D248" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F248">
         <v>76</v>
@@ -16385,7 +16385,7 @@
     </row>
     <row r="249" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B249">
         <v>2024</v>
@@ -16394,10 +16394,10 @@
         <v>69</v>
       </c>
       <c r="D249" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F249">
         <v>59</v>
@@ -16415,7 +16415,7 @@
     </row>
     <row r="250" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B250">
         <v>2024</v>
@@ -16424,10 +16424,10 @@
         <v>5</v>
       </c>
       <c r="D250" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F250">
         <v>48</v>
@@ -16445,7 +16445,7 @@
     </row>
     <row r="251" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B251">
         <v>2024</v>
@@ -16454,10 +16454,10 @@
         <v>14</v>
       </c>
       <c r="D251" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F251">
         <v>47</v>
@@ -16475,7 +16475,7 @@
     </row>
     <row r="252" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B252">
         <v>2024</v>
@@ -16484,10 +16484,10 @@
         <v>44</v>
       </c>
       <c r="D252" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F252">
         <v>31</v>
@@ -16505,19 +16505,19 @@
     </row>
     <row r="253" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B253">
         <v>2019</v>
       </c>
       <c r="C253" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D253" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E253" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G253" s="7">
         <v>92.4</v>
@@ -16535,19 +16535,19 @@
     </row>
     <row r="254" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B254">
         <v>2019</v>
       </c>
       <c r="C254" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D254" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E254" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G254" s="7">
         <v>6.6</v>
@@ -16562,7 +16562,7 @@
     </row>
     <row r="255" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B255">
         <v>2019</v>
@@ -16589,19 +16589,19 @@
     </row>
     <row r="256" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B256">
         <v>2022</v>
       </c>
       <c r="C256" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D256" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E256" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G256" s="7">
         <v>95.2</v>
@@ -16619,19 +16619,19 @@
     </row>
     <row r="257" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B257">
         <v>2022</v>
       </c>
       <c r="C257" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D257" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E257" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G257" s="7">
         <v>4.4000000000000004</v>
@@ -16646,7 +16646,7 @@
     </row>
     <row r="258" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B258">
         <v>2022</v>
@@ -16673,19 +16673,19 @@
     </row>
     <row r="259" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B259">
         <v>2024</v>
       </c>
       <c r="C259" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D259" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E259" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G259" s="7">
         <v>99</v>
@@ -16703,19 +16703,19 @@
     </row>
     <row r="260" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B260">
         <v>2024</v>
       </c>
       <c r="C260" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D260" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E260" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G260" s="7">
         <v>0.5</v>
@@ -16730,7 +16730,7 @@
     </row>
     <row r="261" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B261">
         <v>2024</v>

--- a/uba_cd_estudiantes.xlsx
+++ b/uba_cd_estudiantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\personal\sociologia\emergit\uba_electoral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4E9F63-C0DD-44E4-AD68-765D4CAEE305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DA4D49-FC86-4F3F-B2D6-D9A44E969A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11904" yWindow="312" windowWidth="11136" windowHeight="11928" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11904" yWindow="312" windowWidth="11136" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="colores" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="225">
   <si>
     <t>Facultad</t>
   </si>
@@ -465,9 +465,6 @@
   </si>
   <si>
     <t>Sur FADU</t>
-  </si>
-  <si>
-    <t>Línea de agronomía independiente</t>
   </si>
   <si>
     <t>Fana ATP Fauba</t>
@@ -7587,8 +7584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24D8039-D0D6-4DE2-92CD-2A0539E40632}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7606,7 +7603,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -7620,13 +7617,13 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J3" t="s">
+        <v>160</v>
+      </c>
+      <c r="K3" t="s">
         <v>161</v>
-      </c>
-      <c r="K3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -7647,12 +7644,12 @@
         <v>39</v>
       </c>
       <c r="K4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
@@ -7668,7 +7665,7 @@
         <v>34</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -7689,7 +7686,7 @@
         <v>36</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -7710,7 +7707,7 @@
         <v>35</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -7731,7 +7728,7 @@
         <v>37</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -7749,7 +7746,7 @@
         <v>38</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -7772,7 +7769,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>38</v>
@@ -7803,7 +7800,7 @@
         <v>96</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -7818,10 +7815,10 @@
         <v>orange</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -7836,10 +7833,10 @@
         <v>purple</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -7854,10 +7851,10 @@
         <v>#80ED99</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -7877,7 +7874,7 @@
         <v>20</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
@@ -8150,7 +8147,7 @@
     </row>
     <row r="40" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D40" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>37</v>
@@ -8177,7 +8174,7 @@
         <v>48</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
@@ -8201,7 +8198,7 @@
         <v>123</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
@@ -8210,7 +8207,7 @@
     </row>
     <row r="45" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D45" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>37</v>
@@ -8258,10 +8255,10 @@
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D49" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
@@ -8294,7 +8291,7 @@
     </row>
     <row r="52" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D52" s="3" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>38</v>
@@ -8306,10 +8303,10 @@
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D53" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
@@ -8318,7 +8315,7 @@
     </row>
     <row r="54" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D54" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>36</v>
@@ -8330,7 +8327,7 @@
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D55" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>93</v>
@@ -8342,7 +8339,7 @@
     </row>
     <row r="56" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D56" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>36</v>
@@ -8354,7 +8351,7 @@
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D57" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>37</v>
@@ -8366,7 +8363,7 @@
     </row>
     <row r="58" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D58" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>37</v>
@@ -8402,10 +8399,10 @@
     </row>
     <row r="61" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D61" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
@@ -8414,7 +8411,7 @@
     </row>
     <row r="62" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>95</v>
@@ -8426,7 +8423,7 @@
     </row>
     <row r="63" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E63" t="s">
         <v>36</v>
@@ -8450,7 +8447,7 @@
     </row>
     <row r="65" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>37</v>
@@ -8462,10 +8459,10 @@
     </row>
     <row r="66" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" si="0"/>
@@ -8474,10 +8471,10 @@
     </row>
     <row r="67" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" si="0"/>
@@ -8486,7 +8483,7 @@
     </row>
     <row r="68" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>93</v>
@@ -8498,7 +8495,7 @@
     </row>
     <row r="69" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>95</v>
@@ -8510,7 +8507,7 @@
     </row>
     <row r="70" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>36</v>
@@ -8522,7 +8519,7 @@
     </row>
     <row r="71" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>34</v>
@@ -8534,7 +8531,7 @@
     </row>
     <row r="72" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D72" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>37</v>
@@ -8573,10 +8570,10 @@
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8649,7 +8646,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B8">
         <v>38316</v>
@@ -8666,7 +8663,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8676,7 +8673,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B11">
         <v>23066</v>
@@ -8693,7 +8690,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B12">
         <v>26133</v>
@@ -8710,7 +8707,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B13">
         <v>5671</v>
@@ -8727,7 +8724,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B14">
         <v>11600</v>
@@ -8744,7 +8741,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B15">
         <v>3581</v>
@@ -8761,7 +8758,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C16">
         <v>5324</v>
@@ -8775,7 +8772,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B17">
         <v>8578</v>
@@ -8792,7 +8789,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C18">
         <v>17208</v>
@@ -8833,8 +8830,8 @@
   </sheetPr>
   <dimension ref="A1:K261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D155" sqref="D155"/>
+    <sheetView topLeftCell="A76" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8873,7 +8870,7 @@
         <v>29</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K1" s="4"/>
     </row>
@@ -8888,10 +8885,10 @@
         <v>417</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F2">
         <v>4214</v>
@@ -8924,7 +8921,7 @@
         <v>130</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F3">
         <v>1597</v>
@@ -9011,7 +9008,7 @@
         <v>314</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>108</v>
@@ -9101,10 +9098,10 @@
         <v>417</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G9" s="7">
         <v>61.7</v>
@@ -9134,7 +9131,7 @@
         <v>130</v>
       </c>
       <c r="E10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G10" s="7">
         <v>12.2</v>
@@ -9158,7 +9155,7 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>108</v>
@@ -9185,7 +9182,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E12" t="s">
         <v>108</v>
@@ -9212,7 +9209,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E13" t="s">
         <v>129</v>
@@ -9266,7 +9263,7 @@
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E15" t="s">
         <v>108</v>
@@ -9293,10 +9290,10 @@
         <v>417</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F16">
         <v>2786</v>
@@ -9329,7 +9326,7 @@
         <v>76</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F17">
         <v>1467</v>
@@ -9467,7 +9464,7 @@
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B22">
         <v>2019</v>
@@ -9500,7 +9497,7 @@
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B23">
         <v>2019</v>
@@ -9533,7 +9530,7 @@
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B24">
         <v>2019</v>
@@ -9563,7 +9560,7 @@
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B25">
         <v>2019</v>
@@ -9593,7 +9590,7 @@
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B26">
         <v>2019</v>
@@ -9623,7 +9620,7 @@
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B27">
         <v>2019</v>
@@ -9653,7 +9650,7 @@
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B28">
         <v>2019</v>
@@ -9683,7 +9680,7 @@
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B29">
         <v>2022</v>
@@ -9716,7 +9713,7 @@
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B30">
         <v>2022</v>
@@ -9749,7 +9746,7 @@
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B31">
         <v>2022</v>
@@ -9779,7 +9776,7 @@
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B32">
         <v>2022</v>
@@ -9809,7 +9806,7 @@
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B33">
         <v>2022</v>
@@ -9839,7 +9836,7 @@
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B34">
         <v>2022</v>
@@ -9869,7 +9866,7 @@
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B35">
         <v>2022</v>
@@ -9899,7 +9896,7 @@
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B36">
         <v>2022</v>
@@ -9929,7 +9926,7 @@
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B37">
         <v>2024</v>
@@ -9941,7 +9938,7 @@
         <v>112</v>
       </c>
       <c r="E37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F37">
         <v>2809</v>
@@ -9962,7 +9959,7 @@
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B38">
         <v>2024</v>
@@ -9995,7 +9992,7 @@
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B39">
         <v>2024</v>
@@ -10025,7 +10022,7 @@
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B40">
         <v>2024</v>
@@ -10055,7 +10052,7 @@
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B41">
         <v>2024</v>
@@ -10085,7 +10082,7 @@
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B42">
         <v>2024</v>
@@ -10115,7 +10112,7 @@
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B43">
         <v>2024</v>
@@ -10145,7 +10142,7 @@
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B44">
         <v>2019</v>
@@ -10157,7 +10154,7 @@
         <v>124</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F44">
         <v>1912</v>
@@ -10178,7 +10175,7 @@
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B45">
         <v>2019</v>
@@ -10211,7 +10208,7 @@
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B46">
         <v>2019</v>
@@ -10241,7 +10238,7 @@
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B47">
         <v>2019</v>
@@ -10271,7 +10268,7 @@
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B48">
         <v>2019</v>
@@ -10301,7 +10298,7 @@
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B49">
         <v>2022</v>
@@ -10313,7 +10310,7 @@
         <v>119</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F49">
         <v>2588</v>
@@ -10334,7 +10331,7 @@
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B50">
         <v>2022</v>
@@ -10367,7 +10364,7 @@
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B51">
         <v>2022</v>
@@ -10397,7 +10394,7 @@
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B52">
         <v>2022</v>
@@ -10427,7 +10424,7 @@
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B53">
         <v>2024</v>
@@ -10439,7 +10436,7 @@
         <v>119</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F53">
         <v>2964</v>
@@ -10460,7 +10457,7 @@
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B54">
         <v>2024</v>
@@ -10493,7 +10490,7 @@
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B55">
         <v>2024</v>
@@ -10523,7 +10520,7 @@
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B56">
         <v>2024</v>
@@ -10553,7 +10550,7 @@
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B57">
         <v>2024</v>
@@ -10583,7 +10580,7 @@
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B58">
         <v>2024</v>
@@ -10613,7 +10610,7 @@
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B59">
         <v>2024</v>
@@ -10643,7 +10640,7 @@
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B60">
         <v>2024</v>
@@ -10673,7 +10670,7 @@
     </row>
     <row r="61" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B61">
         <v>2024</v>
@@ -10703,7 +10700,7 @@
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B62">
         <v>2019</v>
@@ -10712,10 +10709,10 @@
         <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F62">
         <v>1598</v>
@@ -10736,7 +10733,7 @@
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B63">
         <v>2019</v>
@@ -10745,10 +10742,10 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E63" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F63">
         <v>1284</v>
@@ -10769,7 +10766,7 @@
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B64">
         <v>2019</v>
@@ -10778,10 +10775,10 @@
         <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E64" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F64">
         <v>340</v>
@@ -10799,7 +10796,7 @@
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B65">
         <v>2019</v>
@@ -10808,10 +10805,10 @@
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F65">
         <v>289</v>
@@ -10829,7 +10826,7 @@
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B66">
         <v>2019</v>
@@ -10859,7 +10856,7 @@
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B67">
         <v>2022</v>
@@ -10868,10 +10865,10 @@
         <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F67">
         <v>1522</v>
@@ -10892,7 +10889,7 @@
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B68">
         <v>2022</v>
@@ -10901,10 +10898,10 @@
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E68" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F68">
         <v>1163</v>
@@ -10925,7 +10922,7 @@
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B69">
         <v>2022</v>
@@ -10934,10 +10931,10 @@
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E69" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F69">
         <v>588</v>
@@ -10955,7 +10952,7 @@
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B70">
         <v>2022</v>
@@ -10964,10 +10961,10 @@
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E70" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F70">
         <v>413</v>
@@ -10985,7 +10982,7 @@
     </row>
     <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B71">
         <v>2022</v>
@@ -10994,10 +10991,10 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E71" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F71">
         <v>231</v>
@@ -11015,7 +11012,7 @@
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B72">
         <v>2022</v>
@@ -11045,7 +11042,7 @@
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B73">
         <v>2024</v>
@@ -11054,10 +11051,10 @@
         <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F73">
         <v>1539</v>
@@ -11078,7 +11075,7 @@
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B74">
         <v>2024</v>
@@ -11087,10 +11084,10 @@
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F74">
         <v>1469</v>
@@ -11111,7 +11108,7 @@
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B75">
         <v>2024</v>
@@ -11120,10 +11117,10 @@
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E75" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F75">
         <v>1026</v>
@@ -11141,7 +11138,7 @@
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B76">
         <v>2024</v>
@@ -11171,7 +11168,7 @@
     </row>
     <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B77">
         <v>2019</v>
@@ -11180,10 +11177,10 @@
         <v>16</v>
       </c>
       <c r="D77" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E77" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F77">
         <v>4687</v>
@@ -11204,7 +11201,7 @@
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B78">
         <v>2019</v>
@@ -11237,7 +11234,7 @@
     </row>
     <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B79">
         <v>2019</v>
@@ -11267,7 +11264,7 @@
     </row>
     <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B80">
         <v>2019</v>
@@ -11297,7 +11294,7 @@
     </row>
     <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B81">
         <v>2019</v>
@@ -11327,7 +11324,7 @@
     </row>
     <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B82">
         <v>2019</v>
@@ -11357,7 +11354,7 @@
     </row>
     <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B83">
         <v>2019</v>
@@ -11387,7 +11384,7 @@
     </row>
     <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B84">
         <v>2022</v>
@@ -11399,7 +11396,7 @@
         <v>9</v>
       </c>
       <c r="E84" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F84">
         <v>4015</v>
@@ -11420,7 +11417,7 @@
     </row>
     <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B85">
         <v>2022</v>
@@ -11453,7 +11450,7 @@
     </row>
     <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B86">
         <v>2022</v>
@@ -11483,7 +11480,7 @@
     </row>
     <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B87">
         <v>2022</v>
@@ -11513,7 +11510,7 @@
     </row>
     <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B88">
         <v>2022</v>
@@ -11543,7 +11540,7 @@
     </row>
     <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B89">
         <v>2022</v>
@@ -11573,7 +11570,7 @@
     </row>
     <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B90">
         <v>2024</v>
@@ -11582,7 +11579,7 @@
         <v>15</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E90" t="s">
         <v>27</v>
@@ -11606,7 +11603,7 @@
     </row>
     <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B91">
         <v>2024</v>
@@ -11618,7 +11615,7 @@
         <v>24</v>
       </c>
       <c r="E91" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F91">
         <v>3538</v>
@@ -11639,7 +11636,7 @@
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B92">
         <v>2024</v>
@@ -11669,7 +11666,7 @@
     </row>
     <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B93">
         <v>2024</v>
@@ -11699,7 +11696,7 @@
     </row>
     <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B94">
         <v>2024</v>
@@ -11729,7 +11726,7 @@
     </row>
     <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B95">
         <v>2024</v>
@@ -11768,10 +11765,10 @@
         <v>3</v>
       </c>
       <c r="D96" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F96">
         <v>1421</v>
@@ -11801,10 +11798,10 @@
         <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="E97" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="F97">
         <v>1238</v>
@@ -11834,10 +11831,10 @@
         <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E98" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F98">
         <v>102</v>
@@ -11894,10 +11891,10 @@
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="E100" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="F100">
         <v>1145</v>
@@ -11927,10 +11924,10 @@
         <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F101">
         <v>986</v>
@@ -11960,10 +11957,10 @@
         <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E102" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F102">
         <v>390</v>
@@ -12020,10 +12017,10 @@
         <v>2</v>
       </c>
       <c r="D104" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E104" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="F104">
         <v>1062</v>
@@ -12053,10 +12050,10 @@
         <v>11</v>
       </c>
       <c r="D105" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F105">
         <v>880</v>
@@ -12086,10 +12083,10 @@
         <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E106" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F106">
         <v>336</v>
@@ -12137,7 +12134,7 @@
     </row>
     <row r="108" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B108">
         <v>2019</v>
@@ -12146,10 +12143,10 @@
         <v>3</v>
       </c>
       <c r="D108" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E108" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G108" s="7">
         <v>45.39</v>
@@ -12167,16 +12164,16 @@
     </row>
     <row r="109" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B109">
         <v>2019</v>
       </c>
       <c r="D109" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E109" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G109" s="7">
         <v>33.47</v>
@@ -12194,7 +12191,7 @@
     </row>
     <row r="110" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B110">
         <v>2019</v>
@@ -12218,13 +12215,13 @@
     </row>
     <row r="111" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B111">
         <v>2019</v>
       </c>
       <c r="D111" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>108</v>
@@ -12242,13 +12239,13 @@
     </row>
     <row r="112" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B112">
         <v>2019</v>
       </c>
       <c r="D112" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>108</v>
@@ -12266,7 +12263,7 @@
     </row>
     <row r="113" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B113">
         <v>2019</v>
@@ -12293,7 +12290,7 @@
     </row>
     <row r="114" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B114">
         <v>2022</v>
@@ -12302,10 +12299,10 @@
         <v>3</v>
       </c>
       <c r="D114" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E114" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F114">
         <v>10191</v>
@@ -12326,7 +12323,7 @@
     </row>
     <row r="115" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B115">
         <v>2022</v>
@@ -12335,10 +12332,10 @@
         <v>5</v>
       </c>
       <c r="D115" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E115" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F115">
         <v>4128</v>
@@ -12359,7 +12356,7 @@
     </row>
     <row r="116" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B116">
         <v>2022</v>
@@ -12368,7 +12365,7 @@
         <v>6</v>
       </c>
       <c r="D116" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>108</v>
@@ -12389,7 +12386,7 @@
     </row>
     <row r="117" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B117">
         <v>2022</v>
@@ -12398,7 +12395,7 @@
         <v>2</v>
       </c>
       <c r="D117" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>108</v>
@@ -12419,7 +12416,7 @@
     </row>
     <row r="118" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B118">
         <v>2022</v>
@@ -12428,7 +12425,7 @@
         <v>13</v>
       </c>
       <c r="D118" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>108</v>
@@ -12449,7 +12446,7 @@
     </row>
     <row r="119" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B119">
         <v>2022</v>
@@ -12479,7 +12476,7 @@
     </row>
     <row r="120" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B120">
         <v>2024</v>
@@ -12488,10 +12485,10 @@
         <v>3</v>
       </c>
       <c r="D120" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E120" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F120">
         <v>8538</v>
@@ -12512,7 +12509,7 @@
     </row>
     <row r="121" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B121">
         <v>2024</v>
@@ -12521,10 +12518,10 @@
         <v>5</v>
       </c>
       <c r="D121" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E121" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F121">
         <v>5227</v>
@@ -12545,7 +12542,7 @@
     </row>
     <row r="122" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B122">
         <v>2024</v>
@@ -12554,7 +12551,7 @@
         <v>6</v>
       </c>
       <c r="D122" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>108</v>
@@ -12575,7 +12572,7 @@
     </row>
     <row r="123" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B123">
         <v>2024</v>
@@ -12584,7 +12581,7 @@
         <v>2</v>
       </c>
       <c r="D123" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>108</v>
@@ -12605,7 +12602,7 @@
     </row>
     <row r="124" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B124">
         <v>2024</v>
@@ -12635,7 +12632,7 @@
     </row>
     <row r="125" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B125">
         <v>2019</v>
@@ -12644,7 +12641,7 @@
         <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E125" t="s">
         <v>134</v>
@@ -12668,7 +12665,7 @@
     </row>
     <row r="126" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B126">
         <v>2019</v>
@@ -12677,7 +12674,7 @@
         <v>5</v>
       </c>
       <c r="D126" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E126" t="s">
         <v>135</v>
@@ -12701,7 +12698,7 @@
     </row>
     <row r="127" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B127">
         <v>2019</v>
@@ -12710,7 +12707,7 @@
         <v>7</v>
       </c>
       <c r="D127" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>108</v>
@@ -12731,7 +12728,7 @@
     </row>
     <row r="128" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B128">
         <v>2019</v>
@@ -12740,7 +12737,7 @@
         <v>8</v>
       </c>
       <c r="D128" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>108</v>
@@ -12761,7 +12758,7 @@
     </row>
     <row r="129" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B129">
         <v>2019</v>
@@ -12770,7 +12767,7 @@
         <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>108</v>
@@ -12791,7 +12788,7 @@
     </row>
     <row r="130" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B130">
         <v>2019</v>
@@ -12821,7 +12818,7 @@
     </row>
     <row r="131" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B131">
         <v>2022</v>
@@ -12854,7 +12851,7 @@
     </row>
     <row r="132" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B132">
         <v>2022</v>
@@ -12887,7 +12884,7 @@
     </row>
     <row r="133" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B133">
         <v>2022</v>
@@ -12917,7 +12914,7 @@
     </row>
     <row r="134" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B134">
         <v>2022</v>
@@ -12947,7 +12944,7 @@
     </row>
     <row r="135" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B135">
         <v>2022</v>
@@ -12977,7 +12974,7 @@
     </row>
     <row r="136" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B136">
         <v>2022</v>
@@ -13007,7 +13004,7 @@
     </row>
     <row r="137" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B137">
         <v>2022</v>
@@ -13037,7 +13034,7 @@
     </row>
     <row r="138" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B138">
         <v>2022</v>
@@ -13067,7 +13064,7 @@
     </row>
     <row r="139" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B139">
         <v>2024</v>
@@ -13076,7 +13073,7 @@
         <v>22</v>
       </c>
       <c r="D139" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>135</v>
@@ -13100,7 +13097,7 @@
     </row>
     <row r="140" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B140">
         <v>2024</v>
@@ -13133,7 +13130,7 @@
     </row>
     <row r="141" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B141">
         <v>2024</v>
@@ -13142,7 +13139,7 @@
         <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>108</v>
@@ -13163,7 +13160,7 @@
     </row>
     <row r="142" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B142">
         <v>2024</v>
@@ -13172,7 +13169,7 @@
         <v>8</v>
       </c>
       <c r="D142" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>108</v>
@@ -13193,7 +13190,7 @@
     </row>
     <row r="143" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B143">
         <v>2024</v>
@@ -13223,7 +13220,7 @@
     </row>
     <row r="144" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B144">
         <v>2024</v>
@@ -13232,7 +13229,7 @@
         <v>13</v>
       </c>
       <c r="D144" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>108</v>
@@ -13538,7 +13535,7 @@
         <v>4</v>
       </c>
       <c r="D154" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>98</v>
@@ -14051,7 +14048,7 @@
     </row>
     <row r="171" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B171">
         <v>2019</v>
@@ -14084,7 +14081,7 @@
     </row>
     <row r="172" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B172">
         <v>2019</v>
@@ -14093,10 +14090,10 @@
         <v>39</v>
       </c>
       <c r="D172" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F172">
         <v>5099</v>
@@ -14114,7 +14111,7 @@
     </row>
     <row r="173" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B173">
         <v>2019</v>
@@ -14123,7 +14120,7 @@
         <v>8</v>
       </c>
       <c r="D173" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>108</v>
@@ -14144,7 +14141,7 @@
     </row>
     <row r="174" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B174">
         <v>2019</v>
@@ -14153,7 +14150,7 @@
         <v>4</v>
       </c>
       <c r="D174" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>108</v>
@@ -14174,7 +14171,7 @@
     </row>
     <row r="175" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B175">
         <v>2019</v>
@@ -14183,7 +14180,7 @@
         <v>18</v>
       </c>
       <c r="D175" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>108</v>
@@ -14204,7 +14201,7 @@
     </row>
     <row r="176" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B176">
         <v>2019</v>
@@ -14234,7 +14231,7 @@
     </row>
     <row r="177" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B177">
         <v>2019</v>
@@ -14243,7 +14240,7 @@
         <v>13</v>
       </c>
       <c r="D177" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>108</v>
@@ -14264,7 +14261,7 @@
     </row>
     <row r="178" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B178">
         <v>2022</v>
@@ -14297,7 +14294,7 @@
     </row>
     <row r="179" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B179">
         <v>2022</v>
@@ -14306,10 +14303,10 @@
         <v>39</v>
       </c>
       <c r="D179" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F179">
         <v>5331</v>
@@ -14327,7 +14324,7 @@
     </row>
     <row r="180" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B180">
         <v>2022</v>
@@ -14336,7 +14333,7 @@
         <v>6</v>
       </c>
       <c r="D180" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>108</v>
@@ -14357,7 +14354,7 @@
     </row>
     <row r="181" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B181">
         <v>2022</v>
@@ -14366,7 +14363,7 @@
         <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>108</v>
@@ -14387,7 +14384,7 @@
     </row>
     <row r="182" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B182">
         <v>2022</v>
@@ -14396,7 +14393,7 @@
         <v>2</v>
       </c>
       <c r="D182" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>108</v>
@@ -14417,7 +14414,7 @@
     </row>
     <row r="183" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B183">
         <v>2022</v>
@@ -14426,7 +14423,7 @@
         <v>13</v>
       </c>
       <c r="D183" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>108</v>
@@ -14447,7 +14444,7 @@
     </row>
     <row r="184" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B184">
         <v>2022</v>
@@ -14456,7 +14453,7 @@
         <v>11</v>
       </c>
       <c r="D184" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>108</v>
@@ -14477,7 +14474,7 @@
     </row>
     <row r="185" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B185">
         <v>2022</v>
@@ -14507,7 +14504,7 @@
     </row>
     <row r="186" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B186">
         <v>2024</v>
@@ -14540,7 +14537,7 @@
     </row>
     <row r="187" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B187">
         <v>2024</v>
@@ -14549,10 +14546,10 @@
         <v>11</v>
       </c>
       <c r="D187" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F187">
         <v>10891</v>
@@ -14573,7 +14570,7 @@
     </row>
     <row r="188" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B188">
         <v>2024</v>
@@ -14582,7 +14579,7 @@
         <v>2</v>
       </c>
       <c r="D188" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>108</v>
@@ -14603,7 +14600,7 @@
     </row>
     <row r="189" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B189">
         <v>2024</v>
@@ -14612,7 +14609,7 @@
         <v>8</v>
       </c>
       <c r="D189" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>108</v>
@@ -14633,7 +14630,7 @@
     </row>
     <row r="190" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B190">
         <v>2024</v>
@@ -14663,7 +14660,7 @@
     </row>
     <row r="191" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B191">
         <v>2024</v>
@@ -14672,7 +14669,7 @@
         <v>4</v>
       </c>
       <c r="D191" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>108</v>
@@ -14693,7 +14690,7 @@
     </row>
     <row r="192" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B192">
         <v>2024</v>
@@ -14723,7 +14720,7 @@
     </row>
     <row r="193" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B193">
         <v>2024</v>
@@ -14732,7 +14729,7 @@
         <v>13</v>
       </c>
       <c r="D193" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>108</v>
@@ -14753,7 +14750,7 @@
     </row>
     <row r="194" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B194">
         <v>2019</v>
@@ -14780,7 +14777,7 @@
     </row>
     <row r="195" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B195">
         <v>2019</v>
@@ -14807,7 +14804,7 @@
     </row>
     <row r="196" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B196">
         <v>2019</v>
@@ -14831,7 +14828,7 @@
     </row>
     <row r="197" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B197">
         <v>2019</v>
@@ -14855,7 +14852,7 @@
     </row>
     <row r="198" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B198">
         <v>2019</v>
@@ -14879,7 +14876,7 @@
     </row>
     <row r="199" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B199">
         <v>2022</v>
@@ -14909,7 +14906,7 @@
     </row>
     <row r="200" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B200">
         <v>2022</v>
@@ -14939,7 +14936,7 @@
     </row>
     <row r="201" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B201">
         <v>2022</v>
@@ -14966,7 +14963,7 @@
     </row>
     <row r="202" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B202">
         <v>2022</v>
@@ -14993,7 +14990,7 @@
     </row>
     <row r="203" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B203">
         <v>2022</v>
@@ -15020,7 +15017,7 @@
     </row>
     <row r="204" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B204">
         <v>2024</v>
@@ -15053,7 +15050,7 @@
     </row>
     <row r="205" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B205">
         <v>2024</v>
@@ -15086,7 +15083,7 @@
     </row>
     <row r="206" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B206">
         <v>2024</v>
@@ -15116,7 +15113,7 @@
     </row>
     <row r="207" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B207">
         <v>2024</v>
@@ -15146,7 +15143,7 @@
     </row>
     <row r="208" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B208">
         <v>2024</v>
@@ -15176,7 +15173,7 @@
     </row>
     <row r="209" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B209">
         <v>2019</v>
@@ -15209,7 +15206,7 @@
     </row>
     <row r="210" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B210">
         <v>2019</v>
@@ -15239,7 +15236,7 @@
     </row>
     <row r="211" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B211">
         <v>2019</v>
@@ -15269,7 +15266,7 @@
     </row>
     <row r="212" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B212">
         <v>2019</v>
@@ -15299,7 +15296,7 @@
     </row>
     <row r="213" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B213">
         <v>2019</v>
@@ -15329,7 +15326,7 @@
     </row>
     <row r="214" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B214">
         <v>2019</v>
@@ -15359,7 +15356,7 @@
     </row>
     <row r="215" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B215">
         <v>2019</v>
@@ -15389,7 +15386,7 @@
     </row>
     <row r="216" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B216">
         <v>2019</v>
@@ -15419,7 +15416,7 @@
     </row>
     <row r="217" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B217">
         <v>2019</v>
@@ -15449,7 +15446,7 @@
     </row>
     <row r="218" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B218">
         <v>2019</v>
@@ -15479,7 +15476,7 @@
     </row>
     <row r="219" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B219">
         <v>2019</v>
@@ -15509,7 +15506,7 @@
     </row>
     <row r="220" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B220">
         <v>2019</v>
@@ -15539,7 +15536,7 @@
     </row>
     <row r="221" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B221">
         <v>2022</v>
@@ -15572,7 +15569,7 @@
     </row>
     <row r="222" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B222">
         <v>2022</v>
@@ -15602,7 +15599,7 @@
     </row>
     <row r="223" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B223">
         <v>2022</v>
@@ -15632,7 +15629,7 @@
     </row>
     <row r="224" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B224">
         <v>2022</v>
@@ -15662,7 +15659,7 @@
     </row>
     <row r="225" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B225">
         <v>2022</v>
@@ -15692,7 +15689,7 @@
     </row>
     <row r="226" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B226">
         <v>2022</v>
@@ -15722,7 +15719,7 @@
     </row>
     <row r="227" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B227">
         <v>2022</v>
@@ -15752,7 +15749,7 @@
     </row>
     <row r="228" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B228">
         <v>2022</v>
@@ -15782,7 +15779,7 @@
     </row>
     <row r="229" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B229">
         <v>2022</v>
@@ -15812,7 +15809,7 @@
     </row>
     <row r="230" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B230">
         <v>2022</v>
@@ -15842,7 +15839,7 @@
     </row>
     <row r="231" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B231">
         <v>2022</v>
@@ -15872,7 +15869,7 @@
     </row>
     <row r="232" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B232">
         <v>2022</v>
@@ -15902,7 +15899,7 @@
     </row>
     <row r="233" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B233">
         <v>2022</v>
@@ -15932,7 +15929,7 @@
     </row>
     <row r="234" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B234">
         <v>2022</v>
@@ -15962,7 +15959,7 @@
     </row>
     <row r="235" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B235">
         <v>2022</v>
@@ -15992,7 +15989,7 @@
     </row>
     <row r="236" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B236">
         <v>2022</v>
@@ -16022,7 +16019,7 @@
     </row>
     <row r="237" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B237">
         <v>2024</v>
@@ -16055,7 +16052,7 @@
     </row>
     <row r="238" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B238">
         <v>2024</v>
@@ -16085,7 +16082,7 @@
     </row>
     <row r="239" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B239">
         <v>2024</v>
@@ -16115,7 +16112,7 @@
     </row>
     <row r="240" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B240">
         <v>2024</v>
@@ -16145,7 +16142,7 @@
     </row>
     <row r="241" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B241">
         <v>2024</v>
@@ -16175,7 +16172,7 @@
     </row>
     <row r="242" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B242">
         <v>2024</v>
@@ -16205,7 +16202,7 @@
     </row>
     <row r="243" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B243">
         <v>2024</v>
@@ -16235,7 +16232,7 @@
     </row>
     <row r="244" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B244">
         <v>2024</v>
@@ -16265,7 +16262,7 @@
     </row>
     <row r="245" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B245">
         <v>2024</v>
@@ -16295,7 +16292,7 @@
     </row>
     <row r="246" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B246">
         <v>2024</v>
@@ -16325,7 +16322,7 @@
     </row>
     <row r="247" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B247">
         <v>2024</v>
@@ -16355,7 +16352,7 @@
     </row>
     <row r="248" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B248">
         <v>2024</v>
@@ -16385,7 +16382,7 @@
     </row>
     <row r="249" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B249">
         <v>2024</v>
@@ -16415,7 +16412,7 @@
     </row>
     <row r="250" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B250">
         <v>2024</v>
@@ -16445,7 +16442,7 @@
     </row>
     <row r="251" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B251">
         <v>2024</v>
@@ -16475,7 +16472,7 @@
     </row>
     <row r="252" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B252">
         <v>2024</v>
@@ -16505,19 +16502,19 @@
     </row>
     <row r="253" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B253">
         <v>2019</v>
       </c>
       <c r="C253" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D253" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E253" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G253" s="7">
         <v>92.4</v>
@@ -16535,19 +16532,19 @@
     </row>
     <row r="254" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B254">
         <v>2019</v>
       </c>
       <c r="C254" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D254" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E254" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G254" s="7">
         <v>6.6</v>
@@ -16562,7 +16559,7 @@
     </row>
     <row r="255" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B255">
         <v>2019</v>
@@ -16589,19 +16586,19 @@
     </row>
     <row r="256" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B256">
         <v>2022</v>
       </c>
       <c r="C256" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D256" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E256" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G256" s="7">
         <v>95.2</v>
@@ -16619,19 +16616,19 @@
     </row>
     <row r="257" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B257">
         <v>2022</v>
       </c>
       <c r="C257" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D257" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E257" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G257" s="7">
         <v>4.4000000000000004</v>
@@ -16646,7 +16643,7 @@
     </row>
     <row r="258" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B258">
         <v>2022</v>
@@ -16673,19 +16670,19 @@
     </row>
     <row r="259" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B259">
         <v>2024</v>
       </c>
       <c r="C259" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D259" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E259" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G259" s="7">
         <v>99</v>
@@ -16703,19 +16700,19 @@
     </row>
     <row r="260" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B260">
         <v>2024</v>
       </c>
       <c r="C260" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D260" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E260" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G260" s="7">
         <v>0.5</v>
@@ -16730,7 +16727,7 @@
     </row>
     <row r="261" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B261">
         <v>2024</v>

--- a/uba_cd_estudiantes.xlsx
+++ b/uba_cd_estudiantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\personal\sociologia\emergit\uba_electoral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DA4D49-FC86-4F3F-B2D6-D9A44E969A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CD66B6-7ADF-461A-BC66-B581F5792FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11904" yWindow="312" windowWidth="11136" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11904" yWindow="312" windowWidth="11136" windowHeight="11928" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="colores" sheetId="3" r:id="rId1"/>
@@ -7584,8 +7584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24D8039-D0D6-4DE2-92CD-2A0539E40632}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8830,8 +8830,8 @@
   </sheetPr>
   <dimension ref="A1:K261"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D180" sqref="D180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14057,7 +14057,7 @@
         <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E171" t="s">
         <v>47</v>

--- a/uba_cd_estudiantes.xlsx
+++ b/uba_cd_estudiantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\personal\sociologia\emergit\uba_electoral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392DBA92-39C0-4950-B35E-95F1A7748954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEE0587-E3A5-4D41-9A07-49344760DC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="colores" sheetId="3" r:id="rId1"/>
@@ -22,8 +22,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
-    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="9" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="309">
   <si>
     <t>Facultad</t>
   </si>
@@ -986,6 +986,9 @@
   </si>
   <si>
     <t>FUP</t>
+  </si>
+  <si>
+    <t>Suma de %</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1049,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -1064,6 +1067,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1082,79 +1086,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Usuario" refreshedDate="45565.928707407409" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="261" xr:uid="{49B0A072-6EBB-4454-B027-44544E671C76}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:J1048576" sheet="base"/>
-  </cacheSource>
-  <cacheFields count="10">
-    <cacheField name="Facultad" numFmtId="0">
-      <sharedItems containsBlank="1" count="22">
-        <s v="Ingeniería"/>
-        <s v="Filosofía y Letras"/>
-        <s v="Cs. Exactas y Naturales"/>
-        <s v="Cs. Veterinarias"/>
-        <s v="Cs. Sociales"/>
-        <s v="Agronomía"/>
-        <s v="Psicología"/>
-        <s v="Arquitectura, Diseño y Urbanismo"/>
-        <s v="Derecho"/>
-        <s v="Medicina"/>
-        <s v="Farmacia y Bioquímica"/>
-        <s v="Cs. Económicas"/>
-        <s v="Odontología"/>
-        <m/>
-        <s v="Económicas" u="1"/>
-        <s v="Exactas" u="1"/>
-        <s v="FADU" u="1"/>
-        <s v="FFyB" u="1"/>
-        <s v="FILO" u="1"/>
-        <s v="FSOC" u="1"/>
-        <s v="Psico" u="1"/>
-        <s v="Veterinaria" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Año" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2019" maxValue="2024" count="4">
-        <n v="2019"/>
-        <n v="2022"/>
-        <n v="2024"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Nro Lista" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="417"/>
-    </cacheField>
-    <cacheField name="Nombre Lista" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="nombre_clean" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Votos" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="31" maxValue="34989"/>
-    </cacheField>
-    <cacheField name="%" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.14000000000000001" maxValue="99"/>
-    </cacheField>
-    <cacheField name="Bancas" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
-    </cacheField>
-    <cacheField name="color" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="filtrar" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Usuario" refreshedDate="45568.804908680555" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="261" xr:uid="{371A6A91-51BA-430D-B9DD-2515EA9A3FAF}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1048576" sheet="base"/>
@@ -1319,3144 +1250,82 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="261">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="417"/>
-    <s v="MLI"/>
-    <s v="MLI"/>
-    <n v="4214"/>
-    <n v="51.62"/>
-    <n v="4"/>
-    <s v="salmon"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="2"/>
-    <s v="Ingeniería por el cambio"/>
-    <s v="IxC / Somos Libres"/>
-    <n v="1597"/>
-    <n v="19.559999999999999"/>
-    <m/>
-    <s v="yellow"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="10"/>
-    <s v="Proyecto ingeniería"/>
-    <s v="Proyecto ingeniería / L19"/>
-    <n v="846"/>
-    <n v="10.36"/>
-    <m/>
-    <s v="#B1DDF6"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="9"/>
-    <s v="La mella"/>
-    <s v="Otros"/>
-    <n v="649"/>
-    <n v="7.95"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="314"/>
-    <s v="UxI + Auge + Gradiente"/>
-    <s v="Otros"/>
-    <n v="394"/>
-    <n v="4.83"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <n v="286"/>
-    <n v="3.5"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="256"/>
-    <s v="La izquierda en ingeniería"/>
-    <s v="Otros"/>
-    <n v="178"/>
-    <n v="2.1800000000000002"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="417"/>
-    <s v="MLI"/>
-    <s v="MLI"/>
-    <m/>
-    <n v="61.7"/>
-    <n v="4"/>
-    <s v="salmon"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="2"/>
-    <s v="Ingeniería por el cambio"/>
-    <s v="IxC / Somos Libres"/>
-    <m/>
-    <n v="12.2"/>
-    <m/>
-    <s v="yellow"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="19"/>
-    <s v="Lista 19"/>
-    <s v="Proyecto ingeniería / L19"/>
-    <m/>
-    <n v="7"/>
-    <m/>
-    <s v="#B1DDF6"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="Espacio estudiantil"/>
-    <s v="Otros"/>
-    <m/>
-    <n v="6.7"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="8"/>
-    <s v="El gradiente"/>
-    <s v="El Gradiente"/>
-    <m/>
-    <n v="5.9"/>
-    <m/>
-    <s v="#80ED99"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <m/>
-    <n v="4.5"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="17"/>
-    <s v="Frente de izquierda unidad"/>
-    <s v="Otros"/>
-    <m/>
-    <n v="1.9"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="417"/>
-    <s v="MLI"/>
-    <s v="MLI"/>
-    <n v="2786"/>
-    <n v="35.03"/>
-    <n v="4"/>
-    <s v="salmon"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="2"/>
-    <s v="Somos Libres"/>
-    <s v="IxC / Somos Libres"/>
-    <n v="1467"/>
-    <n v="18.440000000000001"/>
-    <m/>
-    <s v="yellow"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="1"/>
-    <s v="Espacio estudiantil"/>
-    <s v="Espacio Estudiantil"/>
-    <n v="1346"/>
-    <n v="16.920000000000002"/>
-    <m/>
-    <s v="#FF934F"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="8"/>
-    <s v="El gradiente"/>
-    <s v="El Gradiente"/>
-    <n v="1312"/>
-    <n v="16.489999999999998"/>
-    <m/>
-    <s v="#80ED99"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="7"/>
-    <s v="Proyecto ingeniería"/>
-    <s v="Proyecto ingeniería / L19"/>
-    <n v="609"/>
-    <n v="7.66"/>
-    <m/>
-    <s v="#B1DDF6"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <n v="434"/>
-    <n v="5.46"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="6"/>
-    <s v="El colectivo"/>
-    <s v="El colectivo"/>
-    <n v="3173"/>
-    <n v="36.99"/>
-    <n v="3"/>
-    <s v="#80ED99"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="4"/>
-    <s v="La izquierda al frente"/>
-    <s v="La izquierda al frente"/>
-    <n v="2642"/>
-    <n v="30.8"/>
-    <n v="1"/>
-    <s v="#EF233C"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="9"/>
-    <s v="FEI"/>
-    <s v="FEI"/>
-    <n v="943"/>
-    <n v="10.99"/>
-    <m/>
-    <s v="pink"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="5"/>
-    <s v="Aquelarre"/>
-    <s v="Aquelarre"/>
-    <n v="778"/>
-    <n v="9.07"/>
-    <m/>
-    <s v="#C2AFF0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="3"/>
-    <s v="Franja Morada"/>
-    <s v="Franja Morada"/>
-    <n v="434"/>
-    <n v="5.0599999999999996"/>
-    <m/>
-    <s v="#FF934F"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <n v="305"/>
-    <n v="3.56"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="10"/>
-    <s v="Movimiento Sur"/>
-    <s v="Otros"/>
-    <n v="303"/>
-    <n v="3.53"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="6"/>
-    <s v="El colectivo"/>
-    <s v="El colectivo"/>
-    <n v="2706"/>
-    <n v="31.02"/>
-    <n v="3"/>
-    <s v="#80ED99"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="4"/>
-    <s v="La izquierda al frente"/>
-    <s v="La izquierda al frente"/>
-    <n v="2293"/>
-    <n v="26.29"/>
-    <n v="1"/>
-    <s v="#EF233C"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="9"/>
-    <s v="FEI"/>
-    <s v="FEI"/>
-    <n v="1142"/>
-    <n v="13.09"/>
-    <m/>
-    <s v="pink"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="7"/>
-    <s v="Ya basta"/>
-    <s v="Ya Basta"/>
-    <n v="798"/>
-    <n v="9.15"/>
-    <m/>
-    <s v="#A92131"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="5"/>
-    <s v="Aquelarre"/>
-    <s v="Aquelarre"/>
-    <n v="634"/>
-    <n v="7.27"/>
-    <m/>
-    <s v="#C2AFF0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="3"/>
-    <s v="Franja Morada"/>
-    <s v="Franja Morada"/>
-    <n v="468"/>
-    <n v="5.37"/>
-    <m/>
-    <s v="#FF934F"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="10"/>
-    <s v="SUR"/>
-    <s v="Otros"/>
-    <n v="372"/>
-    <n v="4.26"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <n v="310"/>
-    <n v="3.55"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="6"/>
-    <s v="El colectivo + Aquelarre"/>
-    <s v="El colectivo (+ Aquelarre)"/>
-    <n v="2809"/>
-    <n v="36.79"/>
-    <n v="3"/>
-    <s v="#B1DDF6"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="4"/>
-    <s v="La izquierda al Frente Unidad"/>
-    <s v="La izquierda al frente"/>
-    <n v="2089"/>
-    <n v="27.36"/>
-    <n v="1"/>
-    <s v="#EF233C"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="9"/>
-    <s v="FEI de Filosofía y letras"/>
-    <s v="FEI"/>
-    <n v="1470"/>
-    <n v="19.25"/>
-    <m/>
-    <s v="pink"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="7"/>
-    <s v="Ya Basta - La izquierda en Filo"/>
-    <s v="Ya Basta"/>
-    <n v="667"/>
-    <n v="8.73"/>
-    <m/>
-    <s v="#A92131"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="10"/>
-    <s v="SUR - La vallese"/>
-    <s v="Otros"/>
-    <n v="214"/>
-    <n v="2.8"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <n v="208"/>
-    <n v="2.72"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="1"/>
-    <s v="Política Obrera"/>
-    <s v="Otros"/>
-    <n v="179"/>
-    <n v="2.34"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="9"/>
-    <s v="Exactas puede más"/>
-    <s v="Identidad"/>
-    <n v="1912"/>
-    <n v="33.72"/>
-    <n v="3"/>
-    <s v="#B1DDF6"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="7"/>
-    <s v="FEM"/>
-    <s v="FEM"/>
-    <n v="1505"/>
-    <n v="26.54"/>
-    <n v="1"/>
-    <s v="pink"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="8"/>
-    <s v="La izquierda al frente"/>
-    <s v="La izquierda en Exactas"/>
-    <n v="1245"/>
-    <n v="21.95"/>
-    <m/>
-    <s v="#EF233C"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="26"/>
-    <s v="Rolando García"/>
-    <s v="Rolando García"/>
-    <n v="517"/>
-    <n v="9.1199999999999992"/>
-    <m/>
-    <s v="#3B3B39"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <n v="492"/>
-    <n v="8.68"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="9"/>
-    <s v="Identidad - Megafón"/>
-    <s v="Identidad"/>
-    <n v="2588"/>
-    <n v="41.67"/>
-    <n v="3"/>
-    <s v="#B1DDF6"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="7"/>
-    <s v="FEM! La fuerza independiente"/>
-    <s v="FEM"/>
-    <n v="1891"/>
-    <n v="30.45"/>
-    <n v="1"/>
-    <s v="pink"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="8"/>
-    <s v="La izquierda en Exactas"/>
-    <s v="La izquierda en Exactas"/>
-    <n v="1097"/>
-    <n v="17.66"/>
-    <m/>
-    <s v="#EF233C"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <n v="635"/>
-    <n v="10.220000000000001"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="9"/>
-    <s v="Identidad - Megafón"/>
-    <s v="Identidad"/>
-    <n v="2964"/>
-    <n v="37.119999999999997"/>
-    <n v="3"/>
-    <s v="#B1DDF6"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="7"/>
-    <s v="FEM! La fuerza independiente"/>
-    <s v="FEM"/>
-    <n v="1872"/>
-    <n v="23.45"/>
-    <n v="1"/>
-    <s v="pink"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="10"/>
-    <s v="Espacio Exactas"/>
-    <s v="Espacio Exactas"/>
-    <n v="1610"/>
-    <n v="20.170000000000002"/>
-    <m/>
-    <s v="#FF934F"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <n v="631"/>
-    <n v="7.9"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="4"/>
-    <s v="Estudiantes de izquierda"/>
-    <s v="Otros"/>
-    <n v="321"/>
-    <n v="4.0199999999999996"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="8"/>
-    <s v="La izquierda en Exactas"/>
-    <s v="La izquierda en Exactas"/>
-    <n v="258"/>
-    <n v="3.23"/>
-    <m/>
-    <s v="#EF233C"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="17"/>
-    <s v="Juventud peronista universitaria"/>
-    <s v="Otros"/>
-    <n v="165"/>
-    <n v="2.0699999999999998"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="14"/>
-    <s v="Contragolpe"/>
-    <s v="Otros"/>
-    <n v="105"/>
-    <n v="1.32"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="13"/>
-    <s v="La salida es por izquierda"/>
-    <s v="Otros"/>
-    <n v="58"/>
-    <n v="0.73"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="10"/>
-    <s v="Evet"/>
-    <s v="eVet-UJS"/>
-    <n v="1598"/>
-    <n v="44.62"/>
-    <n v="3"/>
-    <s v="#EF233C"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="1"/>
-    <s v="La tropilla"/>
-    <s v="La Tropilla"/>
-    <n v="1284"/>
-    <n v="35.86"/>
-    <n v="1"/>
-    <s v="#C2AFF0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="9"/>
-    <s v="Veterinaria en lucha"/>
-    <s v="Vete en lucha"/>
-    <n v="340"/>
-    <n v="9.49"/>
-    <m/>
-    <s v="#EF233C"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="7"/>
-    <s v="La estampida"/>
-    <s v="La estampida"/>
-    <n v="289"/>
-    <n v="8.07"/>
-    <m/>
-    <s v="#3B3B39"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <n v="70"/>
-    <n v="1.95"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="1"/>
-    <n v="10"/>
-    <s v="eVet-UJS"/>
-    <s v="eVet-UJS"/>
-    <n v="1522"/>
-    <n v="38.369999999999997"/>
-    <n v="3"/>
-    <s v="#EF233C"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="La Tropilla - Cámpora"/>
-    <s v="La Tropilla"/>
-    <n v="1163"/>
-    <n v="29.32"/>
-    <n v="1"/>
-    <s v="#C2AFF0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="1"/>
-    <n v="14"/>
-    <s v="AFV"/>
-    <s v="AFV"/>
-    <n v="588"/>
-    <n v="14.82"/>
-    <m/>
-    <s v="#B1DDF6"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="1"/>
-    <n v="7"/>
-    <s v="Somos libres"/>
-    <s v="Somos libres"/>
-    <n v="413"/>
-    <n v="10.41"/>
-    <m/>
-    <s v="#3B3B39"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="1"/>
-    <n v="9"/>
-    <s v="Vete en lucha"/>
-    <s v="Vete en lucha"/>
-    <n v="231"/>
-    <n v="5.82"/>
-    <m/>
-    <s v="#EF233C"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="1"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <n v="50"/>
-    <n v="1.26"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="2"/>
-    <n v="10"/>
-    <s v="eVet-UJS"/>
-    <s v="eVet-UJS"/>
-    <n v="1539"/>
-    <n v="37.799999999999997"/>
-    <n v="3"/>
-    <s v="#EF233C"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="2"/>
-    <n v="14"/>
-    <s v="AFV"/>
-    <s v="AFV"/>
-    <n v="1469"/>
-    <n v="36.08"/>
-    <n v="1"/>
-    <s v="#B1DDF6"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="2"/>
-    <n v="1"/>
-    <s v="La Tropilla"/>
-    <s v="La Tropilla"/>
-    <n v="1026"/>
-    <n v="25.2"/>
-    <m/>
-    <s v="#C2AFF0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="2"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <n v="37"/>
-    <n v="0.91"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="0"/>
-    <n v="16"/>
-    <s v="Volvemos + La UES + AA"/>
-    <s v="UES/UES + AA"/>
-    <n v="4687"/>
-    <n v="40.409999999999997"/>
-    <n v="3"/>
-    <s v="#80ED99"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="0"/>
-    <n v="15"/>
-    <s v="La 15 + Protagonistas"/>
-    <s v="Sociales en Movimiento"/>
-    <n v="3750"/>
-    <n v="32.33"/>
-    <n v="1"/>
-    <s v="#B1DDF6"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="0"/>
-    <n v="17"/>
-    <s v="La izquierda al frente"/>
-    <s v="La izquierda al frente"/>
-    <n v="1828"/>
-    <n v="15.76"/>
-    <m/>
-    <s v="#EF233C"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="0"/>
-    <n v="13"/>
-    <s v="La salida es por izquierda"/>
-    <s v="La salida es por izquierda"/>
-    <n v="492"/>
-    <n v="4.24"/>
-    <m/>
-    <s v="#EF233C"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="0"/>
-    <n v="14"/>
-    <s v="FEM - Marea verde"/>
-    <s v="FEM - Marea verde"/>
-    <n v="413"/>
-    <n v="3.56"/>
-    <m/>
-    <s v="#3B3B39"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="0"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <n v="251"/>
-    <n v="2.16"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="0"/>
-    <n v="29"/>
-    <s v="Rebelión (29 de Mayo + Independientes)"/>
-    <s v="Rebelión"/>
-    <n v="179"/>
-    <n v="1.54"/>
-    <m/>
-    <s v="#3B3B39"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="16"/>
-    <s v="La UES + Independientes"/>
-    <s v="UES/UES + AA"/>
-    <n v="4015"/>
-    <n v="37.92"/>
-    <n v="3"/>
-    <s v="#80ED99"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="15"/>
-    <s v="Sociales necesita movimiento"/>
-    <s v="Sociales en Movimiento"/>
-    <n v="3941"/>
-    <n v="37.22"/>
-    <n v="1"/>
-    <s v="#B1DDF6"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="17"/>
-    <s v="La izquierda al frente unidad"/>
-    <s v="La izquierda al frente"/>
-    <n v="1219"/>
-    <n v="11.51"/>
-    <m/>
-    <s v="#EF233C"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="8"/>
-    <s v="Prioridad RT - Profesionales RT"/>
-    <s v="Prioridad RT - Profesionales RT"/>
-    <n v="713"/>
-    <n v="6.73"/>
-    <m/>
-    <s v="#3B3B39"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="13"/>
-    <s v="La salida es por izquierda"/>
-    <s v="La salida es por izquierda"/>
-    <n v="400"/>
-    <n v="3.78"/>
-    <m/>
-    <s v="#EF233C"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="1"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <n v="299"/>
-    <n v="2.82"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="2"/>
-    <n v="15"/>
-    <s v="Sociales en movimiento"/>
-    <s v="Sociales en Movimiento"/>
-    <n v="4228"/>
-    <n v="45.5"/>
-    <n v="3"/>
-    <s v="#B1DDF6"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="2"/>
-    <n v="16"/>
-    <s v="La UES - Unidad estudianti de sociales - Alternativa"/>
-    <s v="UES/UES + AA"/>
-    <n v="3538"/>
-    <n v="38.07"/>
-    <n v="1"/>
-    <s v="#80ED99"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="2"/>
-    <n v="17"/>
-    <s v="La izquierda al frente"/>
-    <s v="La izquierda al frente"/>
-    <n v="926"/>
-    <n v="9.9600000000000009"/>
-    <m/>
-    <s v="#EF233C"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="2"/>
-    <n v="13"/>
-    <s v="La salida es por izquierda"/>
-    <s v="La salida es por izquierda"/>
-    <n v="266"/>
-    <n v="2.86"/>
-    <m/>
-    <s v="#EF233C"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="2"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <n v="230"/>
-    <n v="2.4700000000000002"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="2"/>
-    <n v="5"/>
-    <s v="F"/>
-    <s v="FEM - Marea verde"/>
-    <n v="105"/>
-    <n v="1.1299999999999999"/>
-    <m/>
-    <s v="#3B3B39"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="0"/>
-    <n v="3"/>
-    <s v="Est. por una NUEVA FAUBA"/>
-    <s v="Fana ATP FAUBA"/>
-    <n v="1421"/>
-    <n v="50.68"/>
-    <n v="3"/>
-    <s v="pink"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="0"/>
-    <n v="2"/>
-    <s v="LAI"/>
-    <s v="LAI"/>
-    <n v="1238"/>
-    <n v="44.15"/>
-    <n v="1"/>
-    <s v="#80ED99"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="0"/>
-    <n v="7"/>
-    <s v="ATP FAUBA"/>
-    <s v="ATP FAUBA"/>
-    <n v="102"/>
-    <n v="3.64"/>
-    <m/>
-    <s v="#B1DDF6"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="0"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <n v="43"/>
-    <n v="1.53"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="1"/>
-    <n v="2"/>
-    <s v="LAI"/>
-    <s v="LAI"/>
-    <n v="1145"/>
-    <n v="44.64"/>
-    <n v="3"/>
-    <s v="#80ED99"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="1"/>
-    <n v="10"/>
-    <s v="Lista 10"/>
-    <s v="Fana ATP FAUBA"/>
-    <n v="986"/>
-    <n v="38.44"/>
-    <n v="1"/>
-    <s v="pink"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="1"/>
-    <n v="14"/>
-    <s v="Abriendo caminos"/>
-    <s v="Abriendo caminos"/>
-    <n v="390"/>
-    <n v="15.2"/>
-    <m/>
-    <s v="#EF233C"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="1"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <n v="44"/>
-    <n v="1.72"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="2"/>
-    <n v="2"/>
-    <s v="LAI"/>
-    <s v="LAI"/>
-    <n v="1062"/>
-    <n v="45.58"/>
-    <n v="3"/>
-    <s v="#80ED99"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="2"/>
-    <n v="11"/>
-    <s v="Fana ATP Fauba"/>
-    <s v="Fana ATP FAUBA"/>
-    <n v="880"/>
-    <n v="37.770000000000003"/>
-    <n v="1"/>
-    <s v="pink"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="2"/>
-    <n v="14"/>
-    <s v="Abriendo caminos"/>
-    <s v="Abriendo caminos"/>
-    <n v="336"/>
-    <n v="14.42"/>
-    <m/>
-    <s v="#EF233C"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="2"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <n v="52"/>
-    <n v="2.23"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="0"/>
-    <n v="3"/>
-    <s v="EDI"/>
-    <s v="EDI"/>
-    <m/>
-    <n v="45.39"/>
-    <n v="3"/>
-    <s v="#FF934F"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="0"/>
-    <m/>
-    <s v="El impulso"/>
-    <s v="El impulso"/>
-    <m/>
-    <n v="33.47"/>
-    <n v="1"/>
-    <s v="#C2AFF0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="0"/>
-    <m/>
-    <s v="La izquierda al frente"/>
-    <s v="Otros"/>
-    <m/>
-    <n v="13.66"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="0"/>
-    <m/>
-    <s v="La dignidad"/>
-    <s v="Otros"/>
-    <m/>
-    <n v="4.3"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="0"/>
-    <m/>
-    <s v="Sur"/>
-    <s v="Otros"/>
-    <m/>
-    <n v="2.17"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="0"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <m/>
-    <n v="1.01"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="1"/>
-    <n v="3"/>
-    <s v="EDI"/>
-    <s v="EDI"/>
-    <n v="10191"/>
-    <n v="59.22"/>
-    <n v="3"/>
-    <s v="#FF934F"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="1"/>
-    <n v="5"/>
-    <s v="El impulso"/>
-    <s v="El impulso"/>
-    <n v="4128"/>
-    <n v="23.99"/>
-    <n v="1"/>
-    <s v="#C2AFF0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="1"/>
-    <n v="6"/>
-    <s v="EPA"/>
-    <s v="Otros"/>
-    <n v="1293"/>
-    <n v="7.51"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="1"/>
-    <n v="2"/>
-    <s v="Sur"/>
-    <s v="Otros"/>
-    <n v="1024"/>
-    <n v="5.95"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="1"/>
-    <n v="13"/>
-    <s v="Ya Basta"/>
-    <s v="Otros"/>
-    <n v="393"/>
-    <n v="2.2799999999999998"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="1"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <n v="179"/>
-    <n v="1.04"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="2"/>
-    <n v="3"/>
-    <s v="EDI"/>
-    <s v="EDI"/>
-    <n v="8538"/>
-    <n v="51.7"/>
-    <n v="3"/>
-    <s v="#FF934F"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="2"/>
-    <n v="5"/>
-    <s v="El impulso"/>
-    <s v="El impulso"/>
-    <n v="5227"/>
-    <n v="31.5"/>
-    <n v="1"/>
-    <s v="#C2AFF0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="2"/>
-    <n v="6"/>
-    <s v="EPA"/>
-    <s v="Otros"/>
-    <n v="1271"/>
-    <n v="7.7"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="2"/>
-    <n v="2"/>
-    <s v="Sur"/>
-    <s v="Otros"/>
-    <n v="863"/>
-    <n v="5.2"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="2"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <n v="647"/>
-    <n v="3.9"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="0"/>
-    <n v="10"/>
-    <s v="Somo FADU"/>
-    <s v="Somos FADU"/>
-    <n v="10506"/>
-    <n v="45.55"/>
-    <n v="3"/>
-    <s v="#FF934F"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="0"/>
-    <n v="5"/>
-    <s v="Yo banco la FADU"/>
-    <s v="Unidad FADU"/>
-    <n v="7431"/>
-    <n v="32.22"/>
-    <n v="1"/>
-    <s v="#80ED99"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="0"/>
-    <n v="7"/>
-    <s v="FADU de todos"/>
-    <s v="Otros"/>
-    <n v="2028"/>
-    <n v="8.7899999999999991"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="0"/>
-    <n v="8"/>
-    <s v="La izquierda"/>
-    <s v="Otros"/>
-    <n v="1398"/>
-    <n v="6.06"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="0"/>
-    <n v="9"/>
-    <s v="Abracemos FADU"/>
-    <s v="Otros"/>
-    <n v="1351"/>
-    <n v="5.86"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="0"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <n v="352"/>
-    <n v="1.53"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="1"/>
-    <n v="10"/>
-    <s v="Somos FADU"/>
-    <s v="Somos FADU"/>
-    <n v="14056"/>
-    <n v="59.97"/>
-    <n v="3"/>
-    <s v="#FF934F"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="1"/>
-    <n v="22"/>
-    <s v="Unidad FADU"/>
-    <s v="Unidad FADU"/>
-    <n v="6225"/>
-    <n v="26.56"/>
-    <n v="1"/>
-    <s v="#80ED99"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="1"/>
-    <n v="5"/>
-    <s v="Yo Banco la Fadu"/>
-    <s v="Otros"/>
-    <n v="1106"/>
-    <n v="4.72"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="1"/>
-    <n v="8"/>
-    <s v="La izquierda en FADU"/>
-    <s v="Otros"/>
-    <n v="765"/>
-    <n v="3.26"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="1"/>
-    <n v="7"/>
-    <s v="Movimiento FADU"/>
-    <s v="Otros"/>
-    <n v="505"/>
-    <n v="2.15"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="1"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <n v="407"/>
-    <n v="1.74"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="1"/>
-    <n v="13"/>
-    <s v="Estudiantes de izquierda - Nuevo Mas"/>
-    <s v="Otros"/>
-    <n v="232"/>
-    <n v="0.99"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="1"/>
-    <n v="6"/>
-    <s v="Sur FADU"/>
-    <s v="Otros"/>
-    <n v="141"/>
-    <n v="0.6"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="2"/>
-    <n v="22"/>
-    <s v="La 22"/>
-    <s v="Unidad FADU"/>
-    <n v="15172"/>
-    <n v="53.46"/>
-    <n v="3"/>
-    <s v="#80ED99"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="2"/>
-    <n v="10"/>
-    <s v="Somos FADU"/>
-    <s v="Somos FADU"/>
-    <n v="9556"/>
-    <n v="33.67"/>
-    <n v="1"/>
-    <s v="#FF934F"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="2"/>
-    <n v="1"/>
-    <s v="Somos libres"/>
-    <s v="Otros"/>
-    <n v="1941"/>
-    <n v="6.84"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="2"/>
-    <n v="8"/>
-    <s v="Izquierda en Unidad"/>
-    <s v="Otros"/>
-    <n v="951"/>
-    <n v="3.35"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="2"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <n v="488"/>
-    <n v="1.72"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="2"/>
-    <n v="13"/>
-    <s v="Ya Basta"/>
-    <s v="Otros"/>
-    <n v="272"/>
-    <n v="0.96"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="0"/>
-    <n v="4"/>
-    <s v="Nuevo Derecho"/>
-    <s v="Nuevo Derecho"/>
-    <n v="7441"/>
-    <n v="35.15"/>
-    <n v="3"/>
-    <s v="#C2AFF0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="0"/>
-    <n v="5"/>
-    <s v="LA CENTENO - ACCIÓN COLECTIVA"/>
-    <s v="La Centeno-Acción colectiva"/>
-    <n v="3142"/>
-    <n v="29.01"/>
-    <n v="1"/>
-    <s v="#B1DDF6"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="0"/>
-    <n v="3"/>
-    <s v="FRANJA MORADA"/>
-    <s v="Franja Morada"/>
-    <n v="5434"/>
-    <n v="25.67"/>
-    <m/>
-    <s v="#FF934F"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="0"/>
-    <n v="2"/>
-    <s v="FRENTE DE IZQUIERDA - UNIDAD"/>
-    <s v="Frente de izquierda - Unidad"/>
-    <n v="1033"/>
-    <n v="4.88"/>
-    <m/>
-    <s v="#EF233C"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="0"/>
-    <n v="6"/>
-    <s v="SUR"/>
-    <s v="Otros"/>
-    <n v="280"/>
-    <n v="1.32"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="0"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <n v="277"/>
-    <n v="1.31"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="0"/>
-    <n v="13"/>
-    <s v="LA SALIDA ES POR LA IZQUIERDA"/>
-    <s v="Otros"/>
-    <n v="217"/>
-    <n v="1.02"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="0"/>
-    <n v="1"/>
-    <s v="DELIRIUM"/>
-    <s v="Otros"/>
-    <n v="200"/>
-    <n v="0.94"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="0"/>
-    <n v="15"/>
-    <s v="OKTUBRE"/>
-    <s v="Otros"/>
-    <n v="147"/>
-    <n v="0.69"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="1"/>
-    <n v="4"/>
-    <s v="Frente Reformista ND - FM"/>
-    <s v="Frente reformista"/>
-    <n v="11809"/>
-    <n v="52.54"/>
-    <n v="3"/>
-    <s v="#FF934F"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="1"/>
-    <n v="5"/>
-    <s v="LA CENTENO - ACCIÓN COLECTIVA"/>
-    <s v="La Centeno-Acción colectiva"/>
-    <n v="8105"/>
-    <n v="36.06"/>
-    <n v="1"/>
-    <s v="#B1DDF6"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="1"/>
-    <n v="3"/>
-    <s v="FRENTE DE IZQUIERDA - UNIDAD"/>
-    <s v="Frente de izquierda - Unidad"/>
-    <n v="928"/>
-    <n v="4.13"/>
-    <m/>
-    <s v="#EF233C"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="1"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <s v="Otros"/>
-    <n v="445"/>
-    <n v="1.98"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="1"/>
-    <n v="6"/>
-    <s v="SUR DERECHO"/>
-    <s v="Otros"/>
-    <n v="266"/>
-    <n v="1.18"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="1"/>
-    <n v="21"/>
-    <s v="LEGAR"/>
-    <s v="Otros"/>
-    <n v="240"/>
-    <n v="1.07"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="LA UES"/>
-    <s v="UES"/>
-    <n v="232"/>
-    <n v="1.03"/>
-    <m/>
-    <s v="#80ED99"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="1"/>
-    <n v="13"/>
-    <s v="LA SALIDA ES POR LA IZQUIERDA"/>
-    <s v="Otros"/>
-    <n v="232"/>
-    <n v="1.03"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="1"/>
-    <n v="8"/>
-    <s v="MEGAFÓN"/>
-    <s v="Otros"/>
-    <n v="221"/>
-    <n v="0.98"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="2"/>
-    <n v="3"/>
-    <s v="Frente reformista"/>
-    <s v="Frente reformista"/>
-    <n v="12598"/>
-    <n v="59.28"/>
-    <n v="3"/>
-    <s v="#FF934F"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="2"/>
-    <n v="5"/>
-    <s v="LA CENTENO - ACCIÓN COLECTIVA"/>
-    <s v="La Centeno-Acción colectiva"/>
-    <n v="6766"/>
-    <n v="31.84"/>
-    <n v="1"/>
-    <s v="#B1DDF6"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="2"/>
-    <n v="2"/>
-    <s v="FRENTE DE IZQUIERDA - UNIDAD"/>
-    <s v="Otros"/>
-    <n v="638"/>
-    <n v="3"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="2"/>
-    <n v="1"/>
-    <s v="La UES - MUNAP"/>
-    <s v="Otros"/>
-    <n v="443"/>
-    <n v="2.08"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="2"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <n v="371"/>
-    <n v="1.74"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="2"/>
-    <n v="8"/>
-    <s v="PATRIA Y TRABAJO"/>
-    <s v="Otros"/>
-    <n v="180"/>
-    <n v="0.85"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="2"/>
-    <n v="13"/>
-    <s v="¡YA BASTA! LA SALIDA ES POR LA IZQUIERDA"/>
-    <s v="Otros"/>
-    <n v="170"/>
-    <n v="0.8"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="2"/>
-    <n v="11"/>
-    <s v="FRENTE UNIVERSITARIO NACIONAL"/>
-    <s v="Otros"/>
-    <n v="87"/>
-    <n v="0.41"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="0"/>
-    <n v="10"/>
-    <s v="Nuevo Espacio"/>
-    <s v="Nuevo Espacio"/>
-    <n v="27465"/>
-    <n v="71.680000000000007"/>
-    <n v="4"/>
-    <s v="#FF934F"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="0"/>
-    <n v="39"/>
-    <s v="Miles -Torrente"/>
-    <s v="El torrente"/>
-    <n v="5099"/>
-    <n v="13.31"/>
-    <m/>
-    <s v="#B1DDF6"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="0"/>
-    <n v="8"/>
-    <s v="El Frente"/>
-    <s v="Otros"/>
-    <n v="2910"/>
-    <n v="7.59"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="0"/>
-    <n v="4"/>
-    <s v="Frente de Izquierda"/>
-    <s v="Otros"/>
-    <n v="1044"/>
-    <n v="2.72"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="0"/>
-    <n v="18"/>
-    <s v="El Mate"/>
-    <s v="Otros"/>
-    <n v="719"/>
-    <n v="1.88"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="0"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <n v="624"/>
-    <n v="1.63"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="0"/>
-    <n v="13"/>
-    <s v="La izquierda en medicina"/>
-    <s v="Otros"/>
-    <n v="455"/>
-    <n v="1.19"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="1"/>
-    <n v="10"/>
-    <s v="Nuevo Espacio"/>
-    <s v="Nuevo Espacio"/>
-    <n v="34989"/>
-    <n v="74.69"/>
-    <n v="4"/>
-    <s v="#FF934F"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="1"/>
-    <n v="39"/>
-    <s v="El torrente + Sinapsis"/>
-    <s v="El torrente"/>
-    <n v="5331"/>
-    <n v="11.38"/>
-    <m/>
-    <s v="#B1DDF6"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="1"/>
-    <n v="6"/>
-    <s v="El frente"/>
-    <s v="Otros"/>
-    <n v="1697"/>
-    <n v="3.62"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="1"/>
-    <n v="9"/>
-    <s v="Somos libres"/>
-    <s v="Otros"/>
-    <n v="1626"/>
-    <n v="3.47"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="1"/>
-    <n v="2"/>
-    <s v="Movimiento FMED - Todos"/>
-    <s v="Otros"/>
-    <n v="1026"/>
-    <n v="2.19"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="1"/>
-    <n v="13"/>
-    <s v="La izquierda"/>
-    <s v="Otros"/>
-    <n v="782"/>
-    <n v="1.67"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="1"/>
-    <n v="11"/>
-    <s v="Mella"/>
-    <s v="Otros"/>
-    <n v="771"/>
-    <n v="1.65"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="1"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <n v="622"/>
-    <n v="1.33"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="2"/>
-    <n v="10"/>
-    <s v="Nuevo Espacio"/>
-    <s v="Nuevo Espacio"/>
-    <n v="28905"/>
-    <n v="61.48"/>
-    <n v="3"/>
-    <s v="#FF934F"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="2"/>
-    <n v="11"/>
-    <s v="El torrente"/>
-    <s v="El torrente"/>
-    <n v="10891"/>
-    <n v="23.16"/>
-    <n v="1"/>
-    <s v="#B1DDF6"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="2"/>
-    <n v="2"/>
-    <s v="Somos libres"/>
-    <s v="Otros"/>
-    <n v="3168"/>
-    <n v="6.74"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="2"/>
-    <n v="8"/>
-    <s v="El frente"/>
-    <s v="Otros"/>
-    <n v="973"/>
-    <n v="2.08"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="2"/>
-    <n v="17"/>
-    <s v="Sinapsis"/>
-    <s v="Otros"/>
-    <n v="912"/>
-    <n v="1.94"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="2"/>
-    <n v="4"/>
-    <s v="PTS"/>
-    <s v="Otros"/>
-    <n v="902"/>
-    <n v="1.92"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="2"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <n v="611"/>
-    <n v="1.3"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="2"/>
-    <n v="13"/>
-    <s v="Ya Basta"/>
-    <s v="Otros"/>
-    <n v="287"/>
-    <n v="0.61"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="0"/>
-    <m/>
-    <s v="Antídoto"/>
-    <s v="Antidoto"/>
-    <m/>
-    <n v="37.450000000000003"/>
-    <n v="3"/>
-    <s v="pink"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="0"/>
-    <m/>
-    <s v="Nuevo Encuentro"/>
-    <s v="Sinapsis"/>
-    <m/>
-    <n v="35.5"/>
-    <n v="1"/>
-    <s v="#80ED99"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="0"/>
-    <m/>
-    <s v="Nuevo espacio"/>
-    <s v="Nuevo Espacio"/>
-    <m/>
-    <n v="21.4"/>
-    <m/>
-    <s v="#FF934F"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="0"/>
-    <m/>
-    <s v="UES"/>
-    <s v="Otros"/>
-    <m/>
-    <n v="2.4"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="0"/>
-    <m/>
-    <s v="Izquierda Socialista"/>
-    <s v="Otros"/>
-    <m/>
-    <n v="1.79"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="1"/>
-    <m/>
-    <s v="Antidoto"/>
-    <s v="Antidoto"/>
-    <n v="1961"/>
-    <n v="36.799999999999997"/>
-    <n v="3"/>
-    <s v="pink"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="1"/>
-    <m/>
-    <s v="Nuevo Espacio"/>
-    <s v="Nuevo Espacio"/>
-    <n v="1634"/>
-    <n v="30.7"/>
-    <n v="1"/>
-    <s v="#FF934F"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="1"/>
-    <m/>
-    <s v="Sinapsis"/>
-    <s v="Sinapsis"/>
-    <n v="1506"/>
-    <n v="28.03"/>
-    <m/>
-    <s v="#80ED99"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="1"/>
-    <m/>
-    <s v="Movimiento FFyB"/>
-    <s v="Otros"/>
-    <n v="135"/>
-    <n v="2.0499999999999998"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="1"/>
-    <m/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <n v="88"/>
-    <n v="1.7"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="2"/>
-    <n v="1"/>
-    <s v="Estudiantes por FFyB"/>
-    <s v="Estudiantes por FFyB"/>
-    <n v="3349"/>
-    <n v="68"/>
-    <n v="3"/>
-    <s v="#FF934F"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="2"/>
-    <n v="14"/>
-    <s v="Antídoto"/>
-    <s v="Antidoto"/>
-    <n v="1366"/>
-    <n v="27.7"/>
-    <n v="1"/>
-    <s v="pink"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="2"/>
-    <n v="13"/>
-    <s v="La Izquierda en FyB"/>
-    <s v="Otros"/>
-    <n v="84"/>
-    <n v="1.7"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="2"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <n v="79"/>
-    <n v="1.6"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="2"/>
-    <n v="10"/>
-    <s v="ISEPCI La Izquierda Popular en FFyB"/>
-    <s v="Otros"/>
-    <n v="47"/>
-    <n v="0.95"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="0"/>
-    <n v="1"/>
-    <s v="Nuevo Espacio"/>
-    <s v="Nuevo Espacio"/>
-    <n v="19394"/>
-    <n v="74.209999999999994"/>
-    <n v="4"/>
-    <s v="#FF934F"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="0"/>
-    <n v="6"/>
-    <s v="MxE 2019 + FIT"/>
-    <s v="MxE"/>
-    <n v="1952"/>
-    <n v="7.47"/>
-    <m/>
-    <s v="#3B3B39"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="0"/>
-    <n v="7"/>
-    <s v="Haciendo la otra voz"/>
-    <s v="Otros"/>
-    <n v="1112"/>
-    <n v="4.25"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="0"/>
-    <n v="4"/>
-    <s v="Belgrano"/>
-    <s v="Otros"/>
-    <n v="1063"/>
-    <n v="4.07"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="0"/>
-    <n v="5"/>
-    <s v="Pro"/>
-    <s v="Otros"/>
-    <n v="822"/>
-    <n v="3.15"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="0"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <n v="537"/>
-    <n v="2.06"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="0"/>
-    <n v="8"/>
-    <s v="Var. Independiente"/>
-    <s v="Var.Independiente"/>
-    <n v="415"/>
-    <n v="1.59"/>
-    <m/>
-    <s v="#3B3B39"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="0"/>
-    <n v="3"/>
-    <s v="Alter. Estudiantil"/>
-    <s v="Otros"/>
-    <n v="338"/>
-    <n v="1.29"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="0"/>
-    <n v="12"/>
-    <s v="NS/NC"/>
-    <s v="Blanco"/>
-    <n v="176"/>
-    <n v="0.67"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="0"/>
-    <n v="2"/>
-    <s v="Unidad Latinam."/>
-    <s v="Otros"/>
-    <n v="149"/>
-    <n v="0.56999999999999995"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="0"/>
-    <n v="11"/>
-    <s v="JxE"/>
-    <s v="Otros"/>
-    <n v="139"/>
-    <n v="0.53"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="0"/>
-    <n v="9"/>
-    <s v="AUI-ARI"/>
-    <s v="Otros"/>
-    <n v="36"/>
-    <n v="0.14000000000000001"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="Nuevo Espacio"/>
-    <s v="Nuevo Espacio"/>
-    <n v="16895"/>
-    <n v="72.11"/>
-    <n v="4"/>
-    <s v="#FF934F"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="1"/>
-    <n v="9"/>
-    <s v="Proyecto económicas"/>
-    <s v="Proyecto económicas"/>
-    <n v="1520"/>
-    <n v="6.49"/>
-    <m/>
-    <s v="#3B3B39"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="1"/>
-    <n v="8"/>
-    <s v="Var.Independiente"/>
-    <s v="Var.Independiente"/>
-    <n v="1473"/>
-    <n v="6.29"/>
-    <m/>
-    <s v="#3B3B39"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="1"/>
-    <n v="2"/>
-    <s v="Belgrano"/>
-    <s v="Otros"/>
-    <n v="695"/>
-    <n v="2.97"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="1"/>
-    <n v="6"/>
-    <s v="MxE"/>
-    <s v="MxE"/>
-    <n v="645"/>
-    <n v="2.75"/>
-    <m/>
-    <s v="#3B3B39"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="1"/>
-    <n v="10"/>
-    <s v="Somos Libres"/>
-    <s v="Somos Libres"/>
-    <n v="549"/>
-    <n v="2.34"/>
-    <m/>
-    <s v="#3B3B39"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="1"/>
-    <n v="7"/>
-    <s v="Haciendo la otra voz"/>
-    <s v="Haciendo la otra voz"/>
-    <n v="482"/>
-    <n v="2.06"/>
-    <m/>
-    <s v="#3B3B39"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="1"/>
-    <s v="Blancos"/>
-    <s v="Blancos"/>
-    <s v="Blanco"/>
-    <n v="391"/>
-    <n v="1.67"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="1"/>
-    <n v="3"/>
-    <s v="Alter. Estudiantil"/>
-    <s v="Otros"/>
-    <n v="196"/>
-    <n v="0.84"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="1"/>
-    <n v="22"/>
-    <s v="NS/NC"/>
-    <s v="Blanco"/>
-    <n v="134"/>
-    <n v="0.56999999999999995"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="1"/>
-    <n v="11"/>
-    <s v="JxE"/>
-    <s v="Otros"/>
-    <n v="131"/>
-    <n v="0.56000000000000005"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="1"/>
-    <n v="4"/>
-    <s v="Unidad Latinam."/>
-    <s v="Otros"/>
-    <n v="77"/>
-    <n v="0.33"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="1"/>
-    <n v="14"/>
-    <s v="FLI"/>
-    <s v="Otros"/>
-    <n v="78"/>
-    <n v="0.33"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="1"/>
-    <n v="69"/>
-    <s v="BIP-BIP"/>
-    <s v="Otros"/>
-    <n v="78"/>
-    <n v="0.33"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="1"/>
-    <n v="5"/>
-    <s v="AUI"/>
-    <s v="Otros"/>
-    <n v="50"/>
-    <n v="0.21"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="1"/>
-    <n v="44"/>
-    <s v="FAPe"/>
-    <s v="Otros"/>
-    <n v="35"/>
-    <n v="0.15"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="2"/>
-    <n v="1"/>
-    <s v="Nuevo Espacio"/>
-    <s v="Nuevo Espacio"/>
-    <n v="16057"/>
-    <n v="71.209999999999994"/>
-    <n v="4"/>
-    <s v="#FF934F"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="2"/>
-    <n v="9"/>
-    <s v="Proyecto"/>
-    <s v="Proyecto económicas"/>
-    <n v="2106"/>
-    <n v="9.34"/>
-    <m/>
-    <s v="#3B3B39"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="2"/>
-    <n v="10"/>
-    <s v="Somos Libres"/>
-    <s v="Somos Libres"/>
-    <n v="1417"/>
-    <n v="6.28"/>
-    <m/>
-    <s v="#3B3B39"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="2"/>
-    <n v="8"/>
-    <s v="Var.Indep. +Germen"/>
-    <s v="Var.Independiente"/>
-    <n v="676"/>
-    <n v="3"/>
-    <m/>
-    <s v="#3B3B39"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="2"/>
-    <n v="2"/>
-    <s v="Belgrano"/>
-    <s v="Otros"/>
-    <n v="477"/>
-    <n v="2.12"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="2"/>
-    <n v="6"/>
-    <s v="MxE"/>
-    <s v="MxE"/>
-    <n v="396"/>
-    <n v="1.76"/>
-    <m/>
-    <s v="#3B3B39"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="2"/>
-    <s v="Blancos"/>
-    <s v="Blancos"/>
-    <s v="Blanco"/>
-    <n v="345"/>
-    <n v="1.53"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="2"/>
-    <n v="3"/>
-    <s v="Unidad est. + Juv. Peronista"/>
-    <s v="Otros"/>
-    <n v="285"/>
-    <n v="1.26"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="2"/>
-    <n v="13"/>
-    <s v="Libres del Sur"/>
-    <s v="Otros"/>
-    <n v="219"/>
-    <n v="0.97"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="2"/>
-    <n v="7"/>
-    <s v="SOS Mella"/>
-    <s v="Otros"/>
-    <n v="206"/>
-    <n v="0.91"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="2"/>
-    <n v="22"/>
-    <s v="NS/NC"/>
-    <s v="Blanco"/>
-    <n v="104"/>
-    <n v="0.46"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="2"/>
-    <n v="4"/>
-    <s v="Unidad Latinam."/>
-    <s v="Otros"/>
-    <n v="76"/>
-    <n v="0.34"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="2"/>
-    <n v="69"/>
-    <s v="Bip-Bop"/>
-    <s v="Otros"/>
-    <n v="59"/>
-    <n v="0.26"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="2"/>
-    <n v="5"/>
-    <s v="Frente Cívico"/>
-    <s v="Otros"/>
-    <n v="48"/>
-    <n v="0.21"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="2"/>
-    <n v="14"/>
-    <s v="FLI"/>
-    <s v="Otros"/>
-    <n v="47"/>
-    <n v="0.21"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="2"/>
-    <n v="44"/>
-    <s v="FAPe"/>
-    <s v="Otros"/>
-    <n v="31"/>
-    <n v="0.14000000000000001"/>
-    <m/>
-    <s v="lightgray"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="0"/>
-    <s v="?"/>
-    <s v="AFO"/>
-    <s v="AFO"/>
-    <m/>
-    <n v="92.4"/>
-    <n v="4"/>
-    <s v="#FF934F"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="0"/>
-    <s v="?"/>
-    <s v="V Par"/>
-    <s v="V Par"/>
-    <m/>
-    <n v="6.6"/>
-    <m/>
-    <s v="#EF233C"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="0"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <m/>
-    <n v="1"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="1"/>
-    <s v="?"/>
-    <s v="AFO"/>
-    <s v="AFO"/>
-    <m/>
-    <n v="95.2"/>
-    <n v="4"/>
-    <s v="#FF934F"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="1"/>
-    <s v="?"/>
-    <s v="V Par"/>
-    <s v="V Par"/>
-    <m/>
-    <n v="4.4000000000000004"/>
-    <m/>
-    <s v="#EF233C"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="1"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <m/>
-    <n v="0.4"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="2"/>
-    <s v="?"/>
-    <s v="AFO"/>
-    <s v="AFO"/>
-    <m/>
-    <n v="99"/>
-    <n v="4"/>
-    <s v="#FF934F"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="2"/>
-    <s v="?"/>
-    <s v="V Par"/>
-    <s v="V Par"/>
-    <m/>
-    <n v="0.5"/>
-    <m/>
-    <s v="#EF233C"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="2"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <s v="Blanco"/>
-    <m/>
-    <n v="0.5"/>
-    <m/>
-    <s v="white"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-</pivotCacheRecords>
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Usuario" refreshedDate="45571.765767245372" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="429" xr:uid="{49B0A072-6EBB-4454-B027-44544E671C76}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:J1048576" sheet="base"/>
+  </cacheSource>
+  <cacheFields count="10">
+    <cacheField name="Facultad" numFmtId="0">
+      <sharedItems containsBlank="1" count="22">
+        <s v="Agronomía"/>
+        <s v="Arquitectura, Diseño y Urbanismo"/>
+        <s v="Cs. Económicas"/>
+        <s v="Cs. Exactas y Naturales"/>
+        <s v="Cs. Sociales"/>
+        <s v="Cs. Veterinarias"/>
+        <s v="Derecho"/>
+        <s v="Farmacia y Bioquímica"/>
+        <s v="Filosofía y Letras"/>
+        <s v="Ingeniería"/>
+        <s v="Medicina"/>
+        <s v="Odontología"/>
+        <s v="Psicología"/>
+        <m/>
+        <s v="Económicas" u="1"/>
+        <s v="Exactas" u="1"/>
+        <s v="FADU" u="1"/>
+        <s v="FFyB" u="1"/>
+        <s v="FILO" u="1"/>
+        <s v="FSOC" u="1"/>
+        <s v="Psico" u="1"/>
+        <s v="Veterinaria" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Año" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2015" maxValue="2024" count="6">
+        <n v="2015"/>
+        <n v="2017"/>
+        <n v="2019"/>
+        <n v="2022"/>
+        <n v="2024"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Nro Lista" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="10" maxValue="417"/>
+    </cacheField>
+    <cacheField name="Nombre Lista" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="nombre_clean" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Votos" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="31" maxValue="34989"/>
+    </cacheField>
+    <cacheField name="%" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.01" maxValue="99"/>
+    </cacheField>
+    <cacheField name="Bancas" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
+    </cacheField>
+    <cacheField name="color" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="filtrar" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="261">
   <r>
     <x v="0"/>
@@ -7332,8 +4201,5161 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="429">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="LAI"/>
+    <s v="LAI"/>
+    <m/>
+    <n v="49.5"/>
+    <n v="3"/>
+    <s v="#80ED99"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="FANA"/>
+    <s v="Fana FAUBA"/>
+    <m/>
+    <n v="28.4"/>
+    <n v="1"/>
+    <s v="pink"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="PO"/>
+    <s v="Abriendo caminos"/>
+    <m/>
+    <n v="14.9"/>
+    <m/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="La Cámpora-NE"/>
+    <s v="ATP FAUBA"/>
+    <m/>
+    <n v="6.6"/>
+    <m/>
+    <s v="#B2DDF7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <m/>
+    <n v="0.6"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <s v="LAI"/>
+    <s v="LAI"/>
+    <m/>
+    <n v="43.61"/>
+    <n v="3"/>
+    <s v="#80ED99"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <s v="FANA+Cambium"/>
+    <s v="Fana FAUBA"/>
+    <m/>
+    <n v="39.22"/>
+    <n v="1"/>
+    <s v="pink"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <s v="Abriendo Caminos"/>
+    <s v="Abriendo caminos"/>
+    <m/>
+    <n v="11.94"/>
+    <m/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <s v="ATP"/>
+    <s v="ATP FAUBA"/>
+    <m/>
+    <n v="3.81"/>
+    <m/>
+    <s v="#B2DDF7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <m/>
+    <n v="1.42"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+    <s v="Est. por una NUEVA FAUBA"/>
+    <s v="Fana FAUBA"/>
+    <n v="1421"/>
+    <n v="50.68"/>
+    <n v="3"/>
+    <s v="pink"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+    <s v="LAI"/>
+    <s v="LAI"/>
+    <n v="1238"/>
+    <n v="44.15"/>
+    <n v="1"/>
+    <s v="#80ED99"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+    <s v="ATP FAUBA"/>
+    <s v="ATP FAUBA"/>
+    <n v="102"/>
+    <n v="3.64"/>
+    <m/>
+    <s v="#B2DDF7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <n v="43"/>
+    <n v="1.53"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <s v="LAI"/>
+    <s v="LAI"/>
+    <n v="1145"/>
+    <n v="44.64"/>
+    <n v="3"/>
+    <s v="#80ED99"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="10"/>
+    <s v="Lista 10"/>
+    <s v="Fana ATP FAUBA"/>
+    <n v="986"/>
+    <n v="38.44"/>
+    <n v="1"/>
+    <s v="pink"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="14"/>
+    <s v="Abriendo Caminos"/>
+    <s v="Abriendo caminos"/>
+    <n v="390"/>
+    <n v="15.2"/>
+    <m/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <n v="44"/>
+    <n v="1.72"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <m/>
+    <s v="LAI"/>
+    <s v="LAI"/>
+    <n v="1062"/>
+    <n v="45.58"/>
+    <n v="3"/>
+    <s v="#80ED99"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="11"/>
+    <s v="Fana ATP Fauba"/>
+    <s v="Fana ATP FAUBA"/>
+    <n v="880"/>
+    <n v="37.770000000000003"/>
+    <n v="1"/>
+    <s v="pink"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="14"/>
+    <s v="Abriendo Caminos"/>
+    <s v="Abriendo caminos"/>
+    <n v="336"/>
+    <n v="14.42"/>
+    <m/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <n v="52"/>
+    <n v="2.23"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <s v="Juntos por la FADU"/>
+    <s v="Somos FADU"/>
+    <m/>
+    <n v="32.56"/>
+    <n v="3"/>
+    <s v="#FF934F"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <s v="Estudiantes por el Cambio"/>
+    <s v="Estudiantes por el Cambio"/>
+    <m/>
+    <n v="24.21"/>
+    <n v="1"/>
+    <s v="#80ED99"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <s v="FADU Plural"/>
+    <s v="FADU Plural"/>
+    <m/>
+    <n v="18.86"/>
+    <m/>
+    <s v="#B2DDF7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <s v="Izquierda al Frente por el Socialismo"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="7.83"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <s v="FADU para la victoria"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="7.51"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <s v="Sur"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="6.6"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <m/>
+    <n v="2.4300000000000002"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <s v="Somos FADU"/>
+    <s v="Somos FADU"/>
+    <m/>
+    <n v="44.04"/>
+    <n v="3"/>
+    <s v="#FF934F"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <s v="La lista de los estudiantes"/>
+    <s v="Unidad FADU"/>
+    <m/>
+    <n v="30.36"/>
+    <n v="1"/>
+    <s v="#80ED99"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <s v="Nueva FADU"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="6.74"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <s v="La izquierda al frente"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="6.72"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <s v="Proyectemos FADU"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="5.93"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <s v="Sur+Cepa"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="3.64"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <m/>
+    <n v="2.57"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="10"/>
+    <s v="Somos FADU"/>
+    <s v="Somos FADU"/>
+    <n v="10506"/>
+    <n v="45.55"/>
+    <n v="3"/>
+    <s v="#FF934F"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <s v="Yo banco la FADU"/>
+    <s v="Unidad FADU"/>
+    <n v="7431"/>
+    <n v="32.22"/>
+    <n v="1"/>
+    <s v="#80ED99"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <s v="FADU de todos"/>
+    <s v="Otros"/>
+    <n v="2028"/>
+    <n v="8.7899999999999991"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <s v="La izquierda"/>
+    <s v="Otros"/>
+    <n v="1398"/>
+    <n v="6.06"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <s v="Abracemos FADU"/>
+    <s v="Otros"/>
+    <n v="1351"/>
+    <n v="5.86"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <n v="352"/>
+    <n v="1.53"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="10"/>
+    <s v="Somos FADU"/>
+    <s v="Somos FADU"/>
+    <n v="14056"/>
+    <n v="59.97"/>
+    <n v="3"/>
+    <s v="#FF934F"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="22"/>
+    <s v="Unidad FADU"/>
+    <s v="Unidad FADU"/>
+    <n v="6225"/>
+    <n v="26.56"/>
+    <n v="1"/>
+    <s v="#80ED99"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <s v="Yo banco la FADU"/>
+    <s v="Otros"/>
+    <n v="1106"/>
+    <n v="4.72"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <s v="La izquierda en FADU"/>
+    <s v="Otros"/>
+    <n v="765"/>
+    <n v="3.26"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <s v="Movimiento FADU"/>
+    <s v="Otros"/>
+    <n v="505"/>
+    <n v="2.15"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <n v="407"/>
+    <n v="1.74"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="13"/>
+    <s v="Estudiantes de izquierda - Nuevo Mas"/>
+    <s v="Otros"/>
+    <n v="232"/>
+    <n v="0.99"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <s v="Sur FADU"/>
+    <s v="Otros"/>
+    <n v="141"/>
+    <n v="0.6"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="22"/>
+    <s v="La 22"/>
+    <s v="Unidad FADU"/>
+    <n v="15172"/>
+    <n v="53.46"/>
+    <n v="3"/>
+    <s v="#80ED99"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="10"/>
+    <s v="Somos FADU"/>
+    <s v="Somos FADU"/>
+    <n v="9556"/>
+    <n v="33.67"/>
+    <n v="1"/>
+    <s v="#FF934F"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <m/>
+    <s v="Somos libres"/>
+    <s v="Otros"/>
+    <n v="1941"/>
+    <n v="6.84"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <m/>
+    <s v="Izquierda en Unidad"/>
+    <s v="Otros"/>
+    <n v="951"/>
+    <n v="3.35"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <n v="488"/>
+    <n v="1.72"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="13"/>
+    <s v="Ya Basta"/>
+    <s v="Otros"/>
+    <n v="272"/>
+    <n v="0.96"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <s v="Nuevo Espacio"/>
+    <s v="Nuevo Espacio"/>
+    <m/>
+    <n v="56.3"/>
+    <n v="4"/>
+    <s v="#FF934F"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <s v="MxE (Mella-PO)"/>
+    <s v="MxE"/>
+    <m/>
+    <n v="17.3"/>
+    <m/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <m/>
+    <n v="10.8"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <s v="Pro"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="8.7200000000000006"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <s v="Estudiantes para la Victoria"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="6.88"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <s v="Nuevo Espacio"/>
+    <s v="Nuevo Espacio"/>
+    <m/>
+    <n v="66.989999999999995"/>
+    <n v="4"/>
+    <s v="#FF934F"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <s v="FIT+MxE 2017"/>
+    <s v="MxE"/>
+    <m/>
+    <n v="9.1999999999999993"/>
+    <m/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <s v="SOS"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="6.59"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <s v="PRO"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="6.36"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <m/>
+    <n v="4.03"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <s v="Alternativa Estudiantil"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="4.01"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <s v="Belgrano"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="2.82"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <m/>
+    <s v="Nuevo Espacio"/>
+    <s v="Nuevo Espacio"/>
+    <n v="19394"/>
+    <n v="74.209999999999994"/>
+    <n v="4"/>
+    <s v="#FF934F"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <m/>
+    <s v="MxE 2019 + FIT"/>
+    <s v="MxE"/>
+    <n v="1952"/>
+    <n v="7.47"/>
+    <m/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <m/>
+    <s v="Haciendo la otra voz"/>
+    <s v="Otros"/>
+    <n v="1112"/>
+    <n v="4.25"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <m/>
+    <s v="Belgrano"/>
+    <s v="Otros"/>
+    <n v="1063"/>
+    <n v="4.07"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <m/>
+    <s v="Pro"/>
+    <s v="Otros"/>
+    <n v="822"/>
+    <n v="3.15"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <n v="537"/>
+    <n v="2.06"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <m/>
+    <s v="Var. Independiente"/>
+    <s v="Otros"/>
+    <n v="415"/>
+    <n v="1.59"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <m/>
+    <s v="Alter. Estudiantil"/>
+    <s v="Otros"/>
+    <n v="338"/>
+    <n v="1.29"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="12"/>
+    <s v="NS/NC"/>
+    <s v="Blanco"/>
+    <n v="176"/>
+    <n v="0.67"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <m/>
+    <s v="Unidad Latinam."/>
+    <s v="Otros"/>
+    <n v="149"/>
+    <n v="0.56999999999999995"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="11"/>
+    <s v="JxE"/>
+    <s v="Otros"/>
+    <n v="139"/>
+    <n v="0.53"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <m/>
+    <s v="AUI-ARI"/>
+    <s v="Otros"/>
+    <n v="36"/>
+    <n v="0.14000000000000001"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <s v="Nuevo Espacio"/>
+    <s v="Nuevo Espacio"/>
+    <n v="16895"/>
+    <n v="72.11"/>
+    <n v="4"/>
+    <s v="#FF934F"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <s v="Proyecto económicas"/>
+    <s v="Proyecto económicas"/>
+    <n v="1520"/>
+    <n v="6.49"/>
+    <m/>
+    <s v="#B2DDF7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <s v="Var.Independiente"/>
+    <s v="Otros"/>
+    <n v="1473"/>
+    <n v="6.29"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <s v="Belgrano"/>
+    <s v="Otros"/>
+    <n v="695"/>
+    <n v="2.97"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <s v="MxE"/>
+    <s v="MxE"/>
+    <n v="645"/>
+    <n v="2.75"/>
+    <m/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="10"/>
+    <s v="Somos Libres"/>
+    <s v="Somos Libres"/>
+    <n v="549"/>
+    <n v="2.34"/>
+    <m/>
+    <s v="yellow"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <s v="Haciendo la otra voz"/>
+    <s v="Otros"/>
+    <n v="482"/>
+    <n v="2.06"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="Blancos"/>
+    <s v="Blancos"/>
+    <s v="Blanco"/>
+    <n v="391"/>
+    <n v="1.67"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <s v="Alter. Estudiantil"/>
+    <s v="Otros"/>
+    <n v="196"/>
+    <n v="0.84"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="22"/>
+    <s v="NS/NC"/>
+    <s v="Blanco"/>
+    <n v="134"/>
+    <n v="0.56999999999999995"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="11"/>
+    <s v="JxE"/>
+    <s v="Otros"/>
+    <n v="131"/>
+    <n v="0.56000000000000005"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <s v="Unidad Latinam."/>
+    <s v="Otros"/>
+    <n v="77"/>
+    <n v="0.33"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="14"/>
+    <s v="FLI"/>
+    <s v="Otros"/>
+    <n v="78"/>
+    <n v="0.33"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="69"/>
+    <s v="BIP-BIP"/>
+    <s v="Otros"/>
+    <n v="78"/>
+    <n v="0.33"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <s v="AUI"/>
+    <s v="Otros"/>
+    <n v="50"/>
+    <n v="0.21"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="44"/>
+    <s v="FAPe"/>
+    <s v="Otros"/>
+    <n v="35"/>
+    <n v="0.15"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <s v="Nuevo Espacio"/>
+    <s v="Nuevo Espacio"/>
+    <n v="16057"/>
+    <n v="71.209999999999994"/>
+    <n v="4"/>
+    <s v="#FF934F"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <s v="Proyecto"/>
+    <s v="Proyecto económicas"/>
+    <n v="2106"/>
+    <n v="9.34"/>
+    <m/>
+    <s v="#B2DDF7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="10"/>
+    <s v="Somos Libres"/>
+    <s v="Somos Libres"/>
+    <n v="1417"/>
+    <n v="6.28"/>
+    <m/>
+    <s v="yellow"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <s v="Var.Indep. +Germen"/>
+    <s v="Otros"/>
+    <n v="676"/>
+    <n v="3"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <s v="Belgrano"/>
+    <s v="Otros"/>
+    <n v="477"/>
+    <n v="2.12"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <s v="MxE"/>
+    <s v="MxE"/>
+    <n v="396"/>
+    <n v="1.76"/>
+    <m/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <s v="Blancos"/>
+    <s v="Blancos"/>
+    <s v="Blanco"/>
+    <n v="345"/>
+    <n v="1.53"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <s v="Unidad est. + Juv. Peronista"/>
+    <s v="Otros"/>
+    <n v="285"/>
+    <n v="1.26"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="13"/>
+    <s v="Libres del Sur"/>
+    <s v="Otros"/>
+    <n v="219"/>
+    <n v="0.97"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <s v="SOS Mella"/>
+    <s v="Otros"/>
+    <n v="206"/>
+    <n v="0.91"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="22"/>
+    <s v="NS/NC"/>
+    <s v="Blanco"/>
+    <n v="104"/>
+    <n v="0.46"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <s v="Unidad Latinam."/>
+    <s v="Otros"/>
+    <n v="76"/>
+    <n v="0.34"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="69"/>
+    <s v="Bip-Bop"/>
+    <s v="Otros"/>
+    <n v="59"/>
+    <n v="0.26"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <s v="Frente Cívico"/>
+    <s v="Otros"/>
+    <n v="48"/>
+    <n v="0.21"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="14"/>
+    <s v="FLI"/>
+    <s v="Otros"/>
+    <n v="47"/>
+    <n v="0.21"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="44"/>
+    <s v="FAPe"/>
+    <s v="Otros"/>
+    <n v="31"/>
+    <n v="0.14000000000000001"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <s v="FEM! Fuerza en Movimiento"/>
+    <s v="FEM"/>
+    <n v="2455"/>
+    <n v="44.18"/>
+    <n v="3"/>
+    <s v="pink"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <s v="La Izquierda al Frente"/>
+    <s v="La izquierda en Exactas"/>
+    <n v="1195"/>
+    <n v="21.5"/>
+    <n v="1"/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <s v="Exactas Puede Más + Seamos Libres"/>
+    <s v="Identidad"/>
+    <n v="902"/>
+    <n v="16.23"/>
+    <m/>
+    <s v="#B2DDF7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="20"/>
+    <s v="Camdio de Base"/>
+    <s v="Otros"/>
+    <n v="420"/>
+    <n v="7.56"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="10"/>
+    <s v="Nuevo Espacio - FCEN"/>
+    <s v="Otros"/>
+    <n v="321"/>
+    <n v="5.78"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <n v="264"/>
+    <n v="4.75"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <s v="FEM"/>
+    <s v="FEM"/>
+    <n v="1912"/>
+    <n v="35.979999999999997"/>
+    <n v="3"/>
+    <s v="pink"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <s v="Exactas Puede Más"/>
+    <s v="Identidad"/>
+    <n v="1329"/>
+    <n v="25.01"/>
+    <n v="1"/>
+    <s v="#B2DDF7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <s v="La Izquierda al Frente"/>
+    <s v="La izquierda en Exactas"/>
+    <n v="1252"/>
+    <n v="23.56"/>
+    <m/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <n v="419"/>
+    <n v="7.88"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <s v="Lista Unidad"/>
+    <s v="Otros"/>
+    <n v="402"/>
+    <n v="7.56"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <m/>
+    <s v="Exactas puede más"/>
+    <s v="Identidad"/>
+    <n v="1912"/>
+    <n v="33.72"/>
+    <n v="3"/>
+    <s v="#B2DDF7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <m/>
+    <s v="FEM"/>
+    <s v="FEM"/>
+    <n v="1505"/>
+    <n v="26.54"/>
+    <n v="1"/>
+    <s v="pink"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <m/>
+    <s v="La izquierda al frente"/>
+    <s v="La izquierda en Exactas"/>
+    <n v="1245"/>
+    <n v="21.95"/>
+    <m/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="26"/>
+    <s v="Rolando García"/>
+    <s v="Otros"/>
+    <n v="517"/>
+    <n v="9.1199999999999992"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <n v="492"/>
+    <n v="8.68"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <m/>
+    <s v="Identidad - Megafón"/>
+    <s v="Identidad"/>
+    <n v="2588"/>
+    <n v="41.67"/>
+    <n v="3"/>
+    <s v="#B2DDF7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <m/>
+    <s v="FEM! La fuerza independiente"/>
+    <s v="FEM"/>
+    <n v="1891"/>
+    <n v="30.45"/>
+    <n v="1"/>
+    <s v="pink"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <m/>
+    <s v="La izquierda en Exactas"/>
+    <s v="La izquierda en Exactas"/>
+    <n v="1097"/>
+    <n v="17.66"/>
+    <m/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <n v="635"/>
+    <n v="10.220000000000001"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <m/>
+    <s v="Identidad - Megafón"/>
+    <s v="Identidad"/>
+    <n v="2964"/>
+    <n v="37.119999999999997"/>
+    <n v="3"/>
+    <s v="#B2DDF7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <m/>
+    <s v="FEM! La fuerza independiente"/>
+    <s v="FEM"/>
+    <n v="1872"/>
+    <n v="23.45"/>
+    <n v="1"/>
+    <s v="pink"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="10"/>
+    <s v="Espacio Exactas"/>
+    <s v="Espacio Exactas"/>
+    <n v="1610"/>
+    <n v="20.170000000000002"/>
+    <m/>
+    <s v="#FF934F"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <n v="631"/>
+    <n v="7.9"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <m/>
+    <s v="Estudiantes de izquierda"/>
+    <s v="Otros"/>
+    <n v="321"/>
+    <n v="4.0199999999999996"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <m/>
+    <s v="La izquierda en Exactas"/>
+    <s v="La izquierda en Exactas"/>
+    <n v="258"/>
+    <n v="3.23"/>
+    <m/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="17"/>
+    <s v="Juventud peronista universitaria"/>
+    <s v="Otros"/>
+    <n v="165"/>
+    <n v="2.0699999999999998"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="14"/>
+    <s v="Contragolpe"/>
+    <s v="Otros"/>
+    <n v="105"/>
+    <n v="1.32"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="13"/>
+    <s v="La salida es por izquierda"/>
+    <s v="Otros"/>
+    <n v="58"/>
+    <n v="0.73"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <m/>
+    <s v="Proyecto sociales + UES (K)"/>
+    <s v="UES/UES + AA"/>
+    <m/>
+    <n v="40.770000000000003"/>
+    <n v="3"/>
+    <s v="#80ED99"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <m/>
+    <s v="Izquierda al Frente por el Socialismo"/>
+    <s v="La izquierda al frente"/>
+    <m/>
+    <n v="26.75"/>
+    <n v="1"/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <m/>
+    <s v="Vendaval (Mella)"/>
+    <s v="Vendaval"/>
+    <m/>
+    <n v="14.95"/>
+    <m/>
+    <s v="#B2DDF7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <m/>
+    <s v="Sociales x el Cambio"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="8.6199999999999992"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <m/>
+    <s v="MST"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="3.75"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <m/>
+    <s v="Sur"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="3.12"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <m/>
+    <n v="2.04"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <m/>
+    <s v="La UES"/>
+    <s v="UES/UES + AA"/>
+    <m/>
+    <n v="33.58"/>
+    <n v="3"/>
+    <s v="#80ED99"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <m/>
+    <s v="Proyecto Sociales + La Mella"/>
+    <s v="Sociales en Movimiento"/>
+    <m/>
+    <n v="26.14"/>
+    <n v="1"/>
+    <s v="#B2DDF7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <m/>
+    <s v="La izquierda al frente"/>
+    <s v="La izquierda al frente"/>
+    <m/>
+    <n v="25.38"/>
+    <m/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <m/>
+    <s v="Nuevo Sociales"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="6.97"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <m/>
+    <s v="Viejo Topo + La Dignidad"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="5.38"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <m/>
+    <s v="Más + MST"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="2.17"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <m/>
+    <n v="0.38"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="16"/>
+    <s v="Volvemos + La UES + AA"/>
+    <s v="UES/UES + AA"/>
+    <n v="4687"/>
+    <n v="40.409999999999997"/>
+    <n v="3"/>
+    <s v="#80ED99"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="15"/>
+    <s v="La 15 + Protagonistas"/>
+    <s v="Sociales en Movimiento"/>
+    <n v="3750"/>
+    <n v="32.33"/>
+    <n v="1"/>
+    <s v="#B2DDF7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="17"/>
+    <s v="La izquierda al frente"/>
+    <s v="La izquierda al frente"/>
+    <n v="1828"/>
+    <n v="15.76"/>
+    <m/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="13"/>
+    <s v="La salida es por izquierda"/>
+    <s v="Otros"/>
+    <n v="492"/>
+    <n v="4.24"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="14"/>
+    <s v="FEM - Marea verde"/>
+    <s v="Otros"/>
+    <n v="413"/>
+    <n v="3.56"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <n v="251"/>
+    <n v="2.16"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="29"/>
+    <s v="Rebelión (29 de Mayo + Independientes)"/>
+    <s v="Otros"/>
+    <n v="179"/>
+    <n v="1.54"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="16"/>
+    <s v="La UES + Independientes"/>
+    <s v="UES/UES + AA"/>
+    <n v="4015"/>
+    <n v="37.92"/>
+    <n v="3"/>
+    <s v="#80ED99"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="15"/>
+    <s v="Sociales necesita movimiento"/>
+    <s v="Sociales en Movimiento"/>
+    <n v="3941"/>
+    <n v="37.22"/>
+    <n v="1"/>
+    <s v="#B2DDF7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="17"/>
+    <s v="La izquierda al frente unidad"/>
+    <s v="La izquierda al frente"/>
+    <n v="1219"/>
+    <n v="11.51"/>
+    <m/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <m/>
+    <s v="Prioridad RT - Profesionales RT"/>
+    <s v="Otros"/>
+    <n v="713"/>
+    <n v="6.73"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="13"/>
+    <s v="La salida es por izquierda"/>
+    <s v="Otros"/>
+    <n v="400"/>
+    <n v="3.78"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <n v="299"/>
+    <n v="2.82"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="15"/>
+    <s v="Sociales en movimiento"/>
+    <s v="Sociales en Movimiento"/>
+    <n v="4228"/>
+    <n v="45.5"/>
+    <n v="3"/>
+    <s v="#B2DDF7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="16"/>
+    <s v="La UES - Unidad estudianti de sociales - Alternativa"/>
+    <s v="UES/UES + AA"/>
+    <n v="3538"/>
+    <n v="38.07"/>
+    <n v="1"/>
+    <s v="#80ED99"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="17"/>
+    <s v="La izquierda al frente"/>
+    <s v="La izquierda al frente"/>
+    <n v="926"/>
+    <n v="9.9600000000000009"/>
+    <m/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="13"/>
+    <s v="La salida es por izquierda"/>
+    <s v="Otros"/>
+    <n v="266"/>
+    <n v="2.86"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <n v="230"/>
+    <n v="2.4700000000000002"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <s v="Otros"/>
+    <n v="105"/>
+    <n v="1.1299999999999999"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <m/>
+    <s v="Evet"/>
+    <s v="eVet-UJS"/>
+    <m/>
+    <n v="52.11"/>
+    <n v="3"/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <m/>
+    <s v="Tropilla"/>
+    <s v="La Tropilla"/>
+    <m/>
+    <n v="46.86"/>
+    <n v="1"/>
+    <s v="#C2AFF0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <m/>
+    <n v="1.03"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <m/>
+    <s v="eVet-UJS"/>
+    <s v="eVet-UJS"/>
+    <m/>
+    <n v="47.44"/>
+    <n v="3"/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <m/>
+    <s v="La tropilla"/>
+    <s v="La Tropilla"/>
+    <m/>
+    <n v="27.01"/>
+    <n v="1"/>
+    <s v="#C2AFF0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <m/>
+    <s v="Unión veterinaria"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="18.010000000000002"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <m/>
+    <s v="Nuevo Espacio"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="3.99"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <m/>
+    <s v="La Mella"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="2.06"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <m/>
+    <n v="1.49"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="10"/>
+    <s v="Evet"/>
+    <s v="eVet-UJS"/>
+    <n v="1598"/>
+    <n v="44.62"/>
+    <n v="3"/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <m/>
+    <s v="La tropilla"/>
+    <s v="La Tropilla"/>
+    <n v="1284"/>
+    <n v="35.86"/>
+    <n v="1"/>
+    <s v="#C2AFF0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <m/>
+    <s v="Veterinaria en lucha"/>
+    <s v="Otros"/>
+    <n v="340"/>
+    <n v="9.49"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <m/>
+    <s v="La estampida"/>
+    <s v="Otros"/>
+    <n v="289"/>
+    <n v="8.07"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <n v="70"/>
+    <n v="1.95"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="10"/>
+    <s v="eVet-UJS"/>
+    <s v="eVet-UJS"/>
+    <n v="1522"/>
+    <n v="38.369999999999997"/>
+    <n v="3"/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <m/>
+    <s v="La Tropilla - Cámpora"/>
+    <s v="La Tropilla"/>
+    <n v="1163"/>
+    <n v="29.32"/>
+    <n v="1"/>
+    <s v="#C2AFF0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="14"/>
+    <s v="AFV"/>
+    <s v="AFV"/>
+    <n v="588"/>
+    <n v="14.82"/>
+    <m/>
+    <s v="#B2DDF7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <m/>
+    <s v="Somos libres"/>
+    <s v="Otros"/>
+    <n v="413"/>
+    <n v="10.41"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <m/>
+    <s v="Vete en lucha"/>
+    <s v="Otros"/>
+    <n v="231"/>
+    <n v="5.82"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <n v="50"/>
+    <n v="1.26"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+    <n v="10"/>
+    <s v="eVet-UJS"/>
+    <s v="eVet-UJS"/>
+    <n v="1539"/>
+    <n v="37.799999999999997"/>
+    <n v="3"/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+    <n v="14"/>
+    <s v="AFV"/>
+    <s v="AFV"/>
+    <n v="1469"/>
+    <n v="36.08"/>
+    <n v="1"/>
+    <s v="#B2DDF7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+    <m/>
+    <s v="La Tropilla"/>
+    <s v="La Tropilla"/>
+    <n v="1026"/>
+    <n v="25.2"/>
+    <m/>
+    <s v="#C2AFF0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <n v="37"/>
+    <n v="0.91"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <m/>
+    <s v="Franja Morada"/>
+    <s v="Franja Morada"/>
+    <n v="5482"/>
+    <n v="26.74"/>
+    <n v="3"/>
+    <s v="#FF934F"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <m/>
+    <s v="Nuevo Derecho"/>
+    <s v="Nuevo Derecho"/>
+    <n v="5017"/>
+    <n v="24.47"/>
+    <n v="1"/>
+    <s v="#C2AFF0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <m/>
+    <s v="PRO"/>
+    <s v="PRO"/>
+    <n v="2621"/>
+    <n v="12.79"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <m/>
+    <s v="Der. para la Vic."/>
+    <s v="Derecho para la Victoria"/>
+    <n v="2122"/>
+    <n v="10.35"/>
+    <m/>
+    <s v="#B2DDF7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <m/>
+    <s v="Mella - Centeno"/>
+    <s v="Centeno"/>
+    <n v="1443"/>
+    <n v="7.04"/>
+    <m/>
+    <s v="#B2DDF7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <m/>
+    <s v="Frente de Izquierda"/>
+    <s v="Frente de izquierda - Unidad"/>
+    <n v="1247"/>
+    <n v="6.08"/>
+    <m/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <m/>
+    <s v="14 Bis"/>
+    <s v="Otros"/>
+    <n v="1238"/>
+    <n v="6.04"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <m/>
+    <s v="SUR"/>
+    <s v="Otros"/>
+    <n v="718"/>
+    <n v="3.5"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <m/>
+    <s v="Izquierda en Derecho"/>
+    <s v="Otros"/>
+    <n v="480"/>
+    <n v="2.34"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <n v="171"/>
+    <n v="1.77"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <m/>
+    <s v="Universidad para Todos"/>
+    <s v="Otros"/>
+    <n v="132"/>
+    <n v="0.64"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <m/>
+    <s v="Nuevo Derecho"/>
+    <s v="Nuevo Derecho"/>
+    <n v="8265"/>
+    <n v="39.049999999999997"/>
+    <n v="3"/>
+    <s v="#C2AFF0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <m/>
+    <s v="Franja Morada"/>
+    <s v="Franja Morada"/>
+    <n v="5218"/>
+    <n v="24.65"/>
+    <n v="1"/>
+    <s v="#FF934F"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <m/>
+    <s v="Acción Colectiva"/>
+    <s v="La Centeno-Acción colectiva"/>
+    <n v="2619"/>
+    <n v="12.37"/>
+    <m/>
+    <s v="#B2DDF7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <m/>
+    <s v="Transformar Derecho"/>
+    <s v="Transformar Derecho"/>
+    <n v="2273"/>
+    <n v="10.74"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <m/>
+    <s v="Juntos"/>
+    <s v="Otros"/>
+    <n v="1328"/>
+    <n v="6.27"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <m/>
+    <s v="Frente de Izquierda"/>
+    <s v="Frente de izquierda - Unidad"/>
+    <n v="971"/>
+    <n v="4.59"/>
+    <m/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="13"/>
+    <s v="Izquierda al Frente por el Socialismo"/>
+    <s v="Otros"/>
+    <n v="313"/>
+    <n v="1.48"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <n v="165"/>
+    <n v="0.78"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <m/>
+    <s v="Nuevo Derecho"/>
+    <s v="Nuevo Derecho"/>
+    <n v="7441"/>
+    <n v="35.15"/>
+    <n v="3"/>
+    <s v="#C2AFF0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <m/>
+    <s v="LA CENTENO - ACCIÓN COLECTIVA"/>
+    <s v="La Centeno-Acción colectiva"/>
+    <n v="3142"/>
+    <n v="29.01"/>
+    <n v="1"/>
+    <s v="#B2DDF7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <m/>
+    <s v="FRANJA MORADA"/>
+    <s v="Franja Morada"/>
+    <n v="5434"/>
+    <n v="25.67"/>
+    <m/>
+    <s v="#FF934F"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <m/>
+    <s v="FRENTE DE IZQUIERDA - UNIDAD"/>
+    <s v="Frente de izquierda - Unidad"/>
+    <n v="1033"/>
+    <n v="4.88"/>
+    <m/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <m/>
+    <s v="SUR"/>
+    <s v="Otros"/>
+    <n v="280"/>
+    <n v="1.32"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <n v="277"/>
+    <n v="1.31"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="13"/>
+    <s v="LA SALIDA ES POR LA IZQUIERDA"/>
+    <s v="Otros"/>
+    <n v="217"/>
+    <n v="1.02"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <m/>
+    <s v="DELIRIUM"/>
+    <s v="Otros"/>
+    <n v="200"/>
+    <n v="0.94"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="15"/>
+    <s v="OKTUBRE"/>
+    <s v="Otros"/>
+    <n v="147"/>
+    <n v="0.69"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <m/>
+    <s v="Frente Reformista ND - FM"/>
+    <s v="Frente reformista"/>
+    <n v="11809"/>
+    <n v="52.54"/>
+    <n v="3"/>
+    <s v="#FF934F"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <m/>
+    <s v="LA CENTENO - ACCIÓN COLECTIVA"/>
+    <s v="La Centeno-Acción colectiva"/>
+    <n v="8105"/>
+    <n v="36.06"/>
+    <n v="1"/>
+    <s v="#B2DDF7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <m/>
+    <s v="FRENTE DE IZQUIERDA - UNIDAD"/>
+    <s v="Frente de izquierda - Unidad"/>
+    <n v="928"/>
+    <n v="4.13"/>
+    <m/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <n v="445"/>
+    <n v="1.98"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <m/>
+    <s v="SUR DERECHO"/>
+    <s v="Otros"/>
+    <n v="266"/>
+    <n v="1.18"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="21"/>
+    <s v="LEGAR"/>
+    <s v="Otros"/>
+    <n v="240"/>
+    <n v="1.07"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <m/>
+    <s v="LA UES"/>
+    <s v="Otros"/>
+    <n v="232"/>
+    <n v="1.03"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="13"/>
+    <s v="LA SALIDA ES POR LA IZQUIERDA"/>
+    <s v="Otros"/>
+    <n v="232"/>
+    <n v="1.03"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <m/>
+    <s v="MEGAFÓN"/>
+    <s v="Otros"/>
+    <n v="221"/>
+    <n v="0.98"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+    <m/>
+    <s v="Frente reformista"/>
+    <s v="Frente reformista"/>
+    <n v="12598"/>
+    <n v="59.28"/>
+    <n v="3"/>
+    <s v="#FF934F"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+    <m/>
+    <s v="LA CENTENO - ACCIÓN COLECTIVA"/>
+    <s v="La Centeno-Acción colectiva"/>
+    <n v="6766"/>
+    <n v="31.84"/>
+    <n v="1"/>
+    <s v="#B2DDF7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+    <m/>
+    <s v="FRENTE DE IZQUIERDA - UNIDAD"/>
+    <s v="Otros"/>
+    <n v="638"/>
+    <n v="3"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+    <m/>
+    <s v="La UES - MUNAP"/>
+    <s v="Otros"/>
+    <n v="443"/>
+    <n v="2.08"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <n v="371"/>
+    <n v="1.74"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+    <m/>
+    <s v="PATRIA Y TRABAJO"/>
+    <s v="Otros"/>
+    <n v="180"/>
+    <n v="0.85"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+    <n v="13"/>
+    <s v="¡YA BASTA! LA SALIDA ES POR LA IZQUIERDA"/>
+    <s v="Otros"/>
+    <n v="170"/>
+    <n v="0.8"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+    <n v="11"/>
+    <s v="FRENTE UNIVERSITARIO NACIONAL"/>
+    <s v="Otros"/>
+    <n v="87"/>
+    <n v="0.41"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <m/>
+    <s v="Antídoto (PO)"/>
+    <s v="Antidoto"/>
+    <m/>
+    <n v="51.78"/>
+    <n v="4"/>
+    <s v="pink"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <m/>
+    <s v="Gen"/>
+    <s v="Gen"/>
+    <m/>
+    <n v="16.3"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <m/>
+    <s v="UyO"/>
+    <s v="UyO"/>
+    <m/>
+    <n v="12.92"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <m/>
+    <s v="La Mella"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="8.9"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <m/>
+    <s v="UES"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="4.67"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <m/>
+    <s v="Izquierda Socialista"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="4.2699999999999996"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <m/>
+    <n v="1.1599999999999999"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <m/>
+    <s v="Antídoto"/>
+    <s v="Antidoto"/>
+    <m/>
+    <n v="55.15"/>
+    <n v="3"/>
+    <s v="pink"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <m/>
+    <s v="Nuevo Espacio"/>
+    <s v="Nuevo Espacio"/>
+    <m/>
+    <n v="20.38"/>
+    <n v="1"/>
+    <s v="#FF934F"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <m/>
+    <s v="Lista1"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="19.86"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <m/>
+    <s v="Izquierda socialista"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="3.43"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <m/>
+    <n v="1.18"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <m/>
+    <s v="Antídoto"/>
+    <s v="Antidoto"/>
+    <m/>
+    <n v="37.450000000000003"/>
+    <n v="3"/>
+    <s v="pink"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <m/>
+    <s v="Nuevo Encuentro"/>
+    <s v="Sinapsis"/>
+    <m/>
+    <n v="35.5"/>
+    <n v="1"/>
+    <s v="#80ED99"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <m/>
+    <s v="Nuevo espacio"/>
+    <s v="Nuevo Espacio"/>
+    <m/>
+    <n v="21.4"/>
+    <m/>
+    <s v="#FF934F"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <m/>
+    <s v="UES"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="2.4"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <m/>
+    <s v="Izquierda Socialista"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="1.79"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <m/>
+    <s v="Antidoto"/>
+    <s v="Antidoto"/>
+    <n v="1961"/>
+    <n v="36.799999999999997"/>
+    <n v="3"/>
+    <s v="pink"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <m/>
+    <s v="Nuevo Espacio"/>
+    <s v="Nuevo Espacio"/>
+    <n v="1634"/>
+    <n v="30.7"/>
+    <n v="1"/>
+    <s v="#FF934F"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <m/>
+    <s v="Sinapsis"/>
+    <s v="Sinapsis"/>
+    <n v="1506"/>
+    <n v="28.03"/>
+    <m/>
+    <s v="#80ED99"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <m/>
+    <s v="Movimiento FFyB"/>
+    <s v="Otros"/>
+    <n v="135"/>
+    <n v="2.0499999999999998"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <m/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <n v="88"/>
+    <n v="1.7"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="4"/>
+    <m/>
+    <s v="Estudiantes por FFyB"/>
+    <s v="Estudiantes por FFyB"/>
+    <n v="3349"/>
+    <n v="68"/>
+    <n v="3"/>
+    <s v="#FF934F"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="4"/>
+    <n v="14"/>
+    <s v="Antídoto"/>
+    <s v="Antidoto"/>
+    <n v="1366"/>
+    <n v="27.7"/>
+    <n v="1"/>
+    <s v="pink"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="4"/>
+    <n v="13"/>
+    <s v="La Izquierda en FyB"/>
+    <s v="Otros"/>
+    <n v="84"/>
+    <n v="1.7"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="4"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <n v="79"/>
+    <n v="1.6"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="4"/>
+    <n v="10"/>
+    <s v="ISEPCI La Izquierda Popular en FFyB"/>
+    <s v="Otros"/>
+    <n v="47"/>
+    <n v="0.95"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <m/>
+    <s v="Izquierda al Frente"/>
+    <s v="La izquierda al frente"/>
+    <m/>
+    <n v="32.64"/>
+    <n v="3"/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <m/>
+    <s v="FUP"/>
+    <s v="FUP"/>
+    <m/>
+    <n v="24.34"/>
+    <n v="1"/>
+    <s v="#B2DDF7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <m/>
+    <s v="Mella - Centeno"/>
+    <s v="Mella - Centeno"/>
+    <m/>
+    <n v="17.21"/>
+    <m/>
+    <s v="#80ED99"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <m/>
+    <s v="Bemba"/>
+    <s v="Bemba"/>
+    <m/>
+    <n v="11.3"/>
+    <m/>
+    <s v="#A92131"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <m/>
+    <s v="Mariategui"/>
+    <s v="Épica/Mariátegui"/>
+    <m/>
+    <n v="7.79"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <m/>
+    <s v="MST"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="4.0599999999999996"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <m/>
+    <s v="Estudiantes de Filo"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="2.65"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <m/>
+    <n v="0.01"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <m/>
+    <s v="La izquierda al frente"/>
+    <s v="La izquierda al frente"/>
+    <m/>
+    <n v="31.34"/>
+    <n v="3"/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <m/>
+    <s v="El colectivo"/>
+    <s v="El colectivo"/>
+    <m/>
+    <n v="26.23"/>
+    <n v="1"/>
+    <s v="#80ED99"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <m/>
+    <s v="Épica/Mariátegui"/>
+    <s v="Épica/Mariátegui"/>
+    <m/>
+    <n v="12.83"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <m/>
+    <s v="Aquelarre"/>
+    <s v="Aquelarre"/>
+    <m/>
+    <n v="9.33"/>
+    <m/>
+    <s v="#C2AFF0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <m/>
+    <s v="FEI"/>
+    <s v="FEI"/>
+    <m/>
+    <n v="7.46"/>
+    <m/>
+    <s v="pink"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <m/>
+    <n v="3.86"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <m/>
+    <s v="Franja Morada"/>
+    <s v="Franja Morada"/>
+    <m/>
+    <n v="3.62"/>
+    <m/>
+    <s v="#FF934F"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <m/>
+    <s v="Sur+Cepa"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="2.71"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <m/>
+    <s v="MST"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="2.62"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <m/>
+    <s v="El colectivo"/>
+    <s v="El colectivo"/>
+    <n v="3173"/>
+    <n v="36.99"/>
+    <n v="3"/>
+    <s v="#80ED99"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <m/>
+    <s v="La izquierda al frente"/>
+    <s v="La izquierda al frente"/>
+    <n v="2642"/>
+    <n v="30.8"/>
+    <n v="1"/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <m/>
+    <s v="FEI"/>
+    <s v="FEI"/>
+    <n v="943"/>
+    <n v="10.99"/>
+    <m/>
+    <s v="pink"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <m/>
+    <s v="Aquelarre"/>
+    <s v="Aquelarre"/>
+    <n v="778"/>
+    <n v="9.07"/>
+    <m/>
+    <s v="#C2AFF0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <m/>
+    <s v="Franja Morada"/>
+    <s v="Franja Morada"/>
+    <n v="434"/>
+    <n v="5.0599999999999996"/>
+    <m/>
+    <s v="#FF934F"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <n v="305"/>
+    <n v="3.56"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="10"/>
+    <s v="Movimiento Sur"/>
+    <s v="Otros"/>
+    <n v="303"/>
+    <n v="3.53"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <m/>
+    <s v="El colectivo"/>
+    <s v="El colectivo"/>
+    <n v="2706"/>
+    <n v="31.02"/>
+    <n v="3"/>
+    <s v="#80ED99"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <m/>
+    <s v="La izquierda al frente"/>
+    <s v="La izquierda al frente"/>
+    <n v="2293"/>
+    <n v="26.29"/>
+    <n v="1"/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <m/>
+    <s v="FEI"/>
+    <s v="FEI"/>
+    <n v="1142"/>
+    <n v="13.09"/>
+    <m/>
+    <s v="pink"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <m/>
+    <s v="Ya basta"/>
+    <s v="Ya Basta"/>
+    <n v="798"/>
+    <n v="9.15"/>
+    <m/>
+    <s v="#A92131"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <m/>
+    <s v="Aquelarre"/>
+    <s v="Aquelarre"/>
+    <n v="634"/>
+    <n v="7.27"/>
+    <m/>
+    <s v="#C2AFF0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <m/>
+    <s v="Franja Morada"/>
+    <s v="Franja Morada"/>
+    <n v="468"/>
+    <n v="5.37"/>
+    <m/>
+    <s v="#FF934F"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="10"/>
+    <s v="SUR"/>
+    <s v="Otros"/>
+    <n v="372"/>
+    <n v="4.26"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <n v="310"/>
+    <n v="3.55"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="4"/>
+    <m/>
+    <s v="El colectivo + Aquelarre"/>
+    <s v="El colectivo (+ Aquelarre)"/>
+    <n v="2809"/>
+    <n v="36.79"/>
+    <n v="3"/>
+    <s v="#B2DDF7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="4"/>
+    <m/>
+    <s v="La izquierda al Frente Unidad"/>
+    <s v="La izquierda al frente"/>
+    <n v="2089"/>
+    <n v="27.36"/>
+    <n v="1"/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="4"/>
+    <m/>
+    <s v="FEI de Filosofía y letras"/>
+    <s v="FEI"/>
+    <n v="1470"/>
+    <n v="19.25"/>
+    <m/>
+    <s v="pink"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="4"/>
+    <m/>
+    <s v="Ya Basta - La izquierda en Filo"/>
+    <s v="Ya Basta"/>
+    <n v="667"/>
+    <n v="8.73"/>
+    <m/>
+    <s v="#A92131"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="4"/>
+    <n v="10"/>
+    <s v="SUR - La vallese"/>
+    <s v="Otros"/>
+    <n v="214"/>
+    <n v="2.8"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="4"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <n v="208"/>
+    <n v="2.72"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="4"/>
+    <m/>
+    <s v="Política Obrera"/>
+    <s v="Otros"/>
+    <n v="179"/>
+    <n v="2.34"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <m/>
+    <s v="MLI"/>
+    <s v="MLI"/>
+    <m/>
+    <n v="34.39"/>
+    <n v="3"/>
+    <s v="salmon"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <m/>
+    <s v="La Mella"/>
+    <s v="La Mella + Unidos por ingeniería"/>
+    <m/>
+    <n v="23.74"/>
+    <n v="1"/>
+    <s v="#B2DDF7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <m/>
+    <s v="Lista 7 (FIT)"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="16.22"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <m/>
+    <s v="Pro"/>
+    <s v="IxC / Somos Libres"/>
+    <m/>
+    <n v="14.54"/>
+    <m/>
+    <s v="yellow"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <m/>
+    <s v="Nuevo Espacio"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="7.49"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <m/>
+    <n v="3.62"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <m/>
+    <s v="MLI"/>
+    <s v="MLI"/>
+    <m/>
+    <n v="49.09"/>
+    <n v="4"/>
+    <s v="salmon"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <m/>
+    <s v="Cambiemos"/>
+    <s v="IxC / Somos Libres"/>
+    <m/>
+    <n v="17.71"/>
+    <m/>
+    <s v="yellow"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <m/>
+    <s v="La Mella + Unidos por ingeniería"/>
+    <s v="La Mella + Unidos por ingeniería"/>
+    <m/>
+    <n v="17.16"/>
+    <m/>
+    <s v="#B2DDF7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <m/>
+    <s v="Izquierda en ingeniería"/>
+    <s v="Proyecto ingeniería / L19"/>
+    <m/>
+    <n v="6.34"/>
+    <m/>
+    <s v="#B2DDF7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <m/>
+    <s v="Proyecto ingeniería"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="3.64"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <m/>
+    <n v="3.5"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <m/>
+    <s v="Franja Morada"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="2.46"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <n v="417"/>
+    <s v="MLI"/>
+    <s v="MLI"/>
+    <n v="4214"/>
+    <n v="51.62"/>
+    <n v="4"/>
+    <s v="salmon"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <m/>
+    <s v="Ingeniería por el cambio"/>
+    <s v="IxC / Somos Libres"/>
+    <n v="1597"/>
+    <n v="19.559999999999999"/>
+    <m/>
+    <s v="yellow"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <n v="10"/>
+    <s v="Proyecto ingeniería"/>
+    <s v="Proyecto ingeniería / L19"/>
+    <n v="846"/>
+    <n v="10.36"/>
+    <m/>
+    <s v="#B2DDF7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <m/>
+    <s v="La mella"/>
+    <s v="Otros"/>
+    <n v="649"/>
+    <n v="7.95"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <n v="314"/>
+    <s v="UxI + Auge + Gradiente"/>
+    <s v="Otros"/>
+    <n v="394"/>
+    <n v="4.83"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <n v="286"/>
+    <n v="3.5"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <n v="256"/>
+    <s v="La izquierda en ingeniería"/>
+    <s v="Otros"/>
+    <n v="178"/>
+    <n v="2.1800000000000002"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="3"/>
+    <n v="417"/>
+    <s v="MLI"/>
+    <s v="MLI"/>
+    <m/>
+    <n v="61.7"/>
+    <n v="4"/>
+    <s v="salmon"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="3"/>
+    <m/>
+    <s v="Ingeniería por el cambio"/>
+    <s v="IxC / Somos Libres"/>
+    <m/>
+    <n v="12.2"/>
+    <m/>
+    <s v="yellow"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="3"/>
+    <n v="19"/>
+    <s v="Lista 19"/>
+    <s v="Proyecto ingeniería / L19"/>
+    <m/>
+    <n v="7"/>
+    <m/>
+    <s v="#B2DDF7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="3"/>
+    <m/>
+    <s v="Espacio estudiantil"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="6.7"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="3"/>
+    <m/>
+    <s v="El gradiente"/>
+    <s v="El Gradiente"/>
+    <m/>
+    <n v="5.9"/>
+    <m/>
+    <s v="#80ED99"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="3"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <m/>
+    <n v="4.5"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="3"/>
+    <n v="17"/>
+    <s v="Frente de izquierda unidad"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="1.9"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="4"/>
+    <n v="417"/>
+    <s v="MLI"/>
+    <s v="MLI"/>
+    <n v="2786"/>
+    <n v="35.03"/>
+    <n v="4"/>
+    <s v="salmon"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="4"/>
+    <m/>
+    <s v="Somos Libres"/>
+    <s v="IxC / Somos Libres"/>
+    <n v="1467"/>
+    <n v="18.440000000000001"/>
+    <m/>
+    <s v="yellow"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="4"/>
+    <m/>
+    <s v="Espacio Estudiantil"/>
+    <s v="Espacio Estudiantil"/>
+    <n v="1346"/>
+    <n v="16.920000000000002"/>
+    <m/>
+    <s v="#FF934F"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="4"/>
+    <m/>
+    <s v="El Gradiente"/>
+    <s v="El Gradiente"/>
+    <n v="1312"/>
+    <n v="16.489999999999998"/>
+    <m/>
+    <s v="#80ED99"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="4"/>
+    <m/>
+    <s v="Proyecto Ingeniería"/>
+    <s v="Proyecto ingeniería / L19"/>
+    <n v="609"/>
+    <n v="7.66"/>
+    <m/>
+    <s v="#B2DDF7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="4"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <n v="434"/>
+    <n v="5.46"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <m/>
+    <s v="Nuevo Espacio"/>
+    <s v="Nuevo Espacio"/>
+    <m/>
+    <n v="62.07"/>
+    <n v="3"/>
+    <s v="#FF934F"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <m/>
+    <s v="El Frente (PO-Mella)"/>
+    <s v="El Frente"/>
+    <m/>
+    <n v="20.059999999999999"/>
+    <n v="1"/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <m/>
+    <s v="Estudiantes para la Victoria"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="6.62"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <m/>
+    <s v="Miles"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="3.83"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <m/>
+    <s v="Sur"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="2.5499999999999998"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <m/>
+    <s v="Fuser"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="2.54"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <m/>
+    <s v="Unidad"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="2.2200000000000002"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <m/>
+    <n v="0.11"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <m/>
+    <s v="Nuevo espacio"/>
+    <s v="Nuevo Espacio"/>
+    <m/>
+    <n v="43.09"/>
+    <n v="3"/>
+    <s v="#FF934F"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <m/>
+    <s v="El frente + Ciencias médicas de pie"/>
+    <s v="El Frente"/>
+    <m/>
+    <n v="21.64"/>
+    <n v="1"/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <m/>
+    <s v="Miles"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="14.64"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <m/>
+    <s v="Unidad"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="6.77"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <m/>
+    <s v="PRO"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="6.25"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <m/>
+    <s v="La Mella"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="3.91"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <m/>
+    <n v="2.0299999999999998"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <m/>
+    <s v="Sur+Evita+Cepa"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="1.67"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <n v="10"/>
+    <s v="Nuevo Espacio"/>
+    <s v="Nuevo Espacio"/>
+    <n v="27465"/>
+    <n v="71.680000000000007"/>
+    <n v="4"/>
+    <s v="#FF934F"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <n v="39"/>
+    <s v="Miles -Torrente"/>
+    <s v="El torrente"/>
+    <n v="5099"/>
+    <n v="13.31"/>
+    <m/>
+    <s v="#B2DDF7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <m/>
+    <s v="El Frente"/>
+    <s v="Otros"/>
+    <n v="2910"/>
+    <n v="7.59"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <m/>
+    <s v="Frente de Izquierda"/>
+    <s v="Otros"/>
+    <n v="1044"/>
+    <n v="2.72"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <n v="18"/>
+    <s v="El Mate"/>
+    <s v="Otros"/>
+    <n v="719"/>
+    <n v="1.88"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <n v="624"/>
+    <n v="1.63"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <n v="13"/>
+    <s v="La izquierda en medicina"/>
+    <s v="Otros"/>
+    <n v="455"/>
+    <n v="1.19"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="3"/>
+    <n v="10"/>
+    <s v="Nuevo Espacio"/>
+    <s v="Nuevo Espacio"/>
+    <n v="34989"/>
+    <n v="74.69"/>
+    <n v="4"/>
+    <s v="#FF934F"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="3"/>
+    <n v="39"/>
+    <s v="El torrente + Sinapsis"/>
+    <s v="El torrente"/>
+    <n v="5331"/>
+    <n v="11.38"/>
+    <m/>
+    <s v="#B2DDF7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="3"/>
+    <m/>
+    <s v="El frente"/>
+    <s v="Otros"/>
+    <n v="1697"/>
+    <n v="3.62"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="3"/>
+    <m/>
+    <s v="Somos libres"/>
+    <s v="Otros"/>
+    <n v="1626"/>
+    <n v="3.47"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="3"/>
+    <m/>
+    <s v="Movimiento FMED - Todos"/>
+    <s v="Otros"/>
+    <n v="1026"/>
+    <n v="2.19"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="3"/>
+    <n v="13"/>
+    <s v="La izquierda"/>
+    <s v="Otros"/>
+    <n v="782"/>
+    <n v="1.67"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="3"/>
+    <n v="11"/>
+    <s v="Mella"/>
+    <s v="Otros"/>
+    <n v="771"/>
+    <n v="1.65"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="3"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <n v="622"/>
+    <n v="1.33"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="4"/>
+    <n v="10"/>
+    <s v="Nuevo Espacio"/>
+    <s v="Nuevo Espacio"/>
+    <n v="28905"/>
+    <n v="61.48"/>
+    <n v="3"/>
+    <s v="#FF934F"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="4"/>
+    <n v="11"/>
+    <s v="El torrente"/>
+    <s v="El torrente"/>
+    <n v="10891"/>
+    <n v="23.16"/>
+    <n v="1"/>
+    <s v="#B2DDF7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="4"/>
+    <m/>
+    <s v="Somos libres"/>
+    <s v="Otros"/>
+    <n v="3168"/>
+    <n v="6.74"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="4"/>
+    <m/>
+    <s v="El frente"/>
+    <s v="Otros"/>
+    <n v="973"/>
+    <n v="2.08"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="4"/>
+    <n v="17"/>
+    <s v="Sinapsis"/>
+    <s v="Otros"/>
+    <n v="912"/>
+    <n v="1.94"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="4"/>
+    <m/>
+    <s v="PTS"/>
+    <s v="Otros"/>
+    <n v="902"/>
+    <n v="1.92"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="4"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <n v="611"/>
+    <n v="1.3"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="4"/>
+    <n v="13"/>
+    <s v="Ya Basta"/>
+    <s v="Otros"/>
+    <n v="287"/>
+    <n v="0.61"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <m/>
+    <s v="AFO"/>
+    <s v="AFO"/>
+    <m/>
+    <n v="81.3"/>
+    <n v="4"/>
+    <s v="#FF934F"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <m/>
+    <s v="V-Par (PO)"/>
+    <s v="V Par"/>
+    <m/>
+    <n v="16.399999999999999"/>
+    <m/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <m/>
+    <s v="Odonto para la Victoria"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <m/>
+    <n v="0.3"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <m/>
+    <s v="AFO"/>
+    <s v="AFO"/>
+    <m/>
+    <n v="87.5"/>
+    <n v="4"/>
+    <s v="#FF934F"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <m/>
+    <s v="V-Par"/>
+    <s v="V Par"/>
+    <m/>
+    <n v="8.69"/>
+    <m/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <m/>
+    <s v="Nuevo Encuentro"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="2.97"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <m/>
+    <n v="0.84"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="2"/>
+    <m/>
+    <s v="AFO"/>
+    <s v="AFO"/>
+    <m/>
+    <n v="92.4"/>
+    <n v="4"/>
+    <s v="#FF934F"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="2"/>
+    <m/>
+    <s v="V Par"/>
+    <s v="V Par"/>
+    <m/>
+    <n v="6.6"/>
+    <m/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="2"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="3"/>
+    <m/>
+    <s v="AFO"/>
+    <s v="AFO"/>
+    <m/>
+    <n v="95.2"/>
+    <n v="4"/>
+    <s v="#FF934F"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="3"/>
+    <m/>
+    <s v="V Par"/>
+    <s v="V Par"/>
+    <m/>
+    <n v="4.4000000000000004"/>
+    <m/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="3"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <m/>
+    <n v="0.4"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="4"/>
+    <m/>
+    <s v="AFO"/>
+    <s v="AFO"/>
+    <m/>
+    <n v="99"/>
+    <n v="4"/>
+    <s v="#FF934F"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="4"/>
+    <m/>
+    <s v="V Par"/>
+    <s v="V Par"/>
+    <m/>
+    <n v="0.5"/>
+    <m/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="4"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <m/>
+    <n v="0.5"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="0"/>
+    <m/>
+    <s v="Impulso (Mella-Sur)"/>
+    <s v="El impulso"/>
+    <m/>
+    <n v="30.7"/>
+    <n v="3"/>
+    <s v="#C2AFF0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="0"/>
+    <m/>
+    <s v="Izquierda al Frente"/>
+    <s v="La izquierda al frente"/>
+    <m/>
+    <n v="28.68"/>
+    <n v="1"/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="0"/>
+    <m/>
+    <s v="Nuevo Espacio"/>
+    <s v="EDI"/>
+    <m/>
+    <n v="28.46"/>
+    <m/>
+    <s v="#FF934F"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="0"/>
+    <m/>
+    <s v="Proyecto Psico (K)"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="7.54"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="0"/>
+    <m/>
+    <s v="MST"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="3.52"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="0"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <m/>
+    <n v="1.1000000000000001"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="1"/>
+    <m/>
+    <s v="EDI"/>
+    <s v="EDI"/>
+    <m/>
+    <n v="31.65"/>
+    <n v="3"/>
+    <s v="#FF934F"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="1"/>
+    <m/>
+    <s v="El impulso"/>
+    <s v="El impulso"/>
+    <m/>
+    <n v="29.14"/>
+    <n v="1"/>
+    <s v="#C2AFF0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="1"/>
+    <m/>
+    <s v="La izquierda al frente"/>
+    <s v="La izquierda al frente"/>
+    <m/>
+    <n v="28.04"/>
+    <m/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="1"/>
+    <m/>
+    <s v="Proyecto Psico (K)"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="5.94"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="1"/>
+    <m/>
+    <s v="Inconciente Colectivo"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="2.2000000000000002"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="1"/>
+    <m/>
+    <s v="Psicólogos para el pueblo"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="1.95"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="1"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <m/>
+    <n v="1.08"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="2"/>
+    <m/>
+    <s v="EDI"/>
+    <s v="EDI"/>
+    <m/>
+    <n v="45.39"/>
+    <n v="3"/>
+    <s v="#FF934F"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="2"/>
+    <m/>
+    <s v="El impulso"/>
+    <s v="El impulso"/>
+    <m/>
+    <n v="33.47"/>
+    <n v="1"/>
+    <s v="#C2AFF0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="2"/>
+    <m/>
+    <s v="La izquierda al frente"/>
+    <s v="La izquierda al frente"/>
+    <m/>
+    <n v="13.66"/>
+    <m/>
+    <s v="#EF233C"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="2"/>
+    <m/>
+    <s v="La dignidad"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="4.3"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="2"/>
+    <m/>
+    <s v="Sur"/>
+    <s v="Otros"/>
+    <m/>
+    <n v="2.17"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="2"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <m/>
+    <n v="1.01"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="3"/>
+    <m/>
+    <s v="EDI"/>
+    <s v="EDI"/>
+    <n v="10191"/>
+    <n v="59.22"/>
+    <n v="3"/>
+    <s v="#FF934F"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="3"/>
+    <m/>
+    <s v="El impulso"/>
+    <s v="El impulso"/>
+    <n v="4128"/>
+    <n v="23.99"/>
+    <n v="1"/>
+    <s v="#C2AFF0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="3"/>
+    <m/>
+    <s v="EPA"/>
+    <s v="Otros"/>
+    <n v="1293"/>
+    <n v="7.51"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="3"/>
+    <m/>
+    <s v="Sur"/>
+    <s v="Otros"/>
+    <n v="1024"/>
+    <n v="5.95"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="3"/>
+    <n v="13"/>
+    <s v="Ya Basta"/>
+    <s v="Otros"/>
+    <n v="393"/>
+    <n v="2.2799999999999998"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="3"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <n v="179"/>
+    <n v="1.04"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="4"/>
+    <m/>
+    <s v="EDI"/>
+    <s v="EDI"/>
+    <n v="8538"/>
+    <n v="51.7"/>
+    <n v="3"/>
+    <s v="#FF934F"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="4"/>
+    <m/>
+    <s v="El impulso"/>
+    <s v="El impulso"/>
+    <n v="5227"/>
+    <n v="31.5"/>
+    <n v="1"/>
+    <s v="#C2AFF0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="4"/>
+    <m/>
+    <s v="EPA"/>
+    <s v="Otros"/>
+    <n v="1271"/>
+    <n v="7.7"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="4"/>
+    <m/>
+    <s v="Sur"/>
+    <s v="Otros"/>
+    <n v="863"/>
+    <n v="5.2"/>
+    <m/>
+    <s v="lightgray"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="4"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <s v="Blanco"/>
+    <n v="647"/>
+    <n v="3.9"/>
+    <m/>
+    <s v="white"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1D4731B6-B787-41F6-8BDC-E2369477EBB1}" name="TablaDinámica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1D4731B6-B787-41F6-8BDC-E2369477EBB1}" name="TablaDinámica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -7518,42 +9540,186 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D08F86AE-3022-4EF0-B5DE-49B17B9C9026}" name="TablaDinámica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:F19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{47E8EADC-48C6-4D88-986D-48BC4F60224F}" name="TablaDinámica1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A22:H38" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
       <items count="23">
-        <item x="5"/>
-        <item x="8"/>
+        <item x="0"/>
+        <item x="6"/>
         <item m="1" x="14"/>
         <item m="1" x="15"/>
         <item m="1" x="16"/>
         <item m="1" x="17"/>
         <item m="1" x="18"/>
         <item m="1" x="19"/>
-        <item x="0"/>
         <item x="9"/>
-        <item x="12"/>
+        <item x="10"/>
+        <item x="11"/>
         <item m="1" x="20"/>
         <item m="1" x="21"/>
         <item x="13"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
         <item x="7"/>
-        <item x="11"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="10"/>
-        <item x="1"/>
-        <item x="6"/>
+        <item x="8"/>
+        <item x="12"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
-      <items count="5">
+      <items count="7">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
         <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de %" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D08F86AE-3022-4EF0-B5DE-49B17B9C9026}" name="TablaDinámica2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:H19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="23">
+        <item x="0"/>
+        <item x="6"/>
+        <item m="1" x="14"/>
+        <item m="1" x="15"/>
+        <item m="1" x="16"/>
+        <item m="1" x="17"/>
+        <item m="1" x="18"/>
+        <item m="1" x="19"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item m="1" x="20"/>
+        <item m="1" x="21"/>
+        <item x="13"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7619,7 +9785,7 @@
   <colFields count="1">
     <field x="1"/>
   </colFields>
-  <colItems count="5">
+  <colItems count="7">
     <i>
       <x/>
     </i>
@@ -7631,6 +9797,12 @@
     </i>
     <i>
       <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -7851,8 +10023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24D8039-D0D6-4DE2-92CD-2A0539E40632}">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9049,10 +11221,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8AA8255-B77F-4768-954F-5979E6FDD585}">
-  <dimension ref="A3:F19"/>
+  <dimension ref="A3:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9069,7 +11241,7 @@
     <col min="11" max="11" width="19.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>197</v>
       </c>
@@ -9077,7 +11249,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
@@ -9093,230 +11265,686 @@
       <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4">
+        <v>2015</v>
+      </c>
+      <c r="G4">
+        <v>2017</v>
+      </c>
+      <c r="H4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="9">
         <v>2804</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="9">
         <v>2565</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="9">
         <v>2330</v>
       </c>
-      <c r="F5">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9">
         <v>7699</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="9">
         <v>18171</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="9">
         <v>22478</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="9">
         <v>21253</v>
       </c>
-      <c r="F6">
-        <v>61902</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9">
+        <v>20671</v>
+      </c>
+      <c r="G6" s="9">
+        <v>21152</v>
+      </c>
+      <c r="H6" s="9">
+        <v>103725</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="9">
         <v>8164</v>
       </c>
-      <c r="D7">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9">
         <v>7954</v>
       </c>
-      <c r="F7">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
         <v>16118</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="9">
         <v>38316</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="9">
         <v>46844</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="9">
         <v>46649</v>
       </c>
-      <c r="F8">
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
         <v>131809</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="9">
         <v>23066</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="9">
         <v>23437</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="9">
         <v>28380</v>
       </c>
-      <c r="F11">
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
         <v>74883</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="9">
         <v>26133</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="9">
         <v>23429</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="9">
         <v>22549</v>
       </c>
-      <c r="F12">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
         <v>72111</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="9">
         <v>5671</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="9">
         <v>6211</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="9">
         <v>7984</v>
       </c>
-      <c r="F13">
-        <v>19866</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="9"/>
+      <c r="F13" s="9">
+        <v>5557</v>
+      </c>
+      <c r="G13" s="9">
+        <v>5314</v>
+      </c>
+      <c r="H13" s="9">
+        <v>30737</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="9">
         <v>11600</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="9">
         <v>10587</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="9">
         <v>9293</v>
       </c>
-      <c r="F14">
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
         <v>31480</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="9">
         <v>3581</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="9">
         <v>3967</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="9">
         <v>4071</v>
       </c>
-      <c r="F15">
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
         <v>11619</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C16">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9">
         <v>5324</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="9">
         <v>4925</v>
       </c>
-      <c r="F16">
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9">
         <v>10249</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="9">
         <v>8578</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="9">
         <v>8723</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="9">
         <v>7636</v>
       </c>
-      <c r="F17">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9">
         <v>24937</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C18">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9">
         <v>17208</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="9">
         <v>16546</v>
       </c>
-      <c r="F18">
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9">
         <v>33754</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="9">
         <v>146084</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="9">
         <v>170773</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="9">
         <v>179570</v>
       </c>
-      <c r="F19">
-        <v>496427</v>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9">
+        <v>26228</v>
+      </c>
+      <c r="G19" s="9">
+        <v>26466</v>
+      </c>
+      <c r="H19" s="9">
+        <v>549121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>2019</v>
+      </c>
+      <c r="C23">
+        <v>2022</v>
+      </c>
+      <c r="D23">
+        <v>2024</v>
+      </c>
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23">
+        <v>2015</v>
+      </c>
+      <c r="G23">
+        <v>2017</v>
+      </c>
+      <c r="H23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="9">
+        <v>100</v>
+      </c>
+      <c r="C24" s="9">
+        <v>100</v>
+      </c>
+      <c r="D24" s="9">
+        <v>100</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9">
+        <v>100</v>
+      </c>
+      <c r="G24" s="9">
+        <v>100</v>
+      </c>
+      <c r="H24" s="9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="9">
+        <v>99.989999999999981</v>
+      </c>
+      <c r="C25" s="9">
+        <v>100</v>
+      </c>
+      <c r="D25" s="9">
+        <v>99.999999999999986</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9">
+        <v>101.76</v>
+      </c>
+      <c r="G25" s="9">
+        <v>99.929999999999993</v>
+      </c>
+      <c r="H25" s="9">
+        <v>501.67999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="9">
+        <v>100</v>
+      </c>
+      <c r="C26" s="9">
+        <v>99.90000000000002</v>
+      </c>
+      <c r="D26" s="9">
+        <v>99.999999999999986</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9">
+        <v>99.999999999999986</v>
+      </c>
+      <c r="G26" s="9">
+        <v>99.9</v>
+      </c>
+      <c r="H26" s="9">
+        <v>499.80000000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="9">
+        <v>100</v>
+      </c>
+      <c r="C27" s="9">
+        <v>100</v>
+      </c>
+      <c r="D27" s="9">
+        <v>99.22999999999999</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9">
+        <v>100</v>
+      </c>
+      <c r="G27" s="9">
+        <v>100</v>
+      </c>
+      <c r="H27" s="9">
+        <v>499.23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" s="9">
+        <v>100</v>
+      </c>
+      <c r="C28" s="9">
+        <v>100.00000000000001</v>
+      </c>
+      <c r="D28" s="9">
+        <v>100</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9">
+        <v>99.999999999999986</v>
+      </c>
+      <c r="G28" s="9">
+        <v>100</v>
+      </c>
+      <c r="H28" s="9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B30" s="9">
+        <v>100.01</v>
+      </c>
+      <c r="C30" s="9">
+        <v>99.99</v>
+      </c>
+      <c r="D30" s="9">
+        <v>99.999999999999986</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9">
+        <v>100</v>
+      </c>
+      <c r="G30" s="9">
+        <v>99.999999999999986</v>
+      </c>
+      <c r="H30" s="9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B31" s="9">
+        <v>100.00000000000001</v>
+      </c>
+      <c r="C31" s="9">
+        <v>100</v>
+      </c>
+      <c r="D31" s="9">
+        <v>100</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9">
+        <v>99.999999999999986</v>
+      </c>
+      <c r="G31" s="9">
+        <v>100</v>
+      </c>
+      <c r="H31" s="9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" s="9">
+        <v>100.00999999999999</v>
+      </c>
+      <c r="C32" s="9">
+        <v>100</v>
+      </c>
+      <c r="D32" s="9">
+        <v>100.00999999999999</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9">
+        <v>100.00000000000001</v>
+      </c>
+      <c r="G32" s="9">
+        <v>99.99</v>
+      </c>
+      <c r="H32" s="9">
+        <v>500.01</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B33" s="9">
+        <v>100</v>
+      </c>
+      <c r="C33" s="9">
+        <v>99.98</v>
+      </c>
+      <c r="D33" s="9">
+        <v>99.99</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9">
+        <v>100.00000000000003</v>
+      </c>
+      <c r="G33" s="9">
+        <v>99.999999999999986</v>
+      </c>
+      <c r="H33" s="9">
+        <v>499.97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B34" s="9">
+        <v>99.99</v>
+      </c>
+      <c r="C34" s="9">
+        <v>99.999999999999986</v>
+      </c>
+      <c r="D34" s="9">
+        <v>99.99</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9">
+        <v>100</v>
+      </c>
+      <c r="G34" s="9">
+        <v>100</v>
+      </c>
+      <c r="H34" s="9">
+        <v>499.97999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" s="9">
+        <v>98.54</v>
+      </c>
+      <c r="C35" s="9">
+        <v>99.28</v>
+      </c>
+      <c r="D35" s="9">
+        <v>99.95</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9">
+        <v>100</v>
+      </c>
+      <c r="G35" s="9">
+        <v>100.00000000000001</v>
+      </c>
+      <c r="H35" s="9">
+        <v>497.77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" s="9">
+        <v>100</v>
+      </c>
+      <c r="C36" s="9">
+        <v>100.00000000000001</v>
+      </c>
+      <c r="D36" s="9">
+        <v>99.990000000000009</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9">
+        <v>100.00000000000001</v>
+      </c>
+      <c r="G36" s="9">
+        <v>100</v>
+      </c>
+      <c r="H36" s="9">
+        <v>499.99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B37" s="9">
+        <v>100</v>
+      </c>
+      <c r="C37" s="9">
+        <v>99.990000000000009</v>
+      </c>
+      <c r="D37" s="9">
+        <v>100.00000000000001</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9">
+        <v>100</v>
+      </c>
+      <c r="G37" s="9">
+        <v>100</v>
+      </c>
+      <c r="H37" s="9">
+        <v>499.99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="9">
+        <v>1298.54</v>
+      </c>
+      <c r="C38" s="9">
+        <v>1299.1400000000001</v>
+      </c>
+      <c r="D38" s="9">
+        <v>1299.1600000000001</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9">
+        <v>1301.76</v>
+      </c>
+      <c r="G38" s="9">
+        <v>1299.8200000000002</v>
+      </c>
+      <c r="H38" s="9">
+        <v>6498.42</v>
       </c>
     </row>
   </sheetData>

--- a/uba_cd_estudiantes.xlsx
+++ b/uba_cd_estudiantes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\personal\sociologia\emergit\uba_electoral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEE0587-E3A5-4D41-9A07-49344760DC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF0ED1C-F06A-4A73-8174-963F2293E850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,8 +22,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
-    <pivotCache cacheId="9" r:id="rId5"/>
+    <pivotCache cacheId="10" r:id="rId4"/>
+    <pivotCache cacheId="11" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1067,12 +1067,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -9355,7 +9368,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1D4731B6-B787-41F6-8BDC-E2369477EBB1}" name="TablaDinámica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1D4731B6-B787-41F6-8BDC-E2369477EBB1}" name="TablaDinámica1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -9540,7 +9553,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{47E8EADC-48C6-4D88-986D-48BC4F60224F}" name="TablaDinámica1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{47E8EADC-48C6-4D88-986D-48BC4F60224F}" name="TablaDinámica1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A22:H38" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -9669,6 +9682,32 @@
   <dataFields count="1">
     <dataField name="Suma de %" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="2">
+    <format dxfId="3">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="13">
+            <x v="1"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="10"/>
+            <x v="13"/>
+            <x v="14"/>
+            <x v="15"/>
+            <x v="16"/>
+            <x v="17"/>
+            <x v="18"/>
+            <x v="19"/>
+            <x v="20"/>
+            <x v="21"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -9682,7 +9721,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D08F86AE-3022-4EF0-B5DE-49B17B9C9026}" name="TablaDinámica2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D08F86AE-3022-4EF0-B5DE-49B17B9C9026}" name="TablaDinámica2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:H19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -11224,7 +11263,7 @@
   <dimension ref="A3:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11279,19 +11318,16 @@
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5">
         <v>2804</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5">
         <v>2565</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5">
         <v>2330</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9">
+      <c r="H5">
         <v>7699</v>
       </c>
     </row>
@@ -11299,23 +11335,22 @@
       <c r="A6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6">
         <v>18171</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6">
         <v>22478</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6">
         <v>21253</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9">
+      <c r="F6">
         <v>20671</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6">
         <v>21152</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6">
         <v>103725</v>
       </c>
     </row>
@@ -11323,17 +11358,13 @@
       <c r="A7" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7">
         <v>8164</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9">
+      <c r="D7">
         <v>7954</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9">
+      <c r="H7">
         <v>16118</v>
       </c>
     </row>
@@ -11341,19 +11372,16 @@
       <c r="A8" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8">
         <v>38316</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8">
         <v>46844</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8">
         <v>46649</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9">
+      <c r="H8">
         <v>131809</v>
       </c>
     </row>
@@ -11361,43 +11389,26 @@
       <c r="A9" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11">
         <v>23066</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11">
         <v>23437</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11">
         <v>28380</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9">
+      <c r="H11">
         <v>74883</v>
       </c>
     </row>
@@ -11405,19 +11416,16 @@
       <c r="A12" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12">
         <v>26133</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12">
         <v>23429</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12">
         <v>22549</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9">
+      <c r="H12">
         <v>72111</v>
       </c>
     </row>
@@ -11425,23 +11433,22 @@
       <c r="A13" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13">
         <v>5671</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13">
         <v>6211</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13">
         <v>7984</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9">
+      <c r="F13">
         <v>5557</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13">
         <v>5314</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13">
         <v>30737</v>
       </c>
     </row>
@@ -11449,19 +11456,16 @@
       <c r="A14" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14">
         <v>11600</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14">
         <v>10587</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14">
         <v>9293</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9">
+      <c r="H14">
         <v>31480</v>
       </c>
     </row>
@@ -11469,19 +11473,16 @@
       <c r="A15" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15">
         <v>3581</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15">
         <v>3967</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15">
         <v>4071</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9">
+      <c r="H15">
         <v>11619</v>
       </c>
     </row>
@@ -11489,17 +11490,13 @@
       <c r="A16" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9">
+      <c r="C16">
         <v>5324</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16">
         <v>4925</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9">
+      <c r="H16">
         <v>10249</v>
       </c>
     </row>
@@ -11507,19 +11504,16 @@
       <c r="A17" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17">
         <v>8578</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17">
         <v>8723</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17">
         <v>7636</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9">
+      <c r="H17">
         <v>24937</v>
       </c>
     </row>
@@ -11527,17 +11521,13 @@
       <c r="A18" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9">
+      <c r="C18">
         <v>17208</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18">
         <v>16546</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9">
+      <c r="H18">
         <v>33754</v>
       </c>
     </row>
@@ -11545,23 +11535,22 @@
       <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19">
         <v>146084</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19">
         <v>170773</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19">
         <v>179570</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9">
+      <c r="F19">
         <v>26228</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19">
         <v>26466</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19">
         <v>549121</v>
       </c>
     </row>
@@ -11603,23 +11592,22 @@
       <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24">
         <v>100</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24">
         <v>100</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24">
         <v>100</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9">
+      <c r="F24">
         <v>100</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24">
         <v>100</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24">
         <v>500</v>
       </c>
     </row>

--- a/uba_cd_estudiantes.xlsx
+++ b/uba_cd_estudiantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\personal\sociologia\emergit\uba_electoral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF0ED1C-F06A-4A73-8174-963F2293E850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5A12B9-A80C-4820-9664-221662E84303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="colores" sheetId="3" r:id="rId1"/>
@@ -22,8 +22,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId4"/>
-    <pivotCache cacheId="11" r:id="rId5"/>
+    <pivotCache cacheId="12" r:id="rId4"/>
+    <pivotCache cacheId="13" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="313">
   <si>
     <t>Facultad</t>
   </si>
@@ -989,6 +989,18 @@
   </si>
   <si>
     <t>Suma de %</t>
+  </si>
+  <si>
+    <t>verde3</t>
+  </si>
+  <si>
+    <t>#4F855A</t>
+  </si>
+  <si>
+    <t>azul3</t>
+  </si>
+  <si>
+    <t>#4484B3</t>
   </si>
 </sst>
 </file>
@@ -1072,15 +1084,9 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -9368,7 +9374,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1D4731B6-B787-41F6-8BDC-E2369477EBB1}" name="TablaDinámica1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1D4731B6-B787-41F6-8BDC-E2369477EBB1}" name="TablaDinámica1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -9553,7 +9559,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{47E8EADC-48C6-4D88-986D-48BC4F60224F}" name="TablaDinámica1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{47E8EADC-48C6-4D88-986D-48BC4F60224F}" name="TablaDinámica1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A22:H38" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -9683,7 +9689,7 @@
     <dataField name="Suma de %" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="3">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="13">
@@ -9704,7 +9710,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="0">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -9721,7 +9727,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D08F86AE-3022-4EF0-B5DE-49B17B9C9026}" name="TablaDinámica2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D08F86AE-3022-4EF0-B5DE-49B17B9C9026}" name="TablaDinámica2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:H19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -10062,8 +10068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24D8039-D0D6-4DE2-92CD-2A0539E40632}">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10400,6 +10406,12 @@
         <f t="shared" si="1"/>
         <v>lightgray</v>
       </c>
+      <c r="J19" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D20" s="3" t="s">
@@ -10412,6 +10424,12 @@
         <f t="shared" si="1"/>
         <v>#EF233C</v>
       </c>
+      <c r="J20" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="21" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D21" s="3" t="s">
@@ -11186,11 +11204,11 @@
         <v>307</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>36</v>
+        <v>309</v>
       </c>
       <c r="F85" t="str">
         <f t="shared" si="2"/>
-        <v>#B2DDF7</v>
+        <v>#4F855A</v>
       </c>
     </row>
     <row r="86" spans="4:6" x14ac:dyDescent="0.25">
@@ -11262,8 +11280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8AA8255-B77F-4768-954F-5979E6FDD585}">
   <dimension ref="A3:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11947,8 +11965,8 @@
   </sheetPr>
   <dimension ref="A1:K429"/>
   <sheetViews>
-    <sheetView topLeftCell="A316" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D319" sqref="D319"/>
+    <sheetView tabSelected="1" topLeftCell="A261" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D273" sqref="D273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19617,7 +19635,7 @@
       </c>
       <c r="I273" t="str">
         <f>IFERROR(VLOOKUP(E273,colores!$D:$F,3,FALSE),"black")</f>
-        <v>#B2DDF7</v>
+        <v>#4F855A</v>
       </c>
       <c r="J273">
         <v>0</v>

--- a/uba_cd_estudiantes.xlsx
+++ b/uba_cd_estudiantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\personal\sociologia\emergit\uba_electoral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5A12B9-A80C-4820-9664-221662E84303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C16722-E5C7-4B83-8194-8F5106219D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="colores" sheetId="3" r:id="rId1"/>
@@ -22,8 +22,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId4"/>
-    <pivotCache cacheId="13" r:id="rId5"/>
+    <pivotCache cacheId="14" r:id="rId4"/>
+    <pivotCache cacheId="15" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -9374,7 +9374,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1D4731B6-B787-41F6-8BDC-E2369477EBB1}" name="TablaDinámica1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1D4731B6-B787-41F6-8BDC-E2369477EBB1}" name="TablaDinámica1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -9559,7 +9559,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{47E8EADC-48C6-4D88-986D-48BC4F60224F}" name="TablaDinámica1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{47E8EADC-48C6-4D88-986D-48BC4F60224F}" name="TablaDinámica1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A22:H38" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -9727,7 +9727,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D08F86AE-3022-4EF0-B5DE-49B17B9C9026}" name="TablaDinámica2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D08F86AE-3022-4EF0-B5DE-49B17B9C9026}" name="TablaDinámica2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:H19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -10068,8 +10068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24D8039-D0D6-4DE2-92CD-2A0539E40632}">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10664,11 +10664,11 @@
         <v>212</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>36</v>
+        <v>309</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="1"/>
-        <v>#B2DDF7</v>
+        <v>#4F855A</v>
       </c>
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.25">
@@ -11204,11 +11204,11 @@
         <v>307</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>309</v>
+        <v>36</v>
       </c>
       <c r="F85" t="str">
         <f t="shared" si="2"/>
-        <v>#4F855A</v>
+        <v>#B2DDF7</v>
       </c>
     </row>
     <row r="86" spans="4:6" x14ac:dyDescent="0.25">
@@ -11965,8 +11965,8 @@
   </sheetPr>
   <dimension ref="A1:K429"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D273" sqref="D273"/>
+    <sheetView topLeftCell="A261" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F273" sqref="F273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19635,7 +19635,7 @@
       </c>
       <c r="I273" t="str">
         <f>IFERROR(VLOOKUP(E273,colores!$D:$F,3,FALSE),"black")</f>
-        <v>#4F855A</v>
+        <v>#B2DDF7</v>
       </c>
       <c r="J273">
         <v>0</v>
@@ -20466,7 +20466,7 @@
       </c>
       <c r="I304" t="str">
         <f>IFERROR(VLOOKUP(E304,colores!$D:$F,3,FALSE),"black")</f>
-        <v>#B2DDF7</v>
+        <v>#4F855A</v>
       </c>
       <c r="J304">
         <v>0</v>

--- a/uba_cd_estudiantes.xlsx
+++ b/uba_cd_estudiantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\personal\sociologia\emergit\uba_electoral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C16722-E5C7-4B83-8194-8F5106219D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C97F88-E38D-4832-B223-0CDA3DEE0DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="colores" sheetId="3" r:id="rId1"/>
@@ -22,8 +22,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId4"/>
-    <pivotCache cacheId="15" r:id="rId5"/>
+    <pivotCache cacheId="16" r:id="rId4"/>
+    <pivotCache cacheId="17" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -9374,7 +9374,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1D4731B6-B787-41F6-8BDC-E2369477EBB1}" name="TablaDinámica1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1D4731B6-B787-41F6-8BDC-E2369477EBB1}" name="TablaDinámica1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -9559,7 +9559,149 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{47E8EADC-48C6-4D88-986D-48BC4F60224F}" name="TablaDinámica1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D08F86AE-3022-4EF0-B5DE-49B17B9C9026}" name="TablaDinámica2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:H19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="23">
+        <item x="0"/>
+        <item x="6"/>
+        <item m="1" x="14"/>
+        <item m="1" x="15"/>
+        <item m="1" x="16"/>
+        <item m="1" x="17"/>
+        <item m="1" x="18"/>
+        <item m="1" x="19"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item m="1" x="20"/>
+        <item m="1" x="21"/>
+        <item x="13"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de Votos" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{47E8EADC-48C6-4D88-986D-48BC4F60224F}" name="TablaDinámica1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A22:H38" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -9714,148 +9856,6 @@
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D08F86AE-3022-4EF0-B5DE-49B17B9C9026}" name="TablaDinámica2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:H19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="23">
-        <item x="0"/>
-        <item x="6"/>
-        <item m="1" x="14"/>
-        <item m="1" x="15"/>
-        <item m="1" x="16"/>
-        <item m="1" x="17"/>
-        <item m="1" x="18"/>
-        <item m="1" x="19"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item m="1" x="20"/>
-        <item m="1" x="21"/>
-        <item x="13"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="12"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="7">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="15">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Suma de Votos" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -10068,7 +10068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24D8039-D0D6-4DE2-92CD-2A0539E40632}">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+    <sheetView topLeftCell="A62" workbookViewId="0">
       <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
@@ -11965,8 +11965,8 @@
   </sheetPr>
   <dimension ref="A1:K429"/>
   <sheetViews>
-    <sheetView topLeftCell="A261" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F273" sqref="F273"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
